--- a/众臣装修价目表.xlsx
+++ b/众臣装修价目表.xlsx
@@ -14,161 +14,161 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">众臣原件!$A$2:$L$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">众臣原件!$A$2:$L$84</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="258">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>综合单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客厅/餐厅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施工工艺及材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工艺造型天花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天花石膏角线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代铺墙面砖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>装饰鞋柜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代铺地砖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天花、墙身扇灰油ICI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>厨房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铝扣板天花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铝合金窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>厨房大理石橱柜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>厨房吊柜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代铺仿古砖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代铺防滑砖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>防水处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共卫生间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沉箱底、侧防水砂浆批去坡度，再油防水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沉箱架空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洁具安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>休闲房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -185,279 +185,279 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代铺地脚线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>书房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>儿童房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>七</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长辈房、卫生间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代铺窗台石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长辈房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卫生间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主人房、卫生间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主人房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>景观阳台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水电安装、综合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水电安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配电箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弱电箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空调专线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>灯位（大灯2位，暗藏光3支1位，双联2位）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>插座制位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电视/电话/电脑布线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>批、凿线槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给水安装（冷）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给水安装（热）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排水管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排污管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>综合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>砌墙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拆墙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拆原有外墙砖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拆原有窗台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拆除大门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修补拆墙墙体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>封落水管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瓷砖胶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>室内门坎石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大门门坎石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地面、墙面保护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全屋木制品油漆处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全部清洁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合计：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总金额合计：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管理费（合计8%）：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运输费、搬运费（合计4%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9.5折</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.6铝扣板天花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.2厚铝合金窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>具体造型及用材详见立面图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工、铺料、国标325水泥（不含仿古砖）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8厘硅钙板，轻钢龙骨天花吊架、自攻螺丝固定，9MM夹板处理，刷ICI漆另算。按展开面积计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10分石膏角线（穗华牌石膏角线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工、铺料、国标325水泥（不含墙面砖）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工、铺料、国标325水泥（不含防滑砖）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工、铺料、国标325水泥（不含地脚线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>环保双飞粉，环氧树脂补缝，108环保胶水，刮三道，打磨二次，刷两底两面ICI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -484,155 +484,155 @@
       </rPr>
       <t>,水泥沙超过120MM-150MM增加40元/M2。</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工、铺料、国标325水泥（不含地砖）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工、铺料、国标325水泥（不含窗台石）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>德高牌防水涂料，油2次，工程量按现场实际施工数量计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国标32.5R水泥、沙、人工，德高牌防水涂料，工程量按现场实际施工数量计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国标32.5R水泥、河沙、石仔倒制预制件板，轻质砖，人工，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工及辅料（含蹲厕、坐厕、水箱，卫浴五金安装）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用砖砌平，水泥沙批荡（厕所三条并排的按两</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>德高牌瓷砖胶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑金沙大理石，人工，辅料，国标325水泥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>印度红大理石，人工，辅料，国标325水泥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面铺纤维板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长颈鹿牌木器油漆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按套内面积计算（不含地面打蜡）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国标32.5R水泥，沙，人工。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空调插及其它专用布线用4平方广东电缆厂电线，线在中途不能有接头。线路暗管铺设、套PVC管，过梁过柱用黄腊管（按业主现场定位为准）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>含电视、电话、电脑插座（俊朗牌），线路暗管铺设、套PVC管，过梁过柱用黄腊管，线在中途不能有接头。（按实际数量计算）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6分保利管道PPR冷水管、全套联塑配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4分保利管道热水管、全套联塑配件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>轻质砖，国标325水泥沙人工（双面批荡），墙厚12分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工（含清运）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工（含清运）水泥沙批荡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联塑PVC排水管及其配件40MM-75MM，专用PVC胶水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联塑PVC排水管及其配件110MM-160MM，专用PVC胶水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>线路暗管铺设、套PVC管，过梁过柱用黄腊管，线在中途不能有接头，广东电缆厂电线，俊朗牌插座，开关及灯线用1.5平方，插座用2.5平方。（按业主现场定位为准）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>八到十二位以内配电箱（俊朗牌），增大另计，防锈底盒，空气开光，漏电开关为俊朗牌。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>俊朗牌多功能弱电箱，内含电话电视分线器。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入口鞋柜1.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电视背景墙斜贴砖（澳洲德高）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>材料说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施工工艺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18厘生态板博士E1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管理费（合计5%）：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运输费、搬运费（合计5%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平面天花造型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地面铺抛光砖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贴地脚线（抛光砖）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贴波导线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -649,247 +649,247 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、硅酸钙板为仝福牌（100%无石棉）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、18厘生态板做框架，背板用9厘夹板，柜身固定墙体，收边紧密。2、柜门18厘生态板压制，防变形处理，广州一江牌白乳胶，不锈钢钉。如做百叶门另加100/扇。                                                                     3、此价格不含门锁、拉手。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、大面积用轻钢龙骨，安装吊平，造型处用木龙骨，硅酸钙板封面，防锈螺母固定造型处为9mm夹板造型。                                                 2、不含批灰、乳胶漆。                                                                           3、工程量按平面投影及跌线展开面积计算。                                          4、回光灯槽按米算，120元/m，特殊工艺另算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、按要求留缝，垂直、面平、无空鼓。                                                 2、若厚度超过5公分以上按地面找平补差价。                                       3、地砖超过800*800人工增加7元/平方，如改贴条砖或斜铺人工另加20元/平方。不含踢脚线安装。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、按要求留缝，垂直、面平、无空鼓。                                                 2、对面墙进行清理洗刷干净，水平定位，高档专用瓷砖胶，瓷砖业主自购。                                                                                                        3、要求粘贴牢固，垂直，平整，表面干净，阳角处45度磨边碰口。          4、若增加不锈钢或金属收边条另加材料人工15元/m，若改用挂铜线工艺另加40元/方。                                                                                   5、计算方法：门口如门套双包边面积减一半，如是单包边不减门洞。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、海螺国标32.5R水泥、沙（宽不大于150mm）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抛光砖业主自购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>波导线业主自购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洗手盘安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坐厕安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地面防滑砖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墙面贴砖（澳洲德高）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铝扣天花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主卧卫生间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>软管、阀门、洁具业主自购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、定线制作安装：打水平线，挂线，膨胀螺丝固定拉杆吊件。           2、使用U型轻钢龙骨，吊铁安装，板条边框加固及灯位加固。            3、800*800主型铝扣板，铝条收边。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、美佰嘉牌镜面系列，厚度0.7mm。                      2、若改用滚图浮雕系列另加40元/方。                3、若加厚龙骨加10元/方。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、海螺国标325#水泥。                          2、抛光砖业主自购。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、瓷砖业主自购。                                   2、澳洲德高瓷砖胶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、澳洲德高专用防水涂料。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、整墙防水涂料涂刷2遍。                                                                     2、做24小时蓄水试验（甲方验收）。                                                    3、不包含原地面装饰层拆除。                                                                4.按实际涂刷面积计算工程量。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蹲厕安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客房卫生间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所有阳台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>七</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其它</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墙面、天花扇灰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墙面、天花扫乳胶漆（立邦升级）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石膏线修补</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墙面修补</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、双飞粉。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、基层修理，补休墙面，双飞粉，遮盖不扫漆部分（如家具门套等饰面）磨砂，批直到墙面平直角，阴阳角位平直，达到平直度，包工料  2、铲除原白灰墙面另收18元/平方。若原墙有大面积裂口需用良布粘贴另收8元/平方人工及辅料。                                                                    3、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、防渗色，防裂处理，每扫一遍需砂纸打磨一次才扫下次，漆面达到平滑，角直，无脱粉现象，无明显扫纹，无色差，包工料。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、立邦升级。                                           2、超过两种颜色每增加一种整体面积增加3元/平方。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石膏线接缝修补打磨及刷漆。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原墙有破损处修平，阴阳角修平，拆旧部分补烂。门洞修补。如需倒梁另计。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、海螺国标325#水泥。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地面铺抛光砖主卧客卧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贴门槛石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>门槛石业主自购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>门槛石业主自购（超过1米按两条算）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大理石业主自购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铺飘窗大理石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卫生间沉箱处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地面浇平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地面保护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打墙20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打踢脚线槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打入户花园瓷片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打飘窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墙面批荡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8公分石膏线装饰收边</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全居室修补线槽批荡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>门洞修补</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包水管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -920,191 +920,211 @@
   </si>
   <si>
     <t>条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>先用水泥和沙放斜坡做二次排水，试水，再用沙砖做框架，倒钢筋水泥板平铺，水泥找平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、325#水泥，砂浆达到水平，厚度不超过3公分，超过按地面找平补差价，不含打地面层。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、海螺国标325#水泥。                          2、木地板业主自购。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、珍珠棉或标准纤维板铺垫。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、含购袋、装袋、人工。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、指非承重墙隔墙，且墙体为砖结构。                                                      2、须经物业同意，客户办理相关手续后施工。                                           3、建筑垃圾清理费另计。                                                                       4、工程量按墙面立面面积计算。                                                             5、墙后&lt;120mm、180墙体按1.5倍计算，240墙体按2倍计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、凿墙身原水泥沙批荡200mm高，贴完地脚线后修补。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、工程量按墙面立面面积计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、32.5R水泥、沙，人工。2、面层装饰另计，弧形墙另加25元/平方，超过120mm厚墙按双面计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、海螺国标32.5R水泥。                         2、轻质砖。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、325#水泥，沙，人工，水泥砂浆批荡。                                            2、单面墙批荡。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>定做石膏线8公分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、海螺国标32.5R水泥。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、按单条计算，轻质砖，国标325水泥，沙，人工，不含阳台，不含面层装饰。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装配电箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装弱电箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工安装费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移配电箱10平方主线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、线管PVC套管10平方电线，过梁用黄腊管，电线在中途不能有接头，全部施工按国家标准施工。包工料。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、电线10平方。                                      2、PVC线管为联塑牌线管，一般为4平方/6平方。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开关插座及灯位布线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空调布线（含厨房专线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电视/电话/电脑/音响布线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>灯具安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全屋灯具安装（不包含水晶灯组装）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全屋灯具安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PVC管或黄腊管套现，中途不能有接头。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>给水安装（保利抗菌管）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排水安装（D&lt;=110）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排水安装（D&lt;=75）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排水安装（D&lt;=50）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墙面开电线槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墙面开水管槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五金件安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全屋保洁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包括厨房及卫生间的五金件安装，限一厨一卫，每增加一厨或一卫，增加100元。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人工，生料带等辅材，毛巾架，书龙头，业主自购。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、保利抗菌管PPR管、弯头、直通。      2、原水管基础处改位。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>休闲房铝合金窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、定位、凿坑暗藏水管，安装管件，试压（甲方现场检验）封管。冷、热水管为PPR管；水管配件为PPR配件，排水管为联塑牌。               2、包工料（不含水龙头阀闸）                                                                3、封闭给水排水系统时必须通知甲方到场。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、线管PVC套管2.5平方电线（控制线为1.5平方电线），电线在中途不能有接头，全部施工按国家标准施工。                                                2、含电线、PVC管、电胶布。                                                                     3、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、PVC管或黄腊管套现，中途不能有接头。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、电线2.5平方广东电缆牌电线（联塑多芯线）。                                                    2、PVC线管为联塑牌线管，一般为4平方/6平方。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、电线4平方广东电缆牌电线（联塑多芯线）。                                                        2、PVC线管为联塑牌线管，一般为4平方/6平方。                                                           3、</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专线6平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、电线6平方。                                      2、PVC线管为联塑牌线管，一般为4平方/6平方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、线管PVC套管6平方电线，过梁用黄腊管，电线在中途不能有接头，全部施工按国家标准施工。包工料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阀门8个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1114,15 +1134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,65 +1300,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1358,128 +1376,131 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1775,11 +1796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1792,48 +1813,48 @@
     <col min="8" max="8" width="9.625" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="6" customWidth="1"/>
-    <col min="11" max="11" width="58.75" style="52" customWidth="1"/>
+    <col min="11" max="11" width="58.75" style="44" customWidth="1"/>
     <col min="12" max="12" width="35" style="30" customWidth="1"/>
     <col min="13" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="59" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
@@ -1852,8 +1873,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -1862,16 +1883,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="38">
@@ -1880,8 +1901,8 @@
       <c r="B4" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="38">
-        <v>3</v>
+      <c r="C4" s="28">
+        <v>0</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>37</v>
@@ -1890,23 +1911,23 @@
         <v>500</v>
       </c>
       <c r="F4" s="38">
-        <f>C4*E4</f>
-        <v>1500</v>
+        <f t="shared" ref="F4:F10" si="0">C4*E4</f>
+        <v>0</v>
       </c>
       <c r="G4" s="38">
         <v>250</v>
       </c>
       <c r="H4" s="38">
-        <f>C4*G4</f>
+        <f t="shared" ref="H4:H10" si="1">C4*G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I10" si="2">E4+G4</f>
         <v>750</v>
       </c>
-      <c r="I4" s="4">
-        <f>E4+G4</f>
-        <v>750</v>
-      </c>
       <c r="J4" s="6">
-        <f>C4*I4</f>
-        <v>2250</v>
+        <f t="shared" ref="J4:J10" si="3">C4*I4</f>
+        <v>0</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>146</v>
@@ -1922,8 +1943,8 @@
       <c r="B5" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="38">
-        <v>9</v>
+      <c r="C5" s="28">
+        <v>0</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>37</v>
@@ -1932,23 +1953,23 @@
         <v>55</v>
       </c>
       <c r="F5" s="38">
-        <f>C5*E5</f>
-        <v>495</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" s="38">
         <v>75</v>
       </c>
       <c r="H5" s="38">
-        <f>C5*G5</f>
-        <v>675</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f>E5+G5</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="J5" s="6">
-        <f>C5*I5</f>
-        <v>1170</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="82.5">
@@ -1968,25 +1989,25 @@
         <v>90</v>
       </c>
       <c r="F6" s="38">
-        <f>C6*E6</f>
+        <f t="shared" si="0"/>
         <v>1170</v>
       </c>
       <c r="G6" s="38">
         <v>70</v>
       </c>
       <c r="H6" s="38">
-        <f>C6*G6</f>
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
       <c r="I6" s="4">
-        <f>E6+G6</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="J6" s="6">
-        <f>C6*I6</f>
+        <f t="shared" si="3"/>
         <v>2080</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="44" t="s">
         <v>147</v>
       </c>
       <c r="L6" s="30" t="s">
@@ -2010,25 +2031,25 @@
         <v>10</v>
       </c>
       <c r="F7" s="38">
-        <f>C7*E7</f>
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
       <c r="G7" s="38">
         <v>35</v>
       </c>
       <c r="H7" s="38">
-        <f>C7*G7</f>
+        <f t="shared" si="1"/>
         <v>1498</v>
       </c>
       <c r="I7" s="4">
-        <f>E7+G7</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="J7" s="6">
-        <f>C7*I7</f>
+        <f t="shared" si="3"/>
         <v>1925.9999999999998</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="44" t="s">
         <v>148</v>
       </c>
       <c r="L7" s="30" t="s">
@@ -2042,8 +2063,8 @@
       <c r="B8" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="38">
-        <v>80</v>
+      <c r="C8" s="28">
+        <v>89</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>37</v>
@@ -2052,25 +2073,25 @@
         <v>55</v>
       </c>
       <c r="F8" s="38">
-        <f>C8*E8</f>
-        <v>4400</v>
+        <f t="shared" si="0"/>
+        <v>4895</v>
       </c>
       <c r="G8" s="38">
         <v>55</v>
       </c>
       <c r="H8" s="38">
-        <f>C8*G8</f>
-        <v>4400</v>
+        <f t="shared" si="1"/>
+        <v>4895</v>
       </c>
       <c r="I8" s="4">
-        <f>E8+G8</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="J8" s="6">
-        <f>C8*I8</f>
-        <v>8800</v>
-      </c>
-      <c r="K8" s="52" t="s">
+        <f t="shared" si="3"/>
+        <v>9790</v>
+      </c>
+      <c r="K8" s="44" t="s">
         <v>149</v>
       </c>
       <c r="L8" s="30" t="s">
@@ -2094,25 +2115,25 @@
         <v>15</v>
       </c>
       <c r="F9" s="38">
-        <f>C9*E9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="38">
         <v>0</v>
       </c>
       <c r="H9" s="38">
-        <f>C9*G9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <f>E9+G9</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J9" s="6">
-        <f>C9*I9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="44" t="s">
         <v>150</v>
       </c>
       <c r="L9" s="30" t="s">
@@ -2136,25 +2157,25 @@
         <v>18</v>
       </c>
       <c r="F10" s="15">
-        <f>C10*E10</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="G10" s="15">
         <v>30</v>
       </c>
       <c r="H10" s="15">
-        <f>C10*G10</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="I10" s="16">
-        <f>E10+G10</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="J10" s="17">
-        <f>C10*I10</f>
+        <f t="shared" si="3"/>
         <v>768</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="45" t="s">
         <v>150</v>
       </c>
       <c r="L10" s="31" t="s">
@@ -2192,18 +2213,18 @@
         <v>80</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12" si="0">C12*G12</f>
+        <f t="shared" ref="H12" si="4">C12*G12</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:I13" si="1">E12+G12</f>
+        <f t="shared" ref="I12:I13" si="5">E12+G12</f>
         <v>100</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" ref="J12:J13" si="2">C12*I12</f>
+        <f t="shared" ref="J12:J13" si="6">C12*I12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="46" t="s">
         <v>161</v>
       </c>
       <c r="L12" s="33"/>
@@ -2234,14 +2255,14 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="46" t="s">
         <v>161</v>
       </c>
       <c r="L13" s="33"/>
@@ -2281,7 +2302,7 @@
         <f>C14*I14</f>
         <v>203.39999999999998</v>
       </c>
-      <c r="K14" s="52" t="s">
+      <c r="K14" s="44" t="s">
         <v>148</v>
       </c>
       <c r="L14" s="30" t="s">
@@ -2316,14 +2337,14 @@
         <v>1155</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" ref="I15:I17" si="3">E15+G15</f>
+        <f t="shared" ref="I15:I17" si="7">E15+G15</f>
         <v>110</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" ref="J15:J17" si="4">C15*I15</f>
+        <f t="shared" ref="J15:J17" si="8">C15*I15</f>
         <v>2310</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="44" t="s">
         <v>149</v>
       </c>
       <c r="L15" s="30" t="s">
@@ -2347,25 +2368,25 @@
         <v>100</v>
       </c>
       <c r="F16" s="38">
-        <f t="shared" ref="F16" si="5">C16*E16</f>
+        <f t="shared" ref="F16" si="9">C16*E16</f>
         <v>451.99999999999994</v>
       </c>
       <c r="G16" s="38">
         <v>80</v>
       </c>
       <c r="H16" s="38">
-        <f t="shared" ref="H16" si="6">C16*G16</f>
+        <f t="shared" ref="H16" si="10">C16*G16</f>
         <v>361.59999999999997</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>813.59999999999991</v>
       </c>
-      <c r="K16" s="52" t="s">
+      <c r="K16" s="44" t="s">
         <v>162</v>
       </c>
       <c r="L16" s="30" t="s">
@@ -2400,14 +2421,14 @@
         <v>375</v>
       </c>
       <c r="I17" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="J17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1375</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="45" t="s">
         <v>167</v>
       </c>
       <c r="L17" s="31" t="s">
@@ -2445,18 +2466,18 @@
         <v>80</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" ref="H19" si="7">C19*G19</f>
+        <f t="shared" ref="H19" si="11">C19*G19</f>
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" ref="I19:I20" si="8">E19+G19</f>
+        <f t="shared" ref="I19:I20" si="12">E19+G19</f>
         <v>100</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" ref="J19:J20" si="9">C19*I19</f>
+        <f t="shared" ref="J19:J20" si="13">C19*I19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="46" t="s">
         <v>161</v>
       </c>
       <c r="L19" s="33"/>
@@ -2489,14 +2510,14 @@
         <v>100</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>135</v>
       </c>
-      <c r="K20" s="54" t="s">
+      <c r="K20" s="46" t="s">
         <v>161</v>
       </c>
       <c r="L20" s="33"/>
@@ -2536,7 +2557,7 @@
         <f>C21*I21</f>
         <v>247.5</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="44" t="s">
         <v>148</v>
       </c>
       <c r="L21" s="30" t="s">
@@ -2571,14 +2592,14 @@
         <v>1320</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" ref="I22:I24" si="10">E22+G22</f>
+        <f t="shared" ref="I22:I24" si="14">E22+G22</f>
         <v>110</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" ref="J22:J24" si="11">C22*I22</f>
+        <f t="shared" ref="J22:J24" si="15">C22*I22</f>
         <v>2640</v>
       </c>
-      <c r="K22" s="52" t="s">
+      <c r="K22" s="44" t="s">
         <v>149</v>
       </c>
       <c r="L22" s="30" t="s">
@@ -2602,25 +2623,25 @@
         <v>100</v>
       </c>
       <c r="F23" s="38">
-        <f t="shared" ref="F23:F24" si="12">C23*E23</f>
+        <f t="shared" ref="F23" si="16">C23*E23</f>
         <v>550</v>
       </c>
       <c r="G23" s="38">
         <v>80</v>
       </c>
       <c r="H23" s="38">
-        <f t="shared" ref="H23:H24" si="13">C23*G23</f>
+        <f t="shared" ref="H23" si="17">C23*G23</f>
         <v>440</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>990</v>
       </c>
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="44" t="s">
         <v>162</v>
       </c>
       <c r="L23" s="30" t="s">
@@ -2655,14 +2676,14 @@
         <v>450</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>55</v>
       </c>
       <c r="J24" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1650</v>
       </c>
-      <c r="K24" s="53" t="s">
+      <c r="K24" s="45" t="s">
         <v>167</v>
       </c>
       <c r="L24" s="31" t="s">
@@ -2700,18 +2721,18 @@
         <v>80</v>
       </c>
       <c r="H26" s="38">
-        <f t="shared" ref="H26" si="14">C26*G26</f>
+        <f t="shared" ref="H26" si="18">C26*G26</f>
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" ref="I26:I27" si="15">E26+G26</f>
+        <f t="shared" ref="I26:I27" si="19">E26+G26</f>
         <v>100</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" ref="J26:J27" si="16">C26*I26</f>
+        <f t="shared" ref="J26:J27" si="20">C26*I26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="54" t="s">
+      <c r="K26" s="46" t="s">
         <v>161</v>
       </c>
       <c r="L26" s="33"/>
@@ -2742,14 +2763,14 @@
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>135</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K27" s="54" t="s">
+      <c r="K27" s="46" t="s">
         <v>161</v>
       </c>
       <c r="L27" s="33"/>
@@ -2789,7 +2810,7 @@
         <f>C28*I28</f>
         <v>218.70000000000002</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="44" t="s">
         <v>148</v>
       </c>
       <c r="L28" s="30" t="s">
@@ -2824,14 +2845,14 @@
         <v>1210</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" ref="I29:I31" si="17">E29+G29</f>
+        <f t="shared" ref="I29:I31" si="21">E29+G29</f>
         <v>110</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" ref="J29:J31" si="18">C29*I29</f>
+        <f t="shared" ref="J29:J31" si="22">C29*I29</f>
         <v>2420</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="44" t="s">
         <v>149</v>
       </c>
       <c r="L29" s="30" t="s">
@@ -2855,25 +2876,25 @@
         <v>100</v>
       </c>
       <c r="F30" s="38">
-        <f t="shared" ref="F30:F31" si="19">C30*E30</f>
+        <f t="shared" ref="F30" si="23">C30*E30</f>
         <v>486.00000000000006</v>
       </c>
       <c r="G30" s="38">
         <v>80</v>
       </c>
       <c r="H30" s="38">
-        <f t="shared" ref="H30:H31" si="20">C30*G30</f>
+        <f t="shared" ref="H30" si="24">C30*G30</f>
         <v>388.8</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>180</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>874.80000000000007</v>
       </c>
-      <c r="K30" s="52" t="s">
+      <c r="K30" s="44" t="s">
         <v>162</v>
       </c>
       <c r="L30" s="30" t="s">
@@ -2908,14 +2929,14 @@
         <v>405</v>
       </c>
       <c r="I31" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>55</v>
       </c>
       <c r="J31" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1485</v>
       </c>
-      <c r="K31" s="53" t="s">
+      <c r="K31" s="45" t="s">
         <v>167</v>
       </c>
       <c r="L31" s="31" t="s">
@@ -2965,7 +2986,7 @@
         <f>C33*I33</f>
         <v>315</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="44" t="s">
         <v>148</v>
       </c>
       <c r="L33" s="30" t="s">
@@ -3000,14 +3021,14 @@
         <v>1265</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34:I36" si="21">E34+G34</f>
+        <f t="shared" ref="I34:I36" si="25">E34+G34</f>
         <v>110</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" ref="J34:J36" si="22">C34*I34</f>
+        <f t="shared" ref="J34:J36" si="26">C34*I34</f>
         <v>2530</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="44" t="s">
         <v>149</v>
       </c>
       <c r="L34" s="30" t="s">
@@ -3031,25 +3052,25 @@
         <v>100</v>
       </c>
       <c r="F35" s="38">
-        <f t="shared" ref="F35:F36" si="23">C35*E35</f>
+        <f t="shared" ref="F35" si="27">C35*E35</f>
         <v>700</v>
       </c>
       <c r="G35" s="38">
         <v>80</v>
       </c>
       <c r="H35" s="38">
-        <f t="shared" ref="H35:H36" si="24">C35*G35</f>
+        <f t="shared" ref="H35" si="28">C35*G35</f>
         <v>560</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>180</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1260</v>
       </c>
-      <c r="K35" s="52" t="s">
+      <c r="K35" s="44" t="s">
         <v>162</v>
       </c>
       <c r="L35" s="30" t="s">
@@ -3084,14 +3105,14 @@
         <v>450</v>
       </c>
       <c r="I36" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>55</v>
       </c>
       <c r="J36" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1650</v>
       </c>
-      <c r="K36" s="53" t="s">
+      <c r="K36" s="45" t="s">
         <v>167</v>
       </c>
       <c r="L36" s="31" t="s">
@@ -3141,7 +3162,7 @@
         <f>C38*I38</f>
         <v>270</v>
       </c>
-      <c r="K38" s="52" t="s">
+      <c r="K38" s="44" t="s">
         <v>148</v>
       </c>
       <c r="L38" s="30" t="s">
@@ -3176,14 +3197,14 @@
         <v>90</v>
       </c>
       <c r="I39" s="16">
-        <f t="shared" ref="I39" si="25">E39+G39</f>
+        <f t="shared" ref="I39" si="29">E39+G39</f>
         <v>55</v>
       </c>
       <c r="J39" s="17">
-        <f t="shared" ref="J39" si="26">C39*I39</f>
+        <f t="shared" ref="J39" si="30">C39*I39</f>
         <v>330</v>
       </c>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="45" t="s">
         <v>167</v>
       </c>
       <c r="L39" s="31" t="s">
@@ -3215,25 +3236,25 @@
         <v>7</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" ref="F41:F45" si="27">C41*E41</f>
+        <f t="shared" ref="F41:F45" si="31">C41*E41</f>
         <v>1750</v>
       </c>
       <c r="G41" s="38">
         <v>19</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" ref="H41" si="28">C41*G41</f>
+        <f t="shared" ref="H41" si="32">C41*G41</f>
         <v>4750</v>
       </c>
       <c r="I41" s="37">
-        <f t="shared" ref="I41" si="29">E41+G41</f>
+        <f t="shared" ref="I41" si="33">E41+G41</f>
         <v>26</v>
       </c>
       <c r="J41" s="14">
-        <f t="shared" ref="J41" si="30">C41*I41</f>
+        <f t="shared" ref="J41" si="34">C41*I41</f>
         <v>6500</v>
       </c>
-      <c r="K41" s="52" t="s">
+      <c r="K41" s="44" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="30" t="s">
@@ -3257,25 +3278,25 @@
         <v>11</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2750</v>
       </c>
       <c r="G42" s="38">
         <v>7</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" ref="H42:H45" si="31">C42*G42</f>
+        <f t="shared" ref="H42:H45" si="35">C42*G42</f>
         <v>1750</v>
       </c>
       <c r="I42" s="37">
-        <f t="shared" ref="I42:I45" si="32">E42+G42</f>
+        <f t="shared" ref="I42:I45" si="36">E42+G42</f>
         <v>18</v>
       </c>
       <c r="J42" s="14">
-        <f t="shared" ref="J42:J45" si="33">C42*I42</f>
+        <f t="shared" ref="J42:J45" si="37">C42*I42</f>
         <v>4500</v>
       </c>
-      <c r="K42" s="52" t="s">
+      <c r="K42" s="44" t="s">
         <v>182</v>
       </c>
       <c r="L42" s="30" t="s">
@@ -3299,25 +3320,25 @@
         <v>2</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>160</v>
       </c>
       <c r="G43" s="38">
         <v>3</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>240</v>
       </c>
       <c r="I43" s="37">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="J43" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>400</v>
       </c>
-      <c r="K43" s="52" t="s">
+      <c r="K43" s="44" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3338,25 +3359,25 @@
         <v>500</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>500</v>
       </c>
       <c r="G44" s="38">
         <v>500</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="I44" s="37">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1000</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
-      <c r="K44" s="52" t="s">
+      <c r="K44" s="44" t="s">
         <v>185</v>
       </c>
       <c r="L44" s="30" t="s">
@@ -3380,25 +3401,25 @@
         <v>10</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>540</v>
       </c>
       <c r="G45" s="38">
         <v>35</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1890</v>
       </c>
       <c r="I45" s="37">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>45</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2430</v>
       </c>
-      <c r="K45" s="52" t="s">
+      <c r="K45" s="44" t="s">
         <v>148</v>
       </c>
       <c r="L45" s="30" t="s">
@@ -3422,7 +3443,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="11">
-        <f>C46*E46</f>
+        <f t="shared" ref="F46:F61" si="38">C46*E46</f>
         <v>810</v>
       </c>
       <c r="G46" s="11">
@@ -3440,7 +3461,7 @@
         <f>C46*I46</f>
         <v>1620</v>
       </c>
-      <c r="K46" s="52" t="s">
+      <c r="K46" s="44" t="s">
         <v>150</v>
       </c>
       <c r="L46" s="30" t="s">
@@ -3464,25 +3485,25 @@
         <v>15</v>
       </c>
       <c r="F47" s="11">
-        <f>C47*E47</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G47" s="11">
         <v>30</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" ref="H47:H61" si="34">C47*G47</f>
+        <f t="shared" ref="H47:H61" si="39">C47*G47</f>
         <v>0</v>
       </c>
       <c r="I47" s="37">
-        <f t="shared" ref="I47:I61" si="35">E47+G47</f>
+        <f t="shared" ref="I47:I61" si="40">E47+G47</f>
         <v>45</v>
       </c>
       <c r="J47" s="14">
-        <f t="shared" ref="J47:J61" si="36">C47*I47</f>
+        <f t="shared" ref="J47:J61" si="41">C47*I47</f>
         <v>0</v>
       </c>
-      <c r="K47" s="52" t="s">
+      <c r="K47" s="44" t="s">
         <v>190</v>
       </c>
       <c r="L47" s="30" t="s">
@@ -3506,22 +3527,22 @@
         <v>40</v>
       </c>
       <c r="F48" s="11">
-        <f>C48*E48</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G48" s="11">
         <v>60</v>
       </c>
       <c r="H48" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I48" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
       <c r="J48" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K48" s="30" t="s">
@@ -3548,25 +3569,25 @@
         <v>230</v>
       </c>
       <c r="F49" s="11">
-        <f>C49*E49</f>
+        <f t="shared" si="38"/>
         <v>3450</v>
       </c>
       <c r="G49" s="11">
         <v>100</v>
       </c>
       <c r="H49" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1500</v>
       </c>
       <c r="I49" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>330</v>
       </c>
       <c r="J49" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>4950</v>
       </c>
-      <c r="K49" s="52" t="s">
+      <c r="K49" s="44" t="s">
         <v>207</v>
       </c>
       <c r="L49" s="30" t="s">
@@ -3590,25 +3611,25 @@
         <v>10</v>
       </c>
       <c r="F50" s="11">
-        <f>C50*E50</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G50" s="11">
         <v>20</v>
       </c>
       <c r="H50" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I50" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>30</v>
       </c>
       <c r="J50" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="K50" s="52" t="s">
+      <c r="K50" s="44" t="s">
         <v>208</v>
       </c>
       <c r="L50" s="30" t="s">
@@ -3632,25 +3653,25 @@
         <v>15</v>
       </c>
       <c r="F51" s="11">
-        <f>C51*E51</f>
+        <f t="shared" si="38"/>
         <v>645</v>
       </c>
       <c r="G51" s="11">
         <v>2</v>
       </c>
       <c r="H51" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>86</v>
       </c>
       <c r="I51" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>17</v>
       </c>
       <c r="J51" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>731</v>
       </c>
-      <c r="K51" s="52" t="s">
+      <c r="K51" s="44" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3671,25 +3692,25 @@
         <v>5</v>
       </c>
       <c r="F52" s="11">
-        <f>C52*E52</f>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="G52" s="11">
         <v>45</v>
       </c>
       <c r="H52" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>495</v>
       </c>
       <c r="I52" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>50</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>550</v>
       </c>
-      <c r="K52" s="52" t="s">
+      <c r="K52" s="44" t="s">
         <v>212</v>
       </c>
       <c r="L52" s="30" t="s">
@@ -3713,25 +3734,25 @@
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <f>C53*E53</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G53" s="11">
         <v>8</v>
       </c>
       <c r="H53" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>432</v>
       </c>
       <c r="I53" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="J53" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>432</v>
       </c>
-      <c r="K53" s="52" t="s">
+      <c r="K53" s="44" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3752,25 +3773,25 @@
         <v>5</v>
       </c>
       <c r="F54" s="11">
-        <f>C54*E54</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G54" s="11">
         <v>35</v>
       </c>
       <c r="H54" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I54" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>40</v>
       </c>
       <c r="J54" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="K54" s="52" t="s">
+      <c r="K54" s="44" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3791,25 +3812,25 @@
         <v>0</v>
       </c>
       <c r="F55" s="11">
-        <f>C55*E55</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G55" s="11">
         <v>150</v>
       </c>
       <c r="H55" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>1725</v>
       </c>
       <c r="I55" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>150</v>
       </c>
       <c r="J55" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1725</v>
       </c>
-      <c r="K55" s="52" t="s">
+      <c r="K55" s="44" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3830,25 +3851,25 @@
         <v>65</v>
       </c>
       <c r="F56" s="11">
-        <f>C56*E56</f>
+        <f t="shared" si="38"/>
         <v>585</v>
       </c>
       <c r="G56" s="11">
         <v>50</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>450</v>
       </c>
       <c r="I56" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>115</v>
       </c>
       <c r="J56" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1035</v>
       </c>
-      <c r="K56" s="52" t="s">
+      <c r="K56" s="44" t="s">
         <v>216</v>
       </c>
       <c r="L56" s="30" t="s">
@@ -3872,25 +3893,25 @@
         <v>20</v>
       </c>
       <c r="F57" s="11">
-        <f>C57*E57</f>
+        <f t="shared" si="38"/>
         <v>240</v>
       </c>
       <c r="G57" s="11">
         <v>15</v>
       </c>
       <c r="H57" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>180</v>
       </c>
       <c r="I57" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>35</v>
       </c>
       <c r="J57" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>420</v>
       </c>
-      <c r="K57" s="52" t="s">
+      <c r="K57" s="44" t="s">
         <v>218</v>
       </c>
       <c r="L57" s="30" t="s">
@@ -3914,25 +3935,25 @@
         <v>15</v>
       </c>
       <c r="F58" s="11">
-        <f>C58*E58</f>
+        <f t="shared" si="38"/>
         <v>1200</v>
       </c>
       <c r="G58" s="11">
         <v>10</v>
       </c>
       <c r="H58" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>800</v>
       </c>
       <c r="I58" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>25</v>
       </c>
       <c r="J58" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2000</v>
       </c>
-      <c r="K58" s="52" t="s">
+      <c r="K58" s="44" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3953,25 +3974,25 @@
         <v>180</v>
       </c>
       <c r="F59" s="11">
-        <f>C59*E59</f>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
       <c r="G59" s="11">
         <v>480</v>
       </c>
       <c r="H59" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>480</v>
       </c>
       <c r="I59" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>660</v>
       </c>
       <c r="J59" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>660</v>
       </c>
-      <c r="K59" s="52" t="s">
+      <c r="K59" s="44" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3992,22 +4013,22 @@
         <v>60</v>
       </c>
       <c r="F60" s="11">
-        <f>C60*E60</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G60" s="11">
         <v>90</v>
       </c>
       <c r="H60" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I60" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>150</v>
       </c>
       <c r="J60" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4028,25 +4049,25 @@
         <v>70</v>
       </c>
       <c r="F61" s="15">
-        <f>C61*E61</f>
+        <f t="shared" si="38"/>
         <v>700</v>
       </c>
       <c r="G61" s="15">
         <v>80</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>800</v>
       </c>
       <c r="I61" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>150</v>
       </c>
       <c r="J61" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1500</v>
       </c>
-      <c r="K61" s="53" t="s">
+      <c r="K61" s="45" t="s">
         <v>221</v>
       </c>
       <c r="L61" s="31" t="s">
@@ -4078,22 +4099,22 @@
         <v>0</v>
       </c>
       <c r="F63" s="38">
-        <f t="shared" ref="F63:F77" si="37">C63*E63</f>
+        <f t="shared" ref="F63:F79" si="42">C63*E63</f>
         <v>0</v>
       </c>
       <c r="G63" s="38">
         <v>250</v>
       </c>
       <c r="H63" s="38">
-        <f t="shared" ref="H63:H77" si="38">C63*G63</f>
+        <f t="shared" ref="H63:H79" si="43">C63*G63</f>
         <v>500</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" ref="I63:I77" si="39">E63+G63</f>
+        <f t="shared" ref="I63:I79" si="44">E63+G63</f>
         <v>250</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" ref="J63:J77" si="40">C63*I63</f>
+        <f t="shared" ref="J63:J79" si="45">C63*I63</f>
         <v>500</v>
       </c>
       <c r="L63" s="30" t="s">
@@ -4117,25 +4138,25 @@
         <v>0</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G64" s="38">
         <v>150</v>
       </c>
       <c r="H64" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>150</v>
       </c>
       <c r="I64" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>150</v>
       </c>
       <c r="J64" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>150</v>
       </c>
-      <c r="K64" s="54"/>
+      <c r="K64" s="46"/>
       <c r="L64" s="30" t="s">
         <v>225</v>
       </c>
@@ -4147,8 +4168,8 @@
       <c r="B65" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="C65" s="38">
-        <v>20</v>
+      <c r="C65" s="28">
+        <v>16.75</v>
       </c>
       <c r="D65" s="38" t="s">
         <v>40</v>
@@ -4157,284 +4178,289 @@
         <v>50</v>
       </c>
       <c r="F65" s="11">
-        <f t="shared" si="37"/>
-        <v>1000</v>
+        <f t="shared" si="42"/>
+        <v>837.5</v>
       </c>
       <c r="G65" s="38">
         <v>30</v>
       </c>
       <c r="H65" s="11">
-        <f t="shared" si="38"/>
-        <v>600</v>
+        <f t="shared" si="43"/>
+        <v>502.5</v>
       </c>
       <c r="I65" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>80</v>
       </c>
       <c r="J65" s="14">
-        <f t="shared" si="40"/>
-        <v>1600</v>
-      </c>
-      <c r="K65" s="54" t="s">
+        <f t="shared" si="45"/>
+        <v>1340</v>
+      </c>
+      <c r="K65" s="46" t="s">
         <v>227</v>
       </c>
       <c r="L65" s="30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="66">
-      <c r="A66" s="38">
+    <row r="66" spans="1:12" s="41" customFormat="1" ht="49.5">
+      <c r="A66" s="41">
         <v>4</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" s="28">
+        <v>12.2</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="41">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="41">
+        <v>50</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" si="43"/>
+        <v>610</v>
+      </c>
+      <c r="I66" s="40">
+        <f t="shared" si="44"/>
+        <v>50</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" si="45"/>
+        <v>610</v>
+      </c>
+      <c r="K66" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="L66" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="66">
+      <c r="A67" s="41">
+        <v>5</v>
+      </c>
+      <c r="B67" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="38">
-        <v>85</v>
-      </c>
-      <c r="D66" s="38" t="s">
+      <c r="C67" s="28">
+        <v>79</v>
+      </c>
+      <c r="D67" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E67" s="38">
         <v>50</v>
       </c>
-      <c r="F66" s="11">
-        <f t="shared" si="37"/>
-        <v>4250</v>
-      </c>
-      <c r="G66" s="38">
+      <c r="F67" s="11">
+        <f t="shared" si="42"/>
+        <v>3950</v>
+      </c>
+      <c r="G67" s="38">
         <v>40</v>
       </c>
-      <c r="H66" s="11">
-        <f t="shared" si="38"/>
-        <v>3400</v>
-      </c>
-      <c r="I66" s="37">
-        <f t="shared" si="39"/>
+      <c r="H67" s="11">
+        <f t="shared" si="43"/>
+        <v>3160</v>
+      </c>
+      <c r="I67" s="37">
+        <f t="shared" si="44"/>
         <v>90</v>
       </c>
-      <c r="J66" s="14">
-        <f t="shared" si="40"/>
-        <v>7650</v>
-      </c>
-      <c r="K66" s="54" t="s">
+      <c r="J67" s="14">
+        <f t="shared" si="45"/>
+        <v>7110</v>
+      </c>
+      <c r="K67" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="L66" s="30" t="s">
+      <c r="L67" s="30" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="82.5">
-      <c r="A67" s="38">
-        <v>5</v>
-      </c>
-      <c r="B67" s="38" t="s">
+    <row r="68" spans="1:12" ht="82.5">
+      <c r="A68" s="41">
+        <v>6</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="C67" s="38">
-        <v>75</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="38">
-        <v>23</v>
-      </c>
-      <c r="F67" s="11">
-        <f t="shared" si="37"/>
-        <v>1725</v>
-      </c>
-      <c r="G67" s="38">
-        <v>7</v>
-      </c>
-      <c r="H67" s="11">
-        <f t="shared" si="38"/>
-        <v>525</v>
-      </c>
-      <c r="I67" s="37">
-        <f t="shared" si="39"/>
-        <v>30</v>
-      </c>
-      <c r="J67" s="14">
-        <f t="shared" si="40"/>
-        <v>2250</v>
-      </c>
-      <c r="K67" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="L67" s="30" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A68" s="38">
-        <v>6</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" s="38">
-        <v>60</v>
+      <c r="C68" s="28">
+        <v>79.400000000000006</v>
       </c>
       <c r="D68" s="38" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="38">
+        <v>23</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="42"/>
+        <v>1826.2</v>
+      </c>
+      <c r="G68" s="38">
+        <v>7</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="43"/>
+        <v>555.80000000000007</v>
+      </c>
+      <c r="I68" s="37">
+        <f t="shared" si="44"/>
+        <v>30</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="45"/>
+        <v>2382</v>
+      </c>
+      <c r="K68" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="L68" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A69" s="41">
+        <v>7</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="28">
+        <v>111.6</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="38">
         <v>11</v>
       </c>
-      <c r="F68" s="11">
-        <f t="shared" si="37"/>
-        <v>660</v>
-      </c>
-      <c r="G68" s="38">
+      <c r="F69" s="11">
+        <f t="shared" si="42"/>
+        <v>1227.5999999999999</v>
+      </c>
+      <c r="G69" s="38">
         <v>9</v>
       </c>
-      <c r="H68" s="11">
-        <f t="shared" si="38"/>
-        <v>540</v>
-      </c>
-      <c r="I68" s="37">
-        <f t="shared" si="39"/>
+      <c r="H69" s="11">
+        <f t="shared" si="43"/>
+        <v>1004.4</v>
+      </c>
+      <c r="I69" s="37">
+        <f t="shared" si="44"/>
         <v>20</v>
       </c>
-      <c r="J68" s="14">
-        <f t="shared" si="40"/>
-        <v>1200</v>
-      </c>
-      <c r="K68" s="54" t="s">
+      <c r="J69" s="14">
+        <f t="shared" si="45"/>
+        <v>2232</v>
+      </c>
+      <c r="K69" s="46" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A69" s="38">
-        <v>7</v>
-      </c>
-      <c r="B69" s="38" t="s">
+    <row r="70" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A70" s="41">
+        <v>8</v>
+      </c>
+      <c r="B70" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C70" s="38">
         <v>1</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D70" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E70" s="38">
         <v>50</v>
       </c>
-      <c r="F69" s="11">
-        <f t="shared" si="37"/>
+      <c r="F70" s="11">
+        <f t="shared" si="42"/>
         <v>50</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G70" s="38">
         <v>350</v>
       </c>
-      <c r="H69" s="11">
-        <f t="shared" si="38"/>
+      <c r="H70" s="11">
+        <f t="shared" si="43"/>
         <v>350</v>
       </c>
-      <c r="I69" s="37">
-        <f t="shared" si="39"/>
+      <c r="I70" s="37">
+        <f t="shared" si="44"/>
         <v>400</v>
       </c>
-      <c r="J69" s="14">
-        <f t="shared" si="40"/>
+      <c r="J70" s="14">
+        <f t="shared" si="45"/>
         <v>400</v>
       </c>
-      <c r="K69" s="54" t="s">
+      <c r="K70" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="L69" s="30" t="s">
+      <c r="L70" s="30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="33">
-      <c r="A70" s="38">
-        <v>8</v>
-      </c>
-      <c r="B70" s="38" t="s">
+    <row r="71" spans="1:12" ht="33">
+      <c r="A71" s="41">
+        <v>9</v>
+      </c>
+      <c r="B71" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="C70" s="38">
-        <v>86</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="38">
-        <v>55</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="37"/>
-        <v>4730</v>
-      </c>
-      <c r="G70" s="38">
-        <v>20</v>
-      </c>
-      <c r="H70" s="11">
-        <f t="shared" si="38"/>
-        <v>1720</v>
-      </c>
-      <c r="I70" s="37">
-        <f t="shared" si="39"/>
-        <v>75</v>
-      </c>
-      <c r="J70" s="14">
-        <f t="shared" si="40"/>
-        <v>6450</v>
-      </c>
-      <c r="K70" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="L70" s="30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A71" s="38">
-        <v>9</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" s="38">
-        <v>5</v>
+      <c r="C71" s="28">
+        <v>155.18</v>
       </c>
       <c r="D71" s="38" t="s">
         <v>40</v>
       </c>
       <c r="E71" s="38">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="37"/>
-        <v>200</v>
+        <f t="shared" si="42"/>
+        <v>8534.9</v>
       </c>
       <c r="G71" s="38">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" si="38"/>
-        <v>200</v>
+        <f t="shared" si="43"/>
+        <v>3103.6000000000004</v>
       </c>
       <c r="I71" s="37">
-        <f t="shared" si="39"/>
-        <v>80</v>
+        <f t="shared" si="44"/>
+        <v>75</v>
       </c>
       <c r="J71" s="14">
-        <f t="shared" si="40"/>
-        <v>400</v>
-      </c>
-      <c r="K71" s="63"/>
+        <f t="shared" si="45"/>
+        <v>11638.5</v>
+      </c>
+      <c r="K71" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="L71" s="30" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A72" s="38">
+      <c r="A72" s="41">
         <v>10</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C72" s="38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>40</v>
@@ -4443,35 +4469,35 @@
         <v>40</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="37"/>
-        <v>240</v>
+        <f t="shared" si="42"/>
+        <v>200</v>
       </c>
       <c r="G72" s="38">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H72" s="11">
-        <f t="shared" si="38"/>
-        <v>180</v>
+        <f t="shared" si="43"/>
+        <v>200</v>
       </c>
       <c r="I72" s="37">
-        <f t="shared" si="39"/>
-        <v>70</v>
+        <f t="shared" si="44"/>
+        <v>80</v>
       </c>
       <c r="J72" s="14">
-        <f t="shared" si="40"/>
-        <v>420</v>
-      </c>
-      <c r="K72" s="63"/>
+        <f t="shared" si="45"/>
+        <v>400</v>
+      </c>
+      <c r="K72" s="61"/>
     </row>
     <row r="73" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A73" s="38">
+      <c r="A73" s="41">
         <v>11</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C73" s="38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>40</v>
@@ -4480,71 +4506,69 @@
         <v>40</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
+        <v>240</v>
+      </c>
+      <c r="G73" s="38">
+        <v>30</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" si="43"/>
+        <v>180</v>
+      </c>
+      <c r="I73" s="37">
+        <f t="shared" si="44"/>
+        <v>70</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="45"/>
+        <v>420</v>
+      </c>
+      <c r="K73" s="61"/>
+    </row>
+    <row r="74" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A74" s="41">
+        <v>12</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="38">
+        <v>10</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="38">
+        <v>40</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" si="42"/>
         <v>400</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G74" s="38">
         <v>20</v>
       </c>
-      <c r="H73" s="11">
-        <f t="shared" si="38"/>
+      <c r="H74" s="11">
+        <f t="shared" si="43"/>
         <v>200</v>
       </c>
-      <c r="I73" s="37">
-        <f t="shared" si="39"/>
+      <c r="I74" s="37">
+        <f t="shared" si="44"/>
         <v>60</v>
       </c>
-      <c r="J73" s="14">
-        <f t="shared" si="40"/>
+      <c r="J74" s="14">
+        <f t="shared" si="45"/>
         <v>600</v>
       </c>
-      <c r="K73" s="63"/>
-    </row>
-    <row r="74" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A74" s="38">
-        <v>12</v>
-      </c>
-      <c r="B74" s="38" t="s">
+      <c r="K74" s="61"/>
+    </row>
+    <row r="75" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A75" s="41">
+        <v>13</v>
+      </c>
+      <c r="B75" s="38" t="s">
         <v>240</v>
-      </c>
-      <c r="C74" s="38">
-        <v>1</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="38">
-        <v>0</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="38">
-        <v>450</v>
-      </c>
-      <c r="H74" s="11">
-        <f t="shared" si="38"/>
-        <v>450</v>
-      </c>
-      <c r="I74" s="37">
-        <f t="shared" si="39"/>
-        <v>450</v>
-      </c>
-      <c r="J74" s="14">
-        <f t="shared" si="40"/>
-        <v>450</v>
-      </c>
-      <c r="K74" s="54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A75" s="38">
-        <v>13</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>241</v>
       </c>
       <c r="C75" s="38">
         <v>1</v>
@@ -4556,37 +4580,37 @@
         <v>0</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G75" s="38">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="H75" s="11">
-        <f t="shared" si="38"/>
-        <v>150</v>
+        <f t="shared" si="43"/>
+        <v>450</v>
       </c>
       <c r="I75" s="37">
-        <f t="shared" si="39"/>
-        <v>150</v>
+        <f t="shared" si="44"/>
+        <v>450</v>
       </c>
       <c r="J75" s="14">
-        <f t="shared" si="40"/>
-        <v>150</v>
-      </c>
-      <c r="K75" s="54" t="s">
+        <f t="shared" si="45"/>
+        <v>450</v>
+      </c>
+      <c r="K75" s="46" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="33">
-      <c r="A76" s="38">
+    <row r="76" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A76" s="41">
         <v>14</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C76" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>34</v>
@@ -4595,390 +4619,467 @@
         <v>0</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G76" s="38">
         <v>150</v>
       </c>
       <c r="H76" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
+        <v>150</v>
+      </c>
+      <c r="I76" s="37">
+        <f t="shared" si="44"/>
+        <v>150</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="45"/>
+        <v>150</v>
+      </c>
+      <c r="K76" s="46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="33">
+      <c r="A77" s="41">
+        <v>15</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="38">
+        <v>3</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="38">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="38">
+        <v>150</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="43"/>
         <v>450</v>
       </c>
-      <c r="I76" s="37">
-        <f t="shared" si="39"/>
+      <c r="I77" s="37">
+        <f t="shared" si="44"/>
         <v>150</v>
       </c>
-      <c r="J76" s="14">
-        <f t="shared" si="40"/>
+      <c r="J77" s="14">
+        <f t="shared" si="45"/>
         <v>450</v>
       </c>
-      <c r="K76" s="54" t="s">
+      <c r="K77" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="L76" s="30" t="s">
+      <c r="L77" s="30" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A77" s="15">
-        <v>15</v>
-      </c>
-      <c r="B77" s="15" t="s">
+    <row r="78" spans="1:12" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A78" s="41">
+        <v>16</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C78" s="28">
+        <v>1</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E78" s="41">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="41">
+        <v>350</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="43"/>
+        <v>350</v>
+      </c>
+      <c r="I78" s="40">
+        <f t="shared" si="44"/>
+        <v>350</v>
+      </c>
+      <c r="J78" s="14">
+        <f t="shared" si="45"/>
+        <v>350</v>
+      </c>
+      <c r="K78" s="55"/>
+      <c r="L78" s="30"/>
+    </row>
+    <row r="79" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A79" s="15">
+        <v>17</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C79" s="43">
         <v>0</v>
       </c>
-      <c r="D77" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="15">
+      <c r="D79" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="15">
         <v>0</v>
       </c>
-      <c r="F77" s="15">
-        <f t="shared" si="37"/>
+      <c r="F79" s="15">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G79" s="15">
         <v>12</v>
       </c>
-      <c r="H77" s="15">
-        <f t="shared" si="38"/>
+      <c r="H79" s="15">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="I77" s="16">
-        <f t="shared" si="39"/>
+      <c r="I79" s="16">
+        <f t="shared" si="44"/>
         <v>12</v>
       </c>
-      <c r="J77" s="17">
-        <f t="shared" si="40"/>
+      <c r="J79" s="17">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="K77" s="53"/>
-      <c r="L77" s="31"/>
-    </row>
-    <row r="78" spans="1:12" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A78" s="48" t="s">
+      <c r="K79" s="45"/>
+      <c r="L79" s="31"/>
+    </row>
+    <row r="80" spans="1:12" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+      <c r="A80" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="19">
-        <f>SUM(F6:F77)</f>
-        <v>45277.8</v>
-      </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19">
-        <f>SUM(H6:H77)</f>
-        <v>43137.2</v>
-      </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="21">
-        <f>SUM(J4:J77)</f>
-        <v>91835</v>
-      </c>
-      <c r="K78" s="55"/>
-      <c r="L78" s="62"/>
-    </row>
-    <row r="79" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A79" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="21">
-        <f>J78*0.05</f>
-        <v>4591.75</v>
-      </c>
-      <c r="K79" s="55"/>
-    </row>
-    <row r="80" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A80" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="19"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="19">
+        <f>SUM(F6:F79)</f>
+        <v>49784</v>
+      </c>
       <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
+      <c r="H80" s="19">
+        <f>SUM(H6:H79)</f>
+        <v>46133.5</v>
+      </c>
       <c r="I80" s="34"/>
       <c r="J80" s="21">
-        <f>J78*0.05</f>
-        <v>4591.75</v>
-      </c>
-      <c r="K80" s="55"/>
+        <f>SUM(J4:J79)</f>
+        <v>95917.5</v>
+      </c>
+      <c r="K80" s="47"/>
+      <c r="L80" s="54"/>
     </row>
     <row r="81" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="21">
+        <f>J80*0.05</f>
+        <v>4795.875</v>
+      </c>
+      <c r="K81" s="47"/>
+    </row>
+    <row r="82" spans="1:12" ht="39.950000000000003" customHeight="1">
+      <c r="A82" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="21">
+        <f>J80*0.05</f>
+        <v>4795.875</v>
+      </c>
+      <c r="K82" s="47"/>
+    </row>
+    <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
+      <c r="A83" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="26">
-        <f>SUM(J78:J80)</f>
-        <v>101018.5</v>
-      </c>
-      <c r="K81" s="56"/>
-    </row>
-    <row r="82" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A82" s="42" t="s">
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="26">
+        <f>SUM(J80:J82)</f>
+        <v>105509.25</v>
+      </c>
+      <c r="K83" s="48"/>
+    </row>
+    <row r="84" spans="1:12" ht="39.950000000000003" customHeight="1">
+      <c r="A84" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="23">
-        <f>J81*0.95</f>
-        <v>95967.574999999997</v>
-      </c>
-      <c r="K82" s="57"/>
-    </row>
-    <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="57"/>
-    </row>
-    <row r="84" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A84" s="50">
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="23">
+        <f>J83*0.95</f>
+        <v>100233.78749999999</v>
+      </c>
+      <c r="K84" s="49"/>
+    </row>
+    <row r="85" spans="1:12" ht="39.950000000000003" customHeight="1">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="49"/>
+    </row>
+    <row r="86" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A86" s="42">
         <v>1</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B86" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C86" s="42">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D86" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E84" s="50">
-        <v>380</v>
-      </c>
-      <c r="F84" s="50">
-        <f>C84*E84</f>
-        <v>3154.0000000000005</v>
-      </c>
-      <c r="G84" s="50">
-        <v>160</v>
-      </c>
-      <c r="H84" s="50">
-        <f>C84*G84</f>
-        <v>1328</v>
-      </c>
-      <c r="I84" s="58">
-        <f>E84+G84</f>
-        <v>540</v>
-      </c>
-      <c r="J84" s="59">
-        <f>C84*I84</f>
-        <v>4482</v>
-      </c>
-      <c r="K84" s="60"/>
-      <c r="L84" s="61"/>
-    </row>
-    <row r="85" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A85" s="50">
+      <c r="E86" s="42">
+        <v>430</v>
+      </c>
+      <c r="F86" s="42">
+        <f>C86*E86</f>
+        <v>3569.0000000000005</v>
+      </c>
+      <c r="G86" s="42">
+        <v>0</v>
+      </c>
+      <c r="H86" s="42">
+        <f>C86*G86</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="50">
+        <f>E86+G86</f>
+        <v>430</v>
+      </c>
+      <c r="J86" s="51">
+        <f>C86*I86</f>
+        <v>3569.0000000000005</v>
+      </c>
+      <c r="K86" s="52"/>
+      <c r="L86" s="53"/>
+    </row>
+    <row r="87" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A87" s="42">
         <v>2</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B87" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="42">
+        <v>1.9</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" s="42">
+        <v>450</v>
+      </c>
+      <c r="F87" s="42">
+        <f t="shared" ref="F87" si="46">C87*E87</f>
+        <v>855</v>
+      </c>
+      <c r="G87" s="42">
+        <v>0</v>
+      </c>
+      <c r="H87" s="42">
+        <f t="shared" ref="H87" si="47">C87*G87</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="50">
+        <f t="shared" ref="I87" si="48">E87+G87</f>
+        <v>450</v>
+      </c>
+      <c r="J87" s="51">
+        <f>C87*I87</f>
+        <v>855</v>
+      </c>
+      <c r="K87" s="52"/>
+      <c r="L87" s="53"/>
+    </row>
+    <row r="88" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A88" s="42">
+        <v>3</v>
+      </c>
+      <c r="B88" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="50">
+      <c r="C88" s="42">
         <v>4.8</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D88" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="50">
+      <c r="E88" s="42">
         <v>1750</v>
       </c>
-      <c r="F85" s="50">
-        <f>C85*E85</f>
+      <c r="F88" s="42">
+        <f>C88*E88</f>
         <v>8400</v>
       </c>
-      <c r="G85" s="50">
+      <c r="G88" s="42">
         <v>250</v>
       </c>
-      <c r="H85" s="50">
-        <f>C85*G85</f>
+      <c r="H88" s="42">
+        <f>C88*G88</f>
         <v>1200</v>
       </c>
-      <c r="I85" s="58">
-        <f>E85+G85</f>
+      <c r="I88" s="50">
+        <f>E88+G88</f>
         <v>2000</v>
       </c>
-      <c r="J85" s="59">
-        <f>C85*I85</f>
+      <c r="J88" s="51">
+        <f>C88*I88</f>
         <v>9600</v>
       </c>
-      <c r="K85" s="60"/>
-      <c r="L85" s="61"/>
-    </row>
-    <row r="86" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A86" s="50">
-        <v>3</v>
-      </c>
-      <c r="B86" s="50" t="s">
+      <c r="K88" s="52"/>
+      <c r="L88" s="53"/>
+    </row>
+    <row r="89" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A89" s="42">
+        <v>4</v>
+      </c>
+      <c r="B89" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C86" s="50">
+      <c r="C89" s="42">
         <v>3.4</v>
       </c>
-      <c r="D86" s="50" t="s">
+      <c r="D89" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="50">
+      <c r="E89" s="42">
         <v>550</v>
       </c>
-      <c r="F86" s="50">
-        <f>C86*E86</f>
+      <c r="F89" s="42">
+        <f>C89*E89</f>
         <v>1870</v>
       </c>
-      <c r="G86" s="50">
+      <c r="G89" s="42">
         <v>150</v>
       </c>
-      <c r="H86" s="50">
-        <f>C86*G86</f>
+      <c r="H89" s="42">
+        <f>C89*G89</f>
         <v>510</v>
       </c>
-      <c r="I86" s="58">
-        <f>E86+G86</f>
+      <c r="I89" s="50">
+        <f>E89+G89</f>
         <v>700</v>
       </c>
-      <c r="J86" s="59">
-        <f>C86*I86</f>
+      <c r="J89" s="51">
+        <f>C89*I89</f>
         <v>2380</v>
       </c>
-      <c r="K86" s="60"/>
-      <c r="L86" s="61"/>
-    </row>
-    <row r="87" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A87" s="50">
-        <v>4</v>
-      </c>
-      <c r="B87" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="C87" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="D87" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="E87" s="50">
-        <v>380</v>
-      </c>
-      <c r="F87" s="50">
-        <f t="shared" ref="F87" si="41">C87*E87</f>
-        <v>1216</v>
-      </c>
-      <c r="G87" s="50">
-        <v>160</v>
-      </c>
-      <c r="H87" s="50">
-        <f t="shared" ref="H87" si="42">C87*G87</f>
-        <v>512</v>
-      </c>
-      <c r="I87" s="58">
-        <f t="shared" ref="I87" si="43">E87+G87</f>
-        <v>540</v>
-      </c>
-      <c r="J87" s="59">
-        <f t="shared" ref="J87" si="44">C87*I87</f>
-        <v>1728</v>
-      </c>
-      <c r="K87" s="60"/>
-      <c r="L87" s="61"/>
-    </row>
-    <row r="88" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A88" s="50">
+      <c r="K89" s="52"/>
+      <c r="L89" s="53"/>
+    </row>
+    <row r="90" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A90" s="42">
         <v>5</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B90" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="50">
+      <c r="C90" s="42">
         <v>8</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D90" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="50">
+      <c r="E90" s="42">
         <v>65</v>
       </c>
-      <c r="F88" s="50">
-        <f>C88*E88</f>
+      <c r="F90" s="42">
+        <f>C90*E90</f>
         <v>520</v>
       </c>
-      <c r="G88" s="50">
+      <c r="G90" s="42">
         <v>25</v>
       </c>
-      <c r="H88" s="50">
-        <f>C88*G88</f>
+      <c r="H90" s="42">
+        <f>C90*G90</f>
         <v>200</v>
       </c>
-      <c r="I88" s="58">
-        <f>E88+G88</f>
+      <c r="I90" s="50">
+        <f>E90+G90</f>
         <v>90</v>
       </c>
-      <c r="J88" s="59">
-        <f>C88*I88</f>
+      <c r="J90" s="51">
+        <f>C90*I90</f>
         <v>720</v>
       </c>
-      <c r="K88" s="60"/>
-      <c r="L88" s="61"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L82"/>
+  <autoFilter ref="A2:L84"/>
   <mergeCells count="16">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="A80:E80"/>
     <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -5010,39 +5111,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -5061,7 +5162,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -5070,15 +5171,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -7496,10 +7597,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="47"/>
+      <c r="B75" s="66"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -8454,13 +8555,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>65990.500000000015</v>
@@ -8478,13 +8579,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="40" t="s">
+      <c r="A103" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="40"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -8495,13 +8596,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -8512,13 +8613,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -8529,13 +8630,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -8563,7 +8664,7 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -8595,39 +8696,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44" t="s">
+      <c r="J1" s="62"/>
+      <c r="K1" s="59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -8646,7 +8747,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -8655,15 +8756,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -11081,10 +11182,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="47"/>
+      <c r="B75" s="66"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -12039,13 +12140,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>80990.500000000015</v>
@@ -12063,13 +12164,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="40" t="s">
+      <c r="A103" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="40"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -12080,13 +12181,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -12097,13 +12198,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -12114,13 +12215,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="42" t="s">
+      <c r="A106" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -12132,11 +12233,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="A75:B75"/>
@@ -12147,8 +12243,13 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -12164,7 +12265,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -12180,7 +12281,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/众臣装修价目表.xlsx
+++ b/众臣装修价目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="众臣副本" sheetId="8" r:id="rId1"/>
@@ -1762,18 +1762,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -2163,70 +2157,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2253,17 +2184,80 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2561,9 +2555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -2582,42 +2576,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="102" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
@@ -2636,8 +2630,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -2646,16 +2640,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="54">
@@ -4853,7 +4847,7 @@
         <v>215</v>
       </c>
       <c r="C63" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="54" t="s">
         <v>34</v>
@@ -4870,7 +4864,7 @@
       </c>
       <c r="H63" s="54">
         <f t="shared" ref="H63:H81" si="39">C63*G63</f>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" ref="I63:I81" si="40">E63+G63</f>
@@ -4878,7 +4872,7 @@
       </c>
       <c r="J63" s="6">
         <f t="shared" ref="J63:J81" si="41">C63*I63</f>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L63" s="30" t="s">
         <v>217</v>
@@ -5250,7 +5244,7 @@
         <f t="shared" si="41"/>
         <v>11638.5</v>
       </c>
-      <c r="K72" s="99" t="s">
+      <c r="K72" s="105" t="s">
         <v>240</v>
       </c>
       <c r="L72" s="30" t="s">
@@ -5292,7 +5286,7 @@
         <f t="shared" si="41"/>
         <v>228.79999999999998</v>
       </c>
-      <c r="K73" s="99"/>
+      <c r="K73" s="105"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="54">
@@ -5329,7 +5323,7 @@
         <f t="shared" si="41"/>
         <v>469</v>
       </c>
-      <c r="K74" s="99"/>
+      <c r="K74" s="105"/>
     </row>
     <row r="75" spans="1:12" ht="24.95" customHeight="1">
       <c r="A75" s="54">
@@ -5366,7 +5360,7 @@
         <f t="shared" si="41"/>
         <v>549</v>
       </c>
-      <c r="K75" s="99"/>
+      <c r="K75" s="105"/>
     </row>
     <row r="76" spans="1:12" ht="24.95" customHeight="1">
       <c r="A76" s="54">
@@ -5602,13 +5596,13 @@
       <c r="L81" s="31"/>
     </row>
     <row r="82" spans="1:12" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A82" s="100" t="s">
+      <c r="A82" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="100"/>
-      <c r="C82" s="100"/>
-      <c r="D82" s="100"/>
-      <c r="E82" s="100"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="106"/>
       <c r="F82" s="19">
         <f>SUM(F4:F81)</f>
         <v>47008.049999999996</v>
@@ -5616,85 +5610,85 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19">
         <f>SUM(H4:H81)</f>
-        <v>43750.600000000006</v>
+        <v>43500.600000000006</v>
       </c>
       <c r="I82" s="49"/>
       <c r="J82" s="21">
         <f>SUM(J4:J81)</f>
-        <v>90758.650000000009</v>
+        <v>90508.650000000009</v>
       </c>
       <c r="K82" s="41"/>
       <c r="L82" s="48"/>
     </row>
     <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="109"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="49"/>
       <c r="J83" s="21">
         <f>J82*0.05</f>
-        <v>4537.9325000000008</v>
+        <v>4525.4325000000008</v>
       </c>
       <c r="K83" s="41"/>
     </row>
     <row r="84" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="109"/>
+      <c r="D84" s="109"/>
+      <c r="E84" s="109"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="49"/>
       <c r="J84" s="21">
         <f>J82*0.05</f>
-        <v>4537.9325000000008</v>
+        <v>4525.4325000000008</v>
       </c>
       <c r="K84" s="41"/>
     </row>
     <row r="85" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A85" s="93" t="s">
+      <c r="A85" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="110"/>
+      <c r="E85" s="110"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
       <c r="I85" s="50"/>
       <c r="J85" s="26">
         <f>SUM(J82:J84)</f>
-        <v>99834.514999999999</v>
+        <v>99559.514999999999</v>
       </c>
       <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A86" s="94" t="s">
+      <c r="A86" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="29"/>
       <c r="J86" s="23">
         <f>J85*0.95</f>
-        <v>94842.789250000002</v>
+        <v>94581.539250000002</v>
       </c>
       <c r="K86" s="43"/>
     </row>
@@ -5708,12 +5702,19 @@
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="29"/>
-      <c r="J87" s="23"/>
+      <c r="J87" s="23">
+        <v>-61500</v>
+      </c>
       <c r="K87" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L86"/>
   <mergeCells count="16">
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -5725,11 +5726,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5742,8 +5738,8 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82:E82"/>
+      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -5762,42 +5758,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="102" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="59" t="s">
         <v>5</v>
       </c>
@@ -5816,8 +5812,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -5826,16 +5822,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="56">
@@ -6682,7 +6678,7 @@
         <v>80</v>
       </c>
       <c r="H26" s="56">
-        <f t="shared" ref="H26:H27" si="18">C26*G26</f>
+        <f t="shared" ref="H26" si="18">C26*G26</f>
         <v>0</v>
       </c>
       <c r="I26" s="4">
@@ -7823,7 +7819,7 @@
         <v>74</v>
       </c>
       <c r="C56" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>199</v>
@@ -7833,14 +7829,14 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="38"/>
-        <v>585</v>
+        <v>195</v>
       </c>
       <c r="G56" s="11">
         <v>50</v>
       </c>
       <c r="H56" s="11">
         <f t="shared" si="39"/>
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="I56" s="58">
         <f t="shared" si="40"/>
@@ -7848,7 +7844,7 @@
       </c>
       <c r="J56" s="14">
         <f t="shared" si="41"/>
-        <v>1035</v>
+        <v>345</v>
       </c>
       <c r="K56" s="39" t="s">
         <v>209</v>
@@ -7865,7 +7861,7 @@
         <v>194</v>
       </c>
       <c r="C57" s="11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>199</v>
@@ -7875,14 +7871,14 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="38"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G57" s="11">
         <v>15</v>
       </c>
       <c r="H57" s="11">
         <f t="shared" si="39"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I57" s="58">
         <f t="shared" si="40"/>
@@ -7890,7 +7886,7 @@
       </c>
       <c r="J57" s="14">
         <f t="shared" si="41"/>
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="K57" s="39" t="s">
         <v>211</v>
@@ -8077,7 +8073,7 @@
         <v>215</v>
       </c>
       <c r="C63" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="56" t="s">
         <v>34</v>
@@ -8094,7 +8090,7 @@
       </c>
       <c r="H63" s="56">
         <f t="shared" ref="H63:H77" si="43">C63*G63</f>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" ref="I63:I77" si="44">E63+G63</f>
@@ -8102,7 +8098,7 @@
       </c>
       <c r="J63" s="6">
         <f t="shared" ref="J63:J77" si="45">C63*I63</f>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L63" s="30" t="s">
         <v>217</v>
@@ -8390,7 +8386,7 @@
         <f t="shared" si="45"/>
         <v>6450</v>
       </c>
-      <c r="K70" s="99" t="s">
+      <c r="K70" s="105" t="s">
         <v>240</v>
       </c>
       <c r="L70" s="30" t="s">
@@ -8432,7 +8428,7 @@
         <f t="shared" si="45"/>
         <v>400</v>
       </c>
-      <c r="K71" s="99"/>
+      <c r="K71" s="105"/>
     </row>
     <row r="72" spans="1:12" ht="24.95" customHeight="1">
       <c r="A72" s="56">
@@ -8469,7 +8465,7 @@
         <f t="shared" si="45"/>
         <v>420</v>
       </c>
-      <c r="K72" s="99"/>
+      <c r="K72" s="105"/>
     </row>
     <row r="73" spans="1:12" ht="24.95" customHeight="1">
       <c r="A73" s="56">
@@ -8506,7 +8502,7 @@
         <f t="shared" si="45"/>
         <v>600</v>
       </c>
-      <c r="K73" s="99"/>
+      <c r="K73" s="105"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="56">
@@ -8667,101 +8663,104 @@
       <c r="L77" s="31"/>
     </row>
     <row r="78" spans="1:12" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A78" s="100" t="s">
+      <c r="A78" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="100"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="100"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="106"/>
       <c r="F78" s="19">
         <f>SUM(F4:F77)</f>
-        <v>47307.8</v>
+        <v>46797.8</v>
       </c>
       <c r="G78" s="19"/>
       <c r="H78" s="19">
         <f>SUM(H4:H77)</f>
-        <v>44662.2</v>
+        <v>44022.2</v>
       </c>
       <c r="I78" s="57"/>
       <c r="J78" s="21">
         <f>SUM(J4:J77)</f>
-        <v>91970</v>
+        <v>90820</v>
       </c>
       <c r="K78" s="41"/>
-      <c r="L78" s="124"/>
+      <c r="L78" s="101"/>
     </row>
     <row r="79" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A79" s="92" t="s">
+      <c r="A79" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
+      <c r="B79" s="109"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="109"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="57"/>
       <c r="J79" s="21">
         <f>J78*0.05</f>
-        <v>4598.5</v>
+        <v>4541</v>
       </c>
       <c r="K79" s="41"/>
     </row>
     <row r="80" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A80" s="92" t="s">
+      <c r="A80" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="109"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="57"/>
       <c r="J80" s="21">
         <f>J78*0.05</f>
-        <v>4598.5</v>
+        <v>4541</v>
       </c>
       <c r="K80" s="41"/>
     </row>
     <row r="81" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A81" s="93" t="s">
+      <c r="A81" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="93"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="93"/>
-      <c r="E81" s="93"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="110"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="110"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="34"/>
       <c r="J81" s="26">
         <f>SUM(J78:J80)</f>
-        <v>101167</v>
+        <v>99902</v>
       </c>
       <c r="K81" s="42"/>
     </row>
     <row r="82" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A82" s="94" t="s">
+      <c r="A82" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="94"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="94"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="29"/>
       <c r="J82" s="23">
         <f>J81*0.95</f>
-        <v>96108.65</v>
-      </c>
-      <c r="K82" s="43"/>
+        <v>94906.9</v>
+      </c>
+      <c r="K82" s="43">
+        <f>J82*0.3</f>
+        <v>28472.069999999996</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
       <c r="A83" s="35"/>
@@ -8774,7 +8773,10 @@
       <c r="H83" s="28"/>
       <c r="I83" s="29"/>
       <c r="J83" s="23"/>
-      <c r="K83" s="43"/>
+      <c r="K83" s="43">
+        <f>J82*0.3</f>
+        <v>28472.069999999996</v>
+      </c>
     </row>
     <row r="84" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
       <c r="A84" s="37">
@@ -8811,7 +8813,9 @@
         <f>C84*I84</f>
         <v>3569.0000000000005</v>
       </c>
-      <c r="K84" s="46"/>
+      <c r="K84" s="46">
+        <v>-61500</v>
+      </c>
       <c r="L84" s="47"/>
     </row>
     <row r="85" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
@@ -8969,6 +8973,12 @@
   </sheetData>
   <autoFilter ref="A2:L82"/>
   <mergeCells count="16">
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="A78:E78"/>
@@ -8979,12 +8989,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9018,39 +9022,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="102" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -9069,7 +9073,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="97"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -9078,15 +9082,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -11504,10 +11508,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="102" t="s">
+      <c r="A75" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="102"/>
+      <c r="B75" s="112"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -12462,13 +12466,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="100" t="s">
+      <c r="A102" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>65990.500000000015</v>
@@ -12486,13 +12490,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="92" t="s">
+      <c r="A103" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="109"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -12503,13 +12507,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="92" t="s">
+      <c r="A104" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="92"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="109"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -12520,13 +12524,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="93" t="s">
+      <c r="A105" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
-      <c r="D105" s="93"/>
-      <c r="E105" s="93"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="110"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -12537,13 +12541,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="94" t="s">
+      <c r="A106" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="94"/>
-      <c r="C106" s="94"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="94"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -12603,39 +12607,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96" t="s">
+      <c r="J1" s="107"/>
+      <c r="K1" s="102" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -12654,7 +12658,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="97"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -12663,15 +12667,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -15089,10 +15093,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="102" t="s">
+      <c r="A75" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="102"/>
+      <c r="B75" s="112"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -16047,13 +16051,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="100" t="s">
+      <c r="A102" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
+      <c r="B102" s="106"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>80990.500000000015</v>
@@ -16071,13 +16075,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="92" t="s">
+      <c r="A103" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="109"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -16088,13 +16092,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="92" t="s">
+      <c r="A104" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="92"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="109"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -16105,13 +16109,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="93" t="s">
+      <c r="A105" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
-      <c r="D105" s="93"/>
-      <c r="E105" s="93"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="110"/>
+      <c r="E105" s="110"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -16122,13 +16126,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="94" t="s">
+      <c r="A106" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="94"/>
-      <c r="C106" s="94"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="94"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -16140,6 +16144,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="A75:B75"/>
@@ -16150,11 +16159,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16216,7 +16220,7 @@
       <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="114" t="s">
         <v>271</v>
       </c>
       <c r="C2" s="65" t="s">
@@ -16251,8 +16255,8 @@
       <c r="A3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="105" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="113" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="65">
@@ -16284,8 +16288,8 @@
       <c r="A4" s="64">
         <v>3</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="105"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="65">
         <v>1</v>
       </c>
@@ -16315,8 +16319,8 @@
       <c r="A5" s="64">
         <v>4</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="113" t="s">
         <v>257</v>
       </c>
       <c r="D5" s="65">
@@ -16348,8 +16352,8 @@
       <c r="A6" s="64">
         <v>5</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="65">
         <v>1</v>
       </c>
@@ -16379,8 +16383,8 @@
       <c r="A7" s="64">
         <v>6</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="105"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="65">
         <v>1</v>
       </c>
@@ -16410,7 +16414,7 @@
       <c r="A8" s="64">
         <v>7</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="65" t="s">
         <v>261</v>
       </c>
@@ -16443,7 +16447,7 @@
       <c r="A9" s="64">
         <v>8</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="65" t="s">
         <v>260</v>
       </c>
@@ -16476,8 +16480,8 @@
       <c r="A10" s="64">
         <v>9</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="105" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="113" t="s">
         <v>266</v>
       </c>
       <c r="D10" s="65">
@@ -16509,8 +16513,8 @@
       <c r="A11" s="64">
         <v>10</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="65">
         <v>1</v>
       </c>
@@ -16540,7 +16544,7 @@
       <c r="A12" s="64">
         <v>11</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="65" t="s">
         <v>268</v>
       </c>
@@ -16559,10 +16563,10 @@
       <c r="A13" s="64">
         <v>12</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="113" t="s">
         <v>255</v>
       </c>
       <c r="D13" s="65">
@@ -16594,8 +16598,8 @@
       <c r="A14" s="64">
         <v>13</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="105"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="65">
         <v>1</v>
       </c>
@@ -16625,8 +16629,8 @@
       <c r="A15" s="64">
         <v>14</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="105"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="65">
         <v>1</v>
       </c>
@@ -16656,7 +16660,7 @@
       <c r="A16" s="64">
         <v>15</v>
       </c>
-      <c r="B16" s="103"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="65" t="s">
         <v>268</v>
       </c>
@@ -16675,7 +16679,7 @@
       <c r="A17" s="64">
         <v>16</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="114" t="s">
         <v>273</v>
       </c>
       <c r="C17" s="65" t="s">
@@ -16710,7 +16714,7 @@
       <c r="A18" s="64">
         <v>17</v>
       </c>
-      <c r="B18" s="103"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="65" t="s">
         <v>274</v>
       </c>
@@ -16743,7 +16747,7 @@
       <c r="A19" s="64">
         <v>18</v>
       </c>
-      <c r="B19" s="103"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="65" t="s">
         <v>280</v>
       </c>
@@ -16776,7 +16780,7 @@
       <c r="A20" s="64">
         <v>19</v>
       </c>
-      <c r="B20" s="103"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="65" t="s">
         <v>275</v>
       </c>
@@ -16809,7 +16813,7 @@
       <c r="A21" s="64">
         <v>20</v>
       </c>
-      <c r="B21" s="103"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="65" t="s">
         <v>276</v>
       </c>
@@ -16842,7 +16846,7 @@
       <c r="A22" s="64">
         <v>21</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="65" t="s">
         <v>278</v>
       </c>
@@ -16875,7 +16879,7 @@
       <c r="A23" s="64">
         <v>22</v>
       </c>
-      <c r="B23" s="103"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="65" t="s">
         <v>279</v>
       </c>
@@ -16908,7 +16912,7 @@
       <c r="A24" s="64">
         <v>23</v>
       </c>
-      <c r="B24" s="103"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="65" t="s">
         <v>277</v>
       </c>
@@ -16941,7 +16945,7 @@
       <c r="A25" s="64">
         <v>24</v>
       </c>
-      <c r="B25" s="103"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="65" t="s">
         <v>267</v>
       </c>
@@ -16960,7 +16964,7 @@
       <c r="A26" s="64">
         <v>25</v>
       </c>
-      <c r="B26" s="103"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="65" t="s">
         <v>268</v>
       </c>
@@ -16976,21 +16980,21 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="103">
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="114">
         <f>SUM(J2:J26)-2.149-20</f>
         <v>2076</v>
       </c>
-      <c r="J27" s="103"/>
+      <c r="J27" s="114"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1">
       <c r="A28" s="64">
@@ -17004,35 +17008,35 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="103">
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="114">
         <f>I27+J28</f>
         <v>2776</v>
       </c>
-      <c r="J29" s="103"/>
+      <c r="J29" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A29:H29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -17049,8 +17053,8 @@
   <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -17121,7 +17125,7 @@
       <c r="S1" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="T1" s="117" t="s">
+      <c r="T1" s="96" t="s">
         <v>356</v>
       </c>
       <c r="U1" s="70" t="s">
@@ -17135,7 +17139,7 @@
       <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="122" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="66" t="s">
@@ -17164,7 +17168,7 @@
       <c r="M2" s="66">
         <v>1</v>
       </c>
-      <c r="N2" s="121" t="s">
+      <c r="N2" s="100" t="s">
         <v>365</v>
       </c>
       <c r="O2" s="66"/>
@@ -17177,13 +17181,13 @@
       <c r="R2" s="66">
         <v>100</v>
       </c>
-      <c r="S2" s="114">
-        <f>Q2*R2</f>
+      <c r="S2" s="93">
+        <f t="shared" ref="S2:S22" si="2">Q2*R2</f>
         <v>-100</v>
       </c>
-      <c r="T2" s="118"/>
+      <c r="T2" s="97"/>
       <c r="U2" s="66"/>
-      <c r="V2" s="115">
+      <c r="V2" s="94">
         <v>-100</v>
       </c>
     </row>
@@ -17191,7 +17195,7 @@
       <c r="A3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" s="107"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="66" t="s">
         <v>287</v>
       </c>
@@ -17202,7 +17206,7 @@
         <v>1045</v>
       </c>
       <c r="F3" s="65">
-        <f t="shared" ref="F3:F16" si="2">D3*E3/1000000</f>
+        <f t="shared" ref="F3:F16" si="3">D3*E3/1000000</f>
         <v>7.1687000000000003</v>
       </c>
       <c r="G3" s="66">
@@ -17215,31 +17219,31 @@
       <c r="I3" s="64"/>
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
-      <c r="M3" s="114">
+      <c r="M3" s="93">
         <v>2</v>
       </c>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="114" t="s">
+      <c r="P3" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="Q3" s="114">
+      <c r="Q3" s="93">
         <v>90</v>
       </c>
-      <c r="R3" s="114">
+      <c r="R3" s="93">
         <v>-55</v>
       </c>
-      <c r="S3" s="114">
-        <f>Q3*R3</f>
+      <c r="S3" s="93">
+        <f t="shared" si="2"/>
         <v>-4950</v>
       </c>
-      <c r="T3" s="118"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="116">
+      <c r="T3" s="97"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="95">
         <v>-4950</v>
       </c>
     </row>
@@ -17247,7 +17251,7 @@
       <c r="A4" s="70">
         <v>3</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="76" t="s">
         <v>305</v>
       </c>
@@ -17258,7 +17262,7 @@
         <v>1045</v>
       </c>
       <c r="F4" s="79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51727500000000004</v>
       </c>
       <c r="G4" s="76">
@@ -17278,35 +17282,35 @@
         <f>(I4-J4)*G4</f>
         <v>70</v>
       </c>
-      <c r="M4" s="114">
+      <c r="M4" s="93">
         <v>3</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="93" t="s">
         <v>304</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="Q4" s="114">
+      <c r="Q4" s="93">
         <v>11.5</v>
       </c>
-      <c r="R4" s="114">
+      <c r="R4" s="93">
         <v>70</v>
       </c>
-      <c r="S4" s="114">
-        <f>Q4*R4</f>
+      <c r="S4" s="93">
+        <f t="shared" si="2"/>
         <v>805</v>
       </c>
-      <c r="T4" s="118">
+      <c r="T4" s="97">
         <v>11.5</v>
       </c>
-      <c r="U4" s="114">
+      <c r="U4" s="93">
         <v>13</v>
       </c>
-      <c r="V4" s="115">
+      <c r="V4" s="94">
         <f>(T4-U4)*R4</f>
         <v>-105</v>
       </c>
@@ -17315,10 +17319,10 @@
       <c r="A5" s="64">
         <v>1</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="113" t="s">
         <v>285</v>
       </c>
       <c r="D5" s="65">
@@ -17338,36 +17342,36 @@
         <f>F5*G5</f>
         <v>889.35000000000014</v>
       </c>
-      <c r="M5" s="114">
+      <c r="M5" s="93">
         <v>4</v>
       </c>
-      <c r="N5" s="114" t="s">
+      <c r="N5" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="O5" s="114" t="s">
+      <c r="O5" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="P5" s="114" t="s">
+      <c r="P5" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="Q5" s="114">
+      <c r="Q5" s="93">
         <v>89</v>
       </c>
-      <c r="R5" s="114">
+      <c r="R5" s="93">
         <v>110</v>
       </c>
-      <c r="S5" s="114">
-        <f>Q5*R5</f>
+      <c r="S5" s="93">
+        <f t="shared" si="2"/>
         <v>9790</v>
       </c>
-      <c r="T5" s="118">
+      <c r="T5" s="97">
         <v>89</v>
       </c>
-      <c r="U5" s="114">
+      <c r="U5" s="93">
         <v>80</v>
       </c>
-      <c r="V5" s="115">
-        <f t="shared" ref="V5:V22" si="3">(T5-U5)*R5</f>
+      <c r="V5" s="94">
+        <f t="shared" ref="V5:V22" si="4">(T5-U5)*R5</f>
         <v>990</v>
       </c>
     </row>
@@ -17375,8 +17379,8 @@
       <c r="A6" s="64">
         <v>2</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="65">
         <v>1460</v>
       </c>
@@ -17384,46 +17388,46 @@
         <v>2750</v>
       </c>
       <c r="F6" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0149999999999997</v>
       </c>
       <c r="G6" s="66">
         <v>110</v>
       </c>
       <c r="H6" s="65">
-        <f t="shared" ref="H6:H18" si="4">F6*G6</f>
+        <f t="shared" ref="H6:H18" si="5">F6*G6</f>
         <v>441.65</v>
       </c>
-      <c r="M6" s="114">
+      <c r="M6" s="93">
         <v>5</v>
       </c>
-      <c r="N6" s="114" t="s">
+      <c r="N6" s="93" t="s">
         <v>337</v>
       </c>
-      <c r="O6" s="114" t="s">
+      <c r="O6" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="P6" s="114" t="s">
+      <c r="P6" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="Q6" s="114">
+      <c r="Q6" s="93">
         <v>0</v>
       </c>
-      <c r="R6" s="114">
+      <c r="R6" s="93">
         <v>130</v>
       </c>
-      <c r="S6" s="114">
-        <f>Q6*R6</f>
+      <c r="S6" s="93">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="118">
+      <c r="T6" s="97">
         <v>0</v>
       </c>
-      <c r="U6" s="114">
+      <c r="U6" s="93">
         <v>9</v>
       </c>
-      <c r="V6" s="115">
-        <f t="shared" si="3"/>
+      <c r="V6" s="94">
+        <f t="shared" si="4"/>
         <v>-1170</v>
       </c>
     </row>
@@ -17431,8 +17435,8 @@
       <c r="A7" s="64">
         <v>3</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="105"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="65">
         <v>2380</v>
       </c>
@@ -17440,46 +17444,46 @@
         <v>2750</v>
       </c>
       <c r="F7" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5449999999999999</v>
       </c>
       <c r="G7" s="66">
         <v>110</v>
       </c>
       <c r="H7" s="65">
+        <f t="shared" si="5"/>
+        <v>719.95</v>
+      </c>
+      <c r="M7" s="93">
+        <v>6</v>
+      </c>
+      <c r="N7" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="O7" s="93" t="s">
+        <v>339</v>
+      </c>
+      <c r="P7" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q7" s="93">
+        <v>39.5</v>
+      </c>
+      <c r="R7" s="93">
+        <v>235</v>
+      </c>
+      <c r="S7" s="93">
+        <f t="shared" si="2"/>
+        <v>9282.5</v>
+      </c>
+      <c r="T7" s="97">
+        <v>39.5</v>
+      </c>
+      <c r="U7" s="93">
+        <v>43.76</v>
+      </c>
+      <c r="V7" s="94">
         <f t="shared" si="4"/>
-        <v>719.95</v>
-      </c>
-      <c r="M7" s="114">
-        <v>6</v>
-      </c>
-      <c r="N7" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="O7" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="P7" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q7" s="114">
-        <v>39.5</v>
-      </c>
-      <c r="R7" s="114">
-        <v>235</v>
-      </c>
-      <c r="S7" s="114">
-        <f>Q7*R7</f>
-        <v>9282.5</v>
-      </c>
-      <c r="T7" s="118">
-        <v>39.5</v>
-      </c>
-      <c r="U7" s="114">
-        <v>43.76</v>
-      </c>
-      <c r="V7" s="115">
-        <f t="shared" si="3"/>
         <v>-1001.0999999999996</v>
       </c>
     </row>
@@ -17487,8 +17491,8 @@
       <c r="A8" s="64">
         <v>4</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="105" t="s">
+      <c r="B8" s="119"/>
+      <c r="C8" s="113" t="s">
         <v>286</v>
       </c>
       <c r="D8" s="65">
@@ -17498,46 +17502,46 @@
         <v>2750</v>
       </c>
       <c r="F8" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4875000000000007</v>
       </c>
       <c r="G8" s="66">
         <v>110</v>
       </c>
       <c r="H8" s="65">
+        <f t="shared" si="5"/>
+        <v>1043.625</v>
+      </c>
+      <c r="M8" s="93">
+        <v>7</v>
+      </c>
+      <c r="N8" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="O8" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="P8" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q8" s="93">
+        <v>104</v>
+      </c>
+      <c r="R8" s="93">
+        <v>55</v>
+      </c>
+      <c r="S8" s="93">
+        <f t="shared" si="2"/>
+        <v>5720</v>
+      </c>
+      <c r="T8" s="97">
+        <v>104</v>
+      </c>
+      <c r="U8" s="93">
+        <v>118</v>
+      </c>
+      <c r="V8" s="94">
         <f t="shared" si="4"/>
-        <v>1043.625</v>
-      </c>
-      <c r="M8" s="114">
-        <v>7</v>
-      </c>
-      <c r="N8" s="114" t="s">
-        <v>308</v>
-      </c>
-      <c r="O8" s="114" t="s">
-        <v>341</v>
-      </c>
-      <c r="P8" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q8" s="114">
-        <v>104</v>
-      </c>
-      <c r="R8" s="114">
-        <v>55</v>
-      </c>
-      <c r="S8" s="114">
-        <f>Q8*R8</f>
-        <v>5720</v>
-      </c>
-      <c r="T8" s="118">
-        <v>104</v>
-      </c>
-      <c r="U8" s="114">
-        <v>118</v>
-      </c>
-      <c r="V8" s="115">
-        <f t="shared" si="3"/>
         <v>-770</v>
       </c>
     </row>
@@ -17545,8 +17549,8 @@
       <c r="A9" s="64">
         <v>5</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="65">
         <v>4360</v>
       </c>
@@ -17554,46 +17558,46 @@
         <v>2750</v>
       </c>
       <c r="F9" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.99</v>
       </c>
       <c r="G9" s="66">
         <v>110</v>
       </c>
       <c r="H9" s="65">
+        <f t="shared" si="5"/>
+        <v>1318.9</v>
+      </c>
+      <c r="M9" s="93">
+        <v>8</v>
+      </c>
+      <c r="N9" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="O9" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="P9" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q9" s="93">
+        <v>14</v>
+      </c>
+      <c r="R9" s="93">
+        <v>330</v>
+      </c>
+      <c r="S9" s="93">
+        <f t="shared" si="2"/>
+        <v>4620</v>
+      </c>
+      <c r="T9" s="97">
+        <v>14</v>
+      </c>
+      <c r="U9" s="93">
+        <v>15</v>
+      </c>
+      <c r="V9" s="95">
         <f t="shared" si="4"/>
-        <v>1318.9</v>
-      </c>
-      <c r="M9" s="114">
-        <v>8</v>
-      </c>
-      <c r="N9" s="114" t="s">
-        <v>324</v>
-      </c>
-      <c r="O9" s="114" t="s">
-        <v>342</v>
-      </c>
-      <c r="P9" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q9" s="114">
-        <v>14</v>
-      </c>
-      <c r="R9" s="114">
-        <v>330</v>
-      </c>
-      <c r="S9" s="114">
-        <f>Q9*R9</f>
-        <v>4620</v>
-      </c>
-      <c r="T9" s="118">
-        <v>14</v>
-      </c>
-      <c r="U9" s="114">
-        <v>15</v>
-      </c>
-      <c r="V9" s="116">
-        <f t="shared" si="3"/>
         <v>-330</v>
       </c>
     </row>
@@ -17601,8 +17605,8 @@
       <c r="A10" s="64">
         <v>6</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="65">
         <v>3915</v>
       </c>
@@ -17610,46 +17614,46 @@
         <v>2750</v>
       </c>
       <c r="F10" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.766249999999999</v>
       </c>
       <c r="G10" s="66">
         <v>110</v>
       </c>
       <c r="H10" s="65">
+        <f t="shared" si="5"/>
+        <v>1184.2874999999999</v>
+      </c>
+      <c r="M10" s="93">
+        <v>9</v>
+      </c>
+      <c r="N10" s="93" t="s">
+        <v>343</v>
+      </c>
+      <c r="O10" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="P10" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q10" s="93">
+        <v>8.5</v>
+      </c>
+      <c r="R10" s="93">
+        <v>50</v>
+      </c>
+      <c r="S10" s="93">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="T10" s="97">
+        <v>8.5</v>
+      </c>
+      <c r="U10" s="93">
+        <v>11</v>
+      </c>
+      <c r="V10" s="95">
         <f t="shared" si="4"/>
-        <v>1184.2874999999999</v>
-      </c>
-      <c r="M10" s="114">
-        <v>9</v>
-      </c>
-      <c r="N10" s="114" t="s">
-        <v>343</v>
-      </c>
-      <c r="O10" s="114" t="s">
-        <v>344</v>
-      </c>
-      <c r="P10" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q10" s="114">
-        <v>8.5</v>
-      </c>
-      <c r="R10" s="114">
-        <v>50</v>
-      </c>
-      <c r="S10" s="114">
-        <f>Q10*R10</f>
-        <v>425</v>
-      </c>
-      <c r="T10" s="118">
-        <v>8.5</v>
-      </c>
-      <c r="U10" s="114">
-        <v>11</v>
-      </c>
-      <c r="V10" s="116">
-        <f t="shared" si="3"/>
         <v>-125</v>
       </c>
     </row>
@@ -17657,8 +17661,8 @@
       <c r="A11" s="64">
         <v>7</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="105" t="s">
+      <c r="B11" s="119"/>
+      <c r="C11" s="113" t="s">
         <v>287</v>
       </c>
       <c r="D11" s="65">
@@ -17668,46 +17672,46 @@
         <v>2750</v>
       </c>
       <c r="F11" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.864999999999998</v>
       </c>
       <c r="G11" s="66">
         <v>110</v>
       </c>
       <c r="H11" s="65">
+        <f t="shared" si="5"/>
+        <v>2075.1499999999996</v>
+      </c>
+      <c r="M11" s="93">
+        <v>10</v>
+      </c>
+      <c r="N11" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="O11" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="P11" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q11" s="93">
+        <v>9.5</v>
+      </c>
+      <c r="R11" s="93">
+        <v>150</v>
+      </c>
+      <c r="S11" s="93">
+        <f t="shared" si="2"/>
+        <v>1425</v>
+      </c>
+      <c r="T11" s="97">
+        <v>9.5</v>
+      </c>
+      <c r="U11" s="93">
+        <v>11.5</v>
+      </c>
+      <c r="V11" s="95">
         <f t="shared" si="4"/>
-        <v>2075.1499999999996</v>
-      </c>
-      <c r="M11" s="114">
-        <v>10</v>
-      </c>
-      <c r="N11" s="114" t="s">
-        <v>193</v>
-      </c>
-      <c r="O11" s="114" t="s">
-        <v>345</v>
-      </c>
-      <c r="P11" s="114" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q11" s="114">
-        <v>9.5</v>
-      </c>
-      <c r="R11" s="114">
-        <v>150</v>
-      </c>
-      <c r="S11" s="114">
-        <f>Q11*R11</f>
-        <v>1425</v>
-      </c>
-      <c r="T11" s="118">
-        <v>9.5</v>
-      </c>
-      <c r="U11" s="114">
-        <v>11.5</v>
-      </c>
-      <c r="V11" s="116">
-        <f t="shared" si="3"/>
         <v>-300</v>
       </c>
     </row>
@@ -17715,8 +17719,8 @@
       <c r="A12" s="64">
         <v>8</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="65">
         <v>1045</v>
       </c>
@@ -17724,55 +17728,55 @@
         <v>2750</v>
       </c>
       <c r="F12" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8737499999999998</v>
       </c>
       <c r="G12" s="66">
         <v>110</v>
       </c>
       <c r="H12" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>316.11249999999995</v>
       </c>
-      <c r="M12" s="114">
+      <c r="M12" s="93">
         <v>11</v>
       </c>
-      <c r="N12" s="114" t="s">
+      <c r="N12" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="114" t="s">
+      <c r="O12" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="P12" s="114" t="s">
+      <c r="P12" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q12" s="66">
         <v>8.5</v>
       </c>
-      <c r="R12" s="114">
+      <c r="R12" s="93">
         <v>115</v>
       </c>
-      <c r="S12" s="114">
-        <f>Q12*R12</f>
+      <c r="S12" s="93">
+        <f t="shared" si="2"/>
         <v>977.5</v>
       </c>
-      <c r="T12" s="118">
+      <c r="T12" s="97">
         <v>8.5</v>
       </c>
-      <c r="U12" s="114">
-        <v>9</v>
-      </c>
-      <c r="V12" s="116">
-        <f t="shared" si="3"/>
-        <v>-57.5</v>
+      <c r="U12" s="93">
+        <v>3</v>
+      </c>
+      <c r="V12" s="95">
+        <f t="shared" si="4"/>
+        <v>632.5</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1">
       <c r="A13" s="64">
         <v>9</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="65">
         <v>7840</v>
       </c>
@@ -17780,17 +17784,17 @@
         <v>2750</v>
       </c>
       <c r="F13" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.56</v>
       </c>
       <c r="G13" s="66">
         <v>110</v>
       </c>
       <c r="H13" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2371.6</v>
       </c>
-      <c r="M13" s="114">
+      <c r="M13" s="93">
         <v>12</v>
       </c>
       <c r="N13" s="62" t="s">
@@ -17809,17 +17813,17 @@
         <v>80</v>
       </c>
       <c r="S13" s="62">
-        <f>Q13*R13</f>
+        <f t="shared" si="2"/>
         <v>228.79999999999998</v>
       </c>
-      <c r="T13" s="119">
+      <c r="T13" s="98">
         <v>2.86</v>
       </c>
-      <c r="U13" s="114">
+      <c r="U13" s="93">
         <v>5</v>
       </c>
-      <c r="V13" s="116">
-        <f t="shared" si="3"/>
+      <c r="V13" s="95">
+        <f t="shared" si="4"/>
         <v>-171.20000000000002</v>
       </c>
     </row>
@@ -17827,8 +17831,8 @@
       <c r="A14" s="64">
         <v>10</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="105" t="s">
+      <c r="B14" s="119"/>
+      <c r="C14" s="113" t="s">
         <v>288</v>
       </c>
       <c r="D14" s="65">
@@ -17838,17 +17842,17 @@
         <v>2750</v>
       </c>
       <c r="F14" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1675000000000004</v>
       </c>
       <c r="G14" s="66">
         <v>110</v>
       </c>
       <c r="H14" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>898.42500000000007</v>
       </c>
-      <c r="M14" s="114">
+      <c r="M14" s="93">
         <v>13</v>
       </c>
       <c r="N14" s="62" t="s">
@@ -17867,17 +17871,17 @@
         <v>70</v>
       </c>
       <c r="S14" s="62">
-        <f>Q14*R14</f>
+        <f t="shared" si="2"/>
         <v>469</v>
       </c>
-      <c r="T14" s="119">
+      <c r="T14" s="98">
         <v>6.7</v>
       </c>
       <c r="U14" s="62">
         <v>6</v>
       </c>
-      <c r="V14" s="116">
-        <f t="shared" si="3"/>
+      <c r="V14" s="95">
+        <f t="shared" si="4"/>
         <v>49.000000000000014</v>
       </c>
     </row>
@@ -17885,8 +17889,8 @@
       <c r="A15" s="64">
         <v>11</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="105"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="65">
         <v>3090</v>
       </c>
@@ -17894,17 +17898,17 @@
         <v>2750</v>
       </c>
       <c r="F15" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4975000000000005</v>
       </c>
       <c r="G15" s="66">
         <v>110</v>
       </c>
       <c r="H15" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>934.72500000000002</v>
       </c>
-      <c r="M15" s="114">
+      <c r="M15" s="93">
         <v>14</v>
       </c>
       <c r="N15" s="62" t="s">
@@ -17923,17 +17927,17 @@
         <v>60</v>
       </c>
       <c r="S15" s="62">
-        <f>Q15*R15</f>
+        <f t="shared" si="2"/>
         <v>549</v>
       </c>
-      <c r="T15" s="119">
+      <c r="T15" s="98">
         <v>9.15</v>
       </c>
       <c r="U15" s="62">
         <v>10</v>
       </c>
-      <c r="V15" s="116">
-        <f t="shared" si="3"/>
+      <c r="V15" s="95">
+        <f t="shared" si="4"/>
         <v>-50.999999999999979</v>
       </c>
     </row>
@@ -17941,8 +17945,8 @@
       <c r="A16" s="67">
         <v>12</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="113"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="68">
         <v>3010</v>
       </c>
@@ -17950,24 +17954,24 @@
         <v>2750</v>
       </c>
       <c r="F16" s="68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2774999999999999</v>
       </c>
       <c r="G16" s="69">
         <v>110</v>
       </c>
       <c r="H16" s="68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>910.52499999999998</v>
       </c>
-      <c r="M16" s="114">
+      <c r="M16" s="93">
         <v>15</v>
       </c>
       <c r="N16" s="62" t="s">
         <v>352</v>
       </c>
       <c r="O16" s="62"/>
-      <c r="P16" s="114" t="s">
+      <c r="P16" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q16" s="65">
@@ -17977,17 +17981,17 @@
         <v>20</v>
       </c>
       <c r="S16" s="62">
-        <f>Q16*R16</f>
+        <f t="shared" si="2"/>
         <v>998</v>
       </c>
-      <c r="T16" s="119">
+      <c r="T16" s="98">
         <v>49.9</v>
       </c>
       <c r="U16" s="62">
         <v>0</v>
       </c>
-      <c r="V16" s="116">
-        <f t="shared" si="3"/>
+      <c r="V16" s="95">
+        <f t="shared" si="4"/>
         <v>998</v>
       </c>
     </row>
@@ -17995,7 +17999,7 @@
       <c r="A17" s="71">
         <v>13</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="121" t="s">
         <v>289</v>
       </c>
       <c r="C17" s="72" t="s">
@@ -18015,17 +18019,17 @@
         <v>110</v>
       </c>
       <c r="H17" s="72">
-        <f t="shared" ref="H17" si="5">F17*G17</f>
+        <f t="shared" ref="H17" si="6">F17*G17</f>
         <v>-163.73499999999999</v>
       </c>
-      <c r="M17" s="114">
+      <c r="M17" s="93">
         <v>16</v>
       </c>
       <c r="N17" s="62" t="s">
         <v>353</v>
       </c>
       <c r="O17" s="62"/>
-      <c r="P17" s="114" t="s">
+      <c r="P17" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q17" s="62">
@@ -18035,17 +18039,17 @@
         <v>45</v>
       </c>
       <c r="S17" s="62">
-        <f>Q17*R17</f>
+        <f t="shared" si="2"/>
         <v>2245.5</v>
       </c>
-      <c r="T17" s="119">
+      <c r="T17" s="98">
         <v>49.9</v>
       </c>
       <c r="U17" s="62">
         <v>54</v>
       </c>
-      <c r="V17" s="116">
-        <f t="shared" si="3"/>
+      <c r="V17" s="95">
+        <f t="shared" si="4"/>
         <v>-184.50000000000006</v>
       </c>
     </row>
@@ -18053,7 +18057,7 @@
       <c r="A18" s="64">
         <v>14</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="65" t="s">
         <v>261</v>
       </c>
@@ -18064,17 +18068,17 @@
         <v>2290</v>
       </c>
       <c r="F18" s="65">
-        <f t="shared" ref="F18:F19" si="6">-D18*E18/1000000/2</f>
+        <f t="shared" ref="F18:F19" si="7">-D18*E18/1000000/2</f>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G18" s="65">
         <v>110</v>
       </c>
       <c r="H18" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M18" s="114">
+      <c r="M18" s="93">
         <v>17</v>
       </c>
       <c r="N18" s="62" t="s">
@@ -18091,17 +18095,17 @@
         <v>48</v>
       </c>
       <c r="S18" s="62">
-        <f>Q18*R18</f>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="T18" s="119">
+      <c r="T18" s="98">
         <v>7.5</v>
       </c>
       <c r="U18" s="62">
         <v>0</v>
       </c>
-      <c r="V18" s="116">
-        <f t="shared" si="3"/>
+      <c r="V18" s="95">
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
     </row>
@@ -18109,7 +18113,7 @@
       <c r="A19" s="64">
         <v>15</v>
       </c>
-      <c r="B19" s="107"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="65" t="s">
         <v>286</v>
       </c>
@@ -18120,17 +18124,17 @@
         <v>2290</v>
       </c>
       <c r="F19" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3662999999999998</v>
       </c>
       <c r="G19" s="65">
         <v>110</v>
       </c>
       <c r="H19" s="65">
-        <f t="shared" ref="H19:H20" si="7">F19*G19</f>
+        <f t="shared" ref="H19:H20" si="8">F19*G19</f>
         <v>-370.29300000000001</v>
       </c>
-      <c r="M19" s="114">
+      <c r="M19" s="93">
         <v>18</v>
       </c>
       <c r="N19" s="62" t="s">
@@ -18147,17 +18151,17 @@
         <v>100</v>
       </c>
       <c r="S19" s="62">
-        <f>Q19*R19</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="T19" s="119">
+      <c r="T19" s="98">
         <v>3</v>
       </c>
       <c r="U19" s="62">
         <v>0</v>
       </c>
-      <c r="V19" s="116">
-        <f t="shared" si="3"/>
+      <c r="V19" s="95">
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -18165,7 +18169,7 @@
       <c r="A20" s="64">
         <v>16</v>
       </c>
-      <c r="B20" s="107"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="65" t="s">
         <v>275</v>
       </c>
@@ -18176,17 +18180,17 @@
         <v>2290</v>
       </c>
       <c r="F20" s="65">
-        <f t="shared" ref="F20:F26" si="8">-D20*E20/1000000/2</f>
+        <f t="shared" ref="F20:F26" si="9">-D20*E20/1000000/2</f>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G20" s="65">
         <v>110</v>
       </c>
       <c r="H20" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M20" s="114">
+      <c r="M20" s="93">
         <v>19</v>
       </c>
       <c r="N20" s="62" t="s">
@@ -18195,7 +18199,7 @@
       <c r="O20" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="P20" s="114" t="s">
+      <c r="P20" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q20" s="62">
@@ -18205,25 +18209,25 @@
         <v>35</v>
       </c>
       <c r="S20" s="62">
-        <f>Q20*R20</f>
+        <f t="shared" si="2"/>
         <v>555.1</v>
       </c>
-      <c r="T20" s="119">
+      <c r="T20" s="98">
         <v>15.86</v>
       </c>
       <c r="U20" s="62">
-        <v>12</v>
-      </c>
-      <c r="V20" s="116">
-        <f t="shared" si="3"/>
-        <v>135.09999999999997</v>
+        <v>6</v>
+      </c>
+      <c r="V20" s="95">
+        <f t="shared" si="4"/>
+        <v>345.09999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1">
       <c r="A21" s="64">
         <v>17</v>
       </c>
-      <c r="B21" s="107"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="65" t="s">
         <v>278</v>
       </c>
@@ -18234,17 +18238,17 @@
         <v>2290</v>
       </c>
       <c r="F21" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G21" s="65">
         <v>110</v>
       </c>
       <c r="H21" s="65">
-        <f t="shared" ref="H21:H24" si="9">F21*G21</f>
+        <f t="shared" ref="H21:H24" si="10">F21*G21</f>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M21" s="114">
+      <c r="M21" s="93">
         <v>20</v>
       </c>
       <c r="N21" s="62" t="s">
@@ -18261,17 +18265,17 @@
         <v>135</v>
       </c>
       <c r="S21" s="62">
-        <f>Q21*R21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21" s="119">
+      <c r="T21" s="98">
         <v>0</v>
       </c>
       <c r="U21" s="62">
         <v>1</v>
       </c>
-      <c r="V21" s="120">
-        <f t="shared" si="3"/>
+      <c r="V21" s="99">
+        <f t="shared" si="4"/>
         <v>-135</v>
       </c>
     </row>
@@ -18279,7 +18283,7 @@
       <c r="A22" s="64">
         <v>18</v>
       </c>
-      <c r="B22" s="107"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="65" t="s">
         <v>270</v>
       </c>
@@ -18290,17 +18294,17 @@
         <v>2290</v>
       </c>
       <c r="F22" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G22" s="65">
         <v>110</v>
       </c>
       <c r="H22" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M22" s="114">
+      <c r="M22" s="93">
         <v>21</v>
       </c>
       <c r="N22" s="62" t="s">
@@ -18317,17 +18321,17 @@
         <v>10</v>
       </c>
       <c r="S22" s="62">
-        <f>Q22*R22</f>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="T22" s="119">
+      <c r="T22" s="98">
         <v>75</v>
       </c>
       <c r="U22" s="62">
         <v>0</v>
       </c>
-      <c r="V22" s="120">
-        <f t="shared" si="3"/>
+      <c r="V22" s="99">
+        <f t="shared" si="4"/>
         <v>750</v>
       </c>
     </row>
@@ -18335,7 +18339,7 @@
       <c r="A23" s="64">
         <v>19</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="65" t="s">
         <v>276</v>
       </c>
@@ -18346,37 +18350,37 @@
         <v>2290</v>
       </c>
       <c r="F23" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G23" s="65">
         <v>110</v>
       </c>
       <c r="H23" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M23" s="123" t="s">
+      <c r="M23" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="122">
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="117">
         <f>SUM(V2:V22)</f>
-        <v>-5868.1999999999989</v>
-      </c>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
+        <v>-4968.1999999999989</v>
+      </c>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1">
       <c r="A24" s="64">
         <v>20</v>
       </c>
-      <c r="B24" s="107"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="65" t="s">
         <v>290</v>
       </c>
@@ -18387,37 +18391,37 @@
         <v>2100</v>
       </c>
       <c r="F24" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.8085</v>
       </c>
       <c r="G24" s="65">
         <v>110</v>
       </c>
       <c r="H24" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-88.935000000000002</v>
       </c>
-      <c r="M24" s="123" t="s">
+      <c r="M24" s="116" t="s">
         <v>364</v>
       </c>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="122">
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="117">
         <f>T23*0.05</f>
-        <v>-293.40999999999997</v>
-      </c>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
+        <v>-248.40999999999997</v>
+      </c>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1">
       <c r="A25" s="67">
         <v>21</v>
       </c>
-      <c r="B25" s="111"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="68" t="s">
         <v>258</v>
       </c>
@@ -18428,31 +18432,31 @@
         <v>2140</v>
       </c>
       <c r="F25" s="68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.6798999999999999</v>
       </c>
       <c r="G25" s="68">
         <v>110</v>
       </c>
       <c r="H25" s="68">
-        <f t="shared" ref="H25:H26" si="10">F25*G25</f>
+        <f t="shared" ref="H25:H26" si="11">F25*G25</f>
         <v>-184.78899999999999</v>
       </c>
-      <c r="M25" s="123" t="s">
+      <c r="M25" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="122">
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="117">
         <f>T23*0.05</f>
-        <v>-293.40999999999997</v>
-      </c>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
+        <v>-248.40999999999997</v>
+      </c>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
       <c r="A26" s="74">
@@ -18471,14 +18475,14 @@
         <v>1350</v>
       </c>
       <c r="F26" s="75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.3027500000000001</v>
       </c>
       <c r="G26" s="75">
         <v>110</v>
       </c>
       <c r="H26" s="75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-143.30250000000001</v>
       </c>
       <c r="I26" s="70">
@@ -18491,27 +18495,27 @@
         <f>(I26-J26)*G26</f>
         <v>-1760</v>
       </c>
-      <c r="M26" s="123" t="s">
+      <c r="M26" s="116" t="s">
         <v>363</v>
       </c>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="122">
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="117">
         <f>(T23+T24+T25)*0.95</f>
-        <v>-6132.2689999999984</v>
-      </c>
-      <c r="U26" s="122"/>
-      <c r="V26" s="122"/>
+        <v>-5191.7689999999984</v>
+      </c>
+      <c r="U26" s="117"/>
+      <c r="V26" s="117"/>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1">
       <c r="A27" s="77">
         <v>1</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="122" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="78" t="s">
@@ -18534,7 +18538,7 @@
       <c r="A28" s="70">
         <v>2</v>
       </c>
-      <c r="B28" s="108"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="79" t="s">
         <v>294</v>
       </c>
@@ -18565,7 +18569,7 @@
       <c r="A29" s="77">
         <v>1</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="122" t="s">
         <v>298</v>
       </c>
       <c r="C29" s="78" t="s">
@@ -18585,7 +18589,7 @@
         <v>225</v>
       </c>
       <c r="H29" s="78">
-        <f t="shared" ref="H29:H32" si="11">F29*G29</f>
+        <f t="shared" ref="H29:H32" si="12">F29*G29</f>
         <v>1925.1</v>
       </c>
     </row>
@@ -18593,7 +18597,7 @@
       <c r="A30" s="64">
         <v>2</v>
       </c>
-      <c r="B30" s="107"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="65" t="s">
         <v>296</v>
       </c>
@@ -18611,7 +18615,7 @@
         <v>225</v>
       </c>
       <c r="H30" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2062.8675000000003</v>
       </c>
     </row>
@@ -18619,7 +18623,7 @@
       <c r="A31" s="64">
         <v>3</v>
       </c>
-      <c r="B31" s="107"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="65" t="s">
         <v>297</v>
       </c>
@@ -18630,14 +18634,14 @@
         <v>1570</v>
       </c>
       <c r="F31" s="65">
-        <f t="shared" ref="F31:F32" si="12">D31*E31/1000000*2</f>
+        <f t="shared" ref="F31:F32" si="13">D31*E31/1000000*2</f>
         <v>9.891</v>
       </c>
       <c r="G31" s="66">
         <v>225</v>
       </c>
       <c r="H31" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2225.4749999999999</v>
       </c>
     </row>
@@ -18645,7 +18649,7 @@
       <c r="A32" s="70">
         <v>4</v>
       </c>
-      <c r="B32" s="108"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="79" t="s">
         <v>258</v>
       </c>
@@ -18656,14 +18660,14 @@
         <v>1500</v>
       </c>
       <c r="F32" s="79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11.88</v>
       </c>
       <c r="G32" s="76">
         <v>225</v>
       </c>
       <c r="H32" s="79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2673</v>
       </c>
       <c r="I32" s="70">
@@ -18681,7 +18685,7 @@
       <c r="A33" s="77">
         <v>1</v>
       </c>
-      <c r="B33" s="106" t="s">
+      <c r="B33" s="122" t="s">
         <v>299</v>
       </c>
       <c r="C33" s="78" t="s">
@@ -18701,7 +18705,7 @@
         <v>225</v>
       </c>
       <c r="H33" s="78">
-        <f t="shared" ref="H33:H43" si="13">F33*G33</f>
+        <f t="shared" ref="H33:H43" si="14">F33*G33</f>
         <v>5333.625</v>
       </c>
     </row>
@@ -18709,7 +18713,7 @@
       <c r="A34" s="64">
         <v>2</v>
       </c>
-      <c r="B34" s="107"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="65" t="s">
         <v>296</v>
       </c>
@@ -18720,14 +18724,14 @@
         <v>2750</v>
       </c>
       <c r="F34" s="65">
-        <f t="shared" ref="F34:F36" si="14">D34*E34/1000000</f>
+        <f t="shared" ref="F34:F36" si="15">D34*E34/1000000</f>
         <v>24.282499999999999</v>
       </c>
       <c r="G34" s="66">
         <v>225</v>
       </c>
       <c r="H34" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5463.5625</v>
       </c>
     </row>
@@ -18735,7 +18739,7 @@
       <c r="A35" s="64">
         <v>3</v>
       </c>
-      <c r="B35" s="107"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="65" t="s">
         <v>297</v>
       </c>
@@ -18746,14 +18750,14 @@
         <v>2750</v>
       </c>
       <c r="F35" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.96</v>
       </c>
       <c r="G35" s="66">
         <v>225</v>
       </c>
       <c r="H35" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5841</v>
       </c>
     </row>
@@ -18761,7 +18765,7 @@
       <c r="A36" s="67">
         <v>4</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="68" t="s">
         <v>258</v>
       </c>
@@ -18772,14 +18776,14 @@
         <v>2750</v>
       </c>
       <c r="F36" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24.695</v>
       </c>
       <c r="G36" s="69">
         <v>225</v>
       </c>
       <c r="H36" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5556.375</v>
       </c>
     </row>
@@ -18787,7 +18791,7 @@
       <c r="A37" s="64">
         <v>5</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="119" t="s">
         <v>289</v>
       </c>
       <c r="C37" s="65" t="s">
@@ -18800,14 +18804,14 @@
         <v>2100</v>
       </c>
       <c r="F37" s="65">
-        <f t="shared" ref="F37:F43" si="15">-D37*E37/1000000/2</f>
+        <f t="shared" ref="F37:F40" si="16">-D37*E37/1000000/2</f>
         <v>-0.8085</v>
       </c>
       <c r="G37" s="65">
         <v>55</v>
       </c>
       <c r="H37" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-44.467500000000001</v>
       </c>
     </row>
@@ -18815,7 +18819,7 @@
       <c r="A38" s="64">
         <v>6</v>
       </c>
-      <c r="B38" s="107"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="65" t="s">
         <v>296</v>
       </c>
@@ -18826,14 +18830,14 @@
         <v>2100</v>
       </c>
       <c r="F38" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.8085</v>
       </c>
       <c r="G38" s="65">
         <v>55</v>
       </c>
       <c r="H38" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-44.467500000000001</v>
       </c>
       <c r="I38" s="65"/>
@@ -18844,7 +18848,7 @@
       <c r="A39" s="64">
         <v>7</v>
       </c>
-      <c r="B39" s="107"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="65" t="s">
         <v>297</v>
       </c>
@@ -18855,14 +18859,14 @@
         <v>2100</v>
       </c>
       <c r="F39" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.8085</v>
       </c>
       <c r="G39" s="65">
         <v>55</v>
       </c>
       <c r="H39" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-44.467500000000001</v>
       </c>
       <c r="I39" s="65"/>
@@ -18873,7 +18877,7 @@
       <c r="A40" s="67">
         <v>8</v>
       </c>
-      <c r="B40" s="111"/>
+      <c r="B40" s="120"/>
       <c r="C40" s="68" t="s">
         <v>258</v>
       </c>
@@ -18884,14 +18888,14 @@
         <v>2140</v>
       </c>
       <c r="F40" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.6798999999999999</v>
       </c>
       <c r="G40" s="68">
         <v>55</v>
       </c>
       <c r="H40" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-92.394499999999994</v>
       </c>
       <c r="I40" s="65"/>
@@ -18902,7 +18906,7 @@
       <c r="A41" s="64">
         <v>9</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="121" t="s">
         <v>291</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -18922,7 +18926,7 @@
         <v>55</v>
       </c>
       <c r="H41" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-62.37</v>
       </c>
       <c r="I41" s="65"/>
@@ -18934,7 +18938,7 @@
       <c r="A42" s="64">
         <v>10</v>
       </c>
-      <c r="B42" s="107"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="65" t="s">
         <v>296</v>
       </c>
@@ -18945,14 +18949,14 @@
         <v>1380</v>
       </c>
       <c r="F42" s="65">
-        <f t="shared" ref="F42:F43" si="16">-D42*E42/1000000</f>
+        <f t="shared" ref="F42:F43" si="17">-D42*E42/1000000</f>
         <v>-0.78659999999999997</v>
       </c>
       <c r="G42" s="65">
         <v>55</v>
       </c>
       <c r="H42" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-43.262999999999998</v>
       </c>
       <c r="I42" s="65"/>
@@ -18964,7 +18968,7 @@
       <c r="A43" s="64">
         <v>11</v>
       </c>
-      <c r="B43" s="107"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="65" t="s">
         <v>297</v>
       </c>
@@ -18975,14 +18979,14 @@
         <v>1790</v>
       </c>
       <c r="F43" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.3783000000000001</v>
       </c>
       <c r="G43" s="65">
         <v>55</v>
       </c>
       <c r="H43" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-75.8065</v>
       </c>
       <c r="I43" s="65"/>
@@ -18994,7 +18998,7 @@
       <c r="A44" s="70">
         <v>12</v>
       </c>
-      <c r="B44" s="108"/>
+      <c r="B44" s="123"/>
       <c r="C44" s="79" t="s">
         <v>258</v>
       </c>
@@ -19012,7 +19016,7 @@
         <v>55</v>
       </c>
       <c r="H44" s="79">
-        <f t="shared" ref="H44:H49" si="17">F44*G44</f>
+        <f t="shared" ref="H44:H49" si="18">F44*G44</f>
         <v>-83.759500000000003</v>
       </c>
       <c r="I44" s="70">
@@ -19031,7 +19035,7 @@
       <c r="A45" s="77">
         <v>1</v>
       </c>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="122" t="s">
         <v>308</v>
       </c>
       <c r="C45" s="78" t="s">
@@ -19044,14 +19048,14 @@
         <v>1550</v>
       </c>
       <c r="F45" s="65">
-        <f t="shared" ref="F45:F49" si="18">D45*E45/1000000</f>
+        <f t="shared" ref="F45:F49" si="19">D45*E45/1000000</f>
         <v>4.2779999999999996</v>
       </c>
       <c r="G45" s="66">
         <v>55</v>
       </c>
       <c r="H45" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>235.28999999999996</v>
       </c>
       <c r="I45" s="78"/>
@@ -19063,7 +19067,7 @@
       <c r="A46" s="64">
         <v>2</v>
       </c>
-      <c r="B46" s="107"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="65" t="s">
         <v>310</v>
       </c>
@@ -19074,14 +19078,14 @@
         <v>1670</v>
       </c>
       <c r="F46" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.5841500000000002</v>
       </c>
       <c r="G46" s="66">
         <v>55</v>
       </c>
       <c r="H46" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>252.12825000000001</v>
       </c>
       <c r="I46" s="65"/>
@@ -19093,7 +19097,7 @@
       <c r="A47" s="64">
         <v>3</v>
       </c>
-      <c r="B47" s="107"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="65" t="s">
         <v>311</v>
       </c>
@@ -19104,14 +19108,14 @@
         <v>1570</v>
       </c>
       <c r="F47" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.9455</v>
       </c>
       <c r="G47" s="66">
         <v>55</v>
       </c>
       <c r="H47" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>272.0025</v>
       </c>
       <c r="I47" s="65"/>
@@ -19123,7 +19127,7 @@
       <c r="A48" s="64">
         <v>4</v>
       </c>
-      <c r="B48" s="107"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="65" t="s">
         <v>312</v>
       </c>
@@ -19134,14 +19138,14 @@
         <v>1500</v>
       </c>
       <c r="F48" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.94</v>
       </c>
       <c r="G48" s="66">
         <v>55</v>
       </c>
       <c r="H48" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>326.70000000000005</v>
       </c>
       <c r="I48" s="64"/>
@@ -19153,7 +19157,7 @@
       <c r="A49" s="64">
         <v>5</v>
       </c>
-      <c r="B49" s="107"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="65" t="s">
         <v>317</v>
       </c>
@@ -19164,14 +19168,14 @@
         <v>1500</v>
       </c>
       <c r="F49" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.94</v>
       </c>
       <c r="G49" s="66">
         <v>55</v>
       </c>
       <c r="H49" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>326.70000000000005</v>
       </c>
       <c r="I49" s="64"/>
@@ -19183,7 +19187,7 @@
       <c r="A50" s="64">
         <v>6</v>
       </c>
-      <c r="B50" s="107"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="65" t="s">
         <v>313</v>
       </c>
@@ -19194,14 +19198,14 @@
         <v>2650</v>
       </c>
       <c r="F50" s="65">
-        <f t="shared" ref="F50:F53" si="19">D50*E50/1000000</f>
+        <f t="shared" ref="F50:F53" si="20">D50*E50/1000000</f>
         <v>22.843</v>
       </c>
       <c r="G50" s="66">
         <v>55</v>
       </c>
       <c r="H50" s="65">
-        <f t="shared" ref="H50:H64" si="20">F50*G50</f>
+        <f t="shared" ref="H50:H64" si="21">F50*G50</f>
         <v>1256.365</v>
       </c>
       <c r="I50" s="64"/>
@@ -19213,7 +19217,7 @@
       <c r="A51" s="64">
         <v>7</v>
       </c>
-      <c r="B51" s="107"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="65" t="s">
         <v>314</v>
       </c>
@@ -19224,14 +19228,14 @@
         <v>2650</v>
       </c>
       <c r="F51" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23.3995</v>
       </c>
       <c r="G51" s="66">
         <v>55</v>
       </c>
       <c r="H51" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1286.9725000000001</v>
       </c>
       <c r="I51" s="64"/>
@@ -19243,7 +19247,7 @@
       <c r="A52" s="64">
         <v>8</v>
       </c>
-      <c r="B52" s="107"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="65" t="s">
         <v>315</v>
       </c>
@@ -19254,14 +19258,14 @@
         <v>2650</v>
       </c>
       <c r="F52" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25.015999999999998</v>
       </c>
       <c r="G52" s="66">
         <v>55</v>
       </c>
       <c r="H52" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1375.8799999999999</v>
       </c>
       <c r="I52" s="64"/>
@@ -19273,7 +19277,7 @@
       <c r="A53" s="64">
         <v>9</v>
       </c>
-      <c r="B53" s="107"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="65" t="s">
         <v>316</v>
       </c>
@@ -19284,14 +19288,14 @@
         <v>2650</v>
       </c>
       <c r="F53" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23.797000000000001</v>
       </c>
       <c r="G53" s="66">
         <v>55</v>
       </c>
       <c r="H53" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1308.835</v>
       </c>
       <c r="I53" s="64"/>
@@ -19303,7 +19307,7 @@
       <c r="A54" s="64">
         <v>10</v>
       </c>
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="119" t="s">
         <v>289</v>
       </c>
       <c r="C54" s="65" t="s">
@@ -19323,7 +19327,7 @@
         <v>55</v>
       </c>
       <c r="H54" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-88.935000000000002</v>
       </c>
     </row>
@@ -19331,7 +19335,7 @@
       <c r="A55" s="64">
         <v>11</v>
       </c>
-      <c r="B55" s="107"/>
+      <c r="B55" s="119"/>
       <c r="C55" s="65" t="s">
         <v>296</v>
       </c>
@@ -19342,14 +19346,14 @@
         <v>2100</v>
       </c>
       <c r="F55" s="65">
-        <f t="shared" ref="F55:F60" si="21">-D55*E55/1000000</f>
+        <f t="shared" ref="F55:F60" si="22">-D55*E55/1000000</f>
         <v>-1.617</v>
       </c>
       <c r="G55" s="65">
         <v>55</v>
       </c>
       <c r="H55" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-88.935000000000002</v>
       </c>
       <c r="I55" s="65"/>
@@ -19360,7 +19364,7 @@
       <c r="A56" s="64">
         <v>12</v>
       </c>
-      <c r="B56" s="107"/>
+      <c r="B56" s="119"/>
       <c r="C56" s="65" t="s">
         <v>297</v>
       </c>
@@ -19371,14 +19375,14 @@
         <v>2100</v>
       </c>
       <c r="F56" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.617</v>
       </c>
       <c r="G56" s="65">
         <v>55</v>
       </c>
       <c r="H56" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-88.935000000000002</v>
       </c>
       <c r="I56" s="65"/>
@@ -19389,7 +19393,7 @@
       <c r="A57" s="64">
         <v>13</v>
       </c>
-      <c r="B57" s="107"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="65" t="s">
         <v>258</v>
       </c>
@@ -19400,14 +19404,14 @@
         <v>2140</v>
       </c>
       <c r="F57" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3.3597999999999999</v>
       </c>
       <c r="G57" s="65">
         <v>55</v>
       </c>
       <c r="H57" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-184.78899999999999</v>
       </c>
       <c r="I57" s="65"/>
@@ -19418,7 +19422,7 @@
       <c r="A58" s="64">
         <v>14</v>
       </c>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="119" t="s">
         <v>291</v>
       </c>
       <c r="C58" s="65" t="s">
@@ -19431,14 +19435,14 @@
         <v>1350</v>
       </c>
       <c r="F58" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.1339999999999999</v>
       </c>
       <c r="G58" s="65">
         <v>55</v>
       </c>
       <c r="H58" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-62.37</v>
       </c>
       <c r="I58" s="65"/>
@@ -19450,7 +19454,7 @@
       <c r="A59" s="64">
         <v>15</v>
       </c>
-      <c r="B59" s="107"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="65" t="s">
         <v>296</v>
       </c>
@@ -19461,14 +19465,14 @@
         <v>1380</v>
       </c>
       <c r="F59" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.78659999999999997</v>
       </c>
       <c r="G59" s="65">
         <v>55</v>
       </c>
       <c r="H59" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-43.262999999999998</v>
       </c>
       <c r="I59" s="65"/>
@@ -19480,7 +19484,7 @@
       <c r="A60" s="64">
         <v>16</v>
       </c>
-      <c r="B60" s="107"/>
+      <c r="B60" s="119"/>
       <c r="C60" s="65" t="s">
         <v>297</v>
       </c>
@@ -19491,14 +19495,14 @@
         <v>1790</v>
       </c>
       <c r="F60" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.3783000000000001</v>
       </c>
       <c r="G60" s="65">
         <v>55</v>
       </c>
       <c r="H60" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-75.8065</v>
       </c>
       <c r="I60" s="65"/>
@@ -19510,7 +19514,7 @@
       <c r="A61" s="70">
         <v>17</v>
       </c>
-      <c r="B61" s="108"/>
+      <c r="B61" s="123"/>
       <c r="C61" s="79" t="s">
         <v>258</v>
       </c>
@@ -19528,7 +19532,7 @@
         <v>55</v>
       </c>
       <c r="H61" s="79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-83.759500000000003</v>
       </c>
       <c r="I61" s="70">
@@ -19547,7 +19551,7 @@
       <c r="A62" s="63">
         <v>1</v>
       </c>
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="122" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="61" t="s">
@@ -19560,14 +19564,14 @@
         <v>1460</v>
       </c>
       <c r="F62" s="65">
-        <f t="shared" ref="F62:F64" si="22">D62*E62/1000000</f>
+        <f t="shared" ref="F62:F64" si="23">D62*E62/1000000</f>
         <v>3.4748000000000001</v>
       </c>
       <c r="G62" s="61">
         <v>26</v>
       </c>
       <c r="H62" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>90.344800000000006</v>
       </c>
     </row>
@@ -19575,7 +19579,7 @@
       <c r="A63" s="63">
         <v>2</v>
       </c>
-      <c r="B63" s="107"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="61" t="s">
         <v>320</v>
       </c>
@@ -19586,14 +19590,14 @@
         <v>1045</v>
       </c>
       <c r="F63" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.1687000000000003</v>
       </c>
       <c r="G63" s="61">
         <v>26</v>
       </c>
       <c r="H63" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>186.3862</v>
       </c>
     </row>
@@ -19601,7 +19605,7 @@
       <c r="A64" s="63">
         <v>3</v>
       </c>
-      <c r="B64" s="107"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="61" t="s">
         <v>321</v>
       </c>
@@ -19612,14 +19616,14 @@
         <v>1045</v>
       </c>
       <c r="F64" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.51727500000000004</v>
       </c>
       <c r="G64" s="61">
         <v>26</v>
       </c>
       <c r="H64" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13.449150000000001</v>
       </c>
     </row>
@@ -19627,8 +19631,8 @@
       <c r="A65" s="63">
         <v>4</v>
       </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="110" t="s">
+      <c r="B65" s="119"/>
+      <c r="C65" s="124" t="s">
         <v>261</v>
       </c>
       <c r="D65" s="61">
@@ -19638,14 +19642,14 @@
         <v>2202</v>
       </c>
       <c r="F65" s="65">
-        <f t="shared" ref="F65:F68" si="23">D65*E65/1000000</f>
+        <f t="shared" ref="F65:F68" si="24">D65*E65/1000000</f>
         <v>7.4867999999999997</v>
       </c>
       <c r="G65" s="61">
         <v>26</v>
       </c>
       <c r="H65" s="65">
-        <f t="shared" ref="H65:H79" si="24">F65*G65</f>
+        <f t="shared" ref="H65:H79" si="25">F65*G65</f>
         <v>194.6568</v>
       </c>
     </row>
@@ -19653,8 +19657,8 @@
       <c r="A66" s="63">
         <v>5</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="110"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="61">
         <v>11204</v>
       </c>
@@ -19662,14 +19666,14 @@
         <v>2750</v>
       </c>
       <c r="F66" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>30.811</v>
       </c>
       <c r="G66" s="61">
         <v>26</v>
       </c>
       <c r="H66" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>801.08600000000001</v>
       </c>
     </row>
@@ -19677,7 +19681,7 @@
       <c r="A67" s="63">
         <v>6</v>
       </c>
-      <c r="B67" s="107"/>
+      <c r="B67" s="119"/>
       <c r="C67" s="61" t="s">
         <v>286</v>
       </c>
@@ -19688,14 +19692,14 @@
         <v>4815</v>
       </c>
       <c r="F67" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24.4602</v>
       </c>
       <c r="G67" s="61">
         <v>26</v>
       </c>
       <c r="H67" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>635.96519999999998</v>
       </c>
     </row>
@@ -19703,7 +19707,7 @@
       <c r="A68" s="63">
         <v>7</v>
       </c>
-      <c r="B68" s="107"/>
+      <c r="B68" s="119"/>
       <c r="C68" s="61" t="s">
         <v>288</v>
       </c>
@@ -19714,14 +19718,14 @@
         <v>3090</v>
       </c>
       <c r="F68" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.3009000000000004</v>
       </c>
       <c r="G68" s="61">
         <v>26</v>
       </c>
       <c r="H68" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>241.82340000000002</v>
       </c>
     </row>
@@ -19729,7 +19733,7 @@
       <c r="A69" s="63">
         <v>8</v>
       </c>
-      <c r="B69" s="107"/>
+      <c r="B69" s="119"/>
       <c r="C69" s="61" t="s">
         <v>257</v>
       </c>
@@ -19740,14 +19744,14 @@
         <v>1500</v>
       </c>
       <c r="F69" s="65">
-        <f t="shared" ref="F69:F79" si="25">D69*E69/1000000</f>
+        <f t="shared" ref="F69:F79" si="26">D69*E69/1000000</f>
         <v>5.94</v>
       </c>
       <c r="G69" s="61">
         <v>26</v>
       </c>
       <c r="H69" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>154.44</v>
       </c>
     </row>
@@ -19755,8 +19759,8 @@
       <c r="A70" s="63">
         <v>9</v>
       </c>
-      <c r="B70" s="107"/>
-      <c r="C70" s="110" t="s">
+      <c r="B70" s="119"/>
+      <c r="C70" s="124" t="s">
         <v>275</v>
       </c>
       <c r="D70" s="61">
@@ -19766,14 +19770,14 @@
         <v>2790</v>
       </c>
       <c r="F70" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10.867050000000001</v>
       </c>
       <c r="G70" s="61">
         <v>26</v>
       </c>
       <c r="H70" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>282.54330000000004</v>
       </c>
     </row>
@@ -19781,8 +19785,8 @@
       <c r="A71" s="63">
         <v>10</v>
       </c>
-      <c r="B71" s="107"/>
-      <c r="C71" s="110"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="124"/>
       <c r="D71" s="61">
         <v>13370</v>
       </c>
@@ -19790,14 +19794,14 @@
         <v>2750</v>
       </c>
       <c r="F71" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>36.767499999999998</v>
       </c>
       <c r="G71" s="61">
         <v>26</v>
       </c>
       <c r="H71" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>955.95499999999993</v>
       </c>
     </row>
@@ -19805,8 +19809,8 @@
       <c r="A72" s="63">
         <v>11</v>
       </c>
-      <c r="B72" s="107"/>
-      <c r="C72" s="110" t="s">
+      <c r="B72" s="119"/>
+      <c r="C72" s="124" t="s">
         <v>276</v>
       </c>
       <c r="D72" s="61">
@@ -19816,14 +19820,14 @@
         <v>2780</v>
       </c>
       <c r="F72" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.8968000000000007</v>
       </c>
       <c r="G72" s="61">
         <v>26</v>
       </c>
       <c r="H72" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>257.3168</v>
       </c>
     </row>
@@ -19831,8 +19835,8 @@
       <c r="A73" s="63">
         <v>12</v>
       </c>
-      <c r="B73" s="107"/>
-      <c r="C73" s="110"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="124"/>
       <c r="D73" s="61">
         <v>12680</v>
       </c>
@@ -19840,14 +19844,14 @@
         <v>2750</v>
       </c>
       <c r="F73" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>34.869999999999997</v>
       </c>
       <c r="G73" s="61">
         <v>26</v>
       </c>
       <c r="H73" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>906.61999999999989</v>
       </c>
     </row>
@@ -19855,8 +19859,8 @@
       <c r="A74" s="63">
         <v>13</v>
       </c>
-      <c r="B74" s="107"/>
-      <c r="C74" s="110" t="s">
+      <c r="B74" s="119"/>
+      <c r="C74" s="124" t="s">
         <v>278</v>
       </c>
       <c r="D74" s="61">
@@ -19866,14 +19870,14 @@
         <v>2525</v>
       </c>
       <c r="F74" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6.6533749999999996</v>
       </c>
       <c r="G74" s="61">
         <v>26</v>
       </c>
       <c r="H74" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>172.98774999999998</v>
       </c>
     </row>
@@ -19881,8 +19885,8 @@
       <c r="A75" s="63">
         <v>14</v>
       </c>
-      <c r="B75" s="107"/>
-      <c r="C75" s="110"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="124"/>
       <c r="D75" s="61">
         <v>10320</v>
       </c>
@@ -19890,14 +19894,14 @@
         <v>2750</v>
       </c>
       <c r="F75" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>28.38</v>
       </c>
       <c r="G75" s="61">
         <v>26</v>
       </c>
       <c r="H75" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>737.88</v>
       </c>
     </row>
@@ -19905,8 +19909,8 @@
       <c r="A76" s="63">
         <v>15</v>
       </c>
-      <c r="B76" s="107"/>
-      <c r="C76" s="110" t="s">
+      <c r="B76" s="119"/>
+      <c r="C76" s="124" t="s">
         <v>270</v>
       </c>
       <c r="D76" s="61">
@@ -19916,14 +19920,14 @@
         <v>3327</v>
       </c>
       <c r="F76" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13.574159999999999</v>
       </c>
       <c r="G76" s="61">
         <v>26</v>
       </c>
       <c r="H76" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>352.92815999999999</v>
       </c>
     </row>
@@ -19931,8 +19935,8 @@
       <c r="A77" s="63">
         <v>16</v>
       </c>
-      <c r="B77" s="107"/>
-      <c r="C77" s="110"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="61">
         <v>14814</v>
       </c>
@@ -19940,14 +19944,14 @@
         <v>2750</v>
       </c>
       <c r="F77" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>40.738500000000002</v>
       </c>
       <c r="G77" s="61">
         <v>26</v>
       </c>
       <c r="H77" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1059.201</v>
       </c>
     </row>
@@ -19955,8 +19959,8 @@
       <c r="A78" s="63">
         <v>17</v>
       </c>
-      <c r="B78" s="107"/>
-      <c r="C78" s="110" t="s">
+      <c r="B78" s="119"/>
+      <c r="C78" s="124" t="s">
         <v>322</v>
       </c>
       <c r="D78" s="61">
@@ -19966,14 +19970,14 @@
         <v>1470</v>
       </c>
       <c r="F78" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.35494</v>
       </c>
       <c r="G78" s="61">
         <v>26</v>
       </c>
       <c r="H78" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>61.228439999999999</v>
       </c>
     </row>
@@ -19981,8 +19985,8 @@
       <c r="A79" s="63">
         <v>18</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="110"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="124"/>
       <c r="D79" s="61">
         <v>6144</v>
       </c>
@@ -19990,14 +19994,14 @@
         <v>2750</v>
       </c>
       <c r="F79" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>16.896000000000001</v>
       </c>
       <c r="G79" s="61">
         <v>26</v>
       </c>
       <c r="H79" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>439.29600000000005</v>
       </c>
     </row>
@@ -20005,7 +20009,7 @@
       <c r="A80" s="63">
         <v>19</v>
       </c>
-      <c r="B80" s="109" t="s">
+      <c r="B80" s="125" t="s">
         <v>289</v>
       </c>
       <c r="C80" s="61" t="s">
@@ -20025,7 +20029,7 @@
         <v>26</v>
       </c>
       <c r="H80" s="65">
-        <f t="shared" ref="H80" si="26">F80*G80</f>
+        <f t="shared" ref="H80" si="27">F80*G80</f>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20033,7 +20037,7 @@
       <c r="A81" s="63">
         <v>20</v>
       </c>
-      <c r="B81" s="109"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="61" t="s">
         <v>275</v>
       </c>
@@ -20051,7 +20055,7 @@
         <v>26</v>
       </c>
       <c r="H81" s="65">
-        <f t="shared" ref="H81:H93" si="27">F81*G81</f>
+        <f t="shared" ref="H81:H93" si="28">F81*G81</f>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20059,7 +20063,7 @@
       <c r="A82" s="63">
         <v>21</v>
       </c>
-      <c r="B82" s="109"/>
+      <c r="B82" s="125"/>
       <c r="C82" s="61" t="s">
         <v>276</v>
       </c>
@@ -20070,14 +20074,14 @@
         <v>2290</v>
       </c>
       <c r="F82" s="65">
-        <f t="shared" ref="F82:F90" si="28">-D82*E82/1000000</f>
+        <f t="shared" ref="F82:F90" si="29">-D82*E82/1000000</f>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G82" s="61">
         <v>26</v>
       </c>
       <c r="H82" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20085,7 +20089,7 @@
       <c r="A83" s="63">
         <v>22</v>
       </c>
-      <c r="B83" s="109"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="61" t="s">
         <v>278</v>
       </c>
@@ -20096,14 +20100,14 @@
         <v>2290</v>
       </c>
       <c r="F83" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G83" s="61">
         <v>26</v>
       </c>
       <c r="H83" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20111,7 +20115,7 @@
       <c r="A84" s="63">
         <v>23</v>
       </c>
-      <c r="B84" s="109"/>
+      <c r="B84" s="125"/>
       <c r="C84" s="61" t="s">
         <v>270</v>
       </c>
@@ -20122,14 +20126,14 @@
         <v>2290</v>
       </c>
       <c r="F84" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G84" s="61">
         <v>26</v>
       </c>
       <c r="H84" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20137,7 +20141,7 @@
       <c r="A85" s="63">
         <v>24</v>
       </c>
-      <c r="B85" s="109"/>
+      <c r="B85" s="125"/>
       <c r="C85" s="61" t="s">
         <v>322</v>
       </c>
@@ -20148,14 +20152,14 @@
         <v>2100</v>
       </c>
       <c r="F85" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.617</v>
       </c>
       <c r="G85" s="61">
         <v>26</v>
       </c>
       <c r="H85" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-42.042000000000002</v>
       </c>
     </row>
@@ -20163,7 +20167,7 @@
       <c r="A86" s="64">
         <v>25</v>
       </c>
-      <c r="B86" s="107" t="s">
+      <c r="B86" s="119" t="s">
         <v>291</v>
       </c>
       <c r="C86" s="65" t="s">
@@ -20176,14 +20180,14 @@
         <v>1245</v>
       </c>
       <c r="F86" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.992</v>
       </c>
       <c r="G86" s="61">
         <v>26</v>
       </c>
       <c r="H86" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-51.792000000000002</v>
       </c>
       <c r="I86" s="65"/>
@@ -20194,7 +20198,7 @@
       <c r="A87" s="64">
         <v>26</v>
       </c>
-      <c r="B87" s="107"/>
+      <c r="B87" s="119"/>
       <c r="C87" s="65" t="s">
         <v>275</v>
       </c>
@@ -20205,14 +20209,14 @@
         <v>1790</v>
       </c>
       <c r="F87" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.8646099999999999</v>
       </c>
       <c r="G87" s="61">
         <v>26</v>
       </c>
       <c r="H87" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-100.47986</v>
       </c>
       <c r="I87" s="65"/>
@@ -20223,7 +20227,7 @@
       <c r="A88" s="64">
         <v>27</v>
       </c>
-      <c r="B88" s="107"/>
+      <c r="B88" s="119"/>
       <c r="C88" s="65" t="s">
         <v>276</v>
       </c>
@@ -20234,14 +20238,14 @@
         <v>1790</v>
       </c>
       <c r="F88" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4.7435</v>
       </c>
       <c r="G88" s="61">
         <v>26</v>
       </c>
       <c r="H88" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-123.331</v>
       </c>
       <c r="I88" s="65"/>
@@ -20252,7 +20256,7 @@
       <c r="A89" s="64">
         <v>28</v>
       </c>
-      <c r="B89" s="107"/>
+      <c r="B89" s="119"/>
       <c r="C89" s="65" t="s">
         <v>278</v>
       </c>
@@ -20263,14 +20267,14 @@
         <v>1790</v>
       </c>
       <c r="F89" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.1927500000000002</v>
       </c>
       <c r="G89" s="61">
         <v>26</v>
       </c>
       <c r="H89" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-57.011500000000005</v>
       </c>
       <c r="I89" s="65"/>
@@ -20281,7 +20285,7 @@
       <c r="A90" s="70">
         <v>29</v>
       </c>
-      <c r="B90" s="108"/>
+      <c r="B90" s="123"/>
       <c r="C90" s="79" t="s">
         <v>270</v>
       </c>
@@ -20292,14 +20296,14 @@
         <v>1790</v>
       </c>
       <c r="F90" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4.5465999999999998</v>
       </c>
       <c r="G90" s="79">
         <v>26</v>
       </c>
       <c r="H90" s="79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-118.21159999999999</v>
       </c>
       <c r="I90" s="70">
@@ -20317,7 +20321,7 @@
       <c r="A91" s="64">
         <v>1</v>
       </c>
-      <c r="B91" s="107" t="s">
+      <c r="B91" s="119" t="s">
         <v>324</v>
       </c>
       <c r="C91" s="65" t="s">
@@ -20337,7 +20341,7 @@
         <v>330</v>
       </c>
       <c r="H91" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1411.7399999999998</v>
       </c>
       <c r="I91" s="78"/>
@@ -20348,7 +20352,7 @@
       <c r="A92" s="64">
         <v>2</v>
       </c>
-      <c r="B92" s="107"/>
+      <c r="B92" s="119"/>
       <c r="C92" s="65" t="s">
         <v>296</v>
       </c>
@@ -20366,7 +20370,7 @@
         <v>330</v>
       </c>
       <c r="H92" s="65">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1512.7695000000001</v>
       </c>
       <c r="I92" s="65"/>
@@ -20377,7 +20381,7 @@
       <c r="A93" s="70">
         <v>3</v>
       </c>
-      <c r="B93" s="108"/>
+      <c r="B93" s="123"/>
       <c r="C93" s="79" t="s">
         <v>297</v>
       </c>
@@ -20395,7 +20399,7 @@
         <v>330</v>
       </c>
       <c r="H93" s="79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1632.0150000000001</v>
       </c>
       <c r="I93" s="70">
@@ -20475,7 +20479,7 @@
       <c r="A96" s="77">
         <v>1</v>
       </c>
-      <c r="B96" s="106" t="s">
+      <c r="B96" s="122" t="s">
         <v>327</v>
       </c>
       <c r="C96" s="78" t="s">
@@ -20488,14 +20492,14 @@
         <v>2350</v>
       </c>
       <c r="F96" s="78">
-        <f t="shared" ref="F96:F99" si="29">D96*E96/1000000</f>
+        <f t="shared" ref="F96:F99" si="30">D96*E96/1000000</f>
         <v>3.4075000000000002</v>
       </c>
       <c r="G96" s="84">
         <v>115</v>
       </c>
       <c r="H96" s="78">
-        <f t="shared" ref="H96:H99" si="30">F96*G96</f>
+        <f t="shared" ref="H96:H99" si="31">F96*G96</f>
         <v>391.86250000000001</v>
       </c>
       <c r="I96" s="78"/>
@@ -20506,7 +20510,7 @@
       <c r="A97" s="64">
         <v>2</v>
       </c>
-      <c r="B97" s="107"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="65" t="s">
         <v>329</v>
       </c>
@@ -20517,14 +20521,14 @@
         <v>2350</v>
       </c>
       <c r="F97" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.94</v>
       </c>
       <c r="G97" s="66">
         <v>115</v>
       </c>
       <c r="H97" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>108.1</v>
       </c>
       <c r="I97" s="65"/>
@@ -20535,7 +20539,7 @@
       <c r="A98" s="64">
         <v>3</v>
       </c>
-      <c r="B98" s="107"/>
+      <c r="B98" s="119"/>
       <c r="C98" s="65" t="s">
         <v>294</v>
       </c>
@@ -20546,14 +20550,14 @@
         <v>2750</v>
       </c>
       <c r="F98" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.915</v>
       </c>
       <c r="G98" s="66">
         <v>115</v>
       </c>
       <c r="H98" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>335.22500000000002</v>
       </c>
       <c r="I98" s="65"/>
@@ -20564,7 +20568,7 @@
       <c r="A99" s="70">
         <v>4</v>
       </c>
-      <c r="B99" s="108"/>
+      <c r="B99" s="123"/>
       <c r="C99" s="79" t="s">
         <v>307</v>
       </c>
@@ -20575,14 +20579,14 @@
         <v>2750</v>
       </c>
       <c r="F99" s="79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.0725</v>
       </c>
       <c r="G99" s="76">
         <v>115</v>
       </c>
       <c r="H99" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>123.33750000000001</v>
       </c>
       <c r="I99" s="70">
@@ -20617,7 +20621,7 @@
       <c r="A101" s="77">
         <v>1</v>
       </c>
-      <c r="B101" s="106" t="s">
+      <c r="B101" s="122" t="s">
         <v>333</v>
       </c>
       <c r="C101" s="78" t="s">
@@ -20650,7 +20654,7 @@
       <c r="A102" s="64">
         <v>2</v>
       </c>
-      <c r="B102" s="107"/>
+      <c r="B102" s="119"/>
       <c r="C102" s="65" t="s">
         <v>331</v>
       </c>
@@ -20663,7 +20667,7 @@
         <v>70</v>
       </c>
       <c r="H102" s="65">
-        <f t="shared" ref="H102:H103" si="31">D102*G102</f>
+        <f t="shared" ref="H102:H103" si="32">D102*G102</f>
         <v>469</v>
       </c>
       <c r="I102" s="64">
@@ -20681,7 +20685,7 @@
       <c r="A103" s="70">
         <v>3</v>
       </c>
-      <c r="B103" s="108"/>
+      <c r="B103" s="123"/>
       <c r="C103" s="79" t="s">
         <v>332</v>
       </c>
@@ -20694,7 +20698,7 @@
         <v>60</v>
       </c>
       <c r="H103" s="79">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>549</v>
       </c>
       <c r="I103" s="70">
@@ -20710,24 +20714,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B86:B90"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="B62:B79"/>
     <mergeCell ref="B37:B40"/>
@@ -20740,11 +20731,24 @@
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:V25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20756,9 +20760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -20792,7 +20796,7 @@
       <c r="G1" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="96" t="s">
         <v>356</v>
       </c>
       <c r="I1" s="70" t="s">
@@ -20806,7 +20810,7 @@
       <c r="A2" s="66">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="100" t="s">
         <v>365</v>
       </c>
       <c r="C2" s="66"/>
@@ -20819,285 +20823,285 @@
       <c r="F2" s="66">
         <v>100</v>
       </c>
-      <c r="G2" s="114">
-        <f>E2*F2</f>
+      <c r="G2" s="93">
+        <f t="shared" ref="G2:G20" si="0">E2*F2</f>
         <v>-100</v>
       </c>
-      <c r="H2" s="118"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="66"/>
-      <c r="J2" s="115">
+      <c r="J2" s="94">
         <v>-100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A3" s="114">
+      <c r="A3" s="93">
         <v>2</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="114">
+      <c r="E3" s="93">
         <v>90</v>
       </c>
-      <c r="F3" s="114">
+      <c r="F3" s="93">
         <v>-55</v>
       </c>
-      <c r="G3" s="114">
-        <f>E3*F3</f>
+      <c r="G3" s="93">
+        <f t="shared" si="0"/>
         <v>-4950</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="116">
+      <c r="H3" s="97"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="95">
         <v>-4950</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="114">
+      <c r="A4" s="93">
         <v>3</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="114">
+      <c r="E4" s="93">
         <v>89</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="93">
         <v>110</v>
       </c>
-      <c r="G4" s="114">
-        <f>E4*F4</f>
+      <c r="G4" s="93">
+        <f t="shared" si="0"/>
         <v>9790</v>
       </c>
-      <c r="H4" s="118">
+      <c r="H4" s="97">
         <v>89</v>
       </c>
-      <c r="I4" s="114">
+      <c r="I4" s="93">
         <v>80</v>
       </c>
-      <c r="J4" s="115">
-        <f t="shared" ref="J4:J20" si="0">(H4-I4)*F4</f>
+      <c r="J4" s="94">
+        <f t="shared" ref="J4:J20" si="1">(H4-I4)*F4</f>
         <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="114">
+      <c r="A5" s="93">
         <v>4</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="93" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="E5" s="114">
+      <c r="E5" s="93">
         <v>0</v>
       </c>
-      <c r="F5" s="114">
+      <c r="F5" s="93">
         <v>130</v>
       </c>
-      <c r="G5" s="114">
-        <f>E5*F5</f>
+      <c r="G5" s="93">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="97">
         <v>0</v>
       </c>
-      <c r="I5" s="114">
+      <c r="I5" s="93">
         <v>9</v>
       </c>
-      <c r="J5" s="115">
+      <c r="J5" s="94">
+        <f t="shared" si="1"/>
+        <v>-1170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A6" s="93">
+        <v>5</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="93">
+        <v>39.5</v>
+      </c>
+      <c r="F6" s="93">
+        <v>235</v>
+      </c>
+      <c r="G6" s="93">
         <f t="shared" si="0"/>
-        <v>-1170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A6" s="114">
-        <v>5</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="D6" s="114" t="s">
+        <v>9282.5</v>
+      </c>
+      <c r="H6" s="97">
+        <v>39.5</v>
+      </c>
+      <c r="I6" s="93">
+        <v>43.76</v>
+      </c>
+      <c r="J6" s="94">
+        <f t="shared" si="1"/>
+        <v>-1001.0999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A7" s="93">
+        <v>6</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="E6" s="114">
-        <v>39.5</v>
-      </c>
-      <c r="F6" s="114">
-        <v>235</v>
-      </c>
-      <c r="G6" s="114">
-        <f>E6*F6</f>
-        <v>9282.5</v>
-      </c>
-      <c r="H6" s="118">
-        <v>39.5</v>
-      </c>
-      <c r="I6" s="114">
-        <v>43.76</v>
-      </c>
-      <c r="J6" s="115">
+      <c r="E7" s="93">
+        <v>104</v>
+      </c>
+      <c r="F7" s="93">
+        <v>55</v>
+      </c>
+      <c r="G7" s="93">
         <f t="shared" si="0"/>
-        <v>-1001.0999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A7" s="114">
-        <v>6</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>308</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="114" t="s">
+        <v>5720</v>
+      </c>
+      <c r="H7" s="97">
+        <v>104</v>
+      </c>
+      <c r="I7" s="93">
+        <v>118</v>
+      </c>
+      <c r="J7" s="94">
+        <f t="shared" si="1"/>
+        <v>-770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A8" s="93">
+        <v>7</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="E7" s="114">
-        <v>104</v>
-      </c>
-      <c r="F7" s="114">
-        <v>55</v>
-      </c>
-      <c r="G7" s="114">
-        <f>E7*F7</f>
-        <v>5720</v>
-      </c>
-      <c r="H7" s="118">
-        <v>104</v>
-      </c>
-      <c r="I7" s="114">
-        <v>118</v>
-      </c>
-      <c r="J7" s="115">
+      <c r="E8" s="93">
+        <v>14</v>
+      </c>
+      <c r="F8" s="93">
+        <v>330</v>
+      </c>
+      <c r="G8" s="93">
         <f t="shared" si="0"/>
-        <v>-770</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A8" s="114">
-        <v>7</v>
-      </c>
-      <c r="B8" s="114" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="114" t="s">
-        <v>342</v>
-      </c>
-      <c r="D8" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="114">
+        <v>4620</v>
+      </c>
+      <c r="H8" s="97">
         <v>14</v>
       </c>
-      <c r="F8" s="114">
-        <v>330</v>
-      </c>
-      <c r="G8" s="114">
-        <f>E8*F8</f>
-        <v>4620</v>
-      </c>
-      <c r="H8" s="118">
-        <v>14</v>
-      </c>
-      <c r="I8" s="114">
+      <c r="I8" s="93">
         <v>15</v>
       </c>
-      <c r="J8" s="116">
+      <c r="J8" s="95">
+        <f t="shared" si="1"/>
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A9" s="93">
+        <v>8</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="93">
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="93">
+        <v>150</v>
+      </c>
+      <c r="G9" s="93">
         <f t="shared" si="0"/>
-        <v>-330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A9" s="114">
-        <v>8</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="114" t="s">
-        <v>345</v>
-      </c>
-      <c r="D9" s="114" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" s="114">
+        <v>1425</v>
+      </c>
+      <c r="H9" s="97">
         <v>9.5</v>
       </c>
-      <c r="F9" s="114">
-        <v>150</v>
-      </c>
-      <c r="G9" s="114">
-        <f>E9*F9</f>
-        <v>1425</v>
-      </c>
-      <c r="H9" s="118">
-        <v>9.5</v>
-      </c>
-      <c r="I9" s="114">
+      <c r="I9" s="93">
         <v>11.5</v>
       </c>
-      <c r="J9" s="116">
-        <f t="shared" si="0"/>
+      <c r="J9" s="95">
+        <f t="shared" si="1"/>
         <v>-300</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A10" s="114">
+      <c r="A10" s="93">
         <v>9</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="93" t="s">
         <v>346</v>
       </c>
       <c r="E10" s="66">
         <v>8.5</v>
       </c>
-      <c r="F10" s="114">
+      <c r="F10" s="93">
         <v>115</v>
       </c>
-      <c r="G10" s="114">
-        <f>E10*F10</f>
+      <c r="G10" s="93">
+        <f t="shared" si="0"/>
         <v>977.5</v>
       </c>
-      <c r="H10" s="118">
+      <c r="H10" s="97">
         <v>8.5</v>
       </c>
-      <c r="I10" s="114">
-        <v>9</v>
-      </c>
-      <c r="J10" s="116">
-        <f t="shared" si="0"/>
-        <v>-57.5</v>
+      <c r="I10" s="93">
+        <v>3</v>
+      </c>
+      <c r="J10" s="95">
+        <f t="shared" si="1"/>
+        <v>632.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A11" s="114">
+      <c r="A11" s="93">
         <v>10</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -21116,22 +21120,22 @@
         <v>80</v>
       </c>
       <c r="G11" s="62">
-        <f>E11*F11</f>
+        <f t="shared" si="0"/>
         <v>228.79999999999998</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="98">
         <v>2.86</v>
       </c>
-      <c r="I11" s="114">
+      <c r="I11" s="93">
         <v>5</v>
       </c>
-      <c r="J11" s="116">
-        <f t="shared" si="0"/>
+      <c r="J11" s="95">
+        <f t="shared" si="1"/>
         <v>-171.20000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A12" s="114">
+      <c r="A12" s="93">
         <v>11</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -21150,22 +21154,22 @@
         <v>70</v>
       </c>
       <c r="G12" s="62">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>469</v>
       </c>
-      <c r="H12" s="119">
+      <c r="H12" s="98">
         <v>6.7</v>
       </c>
       <c r="I12" s="62">
         <v>6</v>
       </c>
-      <c r="J12" s="116">
-        <f t="shared" si="0"/>
+      <c r="J12" s="95">
+        <f t="shared" si="1"/>
         <v>49.000000000000014</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A13" s="114">
+      <c r="A13" s="93">
         <v>12</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -21184,28 +21188,28 @@
         <v>60</v>
       </c>
       <c r="G13" s="62">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>549</v>
       </c>
-      <c r="H13" s="119">
+      <c r="H13" s="98">
         <v>9.15</v>
       </c>
       <c r="I13" s="62">
         <v>10</v>
       </c>
-      <c r="J13" s="116">
-        <f t="shared" si="0"/>
+      <c r="J13" s="95">
+        <f t="shared" si="1"/>
         <v>-50.999999999999979</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A14" s="114">
+      <c r="A14" s="93">
         <v>13</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="93" t="s">
         <v>346</v>
       </c>
       <c r="E14" s="65">
@@ -21215,28 +21219,28 @@
         <v>20</v>
       </c>
       <c r="G14" s="62">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>998</v>
       </c>
-      <c r="H14" s="119">
+      <c r="H14" s="98">
         <v>49.9</v>
       </c>
       <c r="I14" s="62">
         <v>0</v>
       </c>
-      <c r="J14" s="116">
-        <f t="shared" si="0"/>
+      <c r="J14" s="95">
+        <f t="shared" si="1"/>
         <v>998</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A15" s="114">
+      <c r="A15" s="93">
         <v>14</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="93" t="s">
         <v>346</v>
       </c>
       <c r="E15" s="62">
@@ -21246,22 +21250,22 @@
         <v>45</v>
       </c>
       <c r="G15" s="62">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>2245.5</v>
       </c>
-      <c r="H15" s="119">
+      <c r="H15" s="98">
         <v>49.9</v>
       </c>
       <c r="I15" s="62">
         <v>54</v>
       </c>
-      <c r="J15" s="116">
-        <f t="shared" si="0"/>
+      <c r="J15" s="95">
+        <f t="shared" si="1"/>
         <v>-184.50000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A16" s="114">
+      <c r="A16" s="93">
         <v>15</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -21277,22 +21281,22 @@
         <v>48</v>
       </c>
       <c r="G16" s="62">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H16" s="119">
+      <c r="H16" s="98">
         <v>7.5</v>
       </c>
       <c r="I16" s="62">
         <v>0</v>
       </c>
-      <c r="J16" s="116">
-        <f t="shared" si="0"/>
+      <c r="J16" s="95">
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A17" s="114">
+      <c r="A17" s="93">
         <v>16</v>
       </c>
       <c r="B17" s="62" t="s">
@@ -21308,22 +21312,22 @@
         <v>100</v>
       </c>
       <c r="G17" s="62">
-        <f>E17*F17</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H17" s="119">
+      <c r="H17" s="98">
         <v>3</v>
       </c>
       <c r="I17" s="62">
         <v>0</v>
       </c>
-      <c r="J17" s="116">
-        <f t="shared" si="0"/>
+      <c r="J17" s="95">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A18" s="114">
+      <c r="A18" s="93">
         <v>17</v>
       </c>
       <c r="B18" s="62" t="s">
@@ -21332,7 +21336,7 @@
       <c r="C18" s="62" t="s">
         <v>359</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="93" t="s">
         <v>346</v>
       </c>
       <c r="E18" s="62">
@@ -21342,22 +21346,22 @@
         <v>35</v>
       </c>
       <c r="G18" s="62">
-        <f>E18*F18</f>
+        <f t="shared" si="0"/>
         <v>555.1</v>
       </c>
-      <c r="H18" s="119">
+      <c r="H18" s="98">
         <v>15.86</v>
       </c>
-      <c r="I18" s="125">
-        <v>12</v>
-      </c>
-      <c r="J18" s="116">
-        <f t="shared" si="0"/>
-        <v>135.09999999999997</v>
+      <c r="I18" s="92">
+        <v>6</v>
+      </c>
+      <c r="J18" s="95">
+        <f t="shared" si="1"/>
+        <v>345.09999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A19" s="114">
+      <c r="A19" s="93">
         <v>18</v>
       </c>
       <c r="B19" s="62" t="s">
@@ -21373,22 +21377,22 @@
         <v>135</v>
       </c>
       <c r="G19" s="62">
-        <f>E19*F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="119">
+      <c r="H19" s="98">
         <v>0</v>
       </c>
       <c r="I19" s="62">
         <v>1</v>
       </c>
-      <c r="J19" s="120">
-        <f t="shared" si="0"/>
+      <c r="J19" s="99">
+        <f t="shared" si="1"/>
         <v>-135</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A20" s="114">
+      <c r="A20" s="93">
         <v>19</v>
       </c>
       <c r="B20" s="62" t="s">
@@ -21404,87 +21408,87 @@
         <v>10</v>
       </c>
       <c r="G20" s="62">
-        <f>E20*F20</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="H20" s="119">
+      <c r="H20" s="98">
         <v>75</v>
       </c>
       <c r="I20" s="62">
         <v>0</v>
       </c>
-      <c r="J20" s="120">
-        <f t="shared" si="0"/>
+      <c r="J20" s="99">
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="122">
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="117">
         <f>SUM(J2:J20)</f>
-        <v>-5638.1999999999989</v>
-      </c>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
+        <v>-4738.1999999999989</v>
+      </c>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="116" t="s">
         <v>364</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="122">
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="117">
         <f>H21*0.05</f>
-        <v>-281.90999999999997</v>
-      </c>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
+        <v>-236.90999999999997</v>
+      </c>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="122">
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="117">
         <f>H21*0.05</f>
-        <v>-281.90999999999997</v>
-      </c>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
+        <v>-236.90999999999997</v>
+      </c>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="116" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="122">
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="117">
         <f>(H21+H22+H23)*0.95</f>
-        <v>-5891.9189999999981</v>
-      </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
+        <v>-4951.4189999999981</v>
+      </c>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1">
       <c r="A25" s="63"/>

--- a/众臣装修价目表.xlsx
+++ b/众臣装修价目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="众臣副本" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="375">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1595,6 +1595,50 @@
     <t>包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口鞋柜1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1603,7 +1647,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,6 +1805,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1880,7 +1934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2187,6 +2241,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2202,25 +2277,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2229,17 +2289,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2247,17 +2313,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2555,9 +2624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -2576,42 +2645,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="102" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="109" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
@@ -2630,8 +2699,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -2640,22 +2709,22 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="54">
         <v>1</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="102" t="s">
         <v>133</v>
       </c>
       <c r="C4" s="28">
@@ -3032,7 +3101,7 @@
         <v>155</v>
       </c>
       <c r="C14" s="37">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>37</v>
@@ -3042,14 +3111,14 @@
       </c>
       <c r="F14" s="54">
         <f>C14*E14</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="54">
         <v>35</v>
       </c>
       <c r="H14" s="54">
         <f>C14*G14</f>
-        <v>143.5</v>
+        <v>147</v>
       </c>
       <c r="I14" s="4">
         <f>E14+G14</f>
@@ -3057,7 +3126,7 @@
       </c>
       <c r="J14" s="6">
         <f>C14*I14</f>
-        <v>184.49999999999997</v>
+        <v>189</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>148</v>
@@ -3115,8 +3184,8 @@
       <c r="B16" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="37">
-        <v>4.0999999999999996</v>
+      <c r="C16" s="11">
+        <v>4.2</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>37</v>
@@ -3126,14 +3195,14 @@
       </c>
       <c r="F16" s="54">
         <f t="shared" ref="F16" si="9">C16*E16</f>
-        <v>409.99999999999994</v>
+        <v>420</v>
       </c>
       <c r="G16" s="54">
         <v>80</v>
       </c>
       <c r="H16" s="54">
         <f t="shared" ref="H16" si="10">C16*G16</f>
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -3141,7 +3210,7 @@
       </c>
       <c r="J16" s="6">
         <f t="shared" si="8"/>
-        <v>737.99999999999989</v>
+        <v>756</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>160</v>
@@ -3158,7 +3227,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="38">
-        <v>22.84</v>
+        <v>24.5</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>37</v>
@@ -3168,14 +3237,14 @@
       </c>
       <c r="F17" s="15">
         <f>C17*E17</f>
-        <v>913.6</v>
+        <v>980</v>
       </c>
       <c r="G17" s="15">
         <v>15</v>
       </c>
       <c r="H17" s="15">
         <f>C17*G17</f>
-        <v>342.6</v>
+        <v>367.5</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="7"/>
@@ -3183,7 +3252,7 @@
       </c>
       <c r="J17" s="17">
         <f t="shared" si="8"/>
-        <v>1256.2</v>
+        <v>1347.5</v>
       </c>
       <c r="K17" s="40" t="s">
         <v>165</v>
@@ -3370,7 +3439,7 @@
       <c r="B23" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="11">
         <v>4.5</v>
       </c>
       <c r="D23" s="54" t="s">
@@ -3413,7 +3482,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="38">
-        <v>21.5</v>
+        <v>25</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>37</v>
@@ -3423,14 +3492,14 @@
       </c>
       <c r="F24" s="15">
         <f>C24*E24</f>
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="15">
         <v>15</v>
       </c>
       <c r="H24" s="15">
         <f>C24*G24</f>
-        <v>322.5</v>
+        <v>375</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="14"/>
@@ -3438,7 +3507,7 @@
       </c>
       <c r="J24" s="17">
         <f t="shared" si="15"/>
-        <v>1182.5</v>
+        <v>1375</v>
       </c>
       <c r="K24" s="40" t="s">
         <v>165</v>
@@ -3540,7 +3609,7 @@
         <v>155</v>
       </c>
       <c r="C28" s="37">
-        <v>4.58</v>
+        <v>4.8</v>
       </c>
       <c r="D28" s="54" t="s">
         <v>37</v>
@@ -3550,14 +3619,14 @@
       </c>
       <c r="F28" s="54">
         <f>C28*E28</f>
-        <v>45.8</v>
+        <v>48</v>
       </c>
       <c r="G28" s="54">
         <v>35</v>
       </c>
       <c r="H28" s="54">
         <f>C28*G28</f>
-        <v>160.30000000000001</v>
+        <v>168</v>
       </c>
       <c r="I28" s="4">
         <f>E28+G28</f>
@@ -3565,7 +3634,7 @@
       </c>
       <c r="J28" s="6">
         <f>C28*I28</f>
-        <v>206.1</v>
+        <v>216</v>
       </c>
       <c r="K28" s="39" t="s">
         <v>148</v>
@@ -3623,8 +3692,8 @@
       <c r="B30" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="37">
-        <v>4.58</v>
+      <c r="C30" s="11">
+        <v>4.8</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>37</v>
@@ -3634,14 +3703,14 @@
       </c>
       <c r="F30" s="54">
         <f t="shared" ref="F30" si="23">C30*E30</f>
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="G30" s="54">
         <v>80</v>
       </c>
       <c r="H30" s="54">
         <f t="shared" ref="H30" si="24">C30*G30</f>
-        <v>366.4</v>
+        <v>384</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="21"/>
@@ -3649,7 +3718,7 @@
       </c>
       <c r="J30" s="6">
         <f t="shared" si="22"/>
-        <v>824.4</v>
+        <v>864</v>
       </c>
       <c r="K30" s="39" t="s">
         <v>160</v>
@@ -3666,7 +3735,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="38">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>37</v>
@@ -3676,14 +3745,14 @@
       </c>
       <c r="F31" s="15">
         <f>C31*E31</f>
-        <v>1200</v>
+        <v>1220</v>
       </c>
       <c r="G31" s="15">
         <v>15</v>
       </c>
       <c r="H31" s="15">
         <f>C31*G31</f>
-        <v>450</v>
+        <v>457.5</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="21"/>
@@ -3691,7 +3760,7 @@
       </c>
       <c r="J31" s="17">
         <f t="shared" si="22"/>
-        <v>1650</v>
+        <v>1677.5</v>
       </c>
       <c r="K31" s="40" t="s">
         <v>165</v>
@@ -3716,7 +3785,7 @@
         <v>155</v>
       </c>
       <c r="C33" s="37">
-        <v>6.57</v>
+        <v>6</v>
       </c>
       <c r="D33" s="54" t="s">
         <v>37</v>
@@ -3726,14 +3795,14 @@
       </c>
       <c r="F33" s="54">
         <f>C33*E33</f>
-        <v>65.7</v>
+        <v>60</v>
       </c>
       <c r="G33" s="54">
         <v>35</v>
       </c>
       <c r="H33" s="54">
         <f>C33*G33</f>
-        <v>229.95000000000002</v>
+        <v>210</v>
       </c>
       <c r="I33" s="4">
         <f>E33+G33</f>
@@ -3741,7 +3810,7 @@
       </c>
       <c r="J33" s="6">
         <f>C33*I33</f>
-        <v>295.65000000000003</v>
+        <v>270</v>
       </c>
       <c r="K33" s="39" t="s">
         <v>148</v>
@@ -3799,8 +3868,8 @@
       <c r="B35" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="37">
-        <v>6.57</v>
+      <c r="C35" s="11">
+        <v>6</v>
       </c>
       <c r="D35" s="54" t="s">
         <v>37</v>
@@ -3810,14 +3879,14 @@
       </c>
       <c r="F35" s="54">
         <f t="shared" ref="F35" si="27">C35*E35</f>
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="G35" s="54">
         <v>80</v>
       </c>
       <c r="H35" s="54">
         <f t="shared" ref="H35" si="28">C35*G35</f>
-        <v>525.6</v>
+        <v>480</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="25"/>
@@ -3825,7 +3894,7 @@
       </c>
       <c r="J35" s="6">
         <f t="shared" si="26"/>
-        <v>1182.6000000000001</v>
+        <v>1080</v>
       </c>
       <c r="K35" s="39" t="s">
         <v>160</v>
@@ -3842,7 +3911,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="38">
-        <v>23.66</v>
+        <v>23</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>37</v>
@@ -3852,14 +3921,14 @@
       </c>
       <c r="F36" s="15">
         <f>C36*E36</f>
-        <v>946.4</v>
+        <v>920</v>
       </c>
       <c r="G36" s="15">
         <v>15</v>
       </c>
       <c r="H36" s="15">
         <f>C36*G36</f>
-        <v>354.9</v>
+        <v>345</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="25"/>
@@ -3867,7 +3936,7 @@
       </c>
       <c r="J36" s="17">
         <f t="shared" si="26"/>
-        <v>1301.3</v>
+        <v>1265</v>
       </c>
       <c r="K36" s="40" t="s">
         <v>165</v>
@@ -5244,7 +5313,7 @@
         <f t="shared" si="41"/>
         <v>11638.5</v>
       </c>
-      <c r="K72" s="105" t="s">
+      <c r="K72" s="112" t="s">
         <v>240</v>
       </c>
       <c r="L72" s="30" t="s">
@@ -5286,7 +5355,7 @@
         <f t="shared" si="41"/>
         <v>228.79999999999998</v>
       </c>
-      <c r="K73" s="105"/>
+      <c r="K73" s="112"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="54">
@@ -5323,7 +5392,7 @@
         <f t="shared" si="41"/>
         <v>469</v>
       </c>
-      <c r="K74" s="105"/>
+      <c r="K74" s="112"/>
     </row>
     <row r="75" spans="1:12" ht="24.95" customHeight="1">
       <c r="A75" s="54">
@@ -5360,7 +5429,7 @@
         <f t="shared" si="41"/>
         <v>549</v>
       </c>
-      <c r="K75" s="105"/>
+      <c r="K75" s="112"/>
     </row>
     <row r="76" spans="1:12" ht="24.95" customHeight="1">
       <c r="A76" s="54">
@@ -5596,99 +5665,99 @@
       <c r="L81" s="31"/>
     </row>
     <row r="82" spans="1:12" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A82" s="106" t="s">
+      <c r="A82" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
       <c r="F82" s="19">
         <f>SUM(F4:F81)</f>
-        <v>47008.049999999996</v>
+        <v>47180.549999999996</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="19">
         <f>SUM(H4:H81)</f>
-        <v>43500.600000000006</v>
+        <v>43546.850000000006</v>
       </c>
       <c r="I82" s="49"/>
       <c r="J82" s="21">
         <f>SUM(J4:J81)</f>
-        <v>90508.650000000009</v>
+        <v>90727.400000000009</v>
       </c>
       <c r="K82" s="41"/>
       <c r="L82" s="48"/>
     </row>
     <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A83" s="109" t="s">
+      <c r="A83" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109"/>
-      <c r="E83" s="109"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="49"/>
       <c r="J83" s="21">
         <f>J82*0.05</f>
-        <v>4525.4325000000008</v>
+        <v>4536.3700000000008</v>
       </c>
       <c r="K83" s="41"/>
     </row>
     <row r="84" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A84" s="109" t="s">
+      <c r="A84" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="109"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="109"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="49"/>
       <c r="J84" s="21">
         <f>J82*0.05</f>
-        <v>4525.4325000000008</v>
+        <v>4536.3700000000008</v>
       </c>
       <c r="K84" s="41"/>
     </row>
     <row r="85" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A85" s="110" t="s">
+      <c r="A85" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="110"/>
-      <c r="C85" s="110"/>
-      <c r="D85" s="110"/>
-      <c r="E85" s="110"/>
+      <c r="B85" s="106"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="106"/>
+      <c r="E85" s="106"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
       <c r="I85" s="50"/>
       <c r="J85" s="26">
         <f>SUM(J82:J84)</f>
-        <v>99559.514999999999</v>
+        <v>99800.14</v>
       </c>
       <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A86" s="111" t="s">
+      <c r="A86" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="111"/>
-      <c r="C86" s="111"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="111"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="29"/>
       <c r="J86" s="23">
         <f>J85*0.95</f>
-        <v>94581.539250000002</v>
+        <v>94810.133000000002</v>
       </c>
       <c r="K86" s="43"/>
     </row>
@@ -5710,11 +5779,6 @@
   </sheetData>
   <autoFilter ref="A2:L86"/>
   <mergeCells count="16">
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -5726,6 +5790,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5738,8 +5807,8 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -5758,42 +5827,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="102" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="109" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="59" t="s">
         <v>5</v>
       </c>
@@ -5812,8 +5881,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -5822,16 +5891,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="56">
@@ -5843,8 +5912,8 @@
       <c r="C4" s="56">
         <v>3</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>37</v>
+      <c r="D4" s="102" t="s">
+        <v>374</v>
       </c>
       <c r="E4" s="56">
         <v>500</v>
@@ -8386,7 +8455,7 @@
         <f t="shared" si="45"/>
         <v>6450</v>
       </c>
-      <c r="K70" s="105" t="s">
+      <c r="K70" s="112" t="s">
         <v>240</v>
       </c>
       <c r="L70" s="30" t="s">
@@ -8428,7 +8497,7 @@
         <f t="shared" si="45"/>
         <v>400</v>
       </c>
-      <c r="K71" s="105"/>
+      <c r="K71" s="112"/>
     </row>
     <row r="72" spans="1:12" ht="24.95" customHeight="1">
       <c r="A72" s="56">
@@ -8465,7 +8534,7 @@
         <f t="shared" si="45"/>
         <v>420</v>
       </c>
-      <c r="K72" s="105"/>
+      <c r="K72" s="112"/>
     </row>
     <row r="73" spans="1:12" ht="24.95" customHeight="1">
       <c r="A73" s="56">
@@ -8502,7 +8571,7 @@
         <f t="shared" si="45"/>
         <v>600</v>
       </c>
-      <c r="K73" s="105"/>
+      <c r="K73" s="112"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="56">
@@ -8663,13 +8732,13 @@
       <c r="L77" s="31"/>
     </row>
     <row r="78" spans="1:12" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A78" s="106" t="s">
+      <c r="A78" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="113"/>
       <c r="F78" s="19">
         <f>SUM(F4:F77)</f>
         <v>46797.8</v>
@@ -8688,13 +8757,13 @@
       <c r="L78" s="101"/>
     </row>
     <row r="79" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A79" s="109" t="s">
+      <c r="A79" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="109"/>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="109"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
@@ -8706,13 +8775,13 @@
       <c r="K79" s="41"/>
     </row>
     <row r="80" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="109"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="109"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
@@ -8724,13 +8793,13 @@
       <c r="K80" s="41"/>
     </row>
     <row r="81" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A81" s="110" t="s">
+      <c r="A81" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="110"/>
-      <c r="C81" s="110"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="110"/>
+      <c r="B81" s="106"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="106"/>
+      <c r="E81" s="106"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
@@ -8739,16 +8808,18 @@
         <f>SUM(J78:J80)</f>
         <v>99902</v>
       </c>
-      <c r="K81" s="42"/>
+      <c r="K81" s="42">
+        <v>5183.9314999999997</v>
+      </c>
     </row>
     <row r="82" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A82" s="111" t="s">
+      <c r="A82" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="111"/>
-      <c r="C82" s="111"/>
-      <c r="D82" s="111"/>
-      <c r="E82" s="111"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="107"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="107"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
@@ -8757,9 +8828,8 @@
         <f>J81*0.95</f>
         <v>94906.9</v>
       </c>
-      <c r="K82" s="43">
-        <f>J82*0.3</f>
-        <v>28472.069999999996</v>
+      <c r="K82" s="46">
+        <v>-61500</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
@@ -8773,10 +8843,7 @@
       <c r="H83" s="28"/>
       <c r="I83" s="29"/>
       <c r="J83" s="23"/>
-      <c r="K83" s="43">
-        <f>J82*0.3</f>
-        <v>28472.069999999996</v>
-      </c>
+      <c r="K83" s="43"/>
     </row>
     <row r="84" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
       <c r="A84" s="37">
@@ -8813,9 +8880,6 @@
         <f>C84*I84</f>
         <v>3569.0000000000005</v>
       </c>
-      <c r="K84" s="46">
-        <v>-61500</v>
-      </c>
       <c r="L84" s="47"/>
     </row>
     <row r="85" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
@@ -8973,12 +9037,6 @@
   </sheetData>
   <autoFilter ref="A2:L82"/>
   <mergeCells count="16">
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="A78:E78"/>
@@ -8989,6 +9047,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9022,39 +9086,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="102" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="109" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -9073,7 +9137,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="103"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -9082,15 +9146,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -11508,10 +11572,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="112"/>
+      <c r="B75" s="115"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -12466,13 +12530,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="106" t="s">
+      <c r="A102" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>65990.500000000015</v>
@@ -12490,13 +12554,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="109" t="s">
+      <c r="A103" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -12507,13 +12571,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="109" t="s">
+      <c r="A104" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
+      <c r="B104" s="105"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -12524,13 +12588,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="110"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
+      <c r="B105" s="106"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="106"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -12541,13 +12605,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="111" t="s">
+      <c r="A106" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="111"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="107"/>
+      <c r="E106" s="107"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -12587,7 +12651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -12607,39 +12671,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107" t="s">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="102" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="109" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -12658,7 +12722,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="103"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -12667,15 +12731,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -15093,10 +15157,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="112"/>
+      <c r="B75" s="115"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -16051,13 +16115,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="106" t="s">
+      <c r="A102" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>80990.500000000015</v>
@@ -16075,13 +16139,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="109" t="s">
+      <c r="A103" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -16092,13 +16156,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="109" t="s">
+      <c r="A104" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
+      <c r="B104" s="105"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -16109,13 +16173,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="110"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
+      <c r="B105" s="106"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="106"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -16126,13 +16190,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="111" t="s">
+      <c r="A106" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="111"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="107"/>
+      <c r="E106" s="107"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -16144,11 +16208,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="A75:B75"/>
@@ -16159,6 +16218,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16172,7 +16236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -16220,7 +16284,7 @@
       <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>271</v>
       </c>
       <c r="C2" s="65" t="s">
@@ -16255,8 +16319,8 @@
       <c r="A3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="113" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="118" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="65">
@@ -16288,8 +16352,8 @@
       <c r="A4" s="64">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="113"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="65">
         <v>1</v>
       </c>
@@ -16319,8 +16383,8 @@
       <c r="A5" s="64">
         <v>4</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="116"/>
+      <c r="C5" s="118" t="s">
         <v>257</v>
       </c>
       <c r="D5" s="65">
@@ -16352,8 +16416,8 @@
       <c r="A6" s="64">
         <v>5</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="65">
         <v>1</v>
       </c>
@@ -16383,8 +16447,8 @@
       <c r="A7" s="64">
         <v>6</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="65">
         <v>1</v>
       </c>
@@ -16414,7 +16478,7 @@
       <c r="A8" s="64">
         <v>7</v>
       </c>
-      <c r="B8" s="114"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="65" t="s">
         <v>261</v>
       </c>
@@ -16447,7 +16511,7 @@
       <c r="A9" s="64">
         <v>8</v>
       </c>
-      <c r="B9" s="114"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="65" t="s">
         <v>260</v>
       </c>
@@ -16480,8 +16544,8 @@
       <c r="A10" s="64">
         <v>9</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="113" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="118" t="s">
         <v>266</v>
       </c>
       <c r="D10" s="65">
@@ -16513,8 +16577,8 @@
       <c r="A11" s="64">
         <v>10</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="113"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="65">
         <v>1</v>
       </c>
@@ -16544,7 +16608,7 @@
       <c r="A12" s="64">
         <v>11</v>
       </c>
-      <c r="B12" s="114"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="65" t="s">
         <v>268</v>
       </c>
@@ -16563,10 +16627,10 @@
       <c r="A13" s="64">
         <v>12</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="116" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="118" t="s">
         <v>255</v>
       </c>
       <c r="D13" s="65">
@@ -16598,8 +16662,8 @@
       <c r="A14" s="64">
         <v>13</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="113"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="65">
         <v>1</v>
       </c>
@@ -16629,8 +16693,8 @@
       <c r="A15" s="64">
         <v>14</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="65">
         <v>1</v>
       </c>
@@ -16660,7 +16724,7 @@
       <c r="A16" s="64">
         <v>15</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="65" t="s">
         <v>268</v>
       </c>
@@ -16679,7 +16743,7 @@
       <c r="A17" s="64">
         <v>16</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="116" t="s">
         <v>273</v>
       </c>
       <c r="C17" s="65" t="s">
@@ -16714,7 +16778,7 @@
       <c r="A18" s="64">
         <v>17</v>
       </c>
-      <c r="B18" s="114"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="65" t="s">
         <v>274</v>
       </c>
@@ -16747,7 +16811,7 @@
       <c r="A19" s="64">
         <v>18</v>
       </c>
-      <c r="B19" s="114"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="65" t="s">
         <v>280</v>
       </c>
@@ -16780,7 +16844,7 @@
       <c r="A20" s="64">
         <v>19</v>
       </c>
-      <c r="B20" s="114"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="65" t="s">
         <v>275</v>
       </c>
@@ -16813,7 +16877,7 @@
       <c r="A21" s="64">
         <v>20</v>
       </c>
-      <c r="B21" s="114"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="65" t="s">
         <v>276</v>
       </c>
@@ -16846,7 +16910,7 @@
       <c r="A22" s="64">
         <v>21</v>
       </c>
-      <c r="B22" s="114"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="65" t="s">
         <v>278</v>
       </c>
@@ -16879,7 +16943,7 @@
       <c r="A23" s="64">
         <v>22</v>
       </c>
-      <c r="B23" s="114"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="65" t="s">
         <v>279</v>
       </c>
@@ -16912,7 +16976,7 @@
       <c r="A24" s="64">
         <v>23</v>
       </c>
-      <c r="B24" s="114"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="65" t="s">
         <v>277</v>
       </c>
@@ -16945,7 +17009,7 @@
       <c r="A25" s="64">
         <v>24</v>
       </c>
-      <c r="B25" s="114"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="65" t="s">
         <v>267</v>
       </c>
@@ -16964,7 +17028,7 @@
       <c r="A26" s="64">
         <v>25</v>
       </c>
-      <c r="B26" s="114"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="65" t="s">
         <v>268</v>
       </c>
@@ -16980,21 +17044,21 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="114">
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="116">
         <f>SUM(J2:J26)-2.149-20</f>
         <v>2076</v>
       </c>
-      <c r="J27" s="114"/>
+      <c r="J27" s="116"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1">
       <c r="A28" s="64">
@@ -17008,35 +17072,35 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="117" t="s">
         <v>284</v>
       </c>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="114">
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="116">
         <f>I27+J28</f>
         <v>2776</v>
       </c>
-      <c r="J29" s="114"/>
+      <c r="J29" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A29:H29"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A29:H29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -17053,8 +17117,8 @@
   <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -17139,7 +17203,7 @@
       <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="66" t="s">
@@ -17195,7 +17259,7 @@
       <c r="A3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="66" t="s">
         <v>287</v>
       </c>
@@ -17251,7 +17315,7 @@
       <c r="A4" s="70">
         <v>3</v>
       </c>
-      <c r="B4" s="123"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="76" t="s">
         <v>305</v>
       </c>
@@ -17286,43 +17350,43 @@
         <v>3</v>
       </c>
       <c r="N4" s="93" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="O4" s="93" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q4" s="93">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="R4" s="93">
-        <v>70</v>
+        <v>750</v>
       </c>
       <c r="S4" s="93">
         <f t="shared" si="2"/>
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="T4" s="97">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="U4" s="93">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="V4" s="94">
-        <f>(T4-U4)*R4</f>
-        <v>-105</v>
+        <f t="shared" ref="V4" si="4">(T4-U4)*R4</f>
+        <v>-2250</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="24.95" customHeight="1">
       <c r="A5" s="64">
         <v>1</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="120" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="118" t="s">
         <v>285</v>
       </c>
       <c r="D5" s="65">
@@ -17345,42 +17409,42 @@
       <c r="M5" s="93">
         <v>4</v>
       </c>
-      <c r="N5" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="93" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q5" s="93">
-        <v>89</v>
-      </c>
-      <c r="R5" s="93">
-        <v>110</v>
-      </c>
-      <c r="S5" s="93">
-        <f t="shared" si="2"/>
-        <v>9790</v>
-      </c>
-      <c r="T5" s="97">
-        <v>89</v>
-      </c>
-      <c r="U5" s="93">
-        <v>80</v>
-      </c>
-      <c r="V5" s="94">
-        <f t="shared" ref="V5:V22" si="4">(T5-U5)*R5</f>
-        <v>990</v>
+      <c r="N5" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="O5" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="P5" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q5" s="63">
+        <v>11.5</v>
+      </c>
+      <c r="R5" s="63">
+        <v>70</v>
+      </c>
+      <c r="S5" s="63">
+        <f t="shared" ref="S5:S27" si="5">Q5*R5</f>
+        <v>805</v>
+      </c>
+      <c r="T5" s="129">
+        <v>11.5</v>
+      </c>
+      <c r="U5" s="63">
+        <v>13</v>
+      </c>
+      <c r="V5" s="86">
+        <f>(T5-U5)*R5</f>
+        <v>-105</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="24.95" customHeight="1">
       <c r="A6" s="64">
         <v>2</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="65">
         <v>1460</v>
       </c>
@@ -17395,48 +17459,48 @@
         <v>110</v>
       </c>
       <c r="H6" s="65">
-        <f t="shared" ref="H6:H18" si="5">F6*G6</f>
+        <f t="shared" ref="H6:H18" si="6">F6*G6</f>
         <v>441.65</v>
       </c>
       <c r="M6" s="93">
         <v>5</v>
       </c>
       <c r="N6" s="93" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O6" s="93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P6" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q6" s="93">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R6" s="93">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="S6" s="93">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>9790</v>
       </c>
       <c r="T6" s="97">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="U6" s="93">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="V6" s="94">
-        <f t="shared" si="4"/>
-        <v>-1170</v>
+        <f t="shared" ref="V6:V27" si="7">(T6-U6)*R6</f>
+        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="24.95" customHeight="1">
       <c r="A7" s="64">
         <v>3</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="65">
         <v>2380</v>
       </c>
@@ -17451,48 +17515,48 @@
         <v>110</v>
       </c>
       <c r="H7" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>719.95</v>
       </c>
       <c r="M7" s="93">
         <v>6</v>
       </c>
       <c r="N7" s="93" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="O7" s="93" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="P7" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q7" s="93">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="R7" s="93">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="S7" s="93">
-        <f t="shared" si="2"/>
-        <v>9282.5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T7" s="97">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="93">
-        <v>43.76</v>
+        <v>9</v>
       </c>
       <c r="V7" s="94">
-        <f t="shared" si="4"/>
-        <v>-1001.0999999999996</v>
+        <f t="shared" si="7"/>
+        <v>-1170</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="24.95" customHeight="1">
       <c r="A8" s="64">
         <v>4</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="113" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="118" t="s">
         <v>286</v>
       </c>
       <c r="D8" s="65">
@@ -17509,14 +17573,14 @@
         <v>110</v>
       </c>
       <c r="H8" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1043.625</v>
       </c>
       <c r="M8" s="93">
         <v>7</v>
       </c>
       <c r="N8" s="93" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="O8" s="93" t="s">
         <v>341</v>
@@ -17525,32 +17589,32 @@
         <v>346</v>
       </c>
       <c r="Q8" s="93">
-        <v>104</v>
+        <v>25.6</v>
       </c>
       <c r="R8" s="93">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="S8" s="93">
-        <f t="shared" si="2"/>
-        <v>5720</v>
+        <f t="shared" si="5"/>
+        <v>1152</v>
       </c>
       <c r="T8" s="97">
-        <v>104</v>
+        <v>25.6</v>
       </c>
       <c r="U8" s="93">
-        <v>118</v>
+        <v>27.88</v>
       </c>
       <c r="V8" s="94">
-        <f t="shared" si="4"/>
-        <v>-770</v>
+        <f t="shared" si="7"/>
+        <v>-102.59999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="24.95" customHeight="1">
       <c r="A9" s="64">
         <v>5</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="65">
         <v>4360</v>
       </c>
@@ -17565,48 +17629,48 @@
         <v>110</v>
       </c>
       <c r="H9" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1318.9</v>
       </c>
       <c r="M9" s="93">
         <v>8</v>
       </c>
       <c r="N9" s="93" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P9" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q9" s="93">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="R9" s="93">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="S9" s="93">
-        <f t="shared" si="2"/>
-        <v>4620</v>
+        <f t="shared" si="5"/>
+        <v>5995</v>
       </c>
       <c r="T9" s="97">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="U9" s="93">
-        <v>15</v>
-      </c>
-      <c r="V9" s="95">
-        <f t="shared" si="4"/>
-        <v>-330</v>
+        <v>118</v>
+      </c>
+      <c r="V9" s="94">
+        <f t="shared" si="7"/>
+        <v>-495</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1">
       <c r="A10" s="64">
         <v>6</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="65">
         <v>3915</v>
       </c>
@@ -17621,48 +17685,48 @@
         <v>110</v>
       </c>
       <c r="H10" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1184.2874999999999</v>
       </c>
       <c r="M10" s="93">
         <v>9</v>
       </c>
       <c r="N10" s="93" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="O10" s="93" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P10" s="93" t="s">
         <v>346</v>
       </c>
       <c r="Q10" s="93">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="R10" s="93">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="S10" s="93">
-        <f t="shared" si="2"/>
-        <v>425</v>
+        <f t="shared" si="5"/>
+        <v>4620</v>
       </c>
       <c r="T10" s="97">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="U10" s="93">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V10" s="95">
-        <f t="shared" si="4"/>
-        <v>-125</v>
+        <f t="shared" si="7"/>
+        <v>-330</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1">
       <c r="A11" s="64">
         <v>7</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="113" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="118" t="s">
         <v>287</v>
       </c>
       <c r="D11" s="65">
@@ -17679,48 +17743,48 @@
         <v>110</v>
       </c>
       <c r="H11" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2075.1499999999996</v>
       </c>
       <c r="M11" s="93">
         <v>10</v>
       </c>
-      <c r="N11" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="O11" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="P11" s="93" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q11" s="93">
-        <v>9.5</v>
-      </c>
-      <c r="R11" s="93">
-        <v>150</v>
-      </c>
-      <c r="S11" s="93">
-        <f t="shared" si="2"/>
-        <v>1425</v>
-      </c>
-      <c r="T11" s="97">
-        <v>9.5</v>
-      </c>
-      <c r="U11" s="93">
-        <v>11.5</v>
-      </c>
-      <c r="V11" s="95">
-        <f t="shared" si="4"/>
-        <v>-300</v>
+      <c r="N11" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="O11" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="P11" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q11" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="R11" s="63">
+        <v>50</v>
+      </c>
+      <c r="S11" s="63">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="T11" s="129">
+        <v>8.5</v>
+      </c>
+      <c r="U11" s="63">
+        <v>11</v>
+      </c>
+      <c r="V11" s="130">
+        <f t="shared" si="7"/>
+        <v>-125</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1">
       <c r="A12" s="64">
         <v>8</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="65">
         <v>1045</v>
       </c>
@@ -17735,48 +17799,48 @@
         <v>110</v>
       </c>
       <c r="H12" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>316.11249999999995</v>
       </c>
       <c r="M12" s="93">
         <v>11</v>
       </c>
       <c r="N12" s="93" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="O12" s="93" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P12" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q12" s="66">
-        <v>8.5</v>
+        <v>347</v>
+      </c>
+      <c r="Q12" s="93">
+        <v>9.5</v>
       </c>
       <c r="R12" s="93">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="S12" s="93">
-        <f t="shared" si="2"/>
-        <v>977.5</v>
+        <f t="shared" si="5"/>
+        <v>1425</v>
       </c>
       <c r="T12" s="97">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U12" s="93">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="V12" s="95">
-        <f t="shared" si="4"/>
-        <v>632.5</v>
+        <f t="shared" si="7"/>
+        <v>-300</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1">
       <c r="A13" s="64">
         <v>9</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="65">
         <v>7840</v>
       </c>
@@ -17791,48 +17855,48 @@
         <v>110</v>
       </c>
       <c r="H13" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2371.6</v>
       </c>
       <c r="M13" s="93">
         <v>12</v>
       </c>
-      <c r="N13" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="P13" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q13" s="65">
-        <v>2.86</v>
-      </c>
-      <c r="R13" s="62">
-        <v>80</v>
-      </c>
-      <c r="S13" s="62">
-        <f t="shared" si="2"/>
-        <v>228.79999999999998</v>
-      </c>
-      <c r="T13" s="98">
-        <v>2.86</v>
+      <c r="N13" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="P13" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q13" s="66">
+        <v>8.5</v>
+      </c>
+      <c r="R13" s="93">
+        <v>115</v>
+      </c>
+      <c r="S13" s="93">
+        <f t="shared" si="5"/>
+        <v>977.5</v>
+      </c>
+      <c r="T13" s="97">
+        <v>8.5</v>
       </c>
       <c r="U13" s="93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" s="95">
-        <f t="shared" si="4"/>
-        <v>-171.20000000000002</v>
+        <f t="shared" si="7"/>
+        <v>632.5</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="24.95" customHeight="1">
       <c r="A14" s="64">
         <v>10</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="113" t="s">
+      <c r="B14" s="120"/>
+      <c r="C14" s="118" t="s">
         <v>288</v>
       </c>
       <c r="D14" s="65">
@@ -17849,48 +17913,48 @@
         <v>110</v>
       </c>
       <c r="H14" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>898.42500000000007</v>
       </c>
       <c r="M14" s="93">
         <v>13</v>
       </c>
-      <c r="N14" s="62" t="s">
+      <c r="N14" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="O14" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="P14" s="62" t="s">
+      <c r="O14" s="104" t="s">
+        <v>349</v>
+      </c>
+      <c r="P14" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="Q14" s="65">
-        <v>6.7</v>
-      </c>
-      <c r="R14" s="62">
-        <v>70</v>
-      </c>
-      <c r="S14" s="62">
-        <f t="shared" si="2"/>
-        <v>469</v>
+      <c r="Q14" s="103">
+        <v>2.86</v>
+      </c>
+      <c r="R14" s="104">
+        <v>80</v>
+      </c>
+      <c r="S14" s="104">
+        <f t="shared" si="5"/>
+        <v>228.79999999999998</v>
       </c>
       <c r="T14" s="98">
-        <v>6.7</v>
-      </c>
-      <c r="U14" s="62">
-        <v>6</v>
+        <v>2.86</v>
+      </c>
+      <c r="U14" s="93">
+        <v>5</v>
       </c>
       <c r="V14" s="95">
-        <f t="shared" si="4"/>
-        <v>49.000000000000014</v>
+        <f t="shared" si="7"/>
+        <v>-171.20000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="24.95" customHeight="1">
       <c r="A15" s="64">
         <v>11</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="65">
         <v>3090</v>
       </c>
@@ -17905,48 +17969,48 @@
         <v>110</v>
       </c>
       <c r="H15" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>934.72500000000002</v>
       </c>
       <c r="M15" s="93">
         <v>14</v>
       </c>
-      <c r="N15" s="62" t="s">
+      <c r="N15" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="O15" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="P15" s="62" t="s">
+      <c r="O15" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="P15" s="104" t="s">
         <v>347</v>
       </c>
-      <c r="Q15" s="65">
-        <v>9.15</v>
-      </c>
-      <c r="R15" s="62">
-        <v>60</v>
-      </c>
-      <c r="S15" s="62">
-        <f t="shared" si="2"/>
-        <v>549</v>
+      <c r="Q15" s="103">
+        <v>6.7</v>
+      </c>
+      <c r="R15" s="104">
+        <v>70</v>
+      </c>
+      <c r="S15" s="104">
+        <f t="shared" si="5"/>
+        <v>469</v>
       </c>
       <c r="T15" s="98">
-        <v>9.15</v>
-      </c>
-      <c r="U15" s="62">
-        <v>10</v>
+        <v>6.7</v>
+      </c>
+      <c r="U15" s="104">
+        <v>6</v>
       </c>
       <c r="V15" s="95">
-        <f t="shared" si="4"/>
-        <v>-50.999999999999979</v>
+        <f t="shared" si="7"/>
+        <v>49.000000000000014</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24.95" customHeight="1">
       <c r="A16" s="67">
         <v>12</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="68">
         <v>3010</v>
       </c>
@@ -17961,45 +18025,47 @@
         <v>110</v>
       </c>
       <c r="H16" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>910.52499999999998</v>
       </c>
       <c r="M16" s="93">
         <v>15</v>
       </c>
-      <c r="N16" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="O16" s="62"/>
-      <c r="P16" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q16" s="65">
-        <v>49.9</v>
-      </c>
-      <c r="R16" s="62">
-        <v>20</v>
-      </c>
-      <c r="S16" s="62">
-        <f t="shared" si="2"/>
-        <v>998</v>
+      <c r="N16" s="104" t="s">
+        <v>333</v>
+      </c>
+      <c r="O16" s="104" t="s">
+        <v>351</v>
+      </c>
+      <c r="P16" s="104" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q16" s="103">
+        <v>9.15</v>
+      </c>
+      <c r="R16" s="104">
+        <v>60</v>
+      </c>
+      <c r="S16" s="104">
+        <f t="shared" si="5"/>
+        <v>549</v>
       </c>
       <c r="T16" s="98">
-        <v>49.9</v>
-      </c>
-      <c r="U16" s="62">
-        <v>0</v>
+        <v>9.15</v>
+      </c>
+      <c r="U16" s="104">
+        <v>10</v>
       </c>
       <c r="V16" s="95">
-        <f t="shared" si="4"/>
-        <v>998</v>
+        <f t="shared" si="7"/>
+        <v>-50.999999999999979</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1">
       <c r="A17" s="71">
         <v>13</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="125" t="s">
         <v>289</v>
       </c>
       <c r="C17" s="72" t="s">
@@ -18019,45 +18085,45 @@
         <v>110</v>
       </c>
       <c r="H17" s="72">
-        <f t="shared" ref="H17" si="6">F17*G17</f>
+        <f t="shared" ref="H17" si="8">F17*G17</f>
         <v>-163.73499999999999</v>
       </c>
       <c r="M17" s="93">
         <v>16</v>
       </c>
-      <c r="N17" s="62" t="s">
-        <v>353</v>
-      </c>
-      <c r="O17" s="62"/>
+      <c r="N17" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="O17" s="104"/>
       <c r="P17" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="Q17" s="62">
+      <c r="Q17" s="103">
         <v>49.9</v>
       </c>
-      <c r="R17" s="62">
-        <v>45</v>
-      </c>
-      <c r="S17" s="62">
-        <f t="shared" si="2"/>
-        <v>2245.5</v>
+      <c r="R17" s="104">
+        <v>20</v>
+      </c>
+      <c r="S17" s="104">
+        <f t="shared" si="5"/>
+        <v>998</v>
       </c>
       <c r="T17" s="98">
         <v>49.9</v>
       </c>
-      <c r="U17" s="62">
-        <v>54</v>
+      <c r="U17" s="104">
+        <v>0</v>
       </c>
       <c r="V17" s="95">
-        <f t="shared" si="4"/>
-        <v>-184.50000000000006</v>
+        <f t="shared" si="7"/>
+        <v>998</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1">
       <c r="A18" s="64">
         <v>14</v>
       </c>
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="65" t="s">
         <v>261</v>
       </c>
@@ -18068,52 +18134,52 @@
         <v>2290</v>
       </c>
       <c r="F18" s="65">
-        <f t="shared" ref="F18:F19" si="7">-D18*E18/1000000/2</f>
+        <f t="shared" ref="F18:F19" si="9">-D18*E18/1000000/2</f>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G18" s="65">
         <v>110</v>
       </c>
       <c r="H18" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-110.83600000000001</v>
       </c>
       <c r="M18" s="93">
         <v>17</v>
       </c>
-      <c r="N18" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q18" s="62">
-        <v>7.5</v>
-      </c>
-      <c r="R18" s="62">
-        <v>48</v>
-      </c>
-      <c r="S18" s="62">
-        <f t="shared" si="2"/>
-        <v>360</v>
+      <c r="N18" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="O18" s="104"/>
+      <c r="P18" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q18" s="104">
+        <v>49.9</v>
+      </c>
+      <c r="R18" s="104">
+        <v>45</v>
+      </c>
+      <c r="S18" s="104">
+        <f t="shared" si="5"/>
+        <v>2245.5</v>
       </c>
       <c r="T18" s="98">
-        <v>7.5</v>
-      </c>
-      <c r="U18" s="62">
-        <v>0</v>
+        <v>49.9</v>
+      </c>
+      <c r="U18" s="104">
+        <v>54</v>
       </c>
       <c r="V18" s="95">
-        <f t="shared" si="4"/>
-        <v>360</v>
+        <f t="shared" si="7"/>
+        <v>-184.50000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1">
       <c r="A19" s="64">
         <v>15</v>
       </c>
-      <c r="B19" s="119"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="65" t="s">
         <v>286</v>
       </c>
@@ -18124,52 +18190,52 @@
         <v>2290</v>
       </c>
       <c r="F19" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.3662999999999998</v>
       </c>
       <c r="G19" s="65">
         <v>110</v>
       </c>
       <c r="H19" s="65">
-        <f t="shared" ref="H19:H20" si="8">F19*G19</f>
+        <f t="shared" ref="H19:H20" si="10">F19*G19</f>
         <v>-370.29300000000001</v>
       </c>
       <c r="M19" s="93">
         <v>18</v>
       </c>
-      <c r="N19" s="62" t="s">
-        <v>355</v>
-      </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="62">
-        <v>3</v>
-      </c>
-      <c r="R19" s="62">
-        <v>100</v>
-      </c>
-      <c r="S19" s="62">
-        <f t="shared" si="2"/>
-        <v>300</v>
+      <c r="N19" s="104" t="s">
+        <v>354</v>
+      </c>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q19" s="104">
+        <v>7.5</v>
+      </c>
+      <c r="R19" s="104">
+        <v>48</v>
+      </c>
+      <c r="S19" s="104">
+        <f t="shared" si="5"/>
+        <v>360</v>
       </c>
       <c r="T19" s="98">
-        <v>3</v>
-      </c>
-      <c r="U19" s="62">
+        <v>7.5</v>
+      </c>
+      <c r="U19" s="104">
         <v>0</v>
       </c>
       <c r="V19" s="95">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1">
       <c r="A20" s="64">
         <v>16</v>
       </c>
-      <c r="B20" s="119"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="65" t="s">
         <v>275</v>
       </c>
@@ -18180,54 +18246,52 @@
         <v>2290</v>
       </c>
       <c r="F20" s="65">
-        <f t="shared" ref="F20:F26" si="9">-D20*E20/1000000/2</f>
+        <f t="shared" ref="F20:F26" si="11">-D20*E20/1000000/2</f>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G20" s="65">
         <v>110</v>
       </c>
       <c r="H20" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-110.83600000000001</v>
       </c>
       <c r="M20" s="93">
         <v>19</v>
       </c>
-      <c r="N20" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="O20" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="P20" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q20" s="62">
-        <v>15.86</v>
-      </c>
-      <c r="R20" s="62">
-        <v>35</v>
-      </c>
-      <c r="S20" s="62">
-        <f t="shared" si="2"/>
-        <v>555.1</v>
+      <c r="N20" s="104" t="s">
+        <v>355</v>
+      </c>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="104">
+        <v>3</v>
+      </c>
+      <c r="R20" s="104">
+        <v>100</v>
+      </c>
+      <c r="S20" s="104">
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="T20" s="98">
-        <v>15.86</v>
-      </c>
-      <c r="U20" s="62">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="U20" s="104">
+        <v>0</v>
       </c>
       <c r="V20" s="95">
-        <f t="shared" si="4"/>
-        <v>345.09999999999997</v>
+        <f t="shared" si="7"/>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1">
       <c r="A21" s="64">
         <v>17</v>
       </c>
-      <c r="B21" s="119"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="65" t="s">
         <v>278</v>
       </c>
@@ -18238,52 +18302,54 @@
         <v>2290</v>
       </c>
       <c r="F21" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G21" s="65">
         <v>110</v>
       </c>
       <c r="H21" s="65">
-        <f t="shared" ref="H21:H24" si="10">F21*G21</f>
+        <f t="shared" ref="H21:H24" si="12">F21*G21</f>
         <v>-110.83600000000001</v>
       </c>
       <c r="M21" s="93">
         <v>20</v>
       </c>
-      <c r="N21" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q21" s="62">
-        <v>0</v>
-      </c>
-      <c r="R21" s="62">
-        <v>135</v>
-      </c>
-      <c r="S21" s="62">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="N21" s="104" t="s">
+        <v>358</v>
+      </c>
+      <c r="O21" s="104" t="s">
+        <v>359</v>
+      </c>
+      <c r="P21" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q21" s="104">
+        <v>15.86</v>
+      </c>
+      <c r="R21" s="104">
+        <v>35</v>
+      </c>
+      <c r="S21" s="104">
+        <f t="shared" si="5"/>
+        <v>555.1</v>
       </c>
       <c r="T21" s="98">
-        <v>0</v>
-      </c>
-      <c r="U21" s="62">
-        <v>1</v>
-      </c>
-      <c r="V21" s="99">
-        <f t="shared" si="4"/>
-        <v>-135</v>
+        <v>15.86</v>
+      </c>
+      <c r="U21" s="104">
+        <v>6</v>
+      </c>
+      <c r="V21" s="95">
+        <f t="shared" si="7"/>
+        <v>345.09999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1">
       <c r="A22" s="64">
         <v>18</v>
       </c>
-      <c r="B22" s="119"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="65" t="s">
         <v>270</v>
       </c>
@@ -18294,52 +18360,52 @@
         <v>2290</v>
       </c>
       <c r="F22" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G22" s="65">
         <v>110</v>
       </c>
       <c r="H22" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-110.83600000000001</v>
       </c>
       <c r="M22" s="93">
         <v>21</v>
       </c>
-      <c r="N22" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="62">
-        <v>75</v>
-      </c>
-      <c r="R22" s="62">
-        <v>10</v>
-      </c>
-      <c r="S22" s="62">
-        <f t="shared" si="2"/>
-        <v>750</v>
+      <c r="N22" s="104" t="s">
+        <v>360</v>
+      </c>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="104">
+        <v>0</v>
+      </c>
+      <c r="R22" s="104">
+        <v>135</v>
+      </c>
+      <c r="S22" s="104">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="T22" s="98">
-        <v>75</v>
-      </c>
-      <c r="U22" s="62">
         <v>0</v>
       </c>
+      <c r="U22" s="104">
+        <v>1</v>
+      </c>
       <c r="V22" s="99">
-        <f t="shared" si="4"/>
-        <v>750</v>
+        <f t="shared" si="7"/>
+        <v>-135</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1">
       <c r="A23" s="64">
         <v>19</v>
       </c>
-      <c r="B23" s="119"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="65" t="s">
         <v>276</v>
       </c>
@@ -18350,37 +18416,52 @@
         <v>2290</v>
       </c>
       <c r="F23" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.0076000000000001</v>
       </c>
       <c r="G23" s="65">
         <v>110</v>
       </c>
       <c r="H23" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M23" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="117">
-        <f>SUM(V2:V22)</f>
-        <v>-4968.1999999999989</v>
-      </c>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
+      <c r="M23" s="93">
+        <v>22</v>
+      </c>
+      <c r="N23" s="104" t="s">
+        <v>361</v>
+      </c>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="104">
+        <v>75</v>
+      </c>
+      <c r="R23" s="104">
+        <v>10</v>
+      </c>
+      <c r="S23" s="104">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="T23" s="98">
+        <v>75</v>
+      </c>
+      <c r="U23" s="104">
+        <v>0</v>
+      </c>
+      <c r="V23" s="99">
+        <f t="shared" si="7"/>
+        <v>750</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1">
       <c r="A24" s="64">
         <v>20</v>
       </c>
-      <c r="B24" s="119"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="65" t="s">
         <v>290</v>
       </c>
@@ -18391,37 +18472,37 @@
         <v>2100</v>
       </c>
       <c r="F24" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.8085</v>
       </c>
       <c r="G24" s="65">
         <v>110</v>
       </c>
       <c r="H24" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-88.935000000000002</v>
       </c>
-      <c r="M24" s="116" t="s">
-        <v>364</v>
-      </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="117">
-        <f>T23*0.05</f>
-        <v>-248.40999999999997</v>
-      </c>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
+      <c r="M24" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="128">
+        <f>SUM(V3:V23)</f>
+        <v>-5944.6999999999989</v>
+      </c>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1">
       <c r="A25" s="67">
         <v>21</v>
       </c>
-      <c r="B25" s="120"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="68" t="s">
         <v>258</v>
       </c>
@@ -18432,31 +18513,31 @@
         <v>2140</v>
       </c>
       <c r="F25" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.6798999999999999</v>
       </c>
       <c r="G25" s="68">
         <v>110</v>
       </c>
       <c r="H25" s="68">
-        <f t="shared" ref="H25:H26" si="11">F25*G25</f>
+        <f t="shared" ref="H25:H26" si="13">F25*G25</f>
         <v>-184.78899999999999</v>
       </c>
-      <c r="M25" s="116" t="s">
-        <v>362</v>
-      </c>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="117">
-        <f>T23*0.05</f>
-        <v>-248.40999999999997</v>
-      </c>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
+      <c r="M25" s="127" t="s">
+        <v>364</v>
+      </c>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="128">
+        <f>T24*0.05</f>
+        <v>-297.23499999999996</v>
+      </c>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
       <c r="A26" s="74">
@@ -18475,14 +18556,14 @@
         <v>1350</v>
       </c>
       <c r="F26" s="75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.3027500000000001</v>
       </c>
       <c r="G26" s="75">
         <v>110</v>
       </c>
       <c r="H26" s="75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-143.30250000000001</v>
       </c>
       <c r="I26" s="70">
@@ -18495,27 +18576,27 @@
         <f>(I26-J26)*G26</f>
         <v>-1760</v>
       </c>
-      <c r="M26" s="116" t="s">
-        <v>363</v>
-      </c>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="117">
-        <f>(T23+T24+T25)*0.95</f>
-        <v>-5191.7689999999984</v>
-      </c>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
+      <c r="M26" s="127" t="s">
+        <v>362</v>
+      </c>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="128">
+        <f>T24*0.05</f>
+        <v>-297.23499999999996</v>
+      </c>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1">
       <c r="A27" s="77">
         <v>1</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="119" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="78" t="s">
@@ -18533,12 +18614,27 @@
         <f>D27*G27</f>
         <v>195</v>
       </c>
+      <c r="M27" s="127" t="s">
+        <v>363</v>
+      </c>
+      <c r="N27" s="127"/>
+      <c r="O27" s="127"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="127"/>
+      <c r="R27" s="127"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="128">
+        <f>(T24+T25+T26)*0.95</f>
+        <v>-6212.2114999999976</v>
+      </c>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
       <c r="A28" s="70">
         <v>2</v>
       </c>
-      <c r="B28" s="123"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="79" t="s">
         <v>294</v>
       </c>
@@ -18569,7 +18665,7 @@
       <c r="A29" s="77">
         <v>1</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="119" t="s">
         <v>298</v>
       </c>
       <c r="C29" s="78" t="s">
@@ -18589,7 +18685,7 @@
         <v>225</v>
       </c>
       <c r="H29" s="78">
-        <f t="shared" ref="H29:H32" si="12">F29*G29</f>
+        <f t="shared" ref="H29:H32" si="14">F29*G29</f>
         <v>1925.1</v>
       </c>
     </row>
@@ -18597,7 +18693,7 @@
       <c r="A30" s="64">
         <v>2</v>
       </c>
-      <c r="B30" s="119"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="65" t="s">
         <v>296</v>
       </c>
@@ -18615,7 +18711,7 @@
         <v>225</v>
       </c>
       <c r="H30" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2062.8675000000003</v>
       </c>
     </row>
@@ -18623,7 +18719,7 @@
       <c r="A31" s="64">
         <v>3</v>
       </c>
-      <c r="B31" s="119"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="65" t="s">
         <v>297</v>
       </c>
@@ -18634,14 +18730,14 @@
         <v>1570</v>
       </c>
       <c r="F31" s="65">
-        <f t="shared" ref="F31:F32" si="13">D31*E31/1000000*2</f>
+        <f t="shared" ref="F31:F32" si="15">D31*E31/1000000*2</f>
         <v>9.891</v>
       </c>
       <c r="G31" s="66">
         <v>225</v>
       </c>
       <c r="H31" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2225.4749999999999</v>
       </c>
     </row>
@@ -18649,7 +18745,7 @@
       <c r="A32" s="70">
         <v>4</v>
       </c>
-      <c r="B32" s="123"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="79" t="s">
         <v>258</v>
       </c>
@@ -18660,14 +18756,14 @@
         <v>1500</v>
       </c>
       <c r="F32" s="79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>11.88</v>
       </c>
       <c r="G32" s="76">
         <v>225</v>
       </c>
       <c r="H32" s="79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2673</v>
       </c>
       <c r="I32" s="70">
@@ -18685,7 +18781,7 @@
       <c r="A33" s="77">
         <v>1</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="119" t="s">
         <v>299</v>
       </c>
       <c r="C33" s="78" t="s">
@@ -18705,7 +18801,7 @@
         <v>225</v>
       </c>
       <c r="H33" s="78">
-        <f t="shared" ref="H33:H43" si="14">F33*G33</f>
+        <f t="shared" ref="H33:H43" si="16">F33*G33</f>
         <v>5333.625</v>
       </c>
     </row>
@@ -18713,7 +18809,7 @@
       <c r="A34" s="64">
         <v>2</v>
       </c>
-      <c r="B34" s="119"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="65" t="s">
         <v>296</v>
       </c>
@@ -18724,14 +18820,14 @@
         <v>2750</v>
       </c>
       <c r="F34" s="65">
-        <f t="shared" ref="F34:F36" si="15">D34*E34/1000000</f>
+        <f t="shared" ref="F34:F36" si="17">D34*E34/1000000</f>
         <v>24.282499999999999</v>
       </c>
       <c r="G34" s="66">
         <v>225</v>
       </c>
       <c r="H34" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5463.5625</v>
       </c>
     </row>
@@ -18739,7 +18835,7 @@
       <c r="A35" s="64">
         <v>3</v>
       </c>
-      <c r="B35" s="119"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="65" t="s">
         <v>297</v>
       </c>
@@ -18750,14 +18846,14 @@
         <v>2750</v>
       </c>
       <c r="F35" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>25.96</v>
       </c>
       <c r="G35" s="66">
         <v>225</v>
       </c>
       <c r="H35" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5841</v>
       </c>
     </row>
@@ -18765,7 +18861,7 @@
       <c r="A36" s="67">
         <v>4</v>
       </c>
-      <c r="B36" s="120"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="68" t="s">
         <v>258</v>
       </c>
@@ -18776,14 +18872,14 @@
         <v>2750</v>
       </c>
       <c r="F36" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24.695</v>
       </c>
       <c r="G36" s="69">
         <v>225</v>
       </c>
       <c r="H36" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5556.375</v>
       </c>
     </row>
@@ -18791,7 +18887,7 @@
       <c r="A37" s="64">
         <v>5</v>
       </c>
-      <c r="B37" s="119" t="s">
+      <c r="B37" s="120" t="s">
         <v>289</v>
       </c>
       <c r="C37" s="65" t="s">
@@ -18804,14 +18900,14 @@
         <v>2100</v>
       </c>
       <c r="F37" s="65">
-        <f t="shared" ref="F37:F40" si="16">-D37*E37/1000000/2</f>
+        <f t="shared" ref="F37:F40" si="18">-D37*E37/1000000/2</f>
         <v>-0.8085</v>
       </c>
       <c r="G37" s="65">
         <v>55</v>
       </c>
       <c r="H37" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-44.467500000000001</v>
       </c>
     </row>
@@ -18819,7 +18915,7 @@
       <c r="A38" s="64">
         <v>6</v>
       </c>
-      <c r="B38" s="119"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="65" t="s">
         <v>296</v>
       </c>
@@ -18830,14 +18926,14 @@
         <v>2100</v>
       </c>
       <c r="F38" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.8085</v>
       </c>
       <c r="G38" s="65">
         <v>55</v>
       </c>
       <c r="H38" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-44.467500000000001</v>
       </c>
       <c r="I38" s="65"/>
@@ -18848,7 +18944,7 @@
       <c r="A39" s="64">
         <v>7</v>
       </c>
-      <c r="B39" s="119"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="65" t="s">
         <v>297</v>
       </c>
@@ -18859,14 +18955,14 @@
         <v>2100</v>
       </c>
       <c r="F39" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.8085</v>
       </c>
       <c r="G39" s="65">
         <v>55</v>
       </c>
       <c r="H39" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-44.467500000000001</v>
       </c>
       <c r="I39" s="65"/>
@@ -18877,7 +18973,7 @@
       <c r="A40" s="67">
         <v>8</v>
       </c>
-      <c r="B40" s="120"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="68" t="s">
         <v>258</v>
       </c>
@@ -18888,14 +18984,14 @@
         <v>2140</v>
       </c>
       <c r="F40" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.6798999999999999</v>
       </c>
       <c r="G40" s="68">
         <v>55</v>
       </c>
       <c r="H40" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-92.394499999999994</v>
       </c>
       <c r="I40" s="65"/>
@@ -18906,7 +19002,7 @@
       <c r="A41" s="64">
         <v>9</v>
       </c>
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="125" t="s">
         <v>291</v>
       </c>
       <c r="C41" s="65" t="s">
@@ -18926,7 +19022,7 @@
         <v>55</v>
       </c>
       <c r="H41" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-62.37</v>
       </c>
       <c r="I41" s="65"/>
@@ -18938,7 +19034,7 @@
       <c r="A42" s="64">
         <v>10</v>
       </c>
-      <c r="B42" s="119"/>
+      <c r="B42" s="120"/>
       <c r="C42" s="65" t="s">
         <v>296</v>
       </c>
@@ -18949,14 +19045,14 @@
         <v>1380</v>
       </c>
       <c r="F42" s="65">
-        <f t="shared" ref="F42:F43" si="17">-D42*E42/1000000</f>
+        <f t="shared" ref="F42:F43" si="19">-D42*E42/1000000</f>
         <v>-0.78659999999999997</v>
       </c>
       <c r="G42" s="65">
         <v>55</v>
       </c>
       <c r="H42" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-43.262999999999998</v>
       </c>
       <c r="I42" s="65"/>
@@ -18968,7 +19064,7 @@
       <c r="A43" s="64">
         <v>11</v>
       </c>
-      <c r="B43" s="119"/>
+      <c r="B43" s="120"/>
       <c r="C43" s="65" t="s">
         <v>297</v>
       </c>
@@ -18979,14 +19075,14 @@
         <v>1790</v>
       </c>
       <c r="F43" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.3783000000000001</v>
       </c>
       <c r="G43" s="65">
         <v>55</v>
       </c>
       <c r="H43" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-75.8065</v>
       </c>
       <c r="I43" s="65"/>
@@ -18998,7 +19094,7 @@
       <c r="A44" s="70">
         <v>12</v>
       </c>
-      <c r="B44" s="123"/>
+      <c r="B44" s="121"/>
       <c r="C44" s="79" t="s">
         <v>258</v>
       </c>
@@ -19016,7 +19112,7 @@
         <v>55</v>
       </c>
       <c r="H44" s="79">
-        <f t="shared" ref="H44:H49" si="18">F44*G44</f>
+        <f t="shared" ref="H44:H49" si="20">F44*G44</f>
         <v>-83.759500000000003</v>
       </c>
       <c r="I44" s="70">
@@ -19035,7 +19131,7 @@
       <c r="A45" s="77">
         <v>1</v>
       </c>
-      <c r="B45" s="122" t="s">
+      <c r="B45" s="119" t="s">
         <v>308</v>
       </c>
       <c r="C45" s="78" t="s">
@@ -19048,14 +19144,14 @@
         <v>1550</v>
       </c>
       <c r="F45" s="65">
-        <f t="shared" ref="F45:F49" si="19">D45*E45/1000000</f>
+        <f t="shared" ref="F45:F49" si="21">D45*E45/1000000</f>
         <v>4.2779999999999996</v>
       </c>
       <c r="G45" s="66">
         <v>55</v>
       </c>
       <c r="H45" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>235.28999999999996</v>
       </c>
       <c r="I45" s="78"/>
@@ -19067,7 +19163,7 @@
       <c r="A46" s="64">
         <v>2</v>
       </c>
-      <c r="B46" s="119"/>
+      <c r="B46" s="120"/>
       <c r="C46" s="65" t="s">
         <v>310</v>
       </c>
@@ -19078,14 +19174,14 @@
         <v>1670</v>
       </c>
       <c r="F46" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.5841500000000002</v>
       </c>
       <c r="G46" s="66">
         <v>55</v>
       </c>
       <c r="H46" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>252.12825000000001</v>
       </c>
       <c r="I46" s="65"/>
@@ -19097,7 +19193,7 @@
       <c r="A47" s="64">
         <v>3</v>
       </c>
-      <c r="B47" s="119"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="65" t="s">
         <v>311</v>
       </c>
@@ -19108,14 +19204,14 @@
         <v>1570</v>
       </c>
       <c r="F47" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9455</v>
       </c>
       <c r="G47" s="66">
         <v>55</v>
       </c>
       <c r="H47" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>272.0025</v>
       </c>
       <c r="I47" s="65"/>
@@ -19127,7 +19223,7 @@
       <c r="A48" s="64">
         <v>4</v>
       </c>
-      <c r="B48" s="119"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="65" t="s">
         <v>312</v>
       </c>
@@ -19138,14 +19234,14 @@
         <v>1500</v>
       </c>
       <c r="F48" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.94</v>
       </c>
       <c r="G48" s="66">
         <v>55</v>
       </c>
       <c r="H48" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>326.70000000000005</v>
       </c>
       <c r="I48" s="64"/>
@@ -19157,7 +19253,7 @@
       <c r="A49" s="64">
         <v>5</v>
       </c>
-      <c r="B49" s="119"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="65" t="s">
         <v>317</v>
       </c>
@@ -19168,14 +19264,14 @@
         <v>1500</v>
       </c>
       <c r="F49" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.94</v>
       </c>
       <c r="G49" s="66">
         <v>55</v>
       </c>
       <c r="H49" s="65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>326.70000000000005</v>
       </c>
       <c r="I49" s="64"/>
@@ -19187,7 +19283,7 @@
       <c r="A50" s="64">
         <v>6</v>
       </c>
-      <c r="B50" s="119"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="65" t="s">
         <v>313</v>
       </c>
@@ -19198,14 +19294,14 @@
         <v>2650</v>
       </c>
       <c r="F50" s="65">
-        <f t="shared" ref="F50:F53" si="20">D50*E50/1000000</f>
+        <f t="shared" ref="F50:F53" si="22">D50*E50/1000000</f>
         <v>22.843</v>
       </c>
       <c r="G50" s="66">
         <v>55</v>
       </c>
       <c r="H50" s="65">
-        <f t="shared" ref="H50:H64" si="21">F50*G50</f>
+        <f t="shared" ref="H50:H64" si="23">F50*G50</f>
         <v>1256.365</v>
       </c>
       <c r="I50" s="64"/>
@@ -19217,7 +19313,7 @@
       <c r="A51" s="64">
         <v>7</v>
       </c>
-      <c r="B51" s="119"/>
+      <c r="B51" s="120"/>
       <c r="C51" s="65" t="s">
         <v>314</v>
       </c>
@@ -19228,14 +19324,14 @@
         <v>2650</v>
       </c>
       <c r="F51" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23.3995</v>
       </c>
       <c r="G51" s="66">
         <v>55</v>
       </c>
       <c r="H51" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1286.9725000000001</v>
       </c>
       <c r="I51" s="64"/>
@@ -19247,7 +19343,7 @@
       <c r="A52" s="64">
         <v>8</v>
       </c>
-      <c r="B52" s="119"/>
+      <c r="B52" s="120"/>
       <c r="C52" s="65" t="s">
         <v>315</v>
       </c>
@@ -19258,14 +19354,14 @@
         <v>2650</v>
       </c>
       <c r="F52" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25.015999999999998</v>
       </c>
       <c r="G52" s="66">
         <v>55</v>
       </c>
       <c r="H52" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1375.8799999999999</v>
       </c>
       <c r="I52" s="64"/>
@@ -19277,7 +19373,7 @@
       <c r="A53" s="64">
         <v>9</v>
       </c>
-      <c r="B53" s="119"/>
+      <c r="B53" s="120"/>
       <c r="C53" s="65" t="s">
         <v>316</v>
       </c>
@@ -19288,14 +19384,14 @@
         <v>2650</v>
       </c>
       <c r="F53" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23.797000000000001</v>
       </c>
       <c r="G53" s="66">
         <v>55</v>
       </c>
       <c r="H53" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1308.835</v>
       </c>
       <c r="I53" s="64"/>
@@ -19307,7 +19403,7 @@
       <c r="A54" s="64">
         <v>10</v>
       </c>
-      <c r="B54" s="119" t="s">
+      <c r="B54" s="120" t="s">
         <v>289</v>
       </c>
       <c r="C54" s="65" t="s">
@@ -19327,7 +19423,7 @@
         <v>55</v>
       </c>
       <c r="H54" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-88.935000000000002</v>
       </c>
     </row>
@@ -19335,7 +19431,7 @@
       <c r="A55" s="64">
         <v>11</v>
       </c>
-      <c r="B55" s="119"/>
+      <c r="B55" s="120"/>
       <c r="C55" s="65" t="s">
         <v>296</v>
       </c>
@@ -19346,14 +19442,14 @@
         <v>2100</v>
       </c>
       <c r="F55" s="65">
-        <f t="shared" ref="F55:F60" si="22">-D55*E55/1000000</f>
+        <f t="shared" ref="F55:F60" si="24">-D55*E55/1000000</f>
         <v>-1.617</v>
       </c>
       <c r="G55" s="65">
         <v>55</v>
       </c>
       <c r="H55" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-88.935000000000002</v>
       </c>
       <c r="I55" s="65"/>
@@ -19364,7 +19460,7 @@
       <c r="A56" s="64">
         <v>12</v>
       </c>
-      <c r="B56" s="119"/>
+      <c r="B56" s="120"/>
       <c r="C56" s="65" t="s">
         <v>297</v>
       </c>
@@ -19375,14 +19471,14 @@
         <v>2100</v>
       </c>
       <c r="F56" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.617</v>
       </c>
       <c r="G56" s="65">
         <v>55</v>
       </c>
       <c r="H56" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-88.935000000000002</v>
       </c>
       <c r="I56" s="65"/>
@@ -19393,7 +19489,7 @@
       <c r="A57" s="64">
         <v>13</v>
       </c>
-      <c r="B57" s="119"/>
+      <c r="B57" s="120"/>
       <c r="C57" s="65" t="s">
         <v>258</v>
       </c>
@@ -19404,14 +19500,14 @@
         <v>2140</v>
       </c>
       <c r="F57" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-3.3597999999999999</v>
       </c>
       <c r="G57" s="65">
         <v>55</v>
       </c>
       <c r="H57" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-184.78899999999999</v>
       </c>
       <c r="I57" s="65"/>
@@ -19422,7 +19518,7 @@
       <c r="A58" s="64">
         <v>14</v>
       </c>
-      <c r="B58" s="119" t="s">
+      <c r="B58" s="120" t="s">
         <v>291</v>
       </c>
       <c r="C58" s="65" t="s">
@@ -19435,14 +19531,14 @@
         <v>1350</v>
       </c>
       <c r="F58" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.1339999999999999</v>
       </c>
       <c r="G58" s="65">
         <v>55</v>
       </c>
       <c r="H58" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-62.37</v>
       </c>
       <c r="I58" s="65"/>
@@ -19454,7 +19550,7 @@
       <c r="A59" s="64">
         <v>15</v>
       </c>
-      <c r="B59" s="119"/>
+      <c r="B59" s="120"/>
       <c r="C59" s="65" t="s">
         <v>296</v>
       </c>
@@ -19465,14 +19561,14 @@
         <v>1380</v>
       </c>
       <c r="F59" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-0.78659999999999997</v>
       </c>
       <c r="G59" s="65">
         <v>55</v>
       </c>
       <c r="H59" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-43.262999999999998</v>
       </c>
       <c r="I59" s="65"/>
@@ -19484,7 +19580,7 @@
       <c r="A60" s="64">
         <v>16</v>
       </c>
-      <c r="B60" s="119"/>
+      <c r="B60" s="120"/>
       <c r="C60" s="65" t="s">
         <v>297</v>
       </c>
@@ -19495,14 +19591,14 @@
         <v>1790</v>
       </c>
       <c r="F60" s="65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1.3783000000000001</v>
       </c>
       <c r="G60" s="65">
         <v>55</v>
       </c>
       <c r="H60" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-75.8065</v>
       </c>
       <c r="I60" s="65"/>
@@ -19514,7 +19610,7 @@
       <c r="A61" s="70">
         <v>17</v>
       </c>
-      <c r="B61" s="123"/>
+      <c r="B61" s="121"/>
       <c r="C61" s="79" t="s">
         <v>258</v>
       </c>
@@ -19532,7 +19628,7 @@
         <v>55</v>
       </c>
       <c r="H61" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-83.759500000000003</v>
       </c>
       <c r="I61" s="70">
@@ -19551,7 +19647,7 @@
       <c r="A62" s="63">
         <v>1</v>
       </c>
-      <c r="B62" s="122" t="s">
+      <c r="B62" s="119" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="61" t="s">
@@ -19564,14 +19660,14 @@
         <v>1460</v>
       </c>
       <c r="F62" s="65">
-        <f t="shared" ref="F62:F64" si="23">D62*E62/1000000</f>
+        <f t="shared" ref="F62:F64" si="25">D62*E62/1000000</f>
         <v>3.4748000000000001</v>
       </c>
       <c r="G62" s="61">
         <v>26</v>
       </c>
       <c r="H62" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>90.344800000000006</v>
       </c>
     </row>
@@ -19579,7 +19675,7 @@
       <c r="A63" s="63">
         <v>2</v>
       </c>
-      <c r="B63" s="119"/>
+      <c r="B63" s="120"/>
       <c r="C63" s="61" t="s">
         <v>320</v>
       </c>
@@ -19590,14 +19686,14 @@
         <v>1045</v>
       </c>
       <c r="F63" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.1687000000000003</v>
       </c>
       <c r="G63" s="61">
         <v>26</v>
       </c>
       <c r="H63" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>186.3862</v>
       </c>
     </row>
@@ -19605,7 +19701,7 @@
       <c r="A64" s="63">
         <v>3</v>
       </c>
-      <c r="B64" s="119"/>
+      <c r="B64" s="120"/>
       <c r="C64" s="61" t="s">
         <v>321</v>
       </c>
@@ -19616,14 +19712,14 @@
         <v>1045</v>
       </c>
       <c r="F64" s="65">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.51727500000000004</v>
       </c>
       <c r="G64" s="61">
         <v>26</v>
       </c>
       <c r="H64" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>13.449150000000001</v>
       </c>
     </row>
@@ -19631,8 +19727,8 @@
       <c r="A65" s="63">
         <v>4</v>
       </c>
-      <c r="B65" s="119"/>
-      <c r="C65" s="124" t="s">
+      <c r="B65" s="120"/>
+      <c r="C65" s="123" t="s">
         <v>261</v>
       </c>
       <c r="D65" s="61">
@@ -19642,14 +19738,14 @@
         <v>2202</v>
       </c>
       <c r="F65" s="65">
-        <f t="shared" ref="F65:F68" si="24">D65*E65/1000000</f>
+        <f t="shared" ref="F65:F68" si="26">D65*E65/1000000</f>
         <v>7.4867999999999997</v>
       </c>
       <c r="G65" s="61">
         <v>26</v>
       </c>
       <c r="H65" s="65">
-        <f t="shared" ref="H65:H79" si="25">F65*G65</f>
+        <f t="shared" ref="H65:H79" si="27">F65*G65</f>
         <v>194.6568</v>
       </c>
     </row>
@@ -19657,8 +19753,8 @@
       <c r="A66" s="63">
         <v>5</v>
       </c>
-      <c r="B66" s="119"/>
-      <c r="C66" s="124"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="61">
         <v>11204</v>
       </c>
@@ -19666,14 +19762,14 @@
         <v>2750</v>
       </c>
       <c r="F66" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>30.811</v>
       </c>
       <c r="G66" s="61">
         <v>26</v>
       </c>
       <c r="H66" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>801.08600000000001</v>
       </c>
     </row>
@@ -19681,7 +19777,7 @@
       <c r="A67" s="63">
         <v>6</v>
       </c>
-      <c r="B67" s="119"/>
+      <c r="B67" s="120"/>
       <c r="C67" s="61" t="s">
         <v>286</v>
       </c>
@@ -19692,14 +19788,14 @@
         <v>4815</v>
       </c>
       <c r="F67" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>24.4602</v>
       </c>
       <c r="G67" s="61">
         <v>26</v>
       </c>
       <c r="H67" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>635.96519999999998</v>
       </c>
     </row>
@@ -19707,7 +19803,7 @@
       <c r="A68" s="63">
         <v>7</v>
       </c>
-      <c r="B68" s="119"/>
+      <c r="B68" s="120"/>
       <c r="C68" s="61" t="s">
         <v>288</v>
       </c>
@@ -19718,14 +19814,14 @@
         <v>3090</v>
       </c>
       <c r="F68" s="65">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>9.3009000000000004</v>
       </c>
       <c r="G68" s="61">
         <v>26</v>
       </c>
       <c r="H68" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>241.82340000000002</v>
       </c>
     </row>
@@ -19733,7 +19829,7 @@
       <c r="A69" s="63">
         <v>8</v>
       </c>
-      <c r="B69" s="119"/>
+      <c r="B69" s="120"/>
       <c r="C69" s="61" t="s">
         <v>257</v>
       </c>
@@ -19744,14 +19840,14 @@
         <v>1500</v>
       </c>
       <c r="F69" s="65">
-        <f t="shared" ref="F69:F79" si="26">D69*E69/1000000</f>
+        <f t="shared" ref="F69:F79" si="28">D69*E69/1000000</f>
         <v>5.94</v>
       </c>
       <c r="G69" s="61">
         <v>26</v>
       </c>
       <c r="H69" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>154.44</v>
       </c>
     </row>
@@ -19759,8 +19855,8 @@
       <c r="A70" s="63">
         <v>9</v>
       </c>
-      <c r="B70" s="119"/>
-      <c r="C70" s="124" t="s">
+      <c r="B70" s="120"/>
+      <c r="C70" s="123" t="s">
         <v>275</v>
       </c>
       <c r="D70" s="61">
@@ -19770,14 +19866,14 @@
         <v>2790</v>
       </c>
       <c r="F70" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10.867050000000001</v>
       </c>
       <c r="G70" s="61">
         <v>26</v>
       </c>
       <c r="H70" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>282.54330000000004</v>
       </c>
     </row>
@@ -19785,8 +19881,8 @@
       <c r="A71" s="63">
         <v>10</v>
       </c>
-      <c r="B71" s="119"/>
-      <c r="C71" s="124"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="61">
         <v>13370</v>
       </c>
@@ -19794,14 +19890,14 @@
         <v>2750</v>
       </c>
       <c r="F71" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>36.767499999999998</v>
       </c>
       <c r="G71" s="61">
         <v>26</v>
       </c>
       <c r="H71" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>955.95499999999993</v>
       </c>
     </row>
@@ -19809,8 +19905,8 @@
       <c r="A72" s="63">
         <v>11</v>
       </c>
-      <c r="B72" s="119"/>
-      <c r="C72" s="124" t="s">
+      <c r="B72" s="120"/>
+      <c r="C72" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D72" s="61">
@@ -19820,14 +19916,14 @@
         <v>2780</v>
       </c>
       <c r="F72" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.8968000000000007</v>
       </c>
       <c r="G72" s="61">
         <v>26</v>
       </c>
       <c r="H72" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>257.3168</v>
       </c>
     </row>
@@ -19835,8 +19931,8 @@
       <c r="A73" s="63">
         <v>12</v>
       </c>
-      <c r="B73" s="119"/>
-      <c r="C73" s="124"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="61">
         <v>12680</v>
       </c>
@@ -19844,14 +19940,14 @@
         <v>2750</v>
       </c>
       <c r="F73" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>34.869999999999997</v>
       </c>
       <c r="G73" s="61">
         <v>26</v>
       </c>
       <c r="H73" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>906.61999999999989</v>
       </c>
     </row>
@@ -19859,8 +19955,8 @@
       <c r="A74" s="63">
         <v>13</v>
       </c>
-      <c r="B74" s="119"/>
-      <c r="C74" s="124" t="s">
+      <c r="B74" s="120"/>
+      <c r="C74" s="123" t="s">
         <v>278</v>
       </c>
       <c r="D74" s="61">
@@ -19870,14 +19966,14 @@
         <v>2525</v>
       </c>
       <c r="F74" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.6533749999999996</v>
       </c>
       <c r="G74" s="61">
         <v>26</v>
       </c>
       <c r="H74" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>172.98774999999998</v>
       </c>
     </row>
@@ -19885,8 +19981,8 @@
       <c r="A75" s="63">
         <v>14</v>
       </c>
-      <c r="B75" s="119"/>
-      <c r="C75" s="124"/>
+      <c r="B75" s="120"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="61">
         <v>10320</v>
       </c>
@@ -19894,14 +19990,14 @@
         <v>2750</v>
       </c>
       <c r="F75" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>28.38</v>
       </c>
       <c r="G75" s="61">
         <v>26</v>
       </c>
       <c r="H75" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>737.88</v>
       </c>
     </row>
@@ -19909,8 +20005,8 @@
       <c r="A76" s="63">
         <v>15</v>
       </c>
-      <c r="B76" s="119"/>
-      <c r="C76" s="124" t="s">
+      <c r="B76" s="120"/>
+      <c r="C76" s="123" t="s">
         <v>270</v>
       </c>
       <c r="D76" s="61">
@@ -19920,14 +20016,14 @@
         <v>3327</v>
       </c>
       <c r="F76" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13.574159999999999</v>
       </c>
       <c r="G76" s="61">
         <v>26</v>
       </c>
       <c r="H76" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>352.92815999999999</v>
       </c>
     </row>
@@ -19935,8 +20031,8 @@
       <c r="A77" s="63">
         <v>16</v>
       </c>
-      <c r="B77" s="119"/>
-      <c r="C77" s="124"/>
+      <c r="B77" s="120"/>
+      <c r="C77" s="123"/>
       <c r="D77" s="61">
         <v>14814</v>
       </c>
@@ -19944,14 +20040,14 @@
         <v>2750</v>
       </c>
       <c r="F77" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>40.738500000000002</v>
       </c>
       <c r="G77" s="61">
         <v>26</v>
       </c>
       <c r="H77" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1059.201</v>
       </c>
     </row>
@@ -19959,8 +20055,8 @@
       <c r="A78" s="63">
         <v>17</v>
       </c>
-      <c r="B78" s="119"/>
-      <c r="C78" s="124" t="s">
+      <c r="B78" s="120"/>
+      <c r="C78" s="123" t="s">
         <v>322</v>
       </c>
       <c r="D78" s="61">
@@ -19970,14 +20066,14 @@
         <v>1470</v>
       </c>
       <c r="F78" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.35494</v>
       </c>
       <c r="G78" s="61">
         <v>26</v>
       </c>
       <c r="H78" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>61.228439999999999</v>
       </c>
     </row>
@@ -19985,8 +20081,8 @@
       <c r="A79" s="63">
         <v>18</v>
       </c>
-      <c r="B79" s="119"/>
-      <c r="C79" s="124"/>
+      <c r="B79" s="120"/>
+      <c r="C79" s="123"/>
       <c r="D79" s="61">
         <v>6144</v>
       </c>
@@ -19994,14 +20090,14 @@
         <v>2750</v>
       </c>
       <c r="F79" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>16.896000000000001</v>
       </c>
       <c r="G79" s="61">
         <v>26</v>
       </c>
       <c r="H79" s="65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>439.29600000000005</v>
       </c>
     </row>
@@ -20009,7 +20105,7 @@
       <c r="A80" s="63">
         <v>19</v>
       </c>
-      <c r="B80" s="125" t="s">
+      <c r="B80" s="122" t="s">
         <v>289</v>
       </c>
       <c r="C80" s="61" t="s">
@@ -20029,7 +20125,7 @@
         <v>26</v>
       </c>
       <c r="H80" s="65">
-        <f t="shared" ref="H80" si="27">F80*G80</f>
+        <f t="shared" ref="H80" si="29">F80*G80</f>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20037,7 +20133,7 @@
       <c r="A81" s="63">
         <v>20</v>
       </c>
-      <c r="B81" s="125"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="61" t="s">
         <v>275</v>
       </c>
@@ -20055,7 +20151,7 @@
         <v>26</v>
       </c>
       <c r="H81" s="65">
-        <f t="shared" ref="H81:H93" si="28">F81*G81</f>
+        <f t="shared" ref="H81:H93" si="30">F81*G81</f>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20063,7 +20159,7 @@
       <c r="A82" s="63">
         <v>21</v>
       </c>
-      <c r="B82" s="125"/>
+      <c r="B82" s="122"/>
       <c r="C82" s="61" t="s">
         <v>276</v>
       </c>
@@ -20074,14 +20170,14 @@
         <v>2290</v>
       </c>
       <c r="F82" s="65">
-        <f t="shared" ref="F82:F90" si="29">-D82*E82/1000000</f>
+        <f t="shared" ref="F82:F90" si="31">-D82*E82/1000000</f>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G82" s="61">
         <v>26</v>
       </c>
       <c r="H82" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20089,7 +20185,7 @@
       <c r="A83" s="63">
         <v>22</v>
       </c>
-      <c r="B83" s="125"/>
+      <c r="B83" s="122"/>
       <c r="C83" s="61" t="s">
         <v>278</v>
       </c>
@@ -20100,14 +20196,14 @@
         <v>2290</v>
       </c>
       <c r="F83" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G83" s="61">
         <v>26</v>
       </c>
       <c r="H83" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20115,7 +20211,7 @@
       <c r="A84" s="63">
         <v>23</v>
       </c>
-      <c r="B84" s="125"/>
+      <c r="B84" s="122"/>
       <c r="C84" s="61" t="s">
         <v>270</v>
       </c>
@@ -20126,14 +20222,14 @@
         <v>2290</v>
       </c>
       <c r="F84" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G84" s="61">
         <v>26</v>
       </c>
       <c r="H84" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
@@ -20141,7 +20237,7 @@
       <c r="A85" s="63">
         <v>24</v>
       </c>
-      <c r="B85" s="125"/>
+      <c r="B85" s="122"/>
       <c r="C85" s="61" t="s">
         <v>322</v>
       </c>
@@ -20152,14 +20248,14 @@
         <v>2100</v>
       </c>
       <c r="F85" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1.617</v>
       </c>
       <c r="G85" s="61">
         <v>26</v>
       </c>
       <c r="H85" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-42.042000000000002</v>
       </c>
     </row>
@@ -20167,7 +20263,7 @@
       <c r="A86" s="64">
         <v>25</v>
       </c>
-      <c r="B86" s="119" t="s">
+      <c r="B86" s="120" t="s">
         <v>291</v>
       </c>
       <c r="C86" s="65" t="s">
@@ -20180,14 +20276,14 @@
         <v>1245</v>
       </c>
       <c r="F86" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-1.992</v>
       </c>
       <c r="G86" s="61">
         <v>26</v>
       </c>
       <c r="H86" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-51.792000000000002</v>
       </c>
       <c r="I86" s="65"/>
@@ -20198,7 +20294,7 @@
       <c r="A87" s="64">
         <v>26</v>
       </c>
-      <c r="B87" s="119"/>
+      <c r="B87" s="120"/>
       <c r="C87" s="65" t="s">
         <v>275</v>
       </c>
@@ -20209,14 +20305,14 @@
         <v>1790</v>
       </c>
       <c r="F87" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8646099999999999</v>
       </c>
       <c r="G87" s="61">
         <v>26</v>
       </c>
       <c r="H87" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-100.47986</v>
       </c>
       <c r="I87" s="65"/>
@@ -20227,7 +20323,7 @@
       <c r="A88" s="64">
         <v>27</v>
       </c>
-      <c r="B88" s="119"/>
+      <c r="B88" s="120"/>
       <c r="C88" s="65" t="s">
         <v>276</v>
       </c>
@@ -20238,14 +20334,14 @@
         <v>1790</v>
       </c>
       <c r="F88" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-4.7435</v>
       </c>
       <c r="G88" s="61">
         <v>26</v>
       </c>
       <c r="H88" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-123.331</v>
       </c>
       <c r="I88" s="65"/>
@@ -20256,7 +20352,7 @@
       <c r="A89" s="64">
         <v>28</v>
       </c>
-      <c r="B89" s="119"/>
+      <c r="B89" s="120"/>
       <c r="C89" s="65" t="s">
         <v>278</v>
       </c>
@@ -20267,14 +20363,14 @@
         <v>1790</v>
       </c>
       <c r="F89" s="65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-2.1927500000000002</v>
       </c>
       <c r="G89" s="61">
         <v>26</v>
       </c>
       <c r="H89" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-57.011500000000005</v>
       </c>
       <c r="I89" s="65"/>
@@ -20285,7 +20381,7 @@
       <c r="A90" s="70">
         <v>29</v>
       </c>
-      <c r="B90" s="123"/>
+      <c r="B90" s="121"/>
       <c r="C90" s="79" t="s">
         <v>270</v>
       </c>
@@ -20296,14 +20392,14 @@
         <v>1790</v>
       </c>
       <c r="F90" s="79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-4.5465999999999998</v>
       </c>
       <c r="G90" s="79">
         <v>26</v>
       </c>
       <c r="H90" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-118.21159999999999</v>
       </c>
       <c r="I90" s="70">
@@ -20321,7 +20417,7 @@
       <c r="A91" s="64">
         <v>1</v>
       </c>
-      <c r="B91" s="119" t="s">
+      <c r="B91" s="120" t="s">
         <v>324</v>
       </c>
       <c r="C91" s="65" t="s">
@@ -20341,7 +20437,7 @@
         <v>330</v>
       </c>
       <c r="H91" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1411.7399999999998</v>
       </c>
       <c r="I91" s="78"/>
@@ -20352,7 +20448,7 @@
       <c r="A92" s="64">
         <v>2</v>
       </c>
-      <c r="B92" s="119"/>
+      <c r="B92" s="120"/>
       <c r="C92" s="65" t="s">
         <v>296</v>
       </c>
@@ -20370,7 +20466,7 @@
         <v>330</v>
       </c>
       <c r="H92" s="65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1512.7695000000001</v>
       </c>
       <c r="I92" s="65"/>
@@ -20381,7 +20477,7 @@
       <c r="A93" s="70">
         <v>3</v>
       </c>
-      <c r="B93" s="123"/>
+      <c r="B93" s="121"/>
       <c r="C93" s="79" t="s">
         <v>297</v>
       </c>
@@ -20399,7 +20495,7 @@
         <v>330</v>
       </c>
       <c r="H93" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1632.0150000000001</v>
       </c>
       <c r="I93" s="70">
@@ -20479,7 +20575,7 @@
       <c r="A96" s="77">
         <v>1</v>
       </c>
-      <c r="B96" s="122" t="s">
+      <c r="B96" s="119" t="s">
         <v>327</v>
       </c>
       <c r="C96" s="78" t="s">
@@ -20492,14 +20588,14 @@
         <v>2350</v>
       </c>
       <c r="F96" s="78">
-        <f t="shared" ref="F96:F99" si="30">D96*E96/1000000</f>
+        <f t="shared" ref="F96:F99" si="32">D96*E96/1000000</f>
         <v>3.4075000000000002</v>
       </c>
       <c r="G96" s="84">
         <v>115</v>
       </c>
       <c r="H96" s="78">
-        <f t="shared" ref="H96:H99" si="31">F96*G96</f>
+        <f t="shared" ref="H96:H99" si="33">F96*G96</f>
         <v>391.86250000000001</v>
       </c>
       <c r="I96" s="78"/>
@@ -20510,7 +20606,7 @@
       <c r="A97" s="64">
         <v>2</v>
       </c>
-      <c r="B97" s="119"/>
+      <c r="B97" s="120"/>
       <c r="C97" s="65" t="s">
         <v>329</v>
       </c>
@@ -20521,14 +20617,14 @@
         <v>2350</v>
       </c>
       <c r="F97" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.94</v>
       </c>
       <c r="G97" s="66">
         <v>115</v>
       </c>
       <c r="H97" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>108.1</v>
       </c>
       <c r="I97" s="65"/>
@@ -20539,7 +20635,7 @@
       <c r="A98" s="64">
         <v>3</v>
       </c>
-      <c r="B98" s="119"/>
+      <c r="B98" s="120"/>
       <c r="C98" s="65" t="s">
         <v>294</v>
       </c>
@@ -20550,14 +20646,14 @@
         <v>2750</v>
       </c>
       <c r="F98" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.915</v>
       </c>
       <c r="G98" s="66">
         <v>115</v>
       </c>
       <c r="H98" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>335.22500000000002</v>
       </c>
       <c r="I98" s="65"/>
@@ -20568,7 +20664,7 @@
       <c r="A99" s="70">
         <v>4</v>
       </c>
-      <c r="B99" s="123"/>
+      <c r="B99" s="121"/>
       <c r="C99" s="79" t="s">
         <v>307</v>
       </c>
@@ -20579,14 +20675,14 @@
         <v>2750</v>
       </c>
       <c r="F99" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0725</v>
       </c>
       <c r="G99" s="76">
         <v>115</v>
       </c>
       <c r="H99" s="79">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>123.33750000000001</v>
       </c>
       <c r="I99" s="70">
@@ -20621,7 +20717,7 @@
       <c r="A101" s="77">
         <v>1</v>
       </c>
-      <c r="B101" s="122" t="s">
+      <c r="B101" s="119" t="s">
         <v>333</v>
       </c>
       <c r="C101" s="78" t="s">
@@ -20654,7 +20750,7 @@
       <c r="A102" s="64">
         <v>2</v>
       </c>
-      <c r="B102" s="119"/>
+      <c r="B102" s="120"/>
       <c r="C102" s="65" t="s">
         <v>331</v>
       </c>
@@ -20667,7 +20763,7 @@
         <v>70</v>
       </c>
       <c r="H102" s="65">
-        <f t="shared" ref="H102:H103" si="32">D102*G102</f>
+        <f t="shared" ref="H102:H103" si="34">D102*G102</f>
         <v>469</v>
       </c>
       <c r="I102" s="64">
@@ -20685,7 +20781,7 @@
       <c r="A103" s="70">
         <v>3</v>
       </c>
-      <c r="B103" s="123"/>
+      <c r="B103" s="121"/>
       <c r="C103" s="79" t="s">
         <v>332</v>
       </c>
@@ -20698,7 +20794,7 @@
         <v>60</v>
       </c>
       <c r="H103" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>549</v>
       </c>
       <c r="I103" s="70">
@@ -20714,11 +20810,24 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="B62:B79"/>
     <mergeCell ref="B37:B40"/>
@@ -20731,24 +20840,11 @@
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B86:B90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20758,11 +20854,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -20824,7 +20920,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="93">
-        <f t="shared" ref="G2:G20" si="0">E2*F2</f>
+        <f t="shared" ref="G2:G21" si="0">E2*F2</f>
         <v>-100</v>
       </c>
       <c r="H2" s="97"/>
@@ -20862,38 +20958,38 @@
         <v>-4950</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:10" s="104" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="93">
         <v>3</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="D4" s="93" t="s">
         <v>346</v>
       </c>
       <c r="E4" s="93">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F4" s="93">
-        <v>110</v>
+        <v>750</v>
       </c>
       <c r="G4" s="93">
         <f t="shared" si="0"/>
-        <v>9790</v>
+        <v>0</v>
       </c>
       <c r="H4" s="97">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I4" s="93">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="J4" s="94">
-        <f t="shared" ref="J4:J20" si="1">(H4-I4)*F4</f>
-        <v>990</v>
+        <f t="shared" ref="J4" si="1">(H4-I4)*F4</f>
+        <v>-2250</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1">
@@ -20901,67 +20997,67 @@
         <v>4</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" s="93" t="s">
         <v>346</v>
       </c>
       <c r="E5" s="93">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F5" s="93">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G5" s="93">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9790</v>
       </c>
       <c r="H5" s="97">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I5" s="93">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="J5" s="94">
-        <f t="shared" si="1"/>
-        <v>-1170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1">
+        <f t="shared" ref="J5:J21" si="2">(H5-I5)*F5</f>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="93">
         <v>5</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D6" s="93" t="s">
         <v>346</v>
       </c>
       <c r="E6" s="93">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="93">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="G6" s="93">
         <f t="shared" si="0"/>
-        <v>9282.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="97">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="93">
-        <v>43.76</v>
+        <v>9</v>
       </c>
       <c r="J6" s="94">
-        <f t="shared" si="1"/>
-        <v>-1001.0999999999996</v>
+        <f t="shared" si="2"/>
+        <v>-1170</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1">
@@ -20969,7 +21065,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="C7" s="93" t="s">
         <v>341</v>
@@ -20978,24 +21074,24 @@
         <v>346</v>
       </c>
       <c r="E7" s="93">
-        <v>104</v>
+        <v>25.6</v>
       </c>
       <c r="F7" s="93">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G7" s="93">
         <f t="shared" si="0"/>
-        <v>5720</v>
+        <v>1152</v>
       </c>
       <c r="H7" s="97">
-        <v>104</v>
+        <v>25.6</v>
       </c>
       <c r="I7" s="93">
-        <v>118</v>
+        <v>27.88</v>
       </c>
       <c r="J7" s="94">
-        <f t="shared" si="1"/>
-        <v>-770</v>
+        <f t="shared" si="2"/>
+        <v>-102.59999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1">
@@ -21003,33 +21099,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D8" s="93" t="s">
         <v>346</v>
       </c>
       <c r="E8" s="93">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F8" s="93">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="G8" s="93">
         <f t="shared" si="0"/>
-        <v>4620</v>
+        <v>5995</v>
       </c>
       <c r="H8" s="97">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I8" s="93">
-        <v>15</v>
-      </c>
-      <c r="J8" s="95">
-        <f t="shared" si="1"/>
-        <v>-330</v>
+        <v>118</v>
+      </c>
+      <c r="J8" s="94">
+        <f t="shared" si="2"/>
+        <v>-495</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1">
@@ -21037,33 +21133,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E9" s="93">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="F9" s="93">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="G9" s="93">
         <f t="shared" si="0"/>
-        <v>1425</v>
+        <v>4620</v>
       </c>
       <c r="H9" s="97">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="I9" s="93">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="J9" s="95">
-        <f t="shared" si="1"/>
-        <v>-300</v>
+        <f t="shared" si="2"/>
+        <v>-330</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1">
@@ -21071,67 +21167,67 @@
         <v>9</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" s="66">
-        <v>8.5</v>
+        <v>347</v>
+      </c>
+      <c r="E10" s="93">
+        <v>9.5</v>
       </c>
       <c r="F10" s="93">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="G10" s="93">
         <f t="shared" si="0"/>
-        <v>977.5</v>
+        <v>1425</v>
       </c>
       <c r="H10" s="97">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I10" s="93">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="J10" s="95">
-        <f t="shared" si="1"/>
-        <v>632.5</v>
+        <f t="shared" si="2"/>
+        <v>-300</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1">
       <c r="A11" s="93">
         <v>10</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="E11" s="65">
-        <v>2.86</v>
-      </c>
-      <c r="F11" s="62">
-        <v>80</v>
-      </c>
-      <c r="G11" s="62">
+      <c r="B11" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="66">
+        <v>8.5</v>
+      </c>
+      <c r="F11" s="93">
+        <v>115</v>
+      </c>
+      <c r="G11" s="93">
         <f t="shared" si="0"/>
-        <v>228.79999999999998</v>
-      </c>
-      <c r="H11" s="98">
-        <v>2.86</v>
+        <v>977.5</v>
+      </c>
+      <c r="H11" s="97">
+        <v>8.5</v>
       </c>
       <c r="I11" s="93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="95">
-        <f t="shared" si="1"/>
-        <v>-171.20000000000002</v>
+        <f t="shared" si="2"/>
+        <v>632.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1">
@@ -21142,30 +21238,30 @@
         <v>333</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D12" s="62" t="s">
         <v>347</v>
       </c>
       <c r="E12" s="65">
-        <v>6.7</v>
+        <v>2.86</v>
       </c>
       <c r="F12" s="62">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G12" s="62">
-        <f t="shared" si="0"/>
-        <v>469</v>
+        <f>E12*F12</f>
+        <v>228.79999999999998</v>
       </c>
       <c r="H12" s="98">
-        <v>6.7</v>
-      </c>
-      <c r="I12" s="62">
-        <v>6</v>
+        <v>2.86</v>
+      </c>
+      <c r="I12" s="93">
+        <v>5</v>
       </c>
       <c r="J12" s="95">
-        <f t="shared" si="1"/>
-        <v>49.000000000000014</v>
+        <f>(H12-I12)*F12</f>
+        <v>-171.20000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1">
@@ -21176,30 +21272,30 @@
         <v>333</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D13" s="62" t="s">
         <v>347</v>
       </c>
       <c r="E13" s="65">
-        <v>9.15</v>
+        <v>6.7</v>
       </c>
       <c r="F13" s="62">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G13" s="62">
-        <f t="shared" si="0"/>
-        <v>549</v>
+        <f>E13*F13</f>
+        <v>469</v>
       </c>
       <c r="H13" s="98">
-        <v>9.15</v>
+        <v>6.7</v>
       </c>
       <c r="I13" s="62">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J13" s="95">
-        <f t="shared" si="1"/>
-        <v>-50.999999999999979</v>
+        <f>(H13-I13)*F13</f>
+        <v>49.000000000000014</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1">
@@ -21207,30 +21303,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="D14" s="93" t="s">
-        <v>346</v>
+        <v>333</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>347</v>
       </c>
       <c r="E14" s="65">
-        <v>49.9</v>
+        <v>9.15</v>
       </c>
       <c r="F14" s="62">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G14" s="62">
-        <f t="shared" si="0"/>
-        <v>998</v>
+        <f>E14*F14</f>
+        <v>549</v>
       </c>
       <c r="H14" s="98">
-        <v>49.9</v>
+        <v>9.15</v>
       </c>
       <c r="I14" s="62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J14" s="95">
-        <f t="shared" si="1"/>
-        <v>998</v>
+        <f>(H14-I14)*F14</f>
+        <v>-50.999999999999979</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1">
@@ -21238,30 +21337,30 @@
         <v>14</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D15" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="65">
         <v>49.9</v>
       </c>
       <c r="F15" s="62">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G15" s="62">
         <f t="shared" si="0"/>
-        <v>2245.5</v>
+        <v>998</v>
       </c>
       <c r="H15" s="98">
         <v>49.9</v>
       </c>
       <c r="I15" s="62">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J15" s="95">
-        <f t="shared" si="1"/>
-        <v>-184.50000000000006</v>
+        <f t="shared" si="2"/>
+        <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1">
@@ -21269,30 +21368,30 @@
         <v>15</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>347</v>
+        <v>353</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>346</v>
       </c>
       <c r="E16" s="62">
-        <v>7.5</v>
+        <v>49.9</v>
       </c>
       <c r="F16" s="62">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" s="62">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>2245.5</v>
       </c>
       <c r="H16" s="98">
-        <v>7.5</v>
+        <v>49.9</v>
       </c>
       <c r="I16" s="62">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J16" s="95">
-        <f t="shared" si="1"/>
-        <v>360</v>
+        <f t="shared" si="2"/>
+        <v>-184.50000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1">
@@ -21300,30 +21399,30 @@
         <v>16</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="E17" s="62">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="F17" s="62">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G17" s="62">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="H17" s="98">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="I17" s="62">
         <v>0</v>
       </c>
       <c r="J17" s="95">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1">
@@ -21331,33 +21430,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>346</v>
+        <v>355</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="E18" s="62">
-        <v>15.86</v>
+        <v>3</v>
       </c>
       <c r="F18" s="62">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="G18" s="62">
         <f t="shared" si="0"/>
-        <v>555.1</v>
+        <v>300</v>
       </c>
       <c r="H18" s="98">
-        <v>15.86</v>
-      </c>
-      <c r="I18" s="92">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="I18" s="62">
+        <v>0</v>
       </c>
       <c r="J18" s="95">
-        <f t="shared" si="1"/>
-        <v>345.09999999999997</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1">
@@ -21365,30 +21461,33 @@
         <v>18</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>80</v>
+        <v>358</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>346</v>
       </c>
       <c r="E19" s="62">
-        <v>0</v>
+        <v>15.86</v>
       </c>
       <c r="F19" s="62">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="G19" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>555.1</v>
       </c>
       <c r="H19" s="98">
-        <v>0</v>
-      </c>
-      <c r="I19" s="62">
-        <v>1</v>
-      </c>
-      <c r="J19" s="99">
-        <f t="shared" si="1"/>
-        <v>-135</v>
+        <v>15.86</v>
+      </c>
+      <c r="I19" s="92">
+        <v>6</v>
+      </c>
+      <c r="J19" s="95">
+        <f t="shared" si="2"/>
+        <v>345.09999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1">
@@ -21396,122 +21495,153 @@
         <v>19</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E20" s="62">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F20" s="62">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G20" s="62">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="98">
+        <v>0</v>
+      </c>
+      <c r="I20" s="62">
+        <v>1</v>
+      </c>
+      <c r="J20" s="99">
+        <f t="shared" si="2"/>
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A21" s="93">
+        <v>20</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="62">
+        <v>75</v>
+      </c>
+      <c r="F21" s="62">
+        <v>10</v>
+      </c>
+      <c r="G21" s="62">
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="H20" s="98">
+      <c r="H21" s="98">
         <v>75</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I21" s="62">
         <v>0</v>
       </c>
-      <c r="J20" s="99">
-        <f t="shared" si="1"/>
+      <c r="J21" s="99">
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A21" s="116" t="s">
+    <row r="22" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A22" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="117">
-        <f>SUM(J2:J20)</f>
-        <v>-4738.1999999999989</v>
-      </c>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A22" s="116" t="s">
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="128">
+        <f>SUM(J2:J21)</f>
+        <v>-5814.6999999999989</v>
+      </c>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A23" s="127" t="s">
         <v>364</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="117">
-        <f>H21*0.05</f>
-        <v>-236.90999999999997</v>
-      </c>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-    </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A23" s="116" t="s">
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128">
+        <f>H22*0.05</f>
+        <v>-290.73499999999996</v>
+      </c>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+    </row>
+    <row r="24" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A24" s="127" t="s">
         <v>362</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="117">
-        <f>H21*0.05</f>
-        <v>-236.90999999999997</v>
-      </c>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-    </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A24" s="116" t="s">
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128">
+        <f>H22*0.05</f>
+        <v>-290.73499999999996</v>
+      </c>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+    </row>
+    <row r="25" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A25" s="127" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="117">
-        <f>(H21+H22+H23)*0.95</f>
-        <v>-4951.4189999999981</v>
-      </c>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-    </row>
-    <row r="25" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="128">
+        <f>(H22+H23+H24)*0.95</f>
+        <v>-6076.3614999999982</v>
+      </c>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+    </row>
+    <row r="26" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/众臣装修价目表.xlsx
+++ b/众臣装修价目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="众臣副本" sheetId="8" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="大理石" sheetId="2" r:id="rId5"/>
     <sheet name="各项明细" sheetId="3" r:id="rId6"/>
     <sheet name="转众臣" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
+    <sheet name="来自众臣" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">众臣副本!$A$2:$L$86</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="378">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1450,10 +1452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公卫、老卫、主卫、厨房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1581,10 +1579,6 @@
   </si>
   <si>
     <t>专线2.5平方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅墙砖瓷砖胶差价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1637,6 +1631,26 @@
       </rPr>
       <t>2</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台及厨房排水管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75D/50D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝扣板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房烟管批荡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1824,7 +1838,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1928,13 +1942,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2121,9 +2146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2211,9 +2233,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2249,6 +2268,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2316,16 +2347,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2625,8 +2656,8 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -2645,42 +2676,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="108" t="s">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="111" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
@@ -2699,8 +2730,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -2709,22 +2740,22 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="54">
         <v>1</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="100" t="s">
         <v>133</v>
       </c>
       <c r="C4" s="28">
@@ -5076,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C67" s="28">
         <v>4</v>
@@ -5313,7 +5344,7 @@
         <f t="shared" si="41"/>
         <v>11638.5</v>
       </c>
-      <c r="K72" s="112" t="s">
+      <c r="K72" s="114" t="s">
         <v>240</v>
       </c>
       <c r="L72" s="30" t="s">
@@ -5355,7 +5386,7 @@
         <f t="shared" si="41"/>
         <v>228.79999999999998</v>
       </c>
-      <c r="K73" s="112"/>
+      <c r="K73" s="114"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="54">
@@ -5392,7 +5423,7 @@
         <f t="shared" si="41"/>
         <v>469</v>
       </c>
-      <c r="K74" s="112"/>
+      <c r="K74" s="114"/>
     </row>
     <row r="75" spans="1:12" ht="24.95" customHeight="1">
       <c r="A75" s="54">
@@ -5429,7 +5460,7 @@
         <f t="shared" si="41"/>
         <v>549</v>
       </c>
-      <c r="K75" s="112"/>
+      <c r="K75" s="114"/>
     </row>
     <row r="76" spans="1:12" ht="24.95" customHeight="1">
       <c r="A76" s="54">
@@ -5593,13 +5624,13 @@
         <v>17</v>
       </c>
       <c r="B80" s="56" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C80" s="28">
         <v>75</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E80" s="56">
         <v>10</v>
@@ -5665,13 +5696,13 @@
       <c r="L81" s="31"/>
     </row>
     <row r="82" spans="1:12" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="115"/>
+      <c r="D82" s="115"/>
+      <c r="E82" s="115"/>
       <c r="F82" s="19">
         <f>SUM(F4:F81)</f>
         <v>47180.549999999996</v>
@@ -5690,13 +5721,13 @@
       <c r="L82" s="48"/>
     </row>
     <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A83" s="105" t="s">
+      <c r="A83" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="107"/>
+      <c r="D83" s="107"/>
+      <c r="E83" s="107"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
@@ -5708,13 +5739,13 @@
       <c r="K83" s="41"/>
     </row>
     <row r="84" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A84" s="105" t="s">
+      <c r="A84" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="105"/>
-      <c r="C84" s="105"/>
-      <c r="D84" s="105"/>
-      <c r="E84" s="105"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
@@ -5726,13 +5757,13 @@
       <c r="K84" s="41"/>
     </row>
     <row r="85" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A85" s="106" t="s">
+      <c r="A85" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="106"/>
-      <c r="C85" s="106"/>
-      <c r="D85" s="106"/>
-      <c r="E85" s="106"/>
+      <c r="B85" s="108"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="108"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
@@ -5744,13 +5775,13 @@
       <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A86" s="107" t="s">
+      <c r="A86" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
+      <c r="B86" s="109"/>
+      <c r="C86" s="109"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="109"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
@@ -5808,7 +5839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -5827,42 +5858,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="108" t="s">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="111" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="59" t="s">
         <v>5</v>
       </c>
@@ -5881,8 +5912,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -5891,16 +5922,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="56">
@@ -5912,8 +5943,8 @@
       <c r="C4" s="56">
         <v>3</v>
       </c>
-      <c r="D4" s="102" t="s">
-        <v>374</v>
+      <c r="D4" s="100" t="s">
+        <v>372</v>
       </c>
       <c r="E4" s="56">
         <v>500</v>
@@ -8455,7 +8486,7 @@
         <f t="shared" si="45"/>
         <v>6450</v>
       </c>
-      <c r="K70" s="112" t="s">
+      <c r="K70" s="114" t="s">
         <v>240</v>
       </c>
       <c r="L70" s="30" t="s">
@@ -8497,7 +8528,7 @@
         <f t="shared" si="45"/>
         <v>400</v>
       </c>
-      <c r="K71" s="112"/>
+      <c r="K71" s="114"/>
     </row>
     <row r="72" spans="1:12" ht="24.95" customHeight="1">
       <c r="A72" s="56">
@@ -8534,7 +8565,7 @@
         <f t="shared" si="45"/>
         <v>420</v>
       </c>
-      <c r="K72" s="112"/>
+      <c r="K72" s="114"/>
     </row>
     <row r="73" spans="1:12" ht="24.95" customHeight="1">
       <c r="A73" s="56">
@@ -8571,7 +8602,7 @@
         <f t="shared" si="45"/>
         <v>600</v>
       </c>
-      <c r="K73" s="112"/>
+      <c r="K73" s="114"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="56">
@@ -8732,13 +8763,13 @@
       <c r="L77" s="31"/>
     </row>
     <row r="78" spans="1:12" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A78" s="113" t="s">
+      <c r="A78" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="113"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="113"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="115"/>
       <c r="F78" s="19">
         <f>SUM(F4:F77)</f>
         <v>46797.8</v>
@@ -8754,16 +8785,16 @@
         <v>90820</v>
       </c>
       <c r="K78" s="41"/>
-      <c r="L78" s="101"/>
+      <c r="L78" s="99"/>
     </row>
     <row r="79" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A79" s="105" t="s">
+      <c r="A79" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="105"/>
-      <c r="C79" s="105"/>
-      <c r="D79" s="105"/>
-      <c r="E79" s="105"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
@@ -8775,13 +8806,13 @@
       <c r="K79" s="41"/>
     </row>
     <row r="80" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A80" s="105" t="s">
+      <c r="A80" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="105"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="105"/>
-      <c r="E80" s="105"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="107"/>
+      <c r="E80" s="107"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
@@ -8793,13 +8824,13 @@
       <c r="K80" s="41"/>
     </row>
     <row r="81" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A81" s="106" t="s">
+      <c r="A81" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="106"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="108"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
@@ -8813,13 +8844,13 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A82" s="107" t="s">
+      <c r="A82" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="107"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="109"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
@@ -9086,39 +9117,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="108" t="s">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="111" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -9137,7 +9168,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="110"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -9146,15 +9177,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -11572,10 +11603,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="115" t="s">
+      <c r="A75" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="115"/>
+      <c r="B75" s="117"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -12530,13 +12561,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="115"/>
+      <c r="E102" s="115"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>65990.500000000015</v>
@@ -12554,13 +12585,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="105" t="s">
+      <c r="A103" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="105"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="105"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -12571,13 +12602,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="105"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="105"/>
-      <c r="E104" s="105"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -12588,13 +12619,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="106" t="s">
+      <c r="A105" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="106"/>
-      <c r="C105" s="106"/>
-      <c r="D105" s="106"/>
-      <c r="E105" s="106"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -12605,13 +12636,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="107" t="s">
+      <c r="A106" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="107"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="107"/>
-      <c r="E106" s="107"/>
+      <c r="B106" s="109"/>
+      <c r="C106" s="109"/>
+      <c r="D106" s="109"/>
+      <c r="E106" s="109"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -12671,39 +12702,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="108" t="s">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108" t="s">
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="111" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -12722,7 +12753,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="110"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -12731,15 +12762,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -15157,10 +15188,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="115" t="s">
+      <c r="A75" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="115"/>
+      <c r="B75" s="117"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -16115,13 +16146,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="115"/>
+      <c r="E102" s="115"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>80990.500000000015</v>
@@ -16139,13 +16170,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="105" t="s">
+      <c r="A103" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="105"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="105"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -16156,13 +16187,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="105"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="105"/>
-      <c r="E104" s="105"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -16173,13 +16204,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="106" t="s">
+      <c r="A105" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="106"/>
-      <c r="C105" s="106"/>
-      <c r="D105" s="106"/>
-      <c r="E105" s="106"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -16190,13 +16221,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="107" t="s">
+      <c r="A106" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="107"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="107"/>
-      <c r="E106" s="107"/>
+      <c r="B106" s="109"/>
+      <c r="C106" s="109"/>
+      <c r="D106" s="109"/>
+      <c r="E106" s="109"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -16241,852 +16272,852 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="65" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="65"/>
+    <col min="1" max="1" width="5.75" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="64" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="64" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A1" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="69" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A2" s="64">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="64">
         <v>1</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="64">
         <v>1550</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="64">
         <v>160</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="64">
         <f>E2*F2/1000000</f>
         <v>0.248</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="64">
         <f>D2*G2</f>
         <v>0.248</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="64">
         <v>460</v>
       </c>
-      <c r="J2" s="65">
+      <c r="J2" s="64">
         <f>H2*I2</f>
         <v>114.08</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A3" s="64">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="118" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="120" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="64">
         <v>2</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="64">
         <v>770</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="64">
         <v>130</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="64">
         <f t="shared" ref="G3:G11" si="0">E3*F3/1000000</f>
         <v>0.10009999999999999</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="64">
         <f t="shared" ref="H3:H9" si="1">D3*G3</f>
         <v>0.20019999999999999</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="64">
         <v>460</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="64">
         <f t="shared" ref="J3:J9" si="2">H3*I3</f>
         <v>92.091999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A4" s="64">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="65">
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="64">
         <v>1</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="64">
         <v>770</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="64">
         <v>150</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="64">
         <f>E4*F4/1000000</f>
         <v>0.11550000000000001</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="64">
         <f>D4*G4</f>
         <v>0.11550000000000001</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="64">
         <v>460</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="64">
         <f>H4*I4</f>
         <v>53.13</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A5" s="64">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="118" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="120" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="64">
         <v>1</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="64">
         <v>1390</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="64">
         <v>100</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="64">
         <f t="shared" si="0"/>
         <v>0.13900000000000001</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="64">
         <f t="shared" si="1"/>
         <v>0.13900000000000001</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="64">
         <v>460</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="64">
         <f t="shared" si="2"/>
         <v>63.940000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A6" s="64">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="65">
+      <c r="B6" s="118"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="64">
         <v>770</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="64">
         <v>100</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="64">
         <f t="shared" si="0"/>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="64">
         <f t="shared" si="1"/>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="64">
         <v>460</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="64">
         <f t="shared" si="2"/>
         <v>35.42</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A7" s="64">
+      <c r="A7" s="63">
         <v>6</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="65">
+      <c r="B7" s="118"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="64">
         <v>780</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="64">
         <v>100</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="64">
         <f t="shared" si="0"/>
         <v>7.8E-2</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="64">
         <f t="shared" si="1"/>
         <v>7.8E-2</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="64">
         <v>460</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="64">
         <f t="shared" si="2"/>
         <v>35.880000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A8" s="64">
+      <c r="A8" s="63">
         <v>7</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>1</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>870</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="64">
         <v>210</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="64">
         <f t="shared" si="0"/>
         <v>0.1827</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="64">
         <f t="shared" si="1"/>
         <v>0.1827</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="64">
         <v>460</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="64">
         <f t="shared" si="2"/>
         <v>84.042000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A9" s="64">
+      <c r="A9" s="63">
         <v>8</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="64">
         <v>4</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="64">
         <v>870</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <v>120</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="64">
         <f t="shared" si="0"/>
         <v>0.10440000000000001</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="64">
         <f t="shared" si="1"/>
         <v>0.41760000000000003</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="64">
         <v>460</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="64">
         <f t="shared" si="2"/>
         <v>192.096</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A10" s="64">
+      <c r="A10" s="63">
         <v>9</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="118" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="120" t="s">
         <v>266</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <v>1</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="64">
         <v>1050</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <v>165</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="64">
         <f t="shared" si="0"/>
         <v>0.17324999999999999</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="64">
         <f t="shared" ref="H10:H11" si="3">D10*G10</f>
         <v>0.17324999999999999</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="64">
         <v>460</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="64">
         <f t="shared" ref="J10:J11" si="4">H10*I10</f>
         <v>79.694999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A11" s="64">
+      <c r="A11" s="63">
         <v>10</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="65">
+      <c r="B11" s="118"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="64">
         <v>1</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="64">
         <v>1070</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="64">
         <v>150</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="64">
         <f t="shared" si="0"/>
         <v>0.1605</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="64">
         <f t="shared" si="3"/>
         <v>0.1605</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="64">
         <v>460</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="64">
         <f t="shared" si="4"/>
         <v>73.83</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A12" s="64">
+      <c r="A12" s="63">
         <v>11</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="64">
         <v>2.1</v>
       </c>
-      <c r="I12" s="65">
+      <c r="I12" s="64">
         <v>20</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="64">
         <f>D12*I12</f>
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A13" s="64">
+      <c r="A13" s="63">
         <v>12</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="118" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="64">
         <v>1</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="64">
         <v>1680</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="64">
         <v>100</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="64">
         <f t="shared" ref="G13:G15" si="5">E13*F13/1000000</f>
         <v>0.16800000000000001</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="64">
         <f t="shared" ref="H13:H15" si="6">D13*G13</f>
         <v>0.16800000000000001</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="64">
         <v>430</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="64">
         <f t="shared" ref="J13:J15" si="7">H13*I13</f>
         <v>72.240000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A14" s="64">
+      <c r="A14" s="63">
         <v>13</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="65">
+      <c r="B14" s="118"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="64">
         <v>1</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="64">
         <v>1585</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="64">
         <v>100</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="64">
         <f t="shared" si="5"/>
         <v>0.1585</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="64">
         <f t="shared" si="6"/>
         <v>0.1585</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="64">
         <v>430</v>
       </c>
-      <c r="J14" s="65">
+      <c r="J14" s="64">
         <f t="shared" si="7"/>
         <v>68.155000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A15" s="64">
+      <c r="A15" s="63">
         <v>14</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="65">
+      <c r="B15" s="118"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="64">
         <v>1</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="64">
         <v>1380</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="64">
         <v>100</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="64">
         <f t="shared" si="5"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="64">
         <f t="shared" si="6"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="64">
         <v>430</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="64">
         <f t="shared" si="7"/>
         <v>59.34</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A16" s="64">
+      <c r="A16" s="63">
         <v>15</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="65" t="s">
+      <c r="B16" s="118"/>
+      <c r="C16" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="64">
         <v>9.2899999999999991</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="64">
         <v>20</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="64">
         <f>D16*I16</f>
         <v>185.79999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A17" s="64">
+      <c r="A17" s="63">
         <v>16</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="118" t="s">
         <v>273</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="64">
         <v>1</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="64">
         <v>1630</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="64">
         <v>175</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="64">
         <f t="shared" ref="G17:G24" si="8">E17*F17/1000000</f>
         <v>0.28525</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="64">
         <f t="shared" ref="H17:H24" si="9">D17*G17</f>
         <v>0.28525</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="64">
         <v>230</v>
       </c>
-      <c r="J17" s="65">
+      <c r="J17" s="64">
         <f t="shared" ref="J17:J24" si="10">H17*I17</f>
         <v>65.607500000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A18" s="64">
+      <c r="A18" s="63">
         <v>17</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="65" t="s">
+      <c r="B18" s="118"/>
+      <c r="C18" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="64">
         <v>1</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="64">
         <v>2000</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="64">
         <v>150</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="64">
         <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="64">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="64">
         <v>230</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="64">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A19" s="64">
+      <c r="A19" s="63">
         <v>18</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="65" t="s">
+      <c r="B19" s="118"/>
+      <c r="C19" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="64">
         <v>1</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="64">
         <v>800</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="64">
         <v>750</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="64">
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="64">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="64">
         <v>230</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="64">
         <f t="shared" si="10"/>
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A20" s="64">
+      <c r="A20" s="63">
         <v>19</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="65" t="s">
+      <c r="B20" s="118"/>
+      <c r="C20" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="64">
         <v>1</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="64">
         <v>2180</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="64">
         <v>170</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="64">
         <f t="shared" si="8"/>
         <v>0.37059999999999998</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="64">
         <f t="shared" si="9"/>
         <v>0.37059999999999998</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="64">
         <v>230</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="64">
         <f t="shared" si="10"/>
         <v>85.238</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A21" s="64">
+      <c r="A21" s="63">
         <v>20</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="65" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="64">
         <v>1</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="64">
         <v>2640</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="64">
         <v>170</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="64">
         <f t="shared" si="8"/>
         <v>0.44879999999999998</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="64">
         <f t="shared" si="9"/>
         <v>0.44879999999999998</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="64">
         <v>230</v>
       </c>
-      <c r="J21" s="65">
+      <c r="J21" s="64">
         <f t="shared" si="10"/>
         <v>103.22399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A22" s="64">
+      <c r="A22" s="63">
         <v>21</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="65" t="s">
+      <c r="B22" s="118"/>
+      <c r="C22" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="64">
         <v>1</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="64">
         <v>1235</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="64">
         <v>185</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="64">
         <f t="shared" si="8"/>
         <v>0.22847500000000001</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="64">
         <f t="shared" si="9"/>
         <v>0.22847500000000001</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="64">
         <v>230</v>
       </c>
-      <c r="J22" s="65">
+      <c r="J22" s="64">
         <f t="shared" si="10"/>
         <v>52.549250000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A23" s="64">
+      <c r="A23" s="63">
         <v>22</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="65" t="s">
+      <c r="B23" s="118"/>
+      <c r="C23" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="64">
         <v>1</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="64">
         <v>3250</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="64">
         <v>180</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="64">
         <f t="shared" si="8"/>
         <v>0.58499999999999996</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="64">
         <f t="shared" si="9"/>
         <v>0.58499999999999996</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="64">
         <v>230</v>
       </c>
-      <c r="J23" s="65">
+      <c r="J23" s="64">
         <f t="shared" si="10"/>
         <v>134.54999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A24" s="64">
+      <c r="A24" s="63">
         <v>23</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="65" t="s">
+      <c r="B24" s="118"/>
+      <c r="C24" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="64">
         <v>1</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="64">
         <v>565</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="64">
         <v>195</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="64">
         <f t="shared" si="8"/>
         <v>0.110175</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="64">
         <f t="shared" si="9"/>
         <v>0.110175</v>
       </c>
-      <c r="I24" s="65">
+      <c r="I24" s="64">
         <v>230</v>
       </c>
-      <c r="J24" s="65">
+      <c r="J24" s="64">
         <f t="shared" si="10"/>
         <v>25.340249999999997</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A25" s="64">
+      <c r="A25" s="63">
         <v>24</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="65" t="s">
+      <c r="B25" s="118"/>
+      <c r="C25" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="64">
         <v>11.3</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="64">
         <v>10</v>
       </c>
-      <c r="J25" s="65">
+      <c r="J25" s="64">
         <f t="shared" ref="J25:J26" si="11">D25*I25</f>
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A26" s="64">
+      <c r="A26" s="63">
         <v>25</v>
       </c>
-      <c r="B26" s="116"/>
-      <c r="C26" s="65" t="s">
+      <c r="B26" s="118"/>
+      <c r="C26" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="64">
         <v>2.9950000000000001</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="64">
         <v>20</v>
       </c>
-      <c r="J26" s="65">
+      <c r="J26" s="64">
         <f t="shared" si="11"/>
         <v>59.900000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="116">
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="118">
         <f>SUM(J2:J26)-2.149-20</f>
         <v>2076</v>
       </c>
-      <c r="J27" s="116"/>
+      <c r="J27" s="118"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A28" s="64">
+      <c r="A28" s="63">
         <v>26</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="J28" s="65">
+      <c r="J28" s="64">
         <v>700</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="116">
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="118">
         <f>I27+J28</f>
         <v>2776</v>
       </c>
-      <c r="J29" s="116"/>
+      <c r="J29" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17118,13 +17149,13 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V23" sqref="V23"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="63"/>
-    <col min="2" max="2" width="12.375" style="83" customWidth="1"/>
+    <col min="1" max="1" width="9" style="62"/>
+    <col min="2" max="2" width="12.375" style="82" customWidth="1"/>
     <col min="3" max="3" width="11" style="61" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="61"/>
     <col min="5" max="5" width="10.875" style="61" bestFit="1" customWidth="1"/>
@@ -17134,2520 +17165,2520 @@
     <col min="16" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="63" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:22" s="62" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A1" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="69" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="82" t="s">
+      <c r="M1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="U1" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="U1" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="V1" s="70" t="s">
+      <c r="V1" s="69" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="63" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="64">
+    <row r="2" spans="1:22" s="62" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="65">
         <v>2380</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="65">
         <v>1460</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="65">
         <f t="shared" ref="F2" si="0">D2*E2/1000000</f>
         <v>3.4748000000000001</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="65">
         <v>70</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="64">
         <f t="shared" ref="H2:H4" si="1">F2*G2</f>
         <v>243.23600000000002</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="M2" s="66">
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="M2" s="65">
         <v>1</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q2" s="66">
+      <c r="Q2" s="65">
         <v>-1</v>
       </c>
-      <c r="R2" s="66">
+      <c r="R2" s="65">
         <v>100</v>
       </c>
-      <c r="S2" s="93">
-        <f t="shared" ref="S2:S22" si="2">Q2*R2</f>
+      <c r="S2" s="91">
+        <f t="shared" ref="S2:S4" si="2">Q2*R2</f>
         <v>-100</v>
       </c>
-      <c r="T2" s="97"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="94">
+      <c r="T2" s="95"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="92">
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="63" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="64">
+    <row r="3" spans="1:22" s="62" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="65">
         <v>6860</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="65">
         <v>1045</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="64">
         <f t="shared" ref="F3:F16" si="3">D3*E3/1000000</f>
         <v>7.1687000000000003</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="65">
         <v>70</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="64">
         <f t="shared" si="1"/>
         <v>501.80900000000003</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="M3" s="93">
+      <c r="I3" s="63"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="M3" s="91">
         <v>2</v>
       </c>
-      <c r="N3" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="O3" s="93" t="s">
+      <c r="N3" s="91" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q3" s="93">
+      <c r="O3" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q3" s="91">
         <v>90</v>
       </c>
-      <c r="R3" s="93">
+      <c r="R3" s="91">
         <v>-55</v>
       </c>
-      <c r="S3" s="93">
+      <c r="S3" s="91">
         <f t="shared" si="2"/>
         <v>-4950</v>
       </c>
-      <c r="T3" s="97"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="95">
+      <c r="T3" s="95"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="93">
         <v>-4950</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="63" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A4" s="70">
+    <row r="4" spans="1:22" s="62" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A4" s="69">
         <v>3</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="123"/>
+      <c r="C4" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="75">
         <v>495</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="75">
         <v>1045</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="78">
         <f t="shared" si="3"/>
         <v>0.51727500000000004</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="75">
         <v>70</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="78">
         <f t="shared" si="1"/>
         <v>36.209250000000004</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="69">
         <v>13</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="84">
         <v>12</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="84">
         <f>(I4-J4)*G4</f>
         <v>70</v>
       </c>
-      <c r="M4" s="93">
+      <c r="M4" s="91">
         <v>3</v>
       </c>
-      <c r="N4" s="93" t="s">
-        <v>372</v>
-      </c>
-      <c r="O4" s="93" t="s">
-        <v>373</v>
-      </c>
-      <c r="P4" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q4" s="93">
-        <v>0</v>
-      </c>
-      <c r="R4" s="93">
+      <c r="N4" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="O4" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="P4" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q4" s="91">
+        <v>0</v>
+      </c>
+      <c r="R4" s="91">
         <v>750</v>
       </c>
-      <c r="S4" s="93">
+      <c r="S4" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T4" s="97">
-        <v>0</v>
-      </c>
-      <c r="U4" s="93">
+      <c r="T4" s="95">
+        <v>0</v>
+      </c>
+      <c r="U4" s="91">
         <v>3</v>
       </c>
-      <c r="V4" s="94">
+      <c r="V4" s="92">
         <f t="shared" ref="V4" si="4">(T4-U4)*R4</f>
         <v>-2250</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A5" s="64">
+      <c r="A5" s="63">
         <v>1</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="122" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="64">
         <v>2940</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="64">
         <v>2750</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="64">
         <f>D5*E5/1000000</f>
         <v>8.0850000000000009</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="65">
         <v>110</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="64">
         <f>F5*G5</f>
         <v>889.35000000000014</v>
       </c>
-      <c r="M5" s="93">
+      <c r="M5" s="91">
         <v>4</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="P5" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q5" s="63">
+      <c r="P5" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q5" s="62">
         <v>11.5</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="62">
         <v>70</v>
       </c>
-      <c r="S5" s="63">
-        <f t="shared" ref="S5:S27" si="5">Q5*R5</f>
+      <c r="S5" s="62">
+        <f t="shared" ref="S5:S23" si="5">Q5*R5</f>
         <v>805</v>
       </c>
-      <c r="T5" s="129">
+      <c r="T5" s="103">
         <v>11.5</v>
       </c>
-      <c r="U5" s="63">
+      <c r="U5" s="62">
         <v>13</v>
       </c>
-      <c r="V5" s="86">
+      <c r="V5" s="85">
         <f>(T5-U5)*R5</f>
         <v>-105</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A6" s="64">
+      <c r="A6" s="63">
         <v>2</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="65">
+      <c r="B6" s="122"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="64">
         <v>1460</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="64">
         <v>2750</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="64">
         <f t="shared" si="3"/>
         <v>4.0149999999999997</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="65">
         <v>110</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="64">
         <f t="shared" ref="H6:H18" si="6">F6*G6</f>
         <v>441.65</v>
       </c>
-      <c r="M6" s="93">
+      <c r="M6" s="91">
         <v>5</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="O6" s="93" t="s">
+      <c r="O6" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="P6" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q6" s="93">
+      <c r="P6" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q6" s="91">
         <v>89</v>
       </c>
-      <c r="R6" s="93">
+      <c r="R6" s="91">
         <v>110</v>
       </c>
-      <c r="S6" s="93">
+      <c r="S6" s="91">
         <f t="shared" si="5"/>
         <v>9790</v>
       </c>
-      <c r="T6" s="97">
+      <c r="T6" s="95">
         <v>89</v>
       </c>
-      <c r="U6" s="93">
+      <c r="U6" s="91">
         <v>80</v>
       </c>
-      <c r="V6" s="94">
-        <f t="shared" ref="V6:V27" si="7">(T6-U6)*R6</f>
+      <c r="V6" s="92">
+        <f t="shared" ref="V6:V23" si="7">(T6-U6)*R6</f>
         <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A7" s="64">
+      <c r="A7" s="63">
         <v>3</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="65">
+      <c r="B7" s="122"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="64">
         <v>2380</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="64">
         <v>2750</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="64">
         <f t="shared" si="3"/>
         <v>6.5449999999999999</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="65">
         <v>110</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="64">
         <f t="shared" si="6"/>
         <v>719.95</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="91">
         <v>6</v>
       </c>
-      <c r="N7" s="93" t="s">
+      <c r="N7" s="91" t="s">
         <v>337</v>
       </c>
-      <c r="O7" s="93" t="s">
+      <c r="O7" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="P7" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q7" s="93">
-        <v>0</v>
-      </c>
-      <c r="R7" s="93">
+      <c r="P7" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q7" s="91">
+        <v>0</v>
+      </c>
+      <c r="R7" s="91">
         <v>130</v>
       </c>
-      <c r="S7" s="93">
+      <c r="S7" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T7" s="97">
-        <v>0</v>
-      </c>
-      <c r="U7" s="93">
+      <c r="T7" s="95">
+        <v>0</v>
+      </c>
+      <c r="U7" s="91">
         <v>9</v>
       </c>
-      <c r="V7" s="94">
+      <c r="V7" s="92">
         <f t="shared" si="7"/>
         <v>-1170</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A8" s="64">
+      <c r="A8" s="63">
         <v>4</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="118" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <v>3450</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="64">
         <v>2750</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="64">
         <f t="shared" si="3"/>
         <v>9.4875000000000007</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="65">
         <v>110</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="64">
         <f t="shared" si="6"/>
         <v>1043.625</v>
       </c>
-      <c r="M8" s="93">
+      <c r="M8" s="91">
         <v>7</v>
       </c>
-      <c r="N8" s="93" t="s">
+      <c r="N8" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="O8" s="93" t="s">
-        <v>341</v>
-      </c>
-      <c r="P8" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q8" s="93">
+      <c r="O8" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="P8" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q8" s="91">
         <v>25.6</v>
       </c>
-      <c r="R8" s="93">
+      <c r="R8" s="91">
         <v>45</v>
       </c>
-      <c r="S8" s="93">
+      <c r="S8" s="91">
         <f t="shared" si="5"/>
         <v>1152</v>
       </c>
-      <c r="T8" s="97">
+      <c r="T8" s="95">
         <v>25.6</v>
       </c>
-      <c r="U8" s="93">
+      <c r="U8" s="91">
         <v>27.88</v>
       </c>
-      <c r="V8" s="94">
+      <c r="V8" s="92">
         <f t="shared" si="7"/>
         <v>-102.59999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A9" s="64">
+      <c r="A9" s="63">
         <v>5</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="65">
+      <c r="B9" s="122"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="64">
         <v>4360</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="64">
         <v>2750</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <f t="shared" si="3"/>
         <v>11.99</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="65">
         <v>110</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="64">
         <f t="shared" si="6"/>
         <v>1318.9</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M9" s="91">
         <v>8</v>
       </c>
-      <c r="N9" s="93" t="s">
+      <c r="N9" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="O9" s="93" t="s">
-        <v>341</v>
-      </c>
-      <c r="P9" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q9" s="93">
+      <c r="O9" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="P9" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q9" s="91">
         <v>109</v>
       </c>
-      <c r="R9" s="93">
+      <c r="R9" s="91">
         <v>55</v>
       </c>
-      <c r="S9" s="93">
+      <c r="S9" s="91">
         <f t="shared" si="5"/>
         <v>5995</v>
       </c>
-      <c r="T9" s="97">
+      <c r="T9" s="95">
         <v>109</v>
       </c>
-      <c r="U9" s="93">
+      <c r="U9" s="91">
         <v>118</v>
       </c>
-      <c r="V9" s="94">
+      <c r="V9" s="92">
         <f t="shared" si="7"/>
         <v>-495</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A10" s="64">
+      <c r="A10" s="63">
         <v>6</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="65">
+      <c r="B10" s="122"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="64">
         <v>3915</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="64">
         <v>2750</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <f t="shared" si="3"/>
         <v>10.766249999999999</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="65">
         <v>110</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="64">
         <f t="shared" si="6"/>
         <v>1184.2874999999999</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="91">
         <v>9</v>
       </c>
-      <c r="N10" s="93" t="s">
+      <c r="N10" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="O10" s="93" t="s">
-        <v>342</v>
-      </c>
-      <c r="P10" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q10" s="93">
+      <c r="O10" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="P10" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q10" s="91">
         <v>14</v>
       </c>
-      <c r="R10" s="93">
+      <c r="R10" s="91">
         <v>330</v>
       </c>
-      <c r="S10" s="93">
+      <c r="S10" s="91">
         <f t="shared" si="5"/>
         <v>4620</v>
       </c>
-      <c r="T10" s="97">
+      <c r="T10" s="95">
         <v>14</v>
       </c>
-      <c r="U10" s="93">
+      <c r="U10" s="91">
         <v>15</v>
       </c>
-      <c r="V10" s="95">
+      <c r="V10" s="93">
         <f t="shared" si="7"/>
         <v>-330</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A11" s="64">
+      <c r="A11" s="63">
         <v>7</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="118" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="64">
         <v>6860</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="64">
         <v>2750</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="64">
         <f t="shared" si="3"/>
         <v>18.864999999999998</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="65">
         <v>110</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="64">
         <f t="shared" si="6"/>
         <v>2075.1499999999996</v>
       </c>
-      <c r="M11" s="93">
+      <c r="M11" s="91">
         <v>10</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="O11" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="O11" s="63" t="s">
-        <v>344</v>
-      </c>
-      <c r="P11" s="63" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q11" s="63">
+      <c r="P11" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q11" s="62">
         <v>8.5</v>
       </c>
-      <c r="R11" s="63">
+      <c r="R11" s="62">
         <v>50</v>
       </c>
-      <c r="S11" s="63">
+      <c r="S11" s="62">
         <f t="shared" si="5"/>
         <v>425</v>
       </c>
-      <c r="T11" s="129">
+      <c r="T11" s="103">
         <v>8.5</v>
       </c>
-      <c r="U11" s="63">
+      <c r="U11" s="62">
         <v>11</v>
       </c>
-      <c r="V11" s="130">
+      <c r="V11" s="104">
         <f t="shared" si="7"/>
         <v>-125</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A12" s="64">
+      <c r="A12" s="63">
         <v>8</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="65">
+      <c r="B12" s="122"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="64">
         <v>1045</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="64">
         <v>2750</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="64">
         <f t="shared" si="3"/>
         <v>2.8737499999999998</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="65">
         <v>110</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="64">
         <f t="shared" si="6"/>
         <v>316.11249999999995</v>
       </c>
-      <c r="M12" s="93">
+      <c r="M12" s="91">
         <v>11</v>
       </c>
-      <c r="N12" s="93" t="s">
+      <c r="N12" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="O12" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="P12" s="93" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q12" s="93">
+      <c r="O12" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="P12" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q12" s="91">
         <v>9.5</v>
       </c>
-      <c r="R12" s="93">
+      <c r="R12" s="91">
         <v>150</v>
       </c>
-      <c r="S12" s="93">
+      <c r="S12" s="91">
         <f t="shared" si="5"/>
         <v>1425</v>
       </c>
-      <c r="T12" s="97">
+      <c r="T12" s="95">
         <v>9.5</v>
       </c>
-      <c r="U12" s="93">
+      <c r="U12" s="91">
         <v>11.5</v>
       </c>
-      <c r="V12" s="95">
+      <c r="V12" s="93">
         <f t="shared" si="7"/>
         <v>-300</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A13" s="64">
+      <c r="A13" s="63">
         <v>9</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="65">
+      <c r="B13" s="122"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="64">
         <v>7840</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="64">
         <v>2750</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="64">
         <f t="shared" si="3"/>
         <v>21.56</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="65">
         <v>110</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="64">
         <f t="shared" si="6"/>
         <v>2371.6</v>
       </c>
-      <c r="M13" s="93">
+      <c r="M13" s="91">
         <v>12</v>
       </c>
-      <c r="N13" s="93" t="s">
+      <c r="N13" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="O13" s="93" t="s">
-        <v>348</v>
-      </c>
-      <c r="P13" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q13" s="66">
+      <c r="O13" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="P13" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q13" s="65">
         <v>8.5</v>
       </c>
-      <c r="R13" s="93">
+      <c r="R13" s="91">
         <v>115</v>
       </c>
-      <c r="S13" s="93">
+      <c r="S13" s="91">
         <f t="shared" si="5"/>
         <v>977.5</v>
       </c>
-      <c r="T13" s="97">
+      <c r="T13" s="95">
         <v>8.5</v>
       </c>
-      <c r="U13" s="93">
+      <c r="U13" s="91">
         <v>3</v>
       </c>
-      <c r="V13" s="95">
+      <c r="V13" s="93">
         <f t="shared" si="7"/>
         <v>632.5</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A14" s="64">
+      <c r="A14" s="63">
         <v>10</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="118" t="s">
+      <c r="B14" s="122"/>
+      <c r="C14" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="64">
         <v>2970</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="64">
         <v>2750</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="64">
         <f t="shared" si="3"/>
         <v>8.1675000000000004</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="65">
         <v>110</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="64">
         <f t="shared" si="6"/>
         <v>898.42500000000007</v>
       </c>
-      <c r="M14" s="93">
+      <c r="M14" s="91">
         <v>13</v>
       </c>
-      <c r="N14" s="104" t="s">
+      <c r="N14" s="102" t="s">
         <v>333</v>
       </c>
-      <c r="O14" s="104" t="s">
-        <v>349</v>
-      </c>
-      <c r="P14" s="104" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q14" s="103">
+      <c r="O14" s="102" t="s">
+        <v>348</v>
+      </c>
+      <c r="P14" s="102" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q14" s="101">
         <v>2.86</v>
       </c>
-      <c r="R14" s="104">
+      <c r="R14" s="102">
         <v>80</v>
       </c>
-      <c r="S14" s="104">
+      <c r="S14" s="102">
         <f t="shared" si="5"/>
         <v>228.79999999999998</v>
       </c>
-      <c r="T14" s="98">
+      <c r="T14" s="96">
         <v>2.86</v>
       </c>
-      <c r="U14" s="93">
+      <c r="U14" s="91">
         <v>5</v>
       </c>
-      <c r="V14" s="95">
+      <c r="V14" s="93">
         <f t="shared" si="7"/>
         <v>-171.20000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A15" s="64">
+      <c r="A15" s="63">
         <v>11</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="65">
+      <c r="B15" s="122"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="64">
         <v>3090</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="64">
         <v>2750</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="64">
         <f t="shared" si="3"/>
         <v>8.4975000000000005</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="65">
         <v>110</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="64">
         <f t="shared" si="6"/>
         <v>934.72500000000002</v>
       </c>
-      <c r="M15" s="93">
+      <c r="M15" s="91">
         <v>14</v>
       </c>
-      <c r="N15" s="104" t="s">
+      <c r="N15" s="102" t="s">
         <v>333</v>
       </c>
-      <c r="O15" s="104" t="s">
-        <v>350</v>
-      </c>
-      <c r="P15" s="104" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q15" s="103">
+      <c r="O15" s="102" t="s">
+        <v>349</v>
+      </c>
+      <c r="P15" s="102" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q15" s="101">
         <v>6.7</v>
       </c>
-      <c r="R15" s="104">
+      <c r="R15" s="102">
         <v>70</v>
       </c>
-      <c r="S15" s="104">
+      <c r="S15" s="102">
         <f t="shared" si="5"/>
         <v>469</v>
       </c>
-      <c r="T15" s="98">
+      <c r="T15" s="96">
         <v>6.7</v>
       </c>
-      <c r="U15" s="104">
+      <c r="U15" s="102">
         <v>6</v>
       </c>
-      <c r="V15" s="95">
+      <c r="V15" s="93">
         <f t="shared" si="7"/>
         <v>49.000000000000014</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <v>12</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="68">
+      <c r="B16" s="126"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="67">
         <v>3010</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="67">
         <v>2750</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="67">
         <f t="shared" si="3"/>
         <v>8.2774999999999999</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="68">
         <v>110</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="67">
         <f t="shared" si="6"/>
         <v>910.52499999999998</v>
       </c>
-      <c r="M16" s="93">
+      <c r="M16" s="91">
         <v>15</v>
       </c>
-      <c r="N16" s="104" t="s">
+      <c r="N16" s="102" t="s">
         <v>333</v>
       </c>
-      <c r="O16" s="104" t="s">
-        <v>351</v>
-      </c>
-      <c r="P16" s="104" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q16" s="103">
+      <c r="O16" s="102" t="s">
+        <v>350</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q16" s="101">
         <v>9.15</v>
       </c>
-      <c r="R16" s="104">
+      <c r="R16" s="102">
         <v>60</v>
       </c>
-      <c r="S16" s="104">
+      <c r="S16" s="102">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-      <c r="T16" s="98">
+      <c r="T16" s="96">
         <v>9.15</v>
       </c>
-      <c r="U16" s="104">
+      <c r="U16" s="102">
         <v>10</v>
       </c>
-      <c r="V16" s="95">
+      <c r="V16" s="93">
         <f t="shared" si="7"/>
         <v>-50.999999999999979</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A17" s="71">
+      <c r="A17" s="70">
         <v>13</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="71">
         <v>1300</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="71">
         <v>2290</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="71">
         <f>-D17*E17/1000000/2</f>
         <v>-1.4884999999999999</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="72">
         <v>110</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="71">
         <f t="shared" ref="H17" si="8">F17*G17</f>
         <v>-163.73499999999999</v>
       </c>
-      <c r="M17" s="93">
+      <c r="M17" s="91">
         <v>16</v>
       </c>
-      <c r="N17" s="104" t="s">
-        <v>352</v>
-      </c>
-      <c r="O17" s="104"/>
-      <c r="P17" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q17" s="103">
+      <c r="N17" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="O17" s="102"/>
+      <c r="P17" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q17" s="101">
         <v>49.9</v>
       </c>
-      <c r="R17" s="104">
+      <c r="R17" s="102">
         <v>20</v>
       </c>
-      <c r="S17" s="104">
+      <c r="S17" s="102">
         <f t="shared" si="5"/>
         <v>998</v>
       </c>
-      <c r="T17" s="98">
+      <c r="T17" s="96">
         <v>49.9</v>
       </c>
-      <c r="U17" s="104">
-        <v>0</v>
-      </c>
-      <c r="V17" s="95">
+      <c r="U17" s="102">
+        <v>0</v>
+      </c>
+      <c r="V17" s="93">
         <f t="shared" si="7"/>
         <v>998</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A18" s="64">
+      <c r="A18" s="63">
         <v>14</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="65" t="s">
+      <c r="B18" s="122"/>
+      <c r="C18" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="64">
         <v>880</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="64">
         <v>2290</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="64">
         <f t="shared" ref="F18:F19" si="9">-D18*E18/1000000/2</f>
         <v>-1.0076000000000001</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="64">
         <v>110</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="64">
         <f t="shared" si="6"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M18" s="93">
+      <c r="M18" s="91">
         <v>17</v>
       </c>
-      <c r="N18" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="O18" s="104"/>
-      <c r="P18" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q18" s="104">
+      <c r="N18" s="102" t="s">
+        <v>352</v>
+      </c>
+      <c r="O18" s="102"/>
+      <c r="P18" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q18" s="102">
         <v>49.9</v>
       </c>
-      <c r="R18" s="104">
+      <c r="R18" s="102">
         <v>45</v>
       </c>
-      <c r="S18" s="104">
+      <c r="S18" s="102">
         <f t="shared" si="5"/>
         <v>2245.5</v>
       </c>
-      <c r="T18" s="98">
+      <c r="T18" s="96">
         <v>49.9</v>
       </c>
-      <c r="U18" s="104">
+      <c r="U18" s="102">
         <v>54</v>
       </c>
-      <c r="V18" s="95">
+      <c r="V18" s="93">
         <f t="shared" si="7"/>
         <v>-184.50000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A19" s="64">
+      <c r="A19" s="63">
         <v>15</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="65" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="64">
         <v>2940</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="64">
         <v>2290</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="64">
         <f t="shared" si="9"/>
         <v>-3.3662999999999998</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="64">
         <v>110</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="64">
         <f t="shared" ref="H19:H20" si="10">F19*G19</f>
         <v>-370.29300000000001</v>
       </c>
-      <c r="M19" s="93">
+      <c r="M19" s="91">
         <v>18</v>
       </c>
-      <c r="N19" s="104" t="s">
-        <v>354</v>
-      </c>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q19" s="104">
+      <c r="N19" s="102" t="s">
+        <v>353</v>
+      </c>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q19" s="102">
         <v>7.5</v>
       </c>
-      <c r="R19" s="104">
+      <c r="R19" s="102">
         <v>48</v>
       </c>
-      <c r="S19" s="104">
+      <c r="S19" s="102">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="T19" s="98">
+      <c r="T19" s="96">
         <v>7.5</v>
       </c>
-      <c r="U19" s="104">
-        <v>0</v>
-      </c>
-      <c r="V19" s="95">
+      <c r="U19" s="102">
+        <v>0</v>
+      </c>
+      <c r="V19" s="93">
         <f t="shared" si="7"/>
         <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A20" s="64">
+      <c r="A20" s="63">
         <v>16</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="65" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="64">
         <v>880</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="64">
         <v>2290</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="64">
         <f t="shared" ref="F20:F26" si="11">-D20*E20/1000000/2</f>
         <v>-1.0076000000000001</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="64">
         <v>110</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="64">
         <f t="shared" si="10"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M20" s="93">
+      <c r="M20" s="91">
         <v>19</v>
       </c>
-      <c r="N20" s="104" t="s">
-        <v>355</v>
-      </c>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104" t="s">
+      <c r="N20" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="Q20" s="104">
+      <c r="Q20" s="102">
         <v>3</v>
       </c>
-      <c r="R20" s="104">
+      <c r="R20" s="102">
         <v>100</v>
       </c>
-      <c r="S20" s="104">
+      <c r="S20" s="102">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="T20" s="98">
+      <c r="T20" s="96">
         <v>3</v>
       </c>
-      <c r="U20" s="104">
-        <v>0</v>
-      </c>
-      <c r="V20" s="95">
+      <c r="U20" s="102">
+        <v>0</v>
+      </c>
+      <c r="V20" s="93">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A21" s="64">
+      <c r="A21" s="63">
         <v>17</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="65" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="64">
         <v>880</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="64">
         <v>2290</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="64">
         <f t="shared" si="11"/>
         <v>-1.0076000000000001</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="64">
         <v>110</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="64">
         <f t="shared" ref="H21:H24" si="12">F21*G21</f>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M21" s="93">
+      <c r="M21" s="91">
         <v>20</v>
       </c>
-      <c r="N21" s="104" t="s">
+      <c r="N21" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="O21" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="O21" s="104" t="s">
-        <v>359</v>
-      </c>
-      <c r="P21" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q21" s="104">
+      <c r="P21" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q21" s="102">
         <v>15.86</v>
       </c>
-      <c r="R21" s="104">
+      <c r="R21" s="102">
         <v>35</v>
       </c>
-      <c r="S21" s="104">
+      <c r="S21" s="102">
         <f t="shared" si="5"/>
         <v>555.1</v>
       </c>
-      <c r="T21" s="98">
+      <c r="T21" s="96">
         <v>15.86</v>
       </c>
-      <c r="U21" s="104">
+      <c r="U21" s="102">
         <v>6</v>
       </c>
-      <c r="V21" s="95">
+      <c r="V21" s="93">
         <f t="shared" si="7"/>
         <v>345.09999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A22" s="64">
+      <c r="A22" s="63">
         <v>18</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="65" t="s">
+      <c r="B22" s="122"/>
+      <c r="C22" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="64">
         <v>880</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="64">
         <v>2290</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="64">
         <f t="shared" si="11"/>
         <v>-1.0076000000000001</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="64">
         <v>110</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="64">
         <f t="shared" si="12"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M22" s="93">
+      <c r="M22" s="91">
         <v>21</v>
       </c>
-      <c r="N22" s="104" t="s">
-        <v>360</v>
-      </c>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104" t="s">
+      <c r="N22" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="Q22" s="104">
-        <v>0</v>
-      </c>
-      <c r="R22" s="104">
+      <c r="Q22" s="102">
+        <v>0</v>
+      </c>
+      <c r="R22" s="102">
         <v>135</v>
       </c>
-      <c r="S22" s="104">
+      <c r="S22" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T22" s="98">
-        <v>0</v>
-      </c>
-      <c r="U22" s="104">
+      <c r="T22" s="96">
+        <v>0</v>
+      </c>
+      <c r="U22" s="102">
         <v>1</v>
       </c>
-      <c r="V22" s="99">
+      <c r="V22" s="97">
         <f t="shared" si="7"/>
         <v>-135</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A23" s="64">
+      <c r="A23" s="63">
         <v>19</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="65" t="s">
+      <c r="B23" s="122"/>
+      <c r="C23" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="64">
         <v>880</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="64">
         <v>2290</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="64">
         <f t="shared" si="11"/>
         <v>-1.0076000000000001</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="64">
         <v>110</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="64">
         <f t="shared" si="12"/>
         <v>-110.83600000000001</v>
       </c>
-      <c r="M23" s="93">
+      <c r="M23" s="91">
         <v>22</v>
       </c>
-      <c r="N23" s="104" t="s">
-        <v>361</v>
-      </c>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104" t="s">
+      <c r="N23" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="Q23" s="104">
+      <c r="Q23" s="102">
         <v>75</v>
       </c>
-      <c r="R23" s="104">
+      <c r="R23" s="102">
         <v>10</v>
       </c>
-      <c r="S23" s="104">
+      <c r="S23" s="102">
         <f t="shared" si="5"/>
         <v>750</v>
       </c>
-      <c r="T23" s="98">
+      <c r="T23" s="96">
         <v>75</v>
       </c>
-      <c r="U23" s="104">
-        <v>0</v>
-      </c>
-      <c r="V23" s="99">
+      <c r="U23" s="102">
+        <v>0</v>
+      </c>
+      <c r="V23" s="97">
         <f t="shared" si="7"/>
         <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A24" s="64">
+      <c r="A24" s="63">
         <v>20</v>
       </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="65" t="s">
+      <c r="B24" s="122"/>
+      <c r="C24" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="64">
         <v>770</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="64">
         <v>2100</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="64">
         <f t="shared" si="11"/>
         <v>-0.8085</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="64">
         <v>110</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="64">
         <f t="shared" si="12"/>
         <v>-88.935000000000002</v>
       </c>
-      <c r="M24" s="127" t="s">
+      <c r="M24" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="128">
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="129">
         <f>SUM(V3:V23)</f>
         <v>-5944.6999999999989</v>
       </c>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
+      <c r="U24" s="129"/>
+      <c r="V24" s="129"/>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A25" s="67">
+      <c r="A25" s="66">
         <v>21</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="126"/>
+      <c r="C25" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="67">
         <v>1570</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="67">
         <v>2140</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="67">
         <f t="shared" si="11"/>
         <v>-1.6798999999999999</v>
       </c>
-      <c r="G25" s="68">
+      <c r="G25" s="67">
         <v>110</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="67">
         <f t="shared" ref="H25:H26" si="13">F25*G25</f>
         <v>-184.78899999999999</v>
       </c>
-      <c r="M25" s="127" t="s">
-        <v>364</v>
-      </c>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="128">
+      <c r="M25" s="130" t="s">
+        <v>363</v>
+      </c>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="130"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="130"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="129">
         <f>T24*0.05</f>
         <v>-297.23499999999996</v>
       </c>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="129"/>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A26" s="74">
+      <c r="A26" s="73">
         <v>22</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="74">
         <v>1930</v>
       </c>
-      <c r="E26" s="75">
+      <c r="E26" s="74">
         <v>1350</v>
       </c>
-      <c r="F26" s="75">
+      <c r="F26" s="74">
         <f t="shared" si="11"/>
         <v>-1.3027500000000001</v>
       </c>
-      <c r="G26" s="75">
+      <c r="G26" s="74">
         <v>110</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="74">
         <f t="shared" si="13"/>
         <v>-143.30250000000001</v>
       </c>
-      <c r="I26" s="70">
+      <c r="I26" s="69">
         <v>89</v>
       </c>
-      <c r="J26" s="70">
+      <c r="J26" s="69">
         <v>105</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="69">
         <f>(I26-J26)*G26</f>
         <v>-1760</v>
       </c>
-      <c r="M26" s="127" t="s">
-        <v>362</v>
-      </c>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="128">
+      <c r="M26" s="130" t="s">
+        <v>361</v>
+      </c>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="130"/>
+      <c r="R26" s="130"/>
+      <c r="S26" s="130"/>
+      <c r="T26" s="129">
         <f>T24*0.05</f>
         <v>-297.23499999999996</v>
       </c>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A27" s="77">
+      <c r="A27" s="76">
         <v>1</v>
       </c>
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="D27" s="78">
+      <c r="D27" s="77">
         <v>6.5</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78">
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77">
         <v>30</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="77">
         <f>D27*G27</f>
         <v>195</v>
       </c>
-      <c r="M27" s="127" t="s">
-        <v>363</v>
-      </c>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
-      <c r="T27" s="128">
+      <c r="M27" s="130" t="s">
+        <v>362</v>
+      </c>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
+      <c r="T27" s="129">
         <f>(T24+T25+T26)*0.95</f>
         <v>-6212.2114999999976</v>
       </c>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
+      <c r="U27" s="129"/>
+      <c r="V27" s="129"/>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A28" s="70">
+      <c r="A28" s="69">
         <v>2</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="79" t="s">
+      <c r="B28" s="123"/>
+      <c r="C28" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="78">
         <v>15.5</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79">
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78">
         <v>30</v>
       </c>
-      <c r="H28" s="79">
+      <c r="H28" s="78">
         <f>D28*G28</f>
         <v>465</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="69">
         <v>23.5</v>
       </c>
-      <c r="J28" s="85">
+      <c r="J28" s="84">
         <v>22</v>
       </c>
-      <c r="K28" s="85">
+      <c r="K28" s="84">
         <f>(I28-J28)*G28</f>
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A29" s="77">
+      <c r="A29" s="76">
         <v>1</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="77">
         <v>2760</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="77">
         <v>1550</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="77">
         <f>D29*E29/1000000*2</f>
         <v>8.5559999999999992</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="83">
         <v>225</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="77">
         <f t="shared" ref="H29:H32" si="14">F29*G29</f>
         <v>1925.1</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A30" s="64">
+      <c r="A30" s="63">
         <v>2</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="65" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="64">
         <v>2745</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="64">
         <v>1670</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="64">
         <f>D30*E30/1000000*2</f>
         <v>9.1683000000000003</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="65">
         <v>225</v>
       </c>
-      <c r="H30" s="65">
+      <c r="H30" s="64">
         <f t="shared" si="14"/>
         <v>2062.8675000000003</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="24.95" customHeight="1">
-      <c r="A31" s="64">
+      <c r="A31" s="63">
         <v>3</v>
       </c>
-      <c r="B31" s="120"/>
-      <c r="C31" s="65" t="s">
+      <c r="B31" s="122"/>
+      <c r="C31" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="64">
         <v>3150</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="64">
         <v>1570</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="64">
         <f t="shared" ref="F31:F32" si="15">D31*E31/1000000*2</f>
         <v>9.891</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="65">
         <v>225</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="64">
         <f t="shared" si="14"/>
         <v>2225.4749999999999</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A32" s="70">
+      <c r="A32" s="69">
         <v>4</v>
       </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="79" t="s">
+      <c r="B32" s="123"/>
+      <c r="C32" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="78">
         <v>3960</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="78">
         <v>1500</v>
       </c>
-      <c r="F32" s="79">
+      <c r="F32" s="78">
         <f t="shared" si="15"/>
         <v>11.88</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="75">
         <v>225</v>
       </c>
-      <c r="H32" s="79">
+      <c r="H32" s="78">
         <f t="shared" si="14"/>
         <v>2673</v>
       </c>
-      <c r="I32" s="70">
+      <c r="I32" s="69">
         <v>43.76</v>
       </c>
-      <c r="J32" s="85">
+      <c r="J32" s="84">
         <v>39.5</v>
       </c>
-      <c r="K32" s="85">
+      <c r="K32" s="84">
         <f>(I32-J32)*G32</f>
         <v>958.49999999999955</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A33" s="77">
+      <c r="A33" s="76">
         <v>1</v>
       </c>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="121" t="s">
         <v>299</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="D33" s="78">
+      <c r="D33" s="77">
         <v>8620</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="77">
         <v>2750</v>
       </c>
-      <c r="F33" s="78">
+      <c r="F33" s="77">
         <f>D33*E33/1000000</f>
         <v>23.704999999999998</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="83">
         <v>225</v>
       </c>
-      <c r="H33" s="78">
+      <c r="H33" s="77">
         <f t="shared" ref="H33:H43" si="16">F33*G33</f>
         <v>5333.625</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A34" s="64">
+      <c r="A34" s="63">
         <v>2</v>
       </c>
-      <c r="B34" s="120"/>
-      <c r="C34" s="65" t="s">
+      <c r="B34" s="122"/>
+      <c r="C34" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="64">
         <v>8830</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="64">
         <v>2750</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="64">
         <f t="shared" ref="F34:F36" si="17">D34*E34/1000000</f>
         <v>24.282499999999999</v>
       </c>
-      <c r="G34" s="66">
+      <c r="G34" s="65">
         <v>225</v>
       </c>
-      <c r="H34" s="65">
+      <c r="H34" s="64">
         <f t="shared" si="16"/>
         <v>5463.5625</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A35" s="64">
+      <c r="A35" s="63">
         <v>3</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="65" t="s">
+      <c r="B35" s="122"/>
+      <c r="C35" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D35" s="65">
+      <c r="D35" s="64">
         <v>9440</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="64">
         <v>2750</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="64">
         <f t="shared" si="17"/>
         <v>25.96</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="65">
         <v>225</v>
       </c>
-      <c r="H35" s="65">
+      <c r="H35" s="64">
         <f t="shared" si="16"/>
         <v>5841</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A36" s="67">
+      <c r="A36" s="66">
         <v>4</v>
       </c>
-      <c r="B36" s="124"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="126"/>
+      <c r="C36" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="68">
+      <c r="D36" s="67">
         <v>8980</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="67">
         <v>2750</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="67">
         <f t="shared" si="17"/>
         <v>24.695</v>
       </c>
-      <c r="G36" s="69">
+      <c r="G36" s="68">
         <v>225</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="67">
         <f t="shared" si="16"/>
         <v>5556.375</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A37" s="64">
+      <c r="A37" s="63">
         <v>5</v>
       </c>
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="D37" s="65">
+      <c r="D37" s="64">
         <v>770</v>
       </c>
-      <c r="E37" s="65">
+      <c r="E37" s="64">
         <v>2100</v>
       </c>
-      <c r="F37" s="65">
+      <c r="F37" s="64">
         <f t="shared" ref="F37:F40" si="18">-D37*E37/1000000/2</f>
         <v>-0.8085</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="64">
         <v>55</v>
       </c>
-      <c r="H37" s="65">
+      <c r="H37" s="64">
         <f t="shared" si="16"/>
         <v>-44.467500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A38" s="64">
+      <c r="A38" s="63">
         <v>6</v>
       </c>
-      <c r="B38" s="120"/>
-      <c r="C38" s="65" t="s">
+      <c r="B38" s="122"/>
+      <c r="C38" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="64">
         <v>770</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="64">
         <v>2100</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="64">
         <f t="shared" si="18"/>
         <v>-0.8085</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="64">
         <v>55</v>
       </c>
-      <c r="H38" s="65">
+      <c r="H38" s="64">
         <f t="shared" si="16"/>
         <v>-44.467500000000001</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A39" s="64">
+      <c r="A39" s="63">
         <v>7</v>
       </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="65" t="s">
+      <c r="B39" s="122"/>
+      <c r="C39" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="64">
         <v>770</v>
       </c>
-      <c r="E39" s="65">
+      <c r="E39" s="64">
         <v>2100</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="64">
         <f t="shared" si="18"/>
         <v>-0.8085</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="64">
         <v>55</v>
       </c>
-      <c r="H39" s="65">
+      <c r="H39" s="64">
         <f t="shared" si="16"/>
         <v>-44.467500000000001</v>
       </c>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A40" s="67">
+      <c r="A40" s="66">
         <v>8</v>
       </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="68" t="s">
+      <c r="B40" s="126"/>
+      <c r="C40" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="67">
         <v>1570</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="67">
         <v>2140</v>
       </c>
-      <c r="F40" s="68">
+      <c r="F40" s="67">
         <f t="shared" si="18"/>
         <v>-1.6798999999999999</v>
       </c>
-      <c r="G40" s="68">
+      <c r="G40" s="67">
         <v>55</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="67">
         <f t="shared" si="16"/>
         <v>-92.394499999999994</v>
       </c>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A41" s="64">
+      <c r="A41" s="63">
         <v>9</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="D41" s="65">
+      <c r="D41" s="64">
         <v>840</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="64">
         <v>1350</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="64">
         <f>-D41*E41/1000000</f>
         <v>-1.1339999999999999</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="64">
         <v>55</v>
       </c>
-      <c r="H41" s="65">
+      <c r="H41" s="64">
         <f t="shared" si="16"/>
         <v>-62.37</v>
       </c>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A42" s="64">
+      <c r="A42" s="63">
         <v>10</v>
       </c>
-      <c r="B42" s="120"/>
-      <c r="C42" s="65" t="s">
+      <c r="B42" s="122"/>
+      <c r="C42" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D42" s="65">
+      <c r="D42" s="64">
         <v>570</v>
       </c>
-      <c r="E42" s="65">
+      <c r="E42" s="64">
         <v>1380</v>
       </c>
-      <c r="F42" s="65">
+      <c r="F42" s="64">
         <f t="shared" ref="F42:F43" si="19">-D42*E42/1000000</f>
         <v>-0.78659999999999997</v>
       </c>
-      <c r="G42" s="65">
+      <c r="G42" s="64">
         <v>55</v>
       </c>
-      <c r="H42" s="65">
+      <c r="H42" s="64">
         <f t="shared" si="16"/>
         <v>-43.262999999999998</v>
       </c>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A43" s="64">
+      <c r="A43" s="63">
         <v>11</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="65" t="s">
+      <c r="B43" s="122"/>
+      <c r="C43" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D43" s="65">
+      <c r="D43" s="64">
         <v>770</v>
       </c>
-      <c r="E43" s="65">
+      <c r="E43" s="64">
         <v>1790</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="64">
         <f t="shared" si="19"/>
         <v>-1.3783000000000001</v>
       </c>
-      <c r="G43" s="65">
+      <c r="G43" s="64">
         <v>55</v>
       </c>
-      <c r="H43" s="65">
+      <c r="H43" s="64">
         <f t="shared" si="16"/>
         <v>-75.8065</v>
       </c>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
     </row>
     <row r="44" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A44" s="70">
+      <c r="A44" s="69">
         <v>12</v>
       </c>
-      <c r="B44" s="121"/>
-      <c r="C44" s="79" t="s">
+      <c r="B44" s="123"/>
+      <c r="C44" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="D44" s="79">
+      <c r="D44" s="78">
         <v>1570</v>
       </c>
-      <c r="E44" s="79">
+      <c r="E44" s="78">
         <v>970</v>
       </c>
-      <c r="F44" s="79">
+      <c r="F44" s="78">
         <f>-D44*E44/1000000</f>
         <v>-1.5228999999999999</v>
       </c>
-      <c r="G44" s="79">
+      <c r="G44" s="78">
         <v>55</v>
       </c>
-      <c r="H44" s="79">
+      <c r="H44" s="78">
         <f t="shared" ref="H44:H49" si="20">F44*G44</f>
         <v>-83.759500000000003</v>
       </c>
-      <c r="I44" s="70">
+      <c r="I44" s="69">
         <v>90</v>
       </c>
-      <c r="J44" s="70">
+      <c r="J44" s="69">
         <v>92</v>
       </c>
-      <c r="K44" s="70">
+      <c r="K44" s="69">
         <f>(I44-J44)*G44</f>
         <v>-110</v>
       </c>
-      <c r="L44" s="79"/>
+      <c r="L44" s="78"/>
     </row>
     <row r="45" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A45" s="77">
+      <c r="A45" s="76">
         <v>1</v>
       </c>
-      <c r="B45" s="119" t="s">
+      <c r="B45" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="D45" s="78">
+      <c r="D45" s="77">
         <v>2760</v>
       </c>
-      <c r="E45" s="78">
+      <c r="E45" s="77">
         <v>1550</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="64">
         <f t="shared" ref="F45:F49" si="21">D45*E45/1000000</f>
         <v>4.2779999999999996</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="65">
         <v>55</v>
       </c>
-      <c r="H45" s="65">
+      <c r="H45" s="64">
         <f t="shared" si="20"/>
         <v>235.28999999999996</v>
       </c>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
     </row>
     <row r="46" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A46" s="64">
+      <c r="A46" s="63">
         <v>2</v>
       </c>
-      <c r="B46" s="120"/>
-      <c r="C46" s="65" t="s">
+      <c r="B46" s="122"/>
+      <c r="C46" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="D46" s="65">
+      <c r="D46" s="64">
         <v>2745</v>
       </c>
-      <c r="E46" s="65">
+      <c r="E46" s="64">
         <v>1670</v>
       </c>
-      <c r="F46" s="65">
+      <c r="F46" s="64">
         <f t="shared" si="21"/>
         <v>4.5841500000000002</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="65">
         <v>55</v>
       </c>
-      <c r="H46" s="65">
+      <c r="H46" s="64">
         <f t="shared" si="20"/>
         <v>252.12825000000001</v>
       </c>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A47" s="64">
+      <c r="A47" s="63">
         <v>3</v>
       </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="65" t="s">
+      <c r="B47" s="122"/>
+      <c r="C47" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="D47" s="65">
+      <c r="D47" s="64">
         <v>3150</v>
       </c>
-      <c r="E47" s="65">
+      <c r="E47" s="64">
         <v>1570</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="64">
         <f t="shared" si="21"/>
         <v>4.9455</v>
       </c>
-      <c r="G47" s="66">
+      <c r="G47" s="65">
         <v>55</v>
       </c>
-      <c r="H47" s="65">
+      <c r="H47" s="64">
         <f t="shared" si="20"/>
         <v>272.0025</v>
       </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A48" s="64">
+      <c r="A48" s="63">
         <v>4</v>
       </c>
-      <c r="B48" s="120"/>
-      <c r="C48" s="65" t="s">
+      <c r="B48" s="122"/>
+      <c r="C48" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="D48" s="65">
+      <c r="D48" s="64">
         <v>3960</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="64">
         <v>1500</v>
       </c>
-      <c r="F48" s="65">
+      <c r="F48" s="64">
         <f t="shared" si="21"/>
         <v>5.94</v>
       </c>
-      <c r="G48" s="66">
+      <c r="G48" s="65">
         <v>55</v>
       </c>
-      <c r="H48" s="65">
+      <c r="H48" s="64">
         <f t="shared" si="20"/>
         <v>326.70000000000005</v>
       </c>
-      <c r="I48" s="64"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="65"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A49" s="64">
+      <c r="A49" s="63">
         <v>5</v>
       </c>
-      <c r="B49" s="120"/>
-      <c r="C49" s="65" t="s">
+      <c r="B49" s="122"/>
+      <c r="C49" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="64">
         <v>3960</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="64">
         <v>1500</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F49" s="64">
         <f t="shared" si="21"/>
         <v>5.94</v>
       </c>
-      <c r="G49" s="66">
+      <c r="G49" s="65">
         <v>55</v>
       </c>
-      <c r="H49" s="65">
+      <c r="H49" s="64">
         <f t="shared" si="20"/>
         <v>326.70000000000005</v>
       </c>
-      <c r="I49" s="64"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="65"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A50" s="64">
+      <c r="A50" s="63">
         <v>6</v>
       </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="65" t="s">
+      <c r="B50" s="122"/>
+      <c r="C50" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="D50" s="65">
+      <c r="D50" s="64">
         <v>8620</v>
       </c>
-      <c r="E50" s="65">
+      <c r="E50" s="64">
         <v>2650</v>
       </c>
-      <c r="F50" s="65">
+      <c r="F50" s="64">
         <f t="shared" ref="F50:F53" si="22">D50*E50/1000000</f>
         <v>22.843</v>
       </c>
-      <c r="G50" s="66">
+      <c r="G50" s="65">
         <v>55</v>
       </c>
-      <c r="H50" s="65">
+      <c r="H50" s="64">
         <f t="shared" ref="H50:H64" si="23">F50*G50</f>
         <v>1256.365</v>
       </c>
-      <c r="I50" s="64"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="65"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="64"/>
     </row>
     <row r="51" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A51" s="64">
+      <c r="A51" s="63">
         <v>7</v>
       </c>
-      <c r="B51" s="120"/>
-      <c r="C51" s="65" t="s">
+      <c r="B51" s="122"/>
+      <c r="C51" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="D51" s="65">
+      <c r="D51" s="64">
         <v>8830</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="64">
         <v>2650</v>
       </c>
-      <c r="F51" s="65">
+      <c r="F51" s="64">
         <f t="shared" si="22"/>
         <v>23.3995</v>
       </c>
-      <c r="G51" s="66">
+      <c r="G51" s="65">
         <v>55</v>
       </c>
-      <c r="H51" s="65">
+      <c r="H51" s="64">
         <f t="shared" si="23"/>
         <v>1286.9725000000001</v>
       </c>
-      <c r="I51" s="64"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="65"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="64"/>
     </row>
     <row r="52" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A52" s="64">
+      <c r="A52" s="63">
         <v>8</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="65" t="s">
+      <c r="B52" s="122"/>
+      <c r="C52" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="D52" s="65">
+      <c r="D52" s="64">
         <v>9440</v>
       </c>
-      <c r="E52" s="65">
+      <c r="E52" s="64">
         <v>2650</v>
       </c>
-      <c r="F52" s="65">
+      <c r="F52" s="64">
         <f t="shared" si="22"/>
         <v>25.015999999999998</v>
       </c>
-      <c r="G52" s="66">
+      <c r="G52" s="65">
         <v>55</v>
       </c>
-      <c r="H52" s="65">
+      <c r="H52" s="64">
         <f t="shared" si="23"/>
         <v>1375.8799999999999</v>
       </c>
-      <c r="I52" s="64"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="65"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="64"/>
     </row>
     <row r="53" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A53" s="64">
+      <c r="A53" s="63">
         <v>9</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="65" t="s">
+      <c r="B53" s="122"/>
+      <c r="C53" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="D53" s="65">
+      <c r="D53" s="64">
         <v>8980</v>
       </c>
-      <c r="E53" s="65">
+      <c r="E53" s="64">
         <v>2650</v>
       </c>
-      <c r="F53" s="65">
+      <c r="F53" s="64">
         <f t="shared" si="22"/>
         <v>23.797000000000001</v>
       </c>
-      <c r="G53" s="66">
+      <c r="G53" s="65">
         <v>55</v>
       </c>
-      <c r="H53" s="65">
+      <c r="H53" s="64">
         <f t="shared" si="23"/>
         <v>1308.835</v>
       </c>
-      <c r="I53" s="64"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="65"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="64"/>
     </row>
     <row r="54" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A54" s="64">
+      <c r="A54" s="63">
         <v>10</v>
       </c>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="D54" s="65">
+      <c r="D54" s="64">
         <v>770</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="64">
         <v>2100</v>
       </c>
-      <c r="F54" s="65">
+      <c r="F54" s="64">
         <f>-D54*E54/1000000</f>
         <v>-1.617</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="64">
         <v>55</v>
       </c>
-      <c r="H54" s="65">
+      <c r="H54" s="64">
         <f t="shared" si="23"/>
         <v>-88.935000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A55" s="64">
+      <c r="A55" s="63">
         <v>11</v>
       </c>
-      <c r="B55" s="120"/>
-      <c r="C55" s="65" t="s">
+      <c r="B55" s="122"/>
+      <c r="C55" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D55" s="65">
+      <c r="D55" s="64">
         <v>770</v>
       </c>
-      <c r="E55" s="65">
+      <c r="E55" s="64">
         <v>2100</v>
       </c>
-      <c r="F55" s="65">
+      <c r="F55" s="64">
         <f t="shared" ref="F55:F60" si="24">-D55*E55/1000000</f>
         <v>-1.617</v>
       </c>
-      <c r="G55" s="65">
+      <c r="G55" s="64">
         <v>55</v>
       </c>
-      <c r="H55" s="65">
+      <c r="H55" s="64">
         <f t="shared" si="23"/>
         <v>-88.935000000000002</v>
       </c>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
     </row>
     <row r="56" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A56" s="64">
+      <c r="A56" s="63">
         <v>12</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="65" t="s">
+      <c r="B56" s="122"/>
+      <c r="C56" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D56" s="65">
+      <c r="D56" s="64">
         <v>770</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="64">
         <v>2100</v>
       </c>
-      <c r="F56" s="65">
+      <c r="F56" s="64">
         <f t="shared" si="24"/>
         <v>-1.617</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="64">
         <v>55</v>
       </c>
-      <c r="H56" s="65">
+      <c r="H56" s="64">
         <f t="shared" si="23"/>
         <v>-88.935000000000002</v>
       </c>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
     </row>
     <row r="57" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A57" s="64">
+      <c r="A57" s="63">
         <v>13</v>
       </c>
-      <c r="B57" s="120"/>
-      <c r="C57" s="65" t="s">
+      <c r="B57" s="122"/>
+      <c r="C57" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="64">
         <v>1570</v>
       </c>
-      <c r="E57" s="65">
+      <c r="E57" s="64">
         <v>2140</v>
       </c>
-      <c r="F57" s="65">
+      <c r="F57" s="64">
         <f t="shared" si="24"/>
         <v>-3.3597999999999999</v>
       </c>
-      <c r="G57" s="65">
+      <c r="G57" s="64">
         <v>55</v>
       </c>
-      <c r="H57" s="65">
+      <c r="H57" s="64">
         <f t="shared" si="23"/>
         <v>-184.78899999999999</v>
       </c>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
     </row>
     <row r="58" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A58" s="64">
+      <c r="A58" s="63">
         <v>14</v>
       </c>
-      <c r="B58" s="120" t="s">
+      <c r="B58" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="C58" s="65" t="s">
+      <c r="C58" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="D58" s="65">
+      <c r="D58" s="64">
         <v>840</v>
       </c>
-      <c r="E58" s="65">
+      <c r="E58" s="64">
         <v>1350</v>
       </c>
-      <c r="F58" s="65">
+      <c r="F58" s="64">
         <f t="shared" si="24"/>
         <v>-1.1339999999999999</v>
       </c>
-      <c r="G58" s="65">
+      <c r="G58" s="64">
         <v>55</v>
       </c>
-      <c r="H58" s="65">
+      <c r="H58" s="64">
         <f t="shared" si="23"/>
         <v>-62.37</v>
       </c>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
     </row>
     <row r="59" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A59" s="64">
+      <c r="A59" s="63">
         <v>15</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="65" t="s">
+      <c r="B59" s="122"/>
+      <c r="C59" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="64">
         <v>570</v>
       </c>
-      <c r="E59" s="65">
+      <c r="E59" s="64">
         <v>1380</v>
       </c>
-      <c r="F59" s="65">
+      <c r="F59" s="64">
         <f t="shared" si="24"/>
         <v>-0.78659999999999997</v>
       </c>
-      <c r="G59" s="65">
+      <c r="G59" s="64">
         <v>55</v>
       </c>
-      <c r="H59" s="65">
+      <c r="H59" s="64">
         <f t="shared" si="23"/>
         <v>-43.262999999999998</v>
       </c>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
     </row>
     <row r="60" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A60" s="64">
+      <c r="A60" s="63">
         <v>16</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="65" t="s">
+      <c r="B60" s="122"/>
+      <c r="C60" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="64">
         <v>770</v>
       </c>
-      <c r="E60" s="65">
+      <c r="E60" s="64">
         <v>1790</v>
       </c>
-      <c r="F60" s="65">
+      <c r="F60" s="64">
         <f t="shared" si="24"/>
         <v>-1.3783000000000001</v>
       </c>
-      <c r="G60" s="65">
+      <c r="G60" s="64">
         <v>55</v>
       </c>
-      <c r="H60" s="65">
+      <c r="H60" s="64">
         <f t="shared" si="23"/>
         <v>-75.8065</v>
       </c>
-      <c r="I60" s="65"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
     </row>
     <row r="61" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A61" s="70">
+      <c r="A61" s="69">
         <v>17</v>
       </c>
-      <c r="B61" s="121"/>
-      <c r="C61" s="79" t="s">
+      <c r="B61" s="123"/>
+      <c r="C61" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="79">
+      <c r="D61" s="78">
         <v>1570</v>
       </c>
-      <c r="E61" s="79">
+      <c r="E61" s="78">
         <v>970</v>
       </c>
-      <c r="F61" s="79">
+      <c r="F61" s="78">
         <f>-D61*E61/1000000</f>
         <v>-1.5228999999999999</v>
       </c>
-      <c r="G61" s="79">
+      <c r="G61" s="78">
         <v>55</v>
       </c>
-      <c r="H61" s="79">
+      <c r="H61" s="78">
         <f t="shared" si="23"/>
         <v>-83.759500000000003</v>
       </c>
-      <c r="I61" s="70">
+      <c r="I61" s="69">
         <v>125</v>
       </c>
-      <c r="J61" s="85">
+      <c r="J61" s="84">
         <v>104</v>
       </c>
-      <c r="K61" s="85">
+      <c r="K61" s="84">
         <f>(I61-J61)*G61</f>
         <v>1155</v>
       </c>
-      <c r="L61" s="79"/>
+      <c r="L61" s="78"/>
     </row>
     <row r="62" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A62" s="63">
+      <c r="A62" s="62">
         <v>1</v>
       </c>
-      <c r="B62" s="119" t="s">
+      <c r="B62" s="121" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="61" t="s">
@@ -19659,23 +19690,23 @@
       <c r="E62" s="61">
         <v>1460</v>
       </c>
-      <c r="F62" s="65">
+      <c r="F62" s="64">
         <f t="shared" ref="F62:F64" si="25">D62*E62/1000000</f>
         <v>3.4748000000000001</v>
       </c>
       <c r="G62" s="61">
         <v>26</v>
       </c>
-      <c r="H62" s="65">
+      <c r="H62" s="64">
         <f t="shared" si="23"/>
         <v>90.344800000000006</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A63" s="63">
+      <c r="A63" s="62">
         <v>2</v>
       </c>
-      <c r="B63" s="120"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="61" t="s">
         <v>320</v>
       </c>
@@ -19685,23 +19716,23 @@
       <c r="E63" s="61">
         <v>1045</v>
       </c>
-      <c r="F63" s="65">
+      <c r="F63" s="64">
         <f t="shared" si="25"/>
         <v>7.1687000000000003</v>
       </c>
       <c r="G63" s="61">
         <v>26</v>
       </c>
-      <c r="H63" s="65">
+      <c r="H63" s="64">
         <f t="shared" si="23"/>
         <v>186.3862</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A64" s="63">
+      <c r="A64" s="62">
         <v>3</v>
       </c>
-      <c r="B64" s="120"/>
+      <c r="B64" s="122"/>
       <c r="C64" s="61" t="s">
         <v>321</v>
       </c>
@@ -19711,24 +19742,24 @@
       <c r="E64" s="61">
         <v>1045</v>
       </c>
-      <c r="F64" s="65">
+      <c r="F64" s="64">
         <f t="shared" si="25"/>
         <v>0.51727500000000004</v>
       </c>
       <c r="G64" s="61">
         <v>26</v>
       </c>
-      <c r="H64" s="65">
+      <c r="H64" s="64">
         <f t="shared" si="23"/>
         <v>13.449150000000001</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A65" s="63">
+      <c r="A65" s="62">
         <v>4</v>
       </c>
-      <c r="B65" s="120"/>
-      <c r="C65" s="123" t="s">
+      <c r="B65" s="122"/>
+      <c r="C65" s="125" t="s">
         <v>261</v>
       </c>
       <c r="D65" s="61">
@@ -19737,47 +19768,47 @@
       <c r="E65" s="61">
         <v>2202</v>
       </c>
-      <c r="F65" s="65">
+      <c r="F65" s="64">
         <f t="shared" ref="F65:F68" si="26">D65*E65/1000000</f>
         <v>7.4867999999999997</v>
       </c>
       <c r="G65" s="61">
         <v>26</v>
       </c>
-      <c r="H65" s="65">
+      <c r="H65" s="64">
         <f t="shared" ref="H65:H79" si="27">F65*G65</f>
         <v>194.6568</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A66" s="63">
+      <c r="A66" s="62">
         <v>5</v>
       </c>
-      <c r="B66" s="120"/>
-      <c r="C66" s="123"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="61">
         <v>11204</v>
       </c>
       <c r="E66" s="61">
         <v>2750</v>
       </c>
-      <c r="F66" s="65">
+      <c r="F66" s="64">
         <f t="shared" si="26"/>
         <v>30.811</v>
       </c>
       <c r="G66" s="61">
         <v>26</v>
       </c>
-      <c r="H66" s="65">
+      <c r="H66" s="64">
         <f t="shared" si="27"/>
         <v>801.08600000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A67" s="63">
+      <c r="A67" s="62">
         <v>6</v>
       </c>
-      <c r="B67" s="120"/>
+      <c r="B67" s="122"/>
       <c r="C67" s="61" t="s">
         <v>286</v>
       </c>
@@ -19787,23 +19818,23 @@
       <c r="E67" s="61">
         <v>4815</v>
       </c>
-      <c r="F67" s="65">
+      <c r="F67" s="64">
         <f t="shared" si="26"/>
         <v>24.4602</v>
       </c>
       <c r="G67" s="61">
         <v>26</v>
       </c>
-      <c r="H67" s="65">
+      <c r="H67" s="64">
         <f t="shared" si="27"/>
         <v>635.96519999999998</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A68" s="63">
+      <c r="A68" s="62">
         <v>7</v>
       </c>
-      <c r="B68" s="120"/>
+      <c r="B68" s="122"/>
       <c r="C68" s="61" t="s">
         <v>288</v>
       </c>
@@ -19813,50 +19844,50 @@
       <c r="E68" s="61">
         <v>3090</v>
       </c>
-      <c r="F68" s="65">
+      <c r="F68" s="64">
         <f t="shared" si="26"/>
         <v>9.3009000000000004</v>
       </c>
       <c r="G68" s="61">
         <v>26</v>
       </c>
-      <c r="H68" s="65">
+      <c r="H68" s="64">
         <f t="shared" si="27"/>
         <v>241.82340000000002</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A69" s="63">
+      <c r="A69" s="62">
         <v>8</v>
       </c>
-      <c r="B69" s="120"/>
+      <c r="B69" s="122"/>
       <c r="C69" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="D69" s="65">
+      <c r="D69" s="64">
         <v>3960</v>
       </c>
-      <c r="E69" s="65">
+      <c r="E69" s="64">
         <v>1500</v>
       </c>
-      <c r="F69" s="65">
+      <c r="F69" s="64">
         <f t="shared" ref="F69:F79" si="28">D69*E69/1000000</f>
         <v>5.94</v>
       </c>
       <c r="G69" s="61">
         <v>26</v>
       </c>
-      <c r="H69" s="65">
+      <c r="H69" s="64">
         <f t="shared" si="27"/>
         <v>154.44</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A70" s="63">
+      <c r="A70" s="62">
         <v>9</v>
       </c>
-      <c r="B70" s="120"/>
-      <c r="C70" s="123" t="s">
+      <c r="B70" s="122"/>
+      <c r="C70" s="125" t="s">
         <v>275</v>
       </c>
       <c r="D70" s="61">
@@ -19872,17 +19903,17 @@
       <c r="G70" s="61">
         <v>26</v>
       </c>
-      <c r="H70" s="65">
+      <c r="H70" s="64">
         <f t="shared" si="27"/>
         <v>282.54330000000004</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A71" s="63">
+      <c r="A71" s="62">
         <v>10</v>
       </c>
-      <c r="B71" s="120"/>
-      <c r="C71" s="123"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="125"/>
       <c r="D71" s="61">
         <v>13370</v>
       </c>
@@ -19896,17 +19927,17 @@
       <c r="G71" s="61">
         <v>26</v>
       </c>
-      <c r="H71" s="65">
+      <c r="H71" s="64">
         <f t="shared" si="27"/>
         <v>955.95499999999993</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A72" s="63">
+      <c r="A72" s="62">
         <v>11</v>
       </c>
-      <c r="B72" s="120"/>
-      <c r="C72" s="123" t="s">
+      <c r="B72" s="122"/>
+      <c r="C72" s="125" t="s">
         <v>276</v>
       </c>
       <c r="D72" s="61">
@@ -19922,17 +19953,17 @@
       <c r="G72" s="61">
         <v>26</v>
       </c>
-      <c r="H72" s="65">
+      <c r="H72" s="64">
         <f t="shared" si="27"/>
         <v>257.3168</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A73" s="63">
+      <c r="A73" s="62">
         <v>12</v>
       </c>
-      <c r="B73" s="120"/>
-      <c r="C73" s="123"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="125"/>
       <c r="D73" s="61">
         <v>12680</v>
       </c>
@@ -19946,17 +19977,17 @@
       <c r="G73" s="61">
         <v>26</v>
       </c>
-      <c r="H73" s="65">
+      <c r="H73" s="64">
         <f t="shared" si="27"/>
         <v>906.61999999999989</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A74" s="63">
+      <c r="A74" s="62">
         <v>13</v>
       </c>
-      <c r="B74" s="120"/>
-      <c r="C74" s="123" t="s">
+      <c r="B74" s="122"/>
+      <c r="C74" s="125" t="s">
         <v>278</v>
       </c>
       <c r="D74" s="61">
@@ -19972,17 +20003,17 @@
       <c r="G74" s="61">
         <v>26</v>
       </c>
-      <c r="H74" s="65">
+      <c r="H74" s="64">
         <f t="shared" si="27"/>
         <v>172.98774999999998</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A75" s="63">
+      <c r="A75" s="62">
         <v>14</v>
       </c>
-      <c r="B75" s="120"/>
-      <c r="C75" s="123"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="125"/>
       <c r="D75" s="61">
         <v>10320</v>
       </c>
@@ -19996,17 +20027,17 @@
       <c r="G75" s="61">
         <v>26</v>
       </c>
-      <c r="H75" s="65">
+      <c r="H75" s="64">
         <f t="shared" si="27"/>
         <v>737.88</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A76" s="63">
+      <c r="A76" s="62">
         <v>15</v>
       </c>
-      <c r="B76" s="120"/>
-      <c r="C76" s="123" t="s">
+      <c r="B76" s="122"/>
+      <c r="C76" s="125" t="s">
         <v>270</v>
       </c>
       <c r="D76" s="61">
@@ -20022,17 +20053,17 @@
       <c r="G76" s="61">
         <v>26</v>
       </c>
-      <c r="H76" s="65">
+      <c r="H76" s="64">
         <f t="shared" si="27"/>
         <v>352.92815999999999</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A77" s="63">
+      <c r="A77" s="62">
         <v>16</v>
       </c>
-      <c r="B77" s="120"/>
-      <c r="C77" s="123"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="125"/>
       <c r="D77" s="61">
         <v>14814</v>
       </c>
@@ -20046,17 +20077,17 @@
       <c r="G77" s="61">
         <v>26</v>
       </c>
-      <c r="H77" s="65">
+      <c r="H77" s="64">
         <f t="shared" si="27"/>
         <v>1059.201</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A78" s="63">
+      <c r="A78" s="62">
         <v>17</v>
       </c>
-      <c r="B78" s="120"/>
-      <c r="C78" s="123" t="s">
+      <c r="B78" s="122"/>
+      <c r="C78" s="125" t="s">
         <v>322</v>
       </c>
       <c r="D78" s="61">
@@ -20072,17 +20103,17 @@
       <c r="G78" s="61">
         <v>26</v>
       </c>
-      <c r="H78" s="65">
+      <c r="H78" s="64">
         <f t="shared" si="27"/>
         <v>61.228439999999999</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A79" s="63">
+      <c r="A79" s="62">
         <v>18</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="123"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="125"/>
       <c r="D79" s="61">
         <v>6144</v>
       </c>
@@ -20096,714 +20127,714 @@
       <c r="G79" s="61">
         <v>26</v>
       </c>
-      <c r="H79" s="65">
+      <c r="H79" s="64">
         <f t="shared" si="27"/>
         <v>439.29600000000005</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A80" s="63">
+      <c r="A80" s="62">
         <v>19</v>
       </c>
-      <c r="B80" s="122" t="s">
+      <c r="B80" s="124" t="s">
         <v>289</v>
       </c>
       <c r="C80" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="D80" s="65">
+      <c r="D80" s="64">
         <v>880</v>
       </c>
-      <c r="E80" s="65">
+      <c r="E80" s="64">
         <v>2290</v>
       </c>
-      <c r="F80" s="65">
+      <c r="F80" s="64">
         <f>-D80*E80/1000000</f>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G80" s="61">
         <v>26</v>
       </c>
-      <c r="H80" s="65">
+      <c r="H80" s="64">
         <f t="shared" ref="H80" si="29">F80*G80</f>
         <v>-52.395200000000003</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A81" s="63">
+      <c r="A81" s="62">
         <v>20</v>
       </c>
-      <c r="B81" s="122"/>
+      <c r="B81" s="124"/>
       <c r="C81" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="D81" s="65">
+      <c r="D81" s="64">
         <v>880</v>
       </c>
-      <c r="E81" s="65">
+      <c r="E81" s="64">
         <v>2290</v>
       </c>
-      <c r="F81" s="65">
+      <c r="F81" s="64">
         <f>-D81*E81/1000000</f>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G81" s="61">
         <v>26</v>
       </c>
-      <c r="H81" s="65">
+      <c r="H81" s="64">
         <f t="shared" ref="H81:H93" si="30">F81*G81</f>
         <v>-52.395200000000003</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A82" s="63">
+      <c r="A82" s="62">
         <v>21</v>
       </c>
-      <c r="B82" s="122"/>
+      <c r="B82" s="124"/>
       <c r="C82" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="D82" s="65">
+      <c r="D82" s="64">
         <v>880</v>
       </c>
-      <c r="E82" s="65">
+      <c r="E82" s="64">
         <v>2290</v>
       </c>
-      <c r="F82" s="65">
+      <c r="F82" s="64">
         <f t="shared" ref="F82:F90" si="31">-D82*E82/1000000</f>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G82" s="61">
         <v>26</v>
       </c>
-      <c r="H82" s="65">
+      <c r="H82" s="64">
         <f t="shared" si="30"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A83" s="63">
+      <c r="A83" s="62">
         <v>22</v>
       </c>
-      <c r="B83" s="122"/>
+      <c r="B83" s="124"/>
       <c r="C83" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="D83" s="65">
+      <c r="D83" s="64">
         <v>880</v>
       </c>
-      <c r="E83" s="65">
+      <c r="E83" s="64">
         <v>2290</v>
       </c>
-      <c r="F83" s="65">
+      <c r="F83" s="64">
         <f t="shared" si="31"/>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G83" s="61">
         <v>26</v>
       </c>
-      <c r="H83" s="65">
+      <c r="H83" s="64">
         <f t="shared" si="30"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A84" s="63">
+      <c r="A84" s="62">
         <v>23</v>
       </c>
-      <c r="B84" s="122"/>
+      <c r="B84" s="124"/>
       <c r="C84" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="D84" s="65">
+      <c r="D84" s="64">
         <v>880</v>
       </c>
-      <c r="E84" s="65">
+      <c r="E84" s="64">
         <v>2290</v>
       </c>
-      <c r="F84" s="65">
+      <c r="F84" s="64">
         <f t="shared" si="31"/>
         <v>-2.0152000000000001</v>
       </c>
       <c r="G84" s="61">
         <v>26</v>
       </c>
-      <c r="H84" s="65">
+      <c r="H84" s="64">
         <f t="shared" si="30"/>
         <v>-52.395200000000003</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A85" s="63">
+      <c r="A85" s="62">
         <v>24</v>
       </c>
-      <c r="B85" s="122"/>
+      <c r="B85" s="124"/>
       <c r="C85" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="D85" s="65">
+      <c r="D85" s="64">
         <v>770</v>
       </c>
-      <c r="E85" s="65">
+      <c r="E85" s="64">
         <v>2100</v>
       </c>
-      <c r="F85" s="65">
+      <c r="F85" s="64">
         <f t="shared" si="31"/>
         <v>-1.617</v>
       </c>
       <c r="G85" s="61">
         <v>26</v>
       </c>
-      <c r="H85" s="65">
+      <c r="H85" s="64">
         <f t="shared" si="30"/>
         <v>-42.042000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A86" s="64">
+      <c r="A86" s="63">
         <v>25</v>
       </c>
-      <c r="B86" s="120" t="s">
+      <c r="B86" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="65" t="s">
+      <c r="C86" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="65">
+      <c r="D86" s="64">
         <v>1600</v>
       </c>
-      <c r="E86" s="65">
+      <c r="E86" s="64">
         <v>1245</v>
       </c>
-      <c r="F86" s="65">
+      <c r="F86" s="64">
         <f t="shared" si="31"/>
         <v>-1.992</v>
       </c>
       <c r="G86" s="61">
         <v>26</v>
       </c>
-      <c r="H86" s="65">
+      <c r="H86" s="64">
         <f t="shared" si="30"/>
         <v>-51.792000000000002</v>
       </c>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
     </row>
     <row r="87" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A87" s="64">
+      <c r="A87" s="63">
         <v>26</v>
       </c>
-      <c r="B87" s="120"/>
-      <c r="C87" s="65" t="s">
+      <c r="B87" s="122"/>
+      <c r="C87" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="D87" s="65">
+      <c r="D87" s="64">
         <v>2159</v>
       </c>
-      <c r="E87" s="65">
+      <c r="E87" s="64">
         <v>1790</v>
       </c>
-      <c r="F87" s="65">
+      <c r="F87" s="64">
         <f t="shared" si="31"/>
         <v>-3.8646099999999999</v>
       </c>
       <c r="G87" s="61">
         <v>26</v>
       </c>
-      <c r="H87" s="65">
+      <c r="H87" s="64">
         <f t="shared" si="30"/>
         <v>-100.47986</v>
       </c>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="64"/>
     </row>
     <row r="88" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A88" s="64">
+      <c r="A88" s="63">
         <v>27</v>
       </c>
-      <c r="B88" s="120"/>
-      <c r="C88" s="65" t="s">
+      <c r="B88" s="122"/>
+      <c r="C88" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="65">
+      <c r="D88" s="64">
         <v>2650</v>
       </c>
-      <c r="E88" s="65">
+      <c r="E88" s="64">
         <v>1790</v>
       </c>
-      <c r="F88" s="65">
+      <c r="F88" s="64">
         <f t="shared" si="31"/>
         <v>-4.7435</v>
       </c>
       <c r="G88" s="61">
         <v>26</v>
       </c>
-      <c r="H88" s="65">
+      <c r="H88" s="64">
         <f t="shared" si="30"/>
         <v>-123.331</v>
       </c>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
     </row>
     <row r="89" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A89" s="64">
+      <c r="A89" s="63">
         <v>28</v>
       </c>
-      <c r="B89" s="120"/>
-      <c r="C89" s="65" t="s">
+      <c r="B89" s="122"/>
+      <c r="C89" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D89" s="65">
+      <c r="D89" s="64">
         <v>1225</v>
       </c>
-      <c r="E89" s="65">
+      <c r="E89" s="64">
         <v>1790</v>
       </c>
-      <c r="F89" s="65">
+      <c r="F89" s="64">
         <f t="shared" si="31"/>
         <v>-2.1927500000000002</v>
       </c>
       <c r="G89" s="61">
         <v>26</v>
       </c>
-      <c r="H89" s="65">
+      <c r="H89" s="64">
         <f t="shared" si="30"/>
         <v>-57.011500000000005</v>
       </c>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="64"/>
     </row>
     <row r="90" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A90" s="70">
+      <c r="A90" s="69">
         <v>29</v>
       </c>
-      <c r="B90" s="121"/>
-      <c r="C90" s="79" t="s">
+      <c r="B90" s="123"/>
+      <c r="C90" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="D90" s="79">
+      <c r="D90" s="78">
         <v>2540</v>
       </c>
-      <c r="E90" s="79">
+      <c r="E90" s="78">
         <v>1790</v>
       </c>
-      <c r="F90" s="79">
+      <c r="F90" s="78">
         <f t="shared" si="31"/>
         <v>-4.5465999999999998</v>
       </c>
-      <c r="G90" s="79">
+      <c r="G90" s="78">
         <v>26</v>
       </c>
-      <c r="H90" s="79">
+      <c r="H90" s="78">
         <f t="shared" si="30"/>
         <v>-118.21159999999999</v>
       </c>
-      <c r="I90" s="70">
+      <c r="I90" s="69">
         <v>250</v>
       </c>
-      <c r="J90" s="70">
+      <c r="J90" s="69">
         <v>260</v>
       </c>
-      <c r="K90" s="70">
+      <c r="K90" s="69">
         <f>(I90-J90)*G90</f>
         <v>-260</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A91" s="64">
+      <c r="A91" s="63">
         <v>1</v>
       </c>
-      <c r="B91" s="120" t="s">
+      <c r="B91" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="C91" s="65" t="s">
+      <c r="C91" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="D91" s="78">
+      <c r="D91" s="77">
         <v>2760</v>
       </c>
-      <c r="E91" s="78">
+      <c r="E91" s="77">
         <v>1550</v>
       </c>
-      <c r="F91" s="78">
+      <c r="F91" s="77">
         <f>D91*E91/1000000</f>
         <v>4.2779999999999996</v>
       </c>
-      <c r="G91" s="84">
+      <c r="G91" s="83">
         <v>330</v>
       </c>
-      <c r="H91" s="65">
+      <c r="H91" s="64">
         <f t="shared" si="30"/>
         <v>1411.7399999999998</v>
       </c>
-      <c r="I91" s="78"/>
-      <c r="J91" s="78"/>
-      <c r="K91" s="78"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
     </row>
     <row r="92" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A92" s="64">
+      <c r="A92" s="63">
         <v>2</v>
       </c>
-      <c r="B92" s="120"/>
-      <c r="C92" s="65" t="s">
+      <c r="B92" s="122"/>
+      <c r="C92" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="D92" s="65">
+      <c r="D92" s="64">
         <v>2745</v>
       </c>
-      <c r="E92" s="65">
+      <c r="E92" s="64">
         <v>1670</v>
       </c>
-      <c r="F92" s="65">
+      <c r="F92" s="64">
         <f>D92*E92/1000000</f>
         <v>4.5841500000000002</v>
       </c>
-      <c r="G92" s="66">
+      <c r="G92" s="65">
         <v>330</v>
       </c>
-      <c r="H92" s="65">
+      <c r="H92" s="64">
         <f t="shared" si="30"/>
         <v>1512.7695000000001</v>
       </c>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
     </row>
     <row r="93" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A93" s="70">
+      <c r="A93" s="69">
         <v>3</v>
       </c>
-      <c r="B93" s="121"/>
-      <c r="C93" s="79" t="s">
+      <c r="B93" s="123"/>
+      <c r="C93" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="D93" s="79">
+      <c r="D93" s="78">
         <v>3150</v>
       </c>
-      <c r="E93" s="79">
+      <c r="E93" s="78">
         <v>1570</v>
       </c>
-      <c r="F93" s="79">
+      <c r="F93" s="78">
         <f>D93*E93/1000000</f>
         <v>4.9455</v>
       </c>
-      <c r="G93" s="76">
+      <c r="G93" s="75">
         <v>330</v>
       </c>
-      <c r="H93" s="79">
+      <c r="H93" s="78">
         <f t="shared" si="30"/>
         <v>1632.0150000000001</v>
       </c>
-      <c r="I93" s="70">
+      <c r="I93" s="69">
         <v>15</v>
       </c>
-      <c r="J93" s="85">
+      <c r="J93" s="84">
         <v>14</v>
       </c>
-      <c r="K93" s="85">
+      <c r="K93" s="84">
         <f>(I93-J93)*G93</f>
         <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A94" s="87">
+      <c r="A94" s="86">
         <v>1</v>
       </c>
-      <c r="B94" s="88" t="s">
+      <c r="B94" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="C94" s="89"/>
-      <c r="D94" s="89">
+      <c r="C94" s="88"/>
+      <c r="D94" s="88">
         <v>8.5</v>
       </c>
-      <c r="E94" s="89"/>
-      <c r="F94" s="89"/>
-      <c r="G94" s="89">
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88">
         <v>50</v>
       </c>
-      <c r="H94" s="89">
+      <c r="H94" s="88">
         <f>D94*G94</f>
         <v>425</v>
       </c>
-      <c r="I94" s="87">
+      <c r="I94" s="86">
         <v>11</v>
       </c>
-      <c r="J94" s="90">
+      <c r="J94" s="89">
         <v>8.5</v>
       </c>
-      <c r="K94" s="85">
+      <c r="K94" s="84">
         <f>(I94-J94)*G94</f>
         <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A95" s="87">
+      <c r="A95" s="86">
         <v>1</v>
       </c>
-      <c r="B95" s="88" t="s">
+      <c r="B95" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89">
+      <c r="C95" s="88"/>
+      <c r="D95" s="88">
         <v>10</v>
       </c>
-      <c r="E95" s="89"/>
-      <c r="F95" s="89"/>
-      <c r="G95" s="89">
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88">
         <v>150</v>
       </c>
-      <c r="H95" s="89">
+      <c r="H95" s="88">
         <f>D95*G95</f>
         <v>1500</v>
       </c>
-      <c r="I95" s="87">
+      <c r="I95" s="86">
         <v>11.5</v>
       </c>
-      <c r="J95" s="90">
+      <c r="J95" s="89">
         <v>9.5</v>
       </c>
-      <c r="K95" s="85">
+      <c r="K95" s="84">
         <f>(I95-J95)*G95</f>
         <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A96" s="77">
+      <c r="A96" s="76">
         <v>1</v>
       </c>
-      <c r="B96" s="119" t="s">
+      <c r="B96" s="121" t="s">
         <v>327</v>
       </c>
-      <c r="C96" s="78" t="s">
+      <c r="C96" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="D96" s="78">
+      <c r="D96" s="77">
         <v>1450</v>
       </c>
-      <c r="E96" s="78">
+      <c r="E96" s="77">
         <v>2350</v>
       </c>
-      <c r="F96" s="78">
+      <c r="F96" s="77">
         <f t="shared" ref="F96:F99" si="32">D96*E96/1000000</f>
         <v>3.4075000000000002</v>
       </c>
-      <c r="G96" s="84">
+      <c r="G96" s="83">
         <v>115</v>
       </c>
-      <c r="H96" s="78">
+      <c r="H96" s="77">
         <f t="shared" ref="H96:H99" si="33">F96*G96</f>
         <v>391.86250000000001</v>
       </c>
-      <c r="I96" s="78"/>
-      <c r="J96" s="78"/>
-      <c r="K96" s="78"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77"/>
     </row>
     <row r="97" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A97" s="64">
+      <c r="A97" s="63">
         <v>2</v>
       </c>
-      <c r="B97" s="120"/>
-      <c r="C97" s="65" t="s">
+      <c r="B97" s="122"/>
+      <c r="C97" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="D97" s="65">
+      <c r="D97" s="64">
         <v>400</v>
       </c>
-      <c r="E97" s="65">
+      <c r="E97" s="64">
         <v>2350</v>
       </c>
-      <c r="F97" s="65">
+      <c r="F97" s="64">
         <f t="shared" si="32"/>
         <v>0.94</v>
       </c>
-      <c r="G97" s="66">
+      <c r="G97" s="65">
         <v>115</v>
       </c>
-      <c r="H97" s="65">
+      <c r="H97" s="64">
         <f t="shared" si="33"/>
         <v>108.1</v>
       </c>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64"/>
     </row>
     <row r="98" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A98" s="64">
+      <c r="A98" s="63">
         <v>3</v>
       </c>
-      <c r="B98" s="120"/>
-      <c r="C98" s="65" t="s">
+      <c r="B98" s="122"/>
+      <c r="C98" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="D98" s="65">
+      <c r="D98" s="64">
         <v>1060</v>
       </c>
-      <c r="E98" s="65">
+      <c r="E98" s="64">
         <v>2750</v>
       </c>
-      <c r="F98" s="65">
+      <c r="F98" s="64">
         <f t="shared" si="32"/>
         <v>2.915</v>
       </c>
-      <c r="G98" s="66">
+      <c r="G98" s="65">
         <v>115</v>
       </c>
-      <c r="H98" s="65">
+      <c r="H98" s="64">
         <f t="shared" si="33"/>
         <v>335.22500000000002</v>
       </c>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="65"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64"/>
     </row>
     <row r="99" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A99" s="70">
+      <c r="A99" s="69">
         <v>4</v>
       </c>
-      <c r="B99" s="121"/>
-      <c r="C99" s="79" t="s">
+      <c r="B99" s="123"/>
+      <c r="C99" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="D99" s="79">
+      <c r="D99" s="78">
         <v>390</v>
       </c>
-      <c r="E99" s="79">
+      <c r="E99" s="78">
         <v>2750</v>
       </c>
-      <c r="F99" s="79">
+      <c r="F99" s="78">
         <f t="shared" si="32"/>
         <v>1.0725</v>
       </c>
-      <c r="G99" s="76">
+      <c r="G99" s="75">
         <v>115</v>
       </c>
-      <c r="H99" s="79">
+      <c r="H99" s="78">
         <f t="shared" si="33"/>
         <v>123.33750000000001</v>
       </c>
-      <c r="I99" s="70">
+      <c r="I99" s="69">
         <v>10.6</v>
       </c>
-      <c r="J99" s="85">
+      <c r="J99" s="84">
         <v>8.5</v>
       </c>
-      <c r="K99" s="85">
+      <c r="K99" s="84">
         <f>(I99-J99)*G99</f>
         <v>241.49999999999997</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A100" s="87">
+      <c r="A100" s="86">
         <v>1</v>
       </c>
-      <c r="B100" s="88" t="s">
+      <c r="B100" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="C100" s="89"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="89"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="89"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="88"/>
+      <c r="E100" s="88"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="88"/>
+      <c r="J100" s="88"/>
+      <c r="K100" s="88"/>
     </row>
     <row r="101" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A101" s="77">
+      <c r="A101" s="76">
         <v>1</v>
       </c>
-      <c r="B101" s="119" t="s">
+      <c r="B101" s="121" t="s">
         <v>333</v>
       </c>
-      <c r="C101" s="78" t="s">
+      <c r="C101" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="D101" s="78">
+      <c r="D101" s="77">
         <v>2.86</v>
       </c>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="78">
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77">
         <v>80</v>
       </c>
-      <c r="H101" s="78">
+      <c r="H101" s="77">
         <f>D101*G101</f>
         <v>228.79999999999998</v>
       </c>
-      <c r="I101" s="77">
+      <c r="I101" s="76">
         <v>5</v>
       </c>
-      <c r="J101" s="91">
+      <c r="J101" s="90">
         <v>2.86</v>
       </c>
-      <c r="K101" s="86">
+      <c r="K101" s="85">
         <f>(I101-J101)*G101</f>
         <v>171.20000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A102" s="64">
+      <c r="A102" s="63">
         <v>2</v>
       </c>
-      <c r="B102" s="120"/>
-      <c r="C102" s="65" t="s">
+      <c r="B102" s="122"/>
+      <c r="C102" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="D102" s="65">
+      <c r="D102" s="64">
         <v>6.7</v>
       </c>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65">
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64">
         <v>70</v>
       </c>
-      <c r="H102" s="65">
+      <c r="H102" s="64">
         <f t="shared" ref="H102:H103" si="34">D102*G102</f>
         <v>469</v>
       </c>
-      <c r="I102" s="64">
+      <c r="I102" s="63">
         <v>6</v>
       </c>
-      <c r="J102" s="64">
+      <c r="J102" s="63">
         <v>6.7</v>
       </c>
-      <c r="K102" s="64">
+      <c r="K102" s="63">
         <f>(I102-J102)*G102</f>
         <v>-49.000000000000014</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A103" s="70">
+      <c r="A103" s="69">
         <v>3</v>
       </c>
-      <c r="B103" s="121"/>
-      <c r="C103" s="79" t="s">
+      <c r="B103" s="123"/>
+      <c r="C103" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="D103" s="79">
+      <c r="D103" s="78">
         <v>9.15</v>
       </c>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79">
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78">
         <v>60</v>
       </c>
-      <c r="H103" s="79">
+      <c r="H103" s="78">
         <f t="shared" si="34"/>
         <v>549</v>
       </c>
-      <c r="I103" s="70">
+      <c r="I103" s="69">
         <v>12</v>
       </c>
-      <c r="J103" s="85">
+      <c r="J103" s="84">
         <v>9.15</v>
       </c>
-      <c r="K103" s="85">
+      <c r="K103" s="84">
         <f>(I103-J103)*G103</f>
         <v>170.99999999999997</v>
       </c>
@@ -20854,783 +20885,787 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="62"/>
+    <col min="1" max="1" width="5.75" style="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A1" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82" t="s">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="69" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="66">
+    <row r="2" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="66">
+      <c r="B2" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="65">
         <v>-1</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="65">
         <v>100</v>
       </c>
-      <c r="G2" s="93">
+      <c r="G2" s="91">
         <f t="shared" ref="G2:G21" si="0">E2*F2</f>
         <v>-100</v>
       </c>
-      <c r="H2" s="97"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="94">
+      <c r="H2" s="95"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="92">
         <v>-100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A3" s="93">
+      <c r="A3" s="91">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="C3" s="93" t="s">
+      <c r="B3" s="91" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="93">
+      <c r="C3" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="91">
         <v>90</v>
       </c>
-      <c r="F3" s="93">
+      <c r="F3" s="91">
         <v>-55</v>
       </c>
-      <c r="G3" s="93">
+      <c r="G3" s="91">
         <f t="shared" si="0"/>
         <v>-4950</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="95">
+      <c r="H3" s="95"/>
+      <c r="J3" s="93">
         <v>-4950</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="104" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="93">
+    <row r="4" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A4" s="91">
         <v>3</v>
       </c>
-      <c r="B4" s="93" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E4" s="93">
-        <v>0</v>
-      </c>
-      <c r="F4" s="93">
-        <v>750</v>
-      </c>
-      <c r="G4" s="93">
+      <c r="B4" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="91">
+        <v>0</v>
+      </c>
+      <c r="F4" s="91">
+        <v>0</v>
+      </c>
+      <c r="G4" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="97">
-        <v>0</v>
-      </c>
-      <c r="I4" s="93">
+      <c r="H4" s="95">
+        <v>0</v>
+      </c>
+      <c r="I4" s="91">
         <v>3</v>
       </c>
-      <c r="J4" s="94">
+      <c r="J4" s="92">
         <f t="shared" ref="J4" si="1">(H4-I4)*F4</f>
-        <v>-2250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A5" s="91">
         <v>4</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E5" s="93">
+      <c r="D5" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="91">
         <v>89</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="91">
         <v>110</v>
       </c>
-      <c r="G5" s="93">
+      <c r="G5" s="91">
         <f t="shared" si="0"/>
         <v>9790</v>
       </c>
-      <c r="H5" s="97">
+      <c r="H5" s="95">
         <v>89</v>
       </c>
-      <c r="I5" s="93">
+      <c r="I5" s="91">
         <v>80</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="92">
         <f t="shared" ref="J5:J21" si="2">(H5-I5)*F5</f>
         <v>990</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="63" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="93">
+    <row r="6" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A6" s="91">
         <v>5</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="91" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E6" s="93">
-        <v>0</v>
-      </c>
-      <c r="F6" s="93">
+      <c r="C6" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0</v>
+      </c>
+      <c r="F6" s="91">
         <v>130</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="97">
-        <v>0</v>
-      </c>
-      <c r="I6" s="93">
+      <c r="H6" s="95">
+        <v>0</v>
+      </c>
+      <c r="I6" s="91">
         <v>9</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="92">
         <f t="shared" si="2"/>
         <v>-1170</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A7" s="93">
+      <c r="A7" s="91">
+        <v>7</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="91">
+        <v>109</v>
+      </c>
+      <c r="F7" s="91">
+        <v>55</v>
+      </c>
+      <c r="G7" s="91">
+        <f>E7*F7</f>
+        <v>5995</v>
+      </c>
+      <c r="H7" s="95">
+        <v>109</v>
+      </c>
+      <c r="I7" s="91">
+        <v>118</v>
+      </c>
+      <c r="J7" s="92">
+        <f>(H7-I7)*F7</f>
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A8" s="91">
+        <v>8</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="91">
+        <v>14</v>
+      </c>
+      <c r="F8" s="91">
+        <v>330</v>
+      </c>
+      <c r="G8" s="91">
+        <f>E8*F8</f>
+        <v>4620</v>
+      </c>
+      <c r="H8" s="95">
+        <v>14</v>
+      </c>
+      <c r="I8" s="91">
+        <v>15</v>
+      </c>
+      <c r="J8" s="93">
+        <f>(H8-I8)*F8</f>
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A9" s="91">
+        <v>9</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="91">
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="91">
+        <v>150</v>
+      </c>
+      <c r="G9" s="91">
+        <f>E9*F9</f>
+        <v>1425</v>
+      </c>
+      <c r="H9" s="95">
+        <v>9.5</v>
+      </c>
+      <c r="I9" s="91">
+        <v>11.5</v>
+      </c>
+      <c r="J9" s="93">
+        <f>(H9-I9)*F9</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A10" s="91">
         <v>6</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B10" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="93">
+      <c r="C10" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="91">
         <v>25.6</v>
       </c>
-      <c r="F7" s="93">
+      <c r="F10" s="91">
         <v>45</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G10" s="91">
         <f t="shared" si="0"/>
         <v>1152</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H10" s="95">
         <v>25.6</v>
       </c>
-      <c r="I7" s="93">
+      <c r="I10" s="91">
         <v>27.88</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J10" s="92">
         <f t="shared" si="2"/>
         <v>-102.59999999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A8" s="93">
-        <v>7</v>
-      </c>
-      <c r="B8" s="93" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="93">
-        <v>109</v>
-      </c>
-      <c r="F8" s="93">
-        <v>55</v>
-      </c>
-      <c r="G8" s="93">
-        <f t="shared" si="0"/>
-        <v>5995</v>
-      </c>
-      <c r="H8" s="97">
-        <v>109</v>
-      </c>
-      <c r="I8" s="93">
-        <v>118</v>
-      </c>
-      <c r="J8" s="94">
-        <f t="shared" si="2"/>
-        <v>-495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A9" s="93">
-        <v>8</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>342</v>
-      </c>
-      <c r="D9" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="93">
-        <v>14</v>
-      </c>
-      <c r="F9" s="93">
-        <v>330</v>
-      </c>
-      <c r="G9" s="93">
-        <f t="shared" si="0"/>
-        <v>4620</v>
-      </c>
-      <c r="H9" s="97">
-        <v>14</v>
-      </c>
-      <c r="I9" s="93">
-        <v>15</v>
-      </c>
-      <c r="J9" s="95">
-        <f t="shared" si="2"/>
-        <v>-330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A10" s="93">
-        <v>9</v>
-      </c>
-      <c r="B10" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="93" t="s">
+    <row r="11" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A11" s="91">
+        <v>10</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" s="91" t="s">
         <v>345</v>
       </c>
-      <c r="D10" s="93" t="s">
-        <v>347</v>
-      </c>
-      <c r="E10" s="93">
-        <v>9.5</v>
-      </c>
-      <c r="F10" s="93">
-        <v>150</v>
-      </c>
-      <c r="G10" s="93">
-        <f t="shared" si="0"/>
-        <v>1425</v>
-      </c>
-      <c r="H10" s="97">
-        <v>9.5</v>
-      </c>
-      <c r="I10" s="93">
-        <v>11.5</v>
-      </c>
-      <c r="J10" s="95">
-        <f t="shared" si="2"/>
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A11" s="93">
-        <v>10</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>348</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E11" s="66">
+      <c r="E11" s="65">
         <v>8.5</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="91">
         <v>115</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="91">
         <f t="shared" si="0"/>
         <v>977.5</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="95">
         <v>8.5</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="91">
         <v>3</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="93">
         <f t="shared" si="2"/>
         <v>632.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A12" s="93">
+      <c r="A12" s="91">
         <v>11</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="C12" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>347</v>
+      <c r="C12" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>346</v>
       </c>
       <c r="E12" s="65">
         <v>2.86</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="91">
         <v>80</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="91">
         <f>E12*F12</f>
         <v>228.79999999999998</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="95">
         <v>2.86</v>
       </c>
-      <c r="I12" s="93">
+      <c r="I12" s="91">
         <v>5</v>
       </c>
-      <c r="J12" s="95">
+      <c r="J12" s="93">
         <f>(H12-I12)*F12</f>
         <v>-171.20000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A13" s="93">
+      <c r="A13" s="91">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>347</v>
+      <c r="C13" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>346</v>
       </c>
       <c r="E13" s="65">
         <v>6.7</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="91">
         <v>70</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="91">
         <f>E13*F13</f>
         <v>469</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="95">
         <v>6.7</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="91">
         <v>6</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="93">
         <f>(H13-I13)*F13</f>
         <v>49.000000000000014</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A14" s="93">
+      <c r="A14" s="91">
         <v>13</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>347</v>
+      <c r="C14" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>346</v>
       </c>
       <c r="E14" s="65">
         <v>9.15</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="91">
         <v>60</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="91">
         <f>E14*F14</f>
         <v>549</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="95">
         <v>9.15</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="91">
         <v>10</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J14" s="93">
         <f>(H14-I14)*F14</f>
         <v>-50.999999999999979</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A15" s="93">
+      <c r="A15" s="91">
         <v>14</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="D15" s="93" t="s">
-        <v>346</v>
+      <c r="B15" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>345</v>
       </c>
       <c r="E15" s="65">
         <v>49.9</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="91">
         <v>20</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="91">
         <f t="shared" si="0"/>
         <v>998</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="95">
         <v>49.9</v>
       </c>
-      <c r="I15" s="62">
-        <v>0</v>
-      </c>
-      <c r="J15" s="95">
+      <c r="I15" s="91">
+        <v>0</v>
+      </c>
+      <c r="J15" s="93">
         <f t="shared" si="2"/>
         <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A16" s="93">
+      <c r="A16" s="91">
         <v>15</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" s="62">
+      <c r="B16" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" s="91">
         <v>49.9</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="91">
         <v>45</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="91">
         <f t="shared" si="0"/>
         <v>2245.5</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="95">
         <v>49.9</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="91">
         <v>54</v>
       </c>
-      <c r="J16" s="95">
+      <c r="J16" s="93">
         <f t="shared" si="2"/>
         <v>-184.50000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A17" s="93">
+    <row r="17" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A17" s="91">
         <v>16</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="E17" s="62">
+      <c r="B17" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E17" s="91">
         <v>7.5</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="91">
         <v>48</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="91">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="95">
         <v>7.5</v>
       </c>
-      <c r="I17" s="62">
-        <v>0</v>
-      </c>
-      <c r="J17" s="95">
+      <c r="I17" s="91">
+        <v>0</v>
+      </c>
+      <c r="J17" s="93">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A18" s="93">
+    <row r="18" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A18" s="91">
         <v>17</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>355</v>
-      </c>
-      <c r="D18" s="62" t="s">
+      <c r="B18" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="91">
         <v>3</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="91">
         <v>100</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="91">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="95">
         <v>3</v>
       </c>
-      <c r="I18" s="62">
-        <v>0</v>
-      </c>
-      <c r="J18" s="95">
+      <c r="I18" s="91">
+        <v>0</v>
+      </c>
+      <c r="J18" s="93">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A19" s="93">
+    <row r="19" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A19" s="91">
         <v>18</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="91" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="D19" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="E19" s="62">
+      <c r="D19" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="91">
         <v>15.86</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="91">
         <v>35</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="91">
         <f t="shared" si="0"/>
         <v>555.1</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="95">
         <v>15.86</v>
       </c>
-      <c r="I19" s="92">
+      <c r="I19" s="91">
         <v>6</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="93">
         <f t="shared" si="2"/>
         <v>345.09999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A20" s="93">
+    <row r="20" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A20" s="91">
         <v>19</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="62" t="s">
+      <c r="B20" s="91" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="62">
-        <v>0</v>
-      </c>
-      <c r="F20" s="62">
+      <c r="E20" s="91">
+        <v>0</v>
+      </c>
+      <c r="F20" s="91">
         <v>135</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="98">
-        <v>0</v>
-      </c>
-      <c r="I20" s="62">
+      <c r="H20" s="95">
+        <v>0</v>
+      </c>
+      <c r="I20" s="91">
         <v>1</v>
       </c>
-      <c r="J20" s="99">
+      <c r="J20" s="93">
         <f t="shared" si="2"/>
         <v>-135</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A21" s="93">
+    <row r="21" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A21" s="91">
         <v>20</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="D21" s="62" t="s">
+      <c r="B21" s="91" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="91">
         <v>75</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="91">
         <v>10</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="91">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="H21" s="98">
+      <c r="H21" s="95">
         <v>75</v>
       </c>
-      <c r="I21" s="62">
-        <v>0</v>
-      </c>
-      <c r="J21" s="99">
+      <c r="I21" s="91">
+        <v>0</v>
+      </c>
+      <c r="J21" s="93">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A22" s="127" t="s">
+    <row r="22" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A22" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="128">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="129">
         <f>SUM(J2:J21)</f>
-        <v>-5814.6999999999989</v>
-      </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-    </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A23" s="127" t="s">
-        <v>364</v>
-      </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="128">
+        <v>-3564.6999999999989</v>
+      </c>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="M22" s="91" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A23" s="130" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="129">
         <f>H22*0.05</f>
-        <v>-290.73499999999996</v>
-      </c>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-    </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A24" s="127" t="s">
+        <v>-178.23499999999996</v>
+      </c>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+    </row>
+    <row r="24" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A24" s="130" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="129">
+        <f>H22*0.05</f>
+        <v>-178.23499999999996</v>
+      </c>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+    </row>
+    <row r="25" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A25" s="130" t="s">
         <v>362</v>
       </c>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="128">
-        <f>H22*0.05</f>
-        <v>-290.73499999999996</v>
-      </c>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-    </row>
-    <row r="25" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A25" s="127" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="128">
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="129">
         <f>(H22+H23+H24)*0.95</f>
-        <v>-6076.3614999999982</v>
-      </c>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-    </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
+        <v>-3725.1114999999991</v>
+      </c>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+    </row>
+    <row r="26" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62">
+        <v>2314.884</v>
+      </c>
+      <c r="J26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21647,4 +21682,932 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="91"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A2" s="91">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="91">
+        <v>0</v>
+      </c>
+      <c r="F2" s="91">
+        <v>750</v>
+      </c>
+      <c r="G2" s="91">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="95">
+        <v>0</v>
+      </c>
+      <c r="I2" s="91">
+        <v>3</v>
+      </c>
+      <c r="J2" s="92">
+        <f>(H2-I2)*F2</f>
+        <v>-2250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A3" s="65">
+        <v>2</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="65">
+        <v>0</v>
+      </c>
+      <c r="F3" s="65">
+        <v>100</v>
+      </c>
+      <c r="G3" s="91">
+        <f t="shared" ref="G3:G22" si="0">E3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="95">
+        <v>0</v>
+      </c>
+      <c r="I3" s="65">
+        <v>1</v>
+      </c>
+      <c r="J3" s="85">
+        <f t="shared" ref="J3:J22" si="1">(H3-I3)*F3</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A4" s="91">
+        <v>3</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="91">
+        <v>90</v>
+      </c>
+      <c r="F4" s="91">
+        <v>55</v>
+      </c>
+      <c r="G4" s="91">
+        <f t="shared" si="0"/>
+        <v>4950</v>
+      </c>
+      <c r="H4" s="95">
+        <v>0</v>
+      </c>
+      <c r="I4" s="91">
+        <v>90</v>
+      </c>
+      <c r="J4" s="85">
+        <f t="shared" si="1"/>
+        <v>-4950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A5" s="65">
+        <v>4</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="62">
+        <v>96</v>
+      </c>
+      <c r="F5" s="62">
+        <v>100</v>
+      </c>
+      <c r="G5" s="62">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="103">
+        <v>96</v>
+      </c>
+      <c r="I5" s="62">
+        <v>80</v>
+      </c>
+      <c r="J5" s="85">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A6" s="91">
+        <v>5</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0</v>
+      </c>
+      <c r="F6" s="91">
+        <v>130</v>
+      </c>
+      <c r="G6" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="95">
+        <v>0</v>
+      </c>
+      <c r="I6" s="91">
+        <v>9</v>
+      </c>
+      <c r="J6" s="92">
+        <f t="shared" si="1"/>
+        <v>-1170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A7" s="65">
+        <v>6</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="91">
+        <v>109</v>
+      </c>
+      <c r="F7" s="91">
+        <v>55</v>
+      </c>
+      <c r="G7" s="91">
+        <f>E7*F7</f>
+        <v>5995</v>
+      </c>
+      <c r="H7" s="95">
+        <v>109</v>
+      </c>
+      <c r="I7" s="91">
+        <v>118</v>
+      </c>
+      <c r="J7" s="92">
+        <f>(H7-I7)*F7</f>
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A8" s="91">
+        <v>7</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="91">
+        <v>14</v>
+      </c>
+      <c r="F8" s="91">
+        <v>330</v>
+      </c>
+      <c r="G8" s="91">
+        <f>E8*F8</f>
+        <v>4620</v>
+      </c>
+      <c r="H8" s="95">
+        <v>14</v>
+      </c>
+      <c r="I8" s="91">
+        <v>15</v>
+      </c>
+      <c r="J8" s="93">
+        <f>(H8-I8)*F8</f>
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A9" s="65">
+        <v>8</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="91">
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="91">
+        <v>150</v>
+      </c>
+      <c r="G9" s="91">
+        <f>E9*F9</f>
+        <v>1425</v>
+      </c>
+      <c r="H9" s="95">
+        <v>9.5</v>
+      </c>
+      <c r="I9" s="91">
+        <v>11.5</v>
+      </c>
+      <c r="J9" s="93">
+        <f>(H9-I9)*F9</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A10" s="91">
+        <v>9</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0</v>
+      </c>
+      <c r="F10" s="62">
+        <v>70</v>
+      </c>
+      <c r="G10" s="62">
+        <f>E10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="103">
+        <v>0</v>
+      </c>
+      <c r="I10" s="62">
+        <v>0</v>
+      </c>
+      <c r="J10" s="104">
+        <f>(H10-I10)*F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A11" s="65">
+        <v>10</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="65">
+        <v>2.86</v>
+      </c>
+      <c r="F11" s="91">
+        <v>80</v>
+      </c>
+      <c r="G11" s="91">
+        <f>E11*F11</f>
+        <v>228.79999999999998</v>
+      </c>
+      <c r="H11" s="95">
+        <v>2.86</v>
+      </c>
+      <c r="I11" s="91">
+        <v>5</v>
+      </c>
+      <c r="J11" s="93">
+        <f>(H11-I11)*F11</f>
+        <v>-171.20000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A12" s="91">
+        <v>11</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" s="65">
+        <v>6.7</v>
+      </c>
+      <c r="F12" s="91">
+        <v>70</v>
+      </c>
+      <c r="G12" s="91">
+        <f>E12*F12</f>
+        <v>469</v>
+      </c>
+      <c r="H12" s="95">
+        <v>6.7</v>
+      </c>
+      <c r="I12" s="91">
+        <v>6</v>
+      </c>
+      <c r="J12" s="93">
+        <f>(H12-I12)*F12</f>
+        <v>49.000000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A13" s="65">
+        <v>12</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="65">
+        <v>9.15</v>
+      </c>
+      <c r="F13" s="91">
+        <v>60</v>
+      </c>
+      <c r="G13" s="91">
+        <f>E13*F13</f>
+        <v>549</v>
+      </c>
+      <c r="H13" s="95">
+        <v>9.15</v>
+      </c>
+      <c r="I13" s="91">
+        <v>10</v>
+      </c>
+      <c r="J13" s="93">
+        <f>(H13-I13)*F13</f>
+        <v>-50.999999999999979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A14" s="91">
+        <v>13</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14" s="105">
+        <v>8.5</v>
+      </c>
+      <c r="F14" s="62">
+        <v>115</v>
+      </c>
+      <c r="G14" s="62">
+        <f>E14*F14</f>
+        <v>977.5</v>
+      </c>
+      <c r="H14" s="103">
+        <v>8.5</v>
+      </c>
+      <c r="I14" s="62">
+        <v>3</v>
+      </c>
+      <c r="J14" s="104">
+        <f>(H14-I14)*F14</f>
+        <v>632.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A15" s="65">
+        <v>14</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="91">
+        <v>13.6</v>
+      </c>
+      <c r="F15" s="91">
+        <v>35</v>
+      </c>
+      <c r="G15" s="91">
+        <f>E15*F15</f>
+        <v>476</v>
+      </c>
+      <c r="H15" s="95">
+        <v>13.6</v>
+      </c>
+      <c r="I15" s="91">
+        <v>6</v>
+      </c>
+      <c r="J15" s="93">
+        <f>(H15-I15)*F15</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A16" s="91">
+        <v>15</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="91">
+        <v>0</v>
+      </c>
+      <c r="F16" s="91">
+        <v>135</v>
+      </c>
+      <c r="G16" s="91">
+        <f>E16*F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="95">
+        <v>0</v>
+      </c>
+      <c r="I16" s="91">
+        <v>1</v>
+      </c>
+      <c r="J16" s="93">
+        <f>(H16-I16)*F16</f>
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A17" s="68">
+        <v>16</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="68">
+        <v>75</v>
+      </c>
+      <c r="F17" s="68">
+        <v>10</v>
+      </c>
+      <c r="G17" s="68">
+        <f>E17*F17</f>
+        <v>750</v>
+      </c>
+      <c r="H17" s="131">
+        <v>75</v>
+      </c>
+      <c r="I17" s="68">
+        <v>0</v>
+      </c>
+      <c r="J17" s="132">
+        <f>(H17-I17)*F17</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A18" s="91">
+        <v>17</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="65">
+        <v>49.9</v>
+      </c>
+      <c r="F18" s="91">
+        <v>20</v>
+      </c>
+      <c r="G18" s="91">
+        <f>E18*F18</f>
+        <v>998</v>
+      </c>
+      <c r="H18" s="95">
+        <v>49.9</v>
+      </c>
+      <c r="I18" s="91">
+        <v>0</v>
+      </c>
+      <c r="J18" s="93">
+        <f>(H18-I18)*F18</f>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A19" s="91">
+        <v>18</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="91">
+        <v>7.5</v>
+      </c>
+      <c r="F19" s="91">
+        <v>48</v>
+      </c>
+      <c r="G19" s="91">
+        <f>E19*F19</f>
+        <v>360</v>
+      </c>
+      <c r="H19" s="95">
+        <v>7.5</v>
+      </c>
+      <c r="I19" s="91">
+        <v>0</v>
+      </c>
+      <c r="J19" s="93">
+        <f>(H19-I19)*F19</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A20" s="62">
+        <v>19</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E20" s="62">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F20" s="62">
+        <v>35</v>
+      </c>
+      <c r="G20" s="62">
+        <f>E20*F20</f>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="H20" s="103">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I20" s="62">
+        <v>0</v>
+      </c>
+      <c r="J20" s="104">
+        <f>(H20-I20)*F20</f>
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A21" s="68">
+        <v>20</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="68">
+        <v>3</v>
+      </c>
+      <c r="F21" s="68">
+        <v>100</v>
+      </c>
+      <c r="G21" s="68">
+        <f>E21*F21</f>
+        <v>300</v>
+      </c>
+      <c r="H21" s="131">
+        <v>3</v>
+      </c>
+      <c r="I21" s="68">
+        <v>0</v>
+      </c>
+      <c r="J21" s="132">
+        <f>(H21-I21)*F21</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A22" s="65">
+        <v>21</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="91">
+        <v>25.6</v>
+      </c>
+      <c r="F22" s="91">
+        <v>45</v>
+      </c>
+      <c r="G22" s="91">
+        <f t="shared" si="0"/>
+        <v>1152</v>
+      </c>
+      <c r="H22" s="95">
+        <v>25.6</v>
+      </c>
+      <c r="I22" s="91">
+        <v>27.88</v>
+      </c>
+      <c r="J22" s="92">
+        <f t="shared" si="1"/>
+        <v>-102.59999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A23" s="65">
+        <v>22</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="91">
+        <v>19.32</v>
+      </c>
+      <c r="F23" s="91">
+        <v>180</v>
+      </c>
+      <c r="G23" s="91">
+        <f t="shared" ref="G23" si="2">E23*F23</f>
+        <v>3477.6</v>
+      </c>
+      <c r="H23" s="95">
+        <v>19.32</v>
+      </c>
+      <c r="I23" s="91">
+        <v>21.88</v>
+      </c>
+      <c r="J23" s="92">
+        <f t="shared" ref="J23" si="3">(H23-I23)*F23</f>
+        <v>-460.79999999999978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A24" s="105">
+        <v>23</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24" s="62">
+        <v>49.9</v>
+      </c>
+      <c r="F24" s="62">
+        <v>45</v>
+      </c>
+      <c r="G24" s="62">
+        <f>E24*F24</f>
+        <v>2245.5</v>
+      </c>
+      <c r="H24" s="103">
+        <v>49.9</v>
+      </c>
+      <c r="I24" s="62">
+        <v>54</v>
+      </c>
+      <c r="J24" s="104">
+        <f>(H24-I24)*F24</f>
+        <v>-184.50000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A25" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="129">
+        <f>SUM(J2:J24)</f>
+        <v>-5665.4999999999991</v>
+      </c>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="M25" s="91" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A26" s="130" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="129">
+        <f>H25*0.05</f>
+        <v>-283.27499999999998</v>
+      </c>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+    </row>
+    <row r="27" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A27" s="130" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="129">
+        <f>H25*0.05</f>
+        <v>-283.27499999999998</v>
+      </c>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+    </row>
+    <row r="28" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A28" s="130" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="129">
+        <f>(H25+H26+H27)*0.95</f>
+        <v>-5920.4474999999984</v>
+      </c>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+    </row>
+    <row r="29" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62">
+        <v>2314.884</v>
+      </c>
+      <c r="J29" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="H27:J27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/众臣装修价目表.xlsx
+++ b/众臣装修价目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="众臣副本" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="376">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,14 +1635,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台及厨房排水管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75D/50D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1959,7 +1951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2275,22 +2267,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2308,10 +2294,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2320,23 +2321,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2344,19 +2339,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2655,9 +2653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -2676,42 +2674,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110" t="s">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="109" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
@@ -2730,8 +2728,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -2740,16 +2738,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="54">
@@ -2921,7 +2919,7 @@
         <v>156</v>
       </c>
       <c r="C8" s="28">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>37</v>
@@ -2931,14 +2929,14 @@
       </c>
       <c r="F8" s="54">
         <f t="shared" si="0"/>
-        <v>4895</v>
+        <v>5280</v>
       </c>
       <c r="G8" s="54">
         <v>55</v>
       </c>
       <c r="H8" s="54">
         <f t="shared" si="1"/>
-        <v>4895</v>
+        <v>5280</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="2"/>
@@ -2946,7 +2944,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="3"/>
-        <v>9790</v>
+        <v>10560</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>149</v>
@@ -3215,8 +3213,8 @@
       <c r="B16" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="11">
-        <v>4.2</v>
+      <c r="C16" s="37">
+        <v>4.16</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>37</v>
@@ -3226,14 +3224,14 @@
       </c>
       <c r="F16" s="54">
         <f t="shared" ref="F16" si="9">C16*E16</f>
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G16" s="54">
         <v>80</v>
       </c>
       <c r="H16" s="54">
         <f t="shared" ref="H16" si="10">C16*G16</f>
-        <v>336</v>
+        <v>332.8</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -3241,7 +3239,7 @@
       </c>
       <c r="J16" s="6">
         <f t="shared" si="8"/>
-        <v>756</v>
+        <v>748.80000000000007</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>160</v>
@@ -3470,8 +3468,8 @@
       <c r="B23" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="11">
-        <v>4.5</v>
+      <c r="C23" s="37">
+        <v>4.46</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>37</v>
@@ -3481,14 +3479,14 @@
       </c>
       <c r="F23" s="54">
         <f t="shared" ref="F23" si="16">C23*E23</f>
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G23" s="54">
         <v>80</v>
       </c>
       <c r="H23" s="54">
         <f t="shared" ref="H23" si="17">C23*G23</f>
-        <v>360</v>
+        <v>356.8</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="14"/>
@@ -3496,7 +3494,7 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" si="15"/>
-        <v>810</v>
+        <v>802.8</v>
       </c>
       <c r="K23" s="39" t="s">
         <v>160</v>
@@ -3723,8 +3721,8 @@
       <c r="B30" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="11">
-        <v>4.8</v>
+      <c r="C30" s="37">
+        <v>5.37</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>37</v>
@@ -3734,14 +3732,14 @@
       </c>
       <c r="F30" s="54">
         <f t="shared" ref="F30" si="23">C30*E30</f>
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="G30" s="54">
         <v>80</v>
       </c>
       <c r="H30" s="54">
         <f t="shared" ref="H30" si="24">C30*G30</f>
-        <v>384</v>
+        <v>429.6</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="21"/>
@@ -3749,7 +3747,7 @@
       </c>
       <c r="J30" s="6">
         <f t="shared" si="22"/>
-        <v>864</v>
+        <v>966.6</v>
       </c>
       <c r="K30" s="39" t="s">
         <v>160</v>
@@ -3899,8 +3897,8 @@
       <c r="B35" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="11">
-        <v>6</v>
+      <c r="C35" s="37">
+        <v>5.38</v>
       </c>
       <c r="D35" s="54" t="s">
         <v>37</v>
@@ -3910,14 +3908,14 @@
       </c>
       <c r="F35" s="54">
         <f t="shared" ref="F35" si="27">C35*E35</f>
-        <v>600</v>
+        <v>538</v>
       </c>
       <c r="G35" s="54">
         <v>80</v>
       </c>
       <c r="H35" s="54">
         <f t="shared" ref="H35" si="28">C35*G35</f>
-        <v>480</v>
+        <v>430.4</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="25"/>
@@ -3925,7 +3923,7 @@
       </c>
       <c r="J35" s="6">
         <f t="shared" si="26"/>
-        <v>1080</v>
+        <v>968.4</v>
       </c>
       <c r="K35" s="39" t="s">
         <v>160</v>
@@ -4171,7 +4169,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E43" s="54">
         <v>2</v>
@@ -5344,7 +5342,7 @@
         <f t="shared" si="41"/>
         <v>11638.5</v>
       </c>
-      <c r="K72" s="114" t="s">
+      <c r="K72" s="112" t="s">
         <v>240</v>
       </c>
       <c r="L72" s="30" t="s">
@@ -5386,7 +5384,7 @@
         <f t="shared" si="41"/>
         <v>228.79999999999998</v>
       </c>
-      <c r="K73" s="114"/>
+      <c r="K73" s="112"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="54">
@@ -5423,7 +5421,7 @@
         <f t="shared" si="41"/>
         <v>469</v>
       </c>
-      <c r="K74" s="114"/>
+      <c r="K74" s="112"/>
     </row>
     <row r="75" spans="1:12" ht="24.95" customHeight="1">
       <c r="A75" s="54">
@@ -5460,7 +5458,7 @@
         <f t="shared" si="41"/>
         <v>549</v>
       </c>
-      <c r="K75" s="114"/>
+      <c r="K75" s="112"/>
     </row>
     <row r="76" spans="1:12" ht="24.95" customHeight="1">
       <c r="A76" s="54">
@@ -5696,99 +5694,99 @@
       <c r="L81" s="31"/>
     </row>
     <row r="82" spans="1:12" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A82" s="115" t="s">
+      <c r="A82" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
       <c r="F82" s="19">
         <f>SUM(F4:F81)</f>
-        <v>47180.549999999996</v>
+        <v>47552.549999999996</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="19">
         <f>SUM(H4:H81)</f>
-        <v>43546.850000000006</v>
+        <v>43921.450000000004</v>
       </c>
       <c r="I82" s="49"/>
       <c r="J82" s="21">
         <f>SUM(J4:J81)</f>
-        <v>90727.400000000009</v>
+        <v>91474</v>
       </c>
       <c r="K82" s="41"/>
       <c r="L82" s="48"/>
     </row>
     <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A83" s="107" t="s">
+      <c r="A83" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
+      <c r="E83" s="116"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="49"/>
       <c r="J83" s="21">
         <f>J82*0.05</f>
-        <v>4536.3700000000008</v>
+        <v>4573.7</v>
       </c>
       <c r="K83" s="41"/>
     </row>
     <row r="84" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A84" s="107" t="s">
+      <c r="A84" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="107"/>
-      <c r="E84" s="107"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="116"/>
+      <c r="D84" s="116"/>
+      <c r="E84" s="116"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="49"/>
       <c r="J84" s="21">
         <f>J82*0.05</f>
-        <v>4536.3700000000008</v>
+        <v>4573.7</v>
       </c>
       <c r="K84" s="41"/>
     </row>
     <row r="85" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A85" s="108" t="s">
+      <c r="A85" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="108"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="108"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
       <c r="I85" s="50"/>
       <c r="J85" s="26">
         <f>SUM(J82:J84)</f>
-        <v>99800.14</v>
+        <v>100621.4</v>
       </c>
       <c r="K85" s="42"/>
     </row>
     <row r="86" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A86" s="109" t="s">
+      <c r="A86" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="109"/>
-      <c r="C86" s="109"/>
-      <c r="D86" s="109"/>
-      <c r="E86" s="109"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="29"/>
       <c r="J86" s="23">
         <f>J85*0.95</f>
-        <v>94810.133000000002</v>
+        <v>95590.329999999987</v>
       </c>
       <c r="K86" s="43"/>
     </row>
@@ -5810,6 +5808,11 @@
   </sheetData>
   <autoFilter ref="A2:L86"/>
   <mergeCells count="16">
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -5821,11 +5824,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5838,8 +5836,8 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -5858,42 +5856,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110" t="s">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="109" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="59" t="s">
         <v>5</v>
       </c>
@@ -5912,8 +5910,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -5922,16 +5920,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="56">
@@ -8486,7 +8484,7 @@
         <f t="shared" si="45"/>
         <v>6450</v>
       </c>
-      <c r="K70" s="114" t="s">
+      <c r="K70" s="112" t="s">
         <v>240</v>
       </c>
       <c r="L70" s="30" t="s">
@@ -8528,7 +8526,7 @@
         <f t="shared" si="45"/>
         <v>400</v>
       </c>
-      <c r="K71" s="114"/>
+      <c r="K71" s="112"/>
     </row>
     <row r="72" spans="1:12" ht="24.95" customHeight="1">
       <c r="A72" s="56">
@@ -8565,7 +8563,7 @@
         <f t="shared" si="45"/>
         <v>420</v>
       </c>
-      <c r="K72" s="114"/>
+      <c r="K72" s="112"/>
     </row>
     <row r="73" spans="1:12" ht="24.95" customHeight="1">
       <c r="A73" s="56">
@@ -8602,7 +8600,7 @@
         <f t="shared" si="45"/>
         <v>600</v>
       </c>
-      <c r="K73" s="114"/>
+      <c r="K73" s="112"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="56">
@@ -8763,13 +8761,13 @@
       <c r="L77" s="31"/>
     </row>
     <row r="78" spans="1:12" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A78" s="115" t="s">
+      <c r="A78" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="113"/>
       <c r="F78" s="19">
         <f>SUM(F4:F77)</f>
         <v>46797.8</v>
@@ -8788,13 +8786,13 @@
       <c r="L78" s="99"/>
     </row>
     <row r="79" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A79" s="107" t="s">
+      <c r="A79" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
@@ -8806,13 +8804,13 @@
       <c r="K79" s="41"/>
     </row>
     <row r="80" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A80" s="107" t="s">
+      <c r="A80" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="107"/>
-      <c r="E80" s="107"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="116"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
@@ -8824,13 +8822,13 @@
       <c r="K80" s="41"/>
     </row>
     <row r="81" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A81" s="108" t="s">
+      <c r="A81" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="108"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="108"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="117"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
@@ -8844,13 +8842,13 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
+      <c r="B82" s="118"/>
+      <c r="C82" s="118"/>
+      <c r="D82" s="118"/>
+      <c r="E82" s="118"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
@@ -9068,6 +9066,12 @@
   </sheetData>
   <autoFilter ref="A2:L82"/>
   <mergeCells count="16">
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="A78:E78"/>
@@ -9078,12 +9082,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9117,39 +9115,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110" t="s">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="109" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -9168,7 +9166,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="112"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -9177,15 +9175,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -11603,10 +11601,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="117" t="s">
+      <c r="A75" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="117"/>
+      <c r="B75" s="119"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -12561,13 +12559,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="115" t="s">
+      <c r="A102" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="115"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>65990.500000000015</v>
@@ -12585,13 +12583,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="107" t="s">
+      <c r="A103" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="107"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="116"/>
+      <c r="E103" s="116"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -12602,13 +12600,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="107" t="s">
+      <c r="A104" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="107"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -12619,13 +12617,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="108" t="s">
+      <c r="A105" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="108"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -12636,13 +12634,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="109" t="s">
+      <c r="A106" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="109"/>
-      <c r="C106" s="109"/>
-      <c r="D106" s="109"/>
-      <c r="E106" s="109"/>
+      <c r="B106" s="118"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="118"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -12702,39 +12700,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110" t="s">
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110" t="s">
+      <c r="H1" s="114"/>
+      <c r="I1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="109" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -12753,7 +12751,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="112"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -12762,15 +12760,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -15188,10 +15186,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="117" t="s">
+      <c r="A75" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="117"/>
+      <c r="B75" s="119"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -16146,13 +16144,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="115" t="s">
+      <c r="A102" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="115"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>80990.500000000015</v>
@@ -16170,13 +16168,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="107" t="s">
+      <c r="A103" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="107"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="116"/>
+      <c r="E103" s="116"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -16187,13 +16185,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="107" t="s">
+      <c r="A104" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="107"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -16204,13 +16202,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="108" t="s">
+      <c r="A105" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="108"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -16221,13 +16219,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="109" t="s">
+      <c r="A106" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="109"/>
-      <c r="C106" s="109"/>
-      <c r="D106" s="109"/>
-      <c r="E106" s="109"/>
+      <c r="B106" s="118"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="118"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -16239,6 +16237,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="A75:B75"/>
@@ -16249,11 +16252,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16315,7 +16313,7 @@
       <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="121" t="s">
         <v>271</v>
       </c>
       <c r="C2" s="64" t="s">
@@ -16350,7 +16348,7 @@
       <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="118"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="120" t="s">
         <v>259</v>
       </c>
@@ -16383,7 +16381,7 @@
       <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="118"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="120"/>
       <c r="D4" s="64">
         <v>1</v>
@@ -16414,7 +16412,7 @@
       <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="118"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="120" t="s">
         <v>257</v>
       </c>
@@ -16447,7 +16445,7 @@
       <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="120"/>
       <c r="D6" s="64">
         <v>1</v>
@@ -16478,7 +16476,7 @@
       <c r="A7" s="63">
         <v>6</v>
       </c>
-      <c r="B7" s="118"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="120"/>
       <c r="D7" s="64">
         <v>1</v>
@@ -16509,7 +16507,7 @@
       <c r="A8" s="63">
         <v>7</v>
       </c>
-      <c r="B8" s="118"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="64" t="s">
         <v>261</v>
       </c>
@@ -16542,7 +16540,7 @@
       <c r="A9" s="63">
         <v>8</v>
       </c>
-      <c r="B9" s="118"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="64" t="s">
         <v>260</v>
       </c>
@@ -16575,7 +16573,7 @@
       <c r="A10" s="63">
         <v>9</v>
       </c>
-      <c r="B10" s="118"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="120" t="s">
         <v>266</v>
       </c>
@@ -16608,7 +16606,7 @@
       <c r="A11" s="63">
         <v>10</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="120"/>
       <c r="D11" s="64">
         <v>1</v>
@@ -16639,7 +16637,7 @@
       <c r="A12" s="63">
         <v>11</v>
       </c>
-      <c r="B12" s="118"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="64" t="s">
         <v>268</v>
       </c>
@@ -16658,7 +16656,7 @@
       <c r="A13" s="63">
         <v>12</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="121" t="s">
         <v>269</v>
       </c>
       <c r="C13" s="120" t="s">
@@ -16693,7 +16691,7 @@
       <c r="A14" s="63">
         <v>13</v>
       </c>
-      <c r="B14" s="118"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="120"/>
       <c r="D14" s="64">
         <v>1</v>
@@ -16724,7 +16722,7 @@
       <c r="A15" s="63">
         <v>14</v>
       </c>
-      <c r="B15" s="118"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="120"/>
       <c r="D15" s="64">
         <v>1</v>
@@ -16755,7 +16753,7 @@
       <c r="A16" s="63">
         <v>15</v>
       </c>
-      <c r="B16" s="118"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="64" t="s">
         <v>268</v>
       </c>
@@ -16774,7 +16772,7 @@
       <c r="A17" s="63">
         <v>16</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="121" t="s">
         <v>273</v>
       </c>
       <c r="C17" s="64" t="s">
@@ -16809,7 +16807,7 @@
       <c r="A18" s="63">
         <v>17</v>
       </c>
-      <c r="B18" s="118"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="64" t="s">
         <v>274</v>
       </c>
@@ -16842,7 +16840,7 @@
       <c r="A19" s="63">
         <v>18</v>
       </c>
-      <c r="B19" s="118"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="64" t="s">
         <v>280</v>
       </c>
@@ -16875,7 +16873,7 @@
       <c r="A20" s="63">
         <v>19</v>
       </c>
-      <c r="B20" s="118"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="64" t="s">
         <v>275</v>
       </c>
@@ -16908,7 +16906,7 @@
       <c r="A21" s="63">
         <v>20</v>
       </c>
-      <c r="B21" s="118"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="64" t="s">
         <v>276</v>
       </c>
@@ -16941,7 +16939,7 @@
       <c r="A22" s="63">
         <v>21</v>
       </c>
-      <c r="B22" s="118"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="64" t="s">
         <v>278</v>
       </c>
@@ -16974,7 +16972,7 @@
       <c r="A23" s="63">
         <v>22</v>
       </c>
-      <c r="B23" s="118"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="64" t="s">
         <v>279</v>
       </c>
@@ -17007,7 +17005,7 @@
       <c r="A24" s="63">
         <v>23</v>
       </c>
-      <c r="B24" s="118"/>
+      <c r="B24" s="121"/>
       <c r="C24" s="64" t="s">
         <v>277</v>
       </c>
@@ -17040,7 +17038,7 @@
       <c r="A25" s="63">
         <v>24</v>
       </c>
-      <c r="B25" s="118"/>
+      <c r="B25" s="121"/>
       <c r="C25" s="64" t="s">
         <v>267</v>
       </c>
@@ -17059,7 +17057,7 @@
       <c r="A26" s="63">
         <v>25</v>
       </c>
-      <c r="B26" s="118"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="64" t="s">
         <v>268</v>
       </c>
@@ -17075,21 +17073,21 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="122" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="118">
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="121">
         <f>SUM(J2:J26)-2.149-20</f>
         <v>2076</v>
       </c>
-      <c r="J27" s="118"/>
+      <c r="J27" s="121"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1">
       <c r="A28" s="63">
@@ -17103,35 +17101,35 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="118">
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="121">
         <f>I27+J28</f>
         <v>2776</v>
       </c>
-      <c r="J29" s="118"/>
+      <c r="J29" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A29:H29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -17234,7 +17232,7 @@
       <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="129" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="65" t="s">
@@ -17290,7 +17288,7 @@
       <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="122"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="65" t="s">
         <v>287</v>
       </c>
@@ -17346,7 +17344,7 @@
       <c r="A4" s="69">
         <v>3</v>
       </c>
-      <c r="B4" s="123"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="75" t="s">
         <v>305</v>
       </c>
@@ -17414,7 +17412,7 @@
       <c r="A5" s="63">
         <v>1</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="126" t="s">
         <v>300</v>
       </c>
       <c r="C5" s="120" t="s">
@@ -17474,7 +17472,7 @@
       <c r="A6" s="63">
         <v>2</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="120"/>
       <c r="D6" s="64">
         <v>1460</v>
@@ -17530,7 +17528,7 @@
       <c r="A7" s="63">
         <v>3</v>
       </c>
-      <c r="B7" s="122"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="120"/>
       <c r="D7" s="64">
         <v>2380</v>
@@ -17586,7 +17584,7 @@
       <c r="A8" s="63">
         <v>4</v>
       </c>
-      <c r="B8" s="122"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="120" t="s">
         <v>286</v>
       </c>
@@ -17644,7 +17642,7 @@
       <c r="A9" s="63">
         <v>5</v>
       </c>
-      <c r="B9" s="122"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="120"/>
       <c r="D9" s="64">
         <v>4360</v>
@@ -17700,7 +17698,7 @@
       <c r="A10" s="63">
         <v>6</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="120"/>
       <c r="D10" s="64">
         <v>3915</v>
@@ -17756,7 +17754,7 @@
       <c r="A11" s="63">
         <v>7</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="120" t="s">
         <v>287</v>
       </c>
@@ -17814,7 +17812,7 @@
       <c r="A12" s="63">
         <v>8</v>
       </c>
-      <c r="B12" s="122"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="120"/>
       <c r="D12" s="64">
         <v>1045</v>
@@ -17870,7 +17868,7 @@
       <c r="A13" s="63">
         <v>9</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="120"/>
       <c r="D13" s="64">
         <v>7840</v>
@@ -17926,7 +17924,7 @@
       <c r="A14" s="63">
         <v>10</v>
       </c>
-      <c r="B14" s="122"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="120" t="s">
         <v>288</v>
       </c>
@@ -17984,7 +17982,7 @@
       <c r="A15" s="63">
         <v>11</v>
       </c>
-      <c r="B15" s="122"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="120"/>
       <c r="D15" s="64">
         <v>3090</v>
@@ -18040,8 +18038,8 @@
       <c r="A16" s="66">
         <v>12</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="128"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="67">
         <v>3010</v>
       </c>
@@ -18096,7 +18094,7 @@
       <c r="A17" s="70">
         <v>13</v>
       </c>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="128" t="s">
         <v>289</v>
       </c>
       <c r="C17" s="71" t="s">
@@ -18154,7 +18152,7 @@
       <c r="A18" s="63">
         <v>14</v>
       </c>
-      <c r="B18" s="122"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="64" t="s">
         <v>261</v>
       </c>
@@ -18210,7 +18208,7 @@
       <c r="A19" s="63">
         <v>15</v>
       </c>
-      <c r="B19" s="122"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="64" t="s">
         <v>286</v>
       </c>
@@ -18266,7 +18264,7 @@
       <c r="A20" s="63">
         <v>16</v>
       </c>
-      <c r="B20" s="122"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="64" t="s">
         <v>275</v>
       </c>
@@ -18322,7 +18320,7 @@
       <c r="A21" s="63">
         <v>17</v>
       </c>
-      <c r="B21" s="122"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="64" t="s">
         <v>278</v>
       </c>
@@ -18380,7 +18378,7 @@
       <c r="A22" s="63">
         <v>18</v>
       </c>
-      <c r="B22" s="122"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="64" t="s">
         <v>270</v>
       </c>
@@ -18436,7 +18434,7 @@
       <c r="A23" s="63">
         <v>19</v>
       </c>
-      <c r="B23" s="122"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="64" t="s">
         <v>276</v>
       </c>
@@ -18492,7 +18490,7 @@
       <c r="A24" s="63">
         <v>20</v>
       </c>
-      <c r="B24" s="122"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="64" t="s">
         <v>290</v>
       </c>
@@ -18513,27 +18511,27 @@
         <f t="shared" si="12"/>
         <v>-88.935000000000002</v>
       </c>
-      <c r="M24" s="130" t="s">
+      <c r="M24" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="129">
+      <c r="N24" s="124"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="124"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="123">
         <f>SUM(V3:V23)</f>
         <v>-5944.6999999999989</v>
       </c>
-      <c r="U24" s="129"/>
-      <c r="V24" s="129"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
     </row>
     <row r="25" spans="1:22" ht="24.95" customHeight="1">
       <c r="A25" s="66">
         <v>21</v>
       </c>
-      <c r="B25" s="126"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="67" t="s">
         <v>258</v>
       </c>
@@ -18554,21 +18552,21 @@
         <f t="shared" ref="H25:H26" si="13">F25*G25</f>
         <v>-184.78899999999999</v>
       </c>
-      <c r="M25" s="130" t="s">
+      <c r="M25" s="124" t="s">
         <v>363</v>
       </c>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="129">
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="123">
         <f>T24*0.05</f>
         <v>-297.23499999999996</v>
       </c>
-      <c r="U25" s="129"/>
-      <c r="V25" s="129"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="123"/>
     </row>
     <row r="26" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
       <c r="A26" s="73">
@@ -18607,27 +18605,27 @@
         <f>(I26-J26)*G26</f>
         <v>-1760</v>
       </c>
-      <c r="M26" s="130" t="s">
+      <c r="M26" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="129">
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="124"/>
+      <c r="S26" s="124"/>
+      <c r="T26" s="123">
         <f>T24*0.05</f>
         <v>-297.23499999999996</v>
       </c>
-      <c r="U26" s="129"/>
-      <c r="V26" s="129"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="123"/>
     </row>
     <row r="27" spans="1:22" ht="24.95" customHeight="1">
       <c r="A27" s="76">
         <v>1</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="129" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="77" t="s">
@@ -18645,27 +18643,27 @@
         <f>D27*G27</f>
         <v>195</v>
       </c>
-      <c r="M27" s="130" t="s">
+      <c r="M27" s="124" t="s">
         <v>362</v>
       </c>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="129">
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="124"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="124"/>
+      <c r="T27" s="123">
         <f>(T24+T25+T26)*0.95</f>
         <v>-6212.2114999999976</v>
       </c>
-      <c r="U27" s="129"/>
-      <c r="V27" s="129"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="123"/>
     </row>
     <row r="28" spans="1:22" ht="24.95" customHeight="1" thickBot="1">
       <c r="A28" s="69">
         <v>2</v>
       </c>
-      <c r="B28" s="123"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="78" t="s">
         <v>294</v>
       </c>
@@ -18696,7 +18694,7 @@
       <c r="A29" s="76">
         <v>1</v>
       </c>
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="129" t="s">
         <v>298</v>
       </c>
       <c r="C29" s="77" t="s">
@@ -18724,7 +18722,7 @@
       <c r="A30" s="63">
         <v>2</v>
       </c>
-      <c r="B30" s="122"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="64" t="s">
         <v>296</v>
       </c>
@@ -18750,7 +18748,7 @@
       <c r="A31" s="63">
         <v>3</v>
       </c>
-      <c r="B31" s="122"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="64" t="s">
         <v>297</v>
       </c>
@@ -18776,7 +18774,7 @@
       <c r="A32" s="69">
         <v>4</v>
       </c>
-      <c r="B32" s="123"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="78" t="s">
         <v>258</v>
       </c>
@@ -18812,7 +18810,7 @@
       <c r="A33" s="76">
         <v>1</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="129" t="s">
         <v>299</v>
       </c>
       <c r="C33" s="77" t="s">
@@ -18840,7 +18838,7 @@
       <c r="A34" s="63">
         <v>2</v>
       </c>
-      <c r="B34" s="122"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="64" t="s">
         <v>296</v>
       </c>
@@ -18866,7 +18864,7 @@
       <c r="A35" s="63">
         <v>3</v>
       </c>
-      <c r="B35" s="122"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="64" t="s">
         <v>297</v>
       </c>
@@ -18892,7 +18890,7 @@
       <c r="A36" s="66">
         <v>4</v>
       </c>
-      <c r="B36" s="126"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="67" t="s">
         <v>258</v>
       </c>
@@ -18918,7 +18916,7 @@
       <c r="A37" s="63">
         <v>5</v>
       </c>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="126" t="s">
         <v>289</v>
       </c>
       <c r="C37" s="64" t="s">
@@ -18946,7 +18944,7 @@
       <c r="A38" s="63">
         <v>6</v>
       </c>
-      <c r="B38" s="122"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="64" t="s">
         <v>296</v>
       </c>
@@ -18975,7 +18973,7 @@
       <c r="A39" s="63">
         <v>7</v>
       </c>
-      <c r="B39" s="122"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="64" t="s">
         <v>297</v>
       </c>
@@ -19004,7 +19002,7 @@
       <c r="A40" s="66">
         <v>8</v>
       </c>
-      <c r="B40" s="126"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="67" t="s">
         <v>258</v>
       </c>
@@ -19033,7 +19031,7 @@
       <c r="A41" s="63">
         <v>9</v>
       </c>
-      <c r="B41" s="127" t="s">
+      <c r="B41" s="128" t="s">
         <v>291</v>
       </c>
       <c r="C41" s="64" t="s">
@@ -19065,7 +19063,7 @@
       <c r="A42" s="63">
         <v>10</v>
       </c>
-      <c r="B42" s="122"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="64" t="s">
         <v>296</v>
       </c>
@@ -19095,7 +19093,7 @@
       <c r="A43" s="63">
         <v>11</v>
       </c>
-      <c r="B43" s="122"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="64" t="s">
         <v>297</v>
       </c>
@@ -19125,7 +19123,7 @@
       <c r="A44" s="69">
         <v>12</v>
       </c>
-      <c r="B44" s="123"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="78" t="s">
         <v>258</v>
       </c>
@@ -19162,7 +19160,7 @@
       <c r="A45" s="76">
         <v>1</v>
       </c>
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="129" t="s">
         <v>308</v>
       </c>
       <c r="C45" s="77" t="s">
@@ -19194,7 +19192,7 @@
       <c r="A46" s="63">
         <v>2</v>
       </c>
-      <c r="B46" s="122"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="64" t="s">
         <v>310</v>
       </c>
@@ -19224,7 +19222,7 @@
       <c r="A47" s="63">
         <v>3</v>
       </c>
-      <c r="B47" s="122"/>
+      <c r="B47" s="126"/>
       <c r="C47" s="64" t="s">
         <v>311</v>
       </c>
@@ -19254,7 +19252,7 @@
       <c r="A48" s="63">
         <v>4</v>
       </c>
-      <c r="B48" s="122"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="64" t="s">
         <v>312</v>
       </c>
@@ -19284,7 +19282,7 @@
       <c r="A49" s="63">
         <v>5</v>
       </c>
-      <c r="B49" s="122"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="64" t="s">
         <v>317</v>
       </c>
@@ -19314,7 +19312,7 @@
       <c r="A50" s="63">
         <v>6</v>
       </c>
-      <c r="B50" s="122"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="64" t="s">
         <v>313</v>
       </c>
@@ -19344,7 +19342,7 @@
       <c r="A51" s="63">
         <v>7</v>
       </c>
-      <c r="B51" s="122"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="64" t="s">
         <v>314</v>
       </c>
@@ -19374,7 +19372,7 @@
       <c r="A52" s="63">
         <v>8</v>
       </c>
-      <c r="B52" s="122"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="64" t="s">
         <v>315</v>
       </c>
@@ -19404,7 +19402,7 @@
       <c r="A53" s="63">
         <v>9</v>
       </c>
-      <c r="B53" s="122"/>
+      <c r="B53" s="126"/>
       <c r="C53" s="64" t="s">
         <v>316</v>
       </c>
@@ -19434,7 +19432,7 @@
       <c r="A54" s="63">
         <v>10</v>
       </c>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="126" t="s">
         <v>289</v>
       </c>
       <c r="C54" s="64" t="s">
@@ -19462,7 +19460,7 @@
       <c r="A55" s="63">
         <v>11</v>
       </c>
-      <c r="B55" s="122"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="64" t="s">
         <v>296</v>
       </c>
@@ -19491,7 +19489,7 @@
       <c r="A56" s="63">
         <v>12</v>
       </c>
-      <c r="B56" s="122"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="64" t="s">
         <v>297</v>
       </c>
@@ -19520,7 +19518,7 @@
       <c r="A57" s="63">
         <v>13</v>
       </c>
-      <c r="B57" s="122"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="64" t="s">
         <v>258</v>
       </c>
@@ -19549,7 +19547,7 @@
       <c r="A58" s="63">
         <v>14</v>
       </c>
-      <c r="B58" s="122" t="s">
+      <c r="B58" s="126" t="s">
         <v>291</v>
       </c>
       <c r="C58" s="64" t="s">
@@ -19581,7 +19579,7 @@
       <c r="A59" s="63">
         <v>15</v>
       </c>
-      <c r="B59" s="122"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="64" t="s">
         <v>296</v>
       </c>
@@ -19611,7 +19609,7 @@
       <c r="A60" s="63">
         <v>16</v>
       </c>
-      <c r="B60" s="122"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="64" t="s">
         <v>297</v>
       </c>
@@ -19641,7 +19639,7 @@
       <c r="A61" s="69">
         <v>17</v>
       </c>
-      <c r="B61" s="123"/>
+      <c r="B61" s="130"/>
       <c r="C61" s="78" t="s">
         <v>258</v>
       </c>
@@ -19678,7 +19676,7 @@
       <c r="A62" s="62">
         <v>1</v>
       </c>
-      <c r="B62" s="121" t="s">
+      <c r="B62" s="129" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="61" t="s">
@@ -19706,7 +19704,7 @@
       <c r="A63" s="62">
         <v>2</v>
       </c>
-      <c r="B63" s="122"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="61" t="s">
         <v>320</v>
       </c>
@@ -19732,7 +19730,7 @@
       <c r="A64" s="62">
         <v>3</v>
       </c>
-      <c r="B64" s="122"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="61" t="s">
         <v>321</v>
       </c>
@@ -19758,8 +19756,8 @@
       <c r="A65" s="62">
         <v>4</v>
       </c>
-      <c r="B65" s="122"/>
-      <c r="C65" s="125" t="s">
+      <c r="B65" s="126"/>
+      <c r="C65" s="131" t="s">
         <v>261</v>
       </c>
       <c r="D65" s="61">
@@ -19784,8 +19782,8 @@
       <c r="A66" s="62">
         <v>5</v>
       </c>
-      <c r="B66" s="122"/>
-      <c r="C66" s="125"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="131"/>
       <c r="D66" s="61">
         <v>11204</v>
       </c>
@@ -19808,7 +19806,7 @@
       <c r="A67" s="62">
         <v>6</v>
       </c>
-      <c r="B67" s="122"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="61" t="s">
         <v>286</v>
       </c>
@@ -19834,7 +19832,7 @@
       <c r="A68" s="62">
         <v>7</v>
       </c>
-      <c r="B68" s="122"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="61" t="s">
         <v>288</v>
       </c>
@@ -19860,7 +19858,7 @@
       <c r="A69" s="62">
         <v>8</v>
       </c>
-      <c r="B69" s="122"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="61" t="s">
         <v>257</v>
       </c>
@@ -19886,8 +19884,8 @@
       <c r="A70" s="62">
         <v>9</v>
       </c>
-      <c r="B70" s="122"/>
-      <c r="C70" s="125" t="s">
+      <c r="B70" s="126"/>
+      <c r="C70" s="131" t="s">
         <v>275</v>
       </c>
       <c r="D70" s="61">
@@ -19912,8 +19910,8 @@
       <c r="A71" s="62">
         <v>10</v>
       </c>
-      <c r="B71" s="122"/>
-      <c r="C71" s="125"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="131"/>
       <c r="D71" s="61">
         <v>13370</v>
       </c>
@@ -19936,8 +19934,8 @@
       <c r="A72" s="62">
         <v>11</v>
       </c>
-      <c r="B72" s="122"/>
-      <c r="C72" s="125" t="s">
+      <c r="B72" s="126"/>
+      <c r="C72" s="131" t="s">
         <v>276</v>
       </c>
       <c r="D72" s="61">
@@ -19962,8 +19960,8 @@
       <c r="A73" s="62">
         <v>12</v>
       </c>
-      <c r="B73" s="122"/>
-      <c r="C73" s="125"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="131"/>
       <c r="D73" s="61">
         <v>12680</v>
       </c>
@@ -19986,8 +19984,8 @@
       <c r="A74" s="62">
         <v>13</v>
       </c>
-      <c r="B74" s="122"/>
-      <c r="C74" s="125" t="s">
+      <c r="B74" s="126"/>
+      <c r="C74" s="131" t="s">
         <v>278</v>
       </c>
       <c r="D74" s="61">
@@ -20012,8 +20010,8 @@
       <c r="A75" s="62">
         <v>14</v>
       </c>
-      <c r="B75" s="122"/>
-      <c r="C75" s="125"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="131"/>
       <c r="D75" s="61">
         <v>10320</v>
       </c>
@@ -20036,8 +20034,8 @@
       <c r="A76" s="62">
         <v>15</v>
       </c>
-      <c r="B76" s="122"/>
-      <c r="C76" s="125" t="s">
+      <c r="B76" s="126"/>
+      <c r="C76" s="131" t="s">
         <v>270</v>
       </c>
       <c r="D76" s="61">
@@ -20062,8 +20060,8 @@
       <c r="A77" s="62">
         <v>16</v>
       </c>
-      <c r="B77" s="122"/>
-      <c r="C77" s="125"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="131"/>
       <c r="D77" s="61">
         <v>14814</v>
       </c>
@@ -20086,8 +20084,8 @@
       <c r="A78" s="62">
         <v>17</v>
       </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="125" t="s">
+      <c r="B78" s="126"/>
+      <c r="C78" s="131" t="s">
         <v>322</v>
       </c>
       <c r="D78" s="61">
@@ -20112,8 +20110,8 @@
       <c r="A79" s="62">
         <v>18</v>
       </c>
-      <c r="B79" s="122"/>
-      <c r="C79" s="125"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="131"/>
       <c r="D79" s="61">
         <v>6144</v>
       </c>
@@ -20136,7 +20134,7 @@
       <c r="A80" s="62">
         <v>19</v>
       </c>
-      <c r="B80" s="124" t="s">
+      <c r="B80" s="132" t="s">
         <v>289</v>
       </c>
       <c r="C80" s="61" t="s">
@@ -20164,7 +20162,7 @@
       <c r="A81" s="62">
         <v>20</v>
       </c>
-      <c r="B81" s="124"/>
+      <c r="B81" s="132"/>
       <c r="C81" s="61" t="s">
         <v>275</v>
       </c>
@@ -20190,7 +20188,7 @@
       <c r="A82" s="62">
         <v>21</v>
       </c>
-      <c r="B82" s="124"/>
+      <c r="B82" s="132"/>
       <c r="C82" s="61" t="s">
         <v>276</v>
       </c>
@@ -20216,7 +20214,7 @@
       <c r="A83" s="62">
         <v>22</v>
       </c>
-      <c r="B83" s="124"/>
+      <c r="B83" s="132"/>
       <c r="C83" s="61" t="s">
         <v>278</v>
       </c>
@@ -20242,7 +20240,7 @@
       <c r="A84" s="62">
         <v>23</v>
       </c>
-      <c r="B84" s="124"/>
+      <c r="B84" s="132"/>
       <c r="C84" s="61" t="s">
         <v>270</v>
       </c>
@@ -20268,7 +20266,7 @@
       <c r="A85" s="62">
         <v>24</v>
       </c>
-      <c r="B85" s="124"/>
+      <c r="B85" s="132"/>
       <c r="C85" s="61" t="s">
         <v>322</v>
       </c>
@@ -20294,7 +20292,7 @@
       <c r="A86" s="63">
         <v>25</v>
       </c>
-      <c r="B86" s="122" t="s">
+      <c r="B86" s="126" t="s">
         <v>291</v>
       </c>
       <c r="C86" s="64" t="s">
@@ -20325,7 +20323,7 @@
       <c r="A87" s="63">
         <v>26</v>
       </c>
-      <c r="B87" s="122"/>
+      <c r="B87" s="126"/>
       <c r="C87" s="64" t="s">
         <v>275</v>
       </c>
@@ -20354,7 +20352,7 @@
       <c r="A88" s="63">
         <v>27</v>
       </c>
-      <c r="B88" s="122"/>
+      <c r="B88" s="126"/>
       <c r="C88" s="64" t="s">
         <v>276</v>
       </c>
@@ -20383,7 +20381,7 @@
       <c r="A89" s="63">
         <v>28</v>
       </c>
-      <c r="B89" s="122"/>
+      <c r="B89" s="126"/>
       <c r="C89" s="64" t="s">
         <v>278</v>
       </c>
@@ -20412,7 +20410,7 @@
       <c r="A90" s="69">
         <v>29</v>
       </c>
-      <c r="B90" s="123"/>
+      <c r="B90" s="130"/>
       <c r="C90" s="78" t="s">
         <v>270</v>
       </c>
@@ -20448,7 +20446,7 @@
       <c r="A91" s="63">
         <v>1</v>
       </c>
-      <c r="B91" s="122" t="s">
+      <c r="B91" s="126" t="s">
         <v>324</v>
       </c>
       <c r="C91" s="64" t="s">
@@ -20479,7 +20477,7 @@
       <c r="A92" s="63">
         <v>2</v>
       </c>
-      <c r="B92" s="122"/>
+      <c r="B92" s="126"/>
       <c r="C92" s="64" t="s">
         <v>296</v>
       </c>
@@ -20508,7 +20506,7 @@
       <c r="A93" s="69">
         <v>3</v>
       </c>
-      <c r="B93" s="123"/>
+      <c r="B93" s="130"/>
       <c r="C93" s="78" t="s">
         <v>297</v>
       </c>
@@ -20606,7 +20604,7 @@
       <c r="A96" s="76">
         <v>1</v>
       </c>
-      <c r="B96" s="121" t="s">
+      <c r="B96" s="129" t="s">
         <v>327</v>
       </c>
       <c r="C96" s="77" t="s">
@@ -20637,7 +20635,7 @@
       <c r="A97" s="63">
         <v>2</v>
       </c>
-      <c r="B97" s="122"/>
+      <c r="B97" s="126"/>
       <c r="C97" s="64" t="s">
         <v>329</v>
       </c>
@@ -20666,7 +20664,7 @@
       <c r="A98" s="63">
         <v>3</v>
       </c>
-      <c r="B98" s="122"/>
+      <c r="B98" s="126"/>
       <c r="C98" s="64" t="s">
         <v>294</v>
       </c>
@@ -20695,7 +20693,7 @@
       <c r="A99" s="69">
         <v>4</v>
       </c>
-      <c r="B99" s="123"/>
+      <c r="B99" s="130"/>
       <c r="C99" s="78" t="s">
         <v>307</v>
       </c>
@@ -20748,7 +20746,7 @@
       <c r="A101" s="76">
         <v>1</v>
       </c>
-      <c r="B101" s="121" t="s">
+      <c r="B101" s="129" t="s">
         <v>333</v>
       </c>
       <c r="C101" s="77" t="s">
@@ -20781,7 +20779,7 @@
       <c r="A102" s="63">
         <v>2</v>
       </c>
-      <c r="B102" s="122"/>
+      <c r="B102" s="126"/>
       <c r="C102" s="64" t="s">
         <v>331</v>
       </c>
@@ -20812,7 +20810,7 @@
       <c r="A103" s="69">
         <v>3</v>
       </c>
-      <c r="B103" s="123"/>
+      <c r="B103" s="130"/>
       <c r="C103" s="78" t="s">
         <v>332</v>
       </c>
@@ -20841,24 +20839,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B86:B90"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="B62:B79"/>
     <mergeCell ref="B37:B40"/>
@@ -20871,11 +20856,24 @@
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:V25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20889,7 +20887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -20905,7 +20903,7 @@
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="105" t="s">
         <v>252</v>
       </c>
       <c r="C1" s="69" t="s">
@@ -21583,75 +21581,75 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="129">
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="123">
         <f>SUM(J2:J21)</f>
         <v>-3564.6999999999989</v>
       </c>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
       <c r="M22" s="91" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="124" t="s">
         <v>363</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="129">
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="123">
         <f>H22*0.05</f>
         <v>-178.23499999999996</v>
       </c>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="124" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="129">
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="123">
         <f>H22*0.05</f>
         <v>-178.23499999999996</v>
       </c>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
     </row>
     <row r="25" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="124" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="129">
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="123">
         <f>(H22+H23+H24)*0.95</f>
         <v>-3725.1114999999991</v>
       </c>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
     </row>
     <row r="26" spans="1:13" ht="24.95" customHeight="1">
       <c r="A26" s="62"/>
@@ -21688,7 +21686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -21699,11 +21699,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -21712,10 +21712,12 @@
     <col min="2" max="2" width="22.5" style="91" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="91" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="91"/>
+    <col min="5" max="11" width="9" style="91"/>
+    <col min="12" max="12" width="21.375" style="91" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" s="62" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -21747,7 +21749,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1">
+    <row r="2" spans="1:15" ht="24.95" customHeight="1">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -21780,8 +21782,12 @@
         <f>(H2-I2)*F2</f>
         <v>-2250</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="24.95" customHeight="1">
+      <c r="L2" s="98"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1">
       <c r="A3" s="65">
         <v>2</v>
       </c>
@@ -21799,7 +21805,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="91">
-        <f t="shared" ref="G3:G22" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G21" si="0">E3*F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="95">
@@ -21808,12 +21814,12 @@
       <c r="I3" s="65">
         <v>1</v>
       </c>
-      <c r="J3" s="85">
-        <f t="shared" ref="J3:J22" si="1">(H3-I3)*F3</f>
+      <c r="J3" s="92">
+        <f t="shared" ref="J3:J21" si="1">(H3-I3)*F3</f>
         <v>-100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1">
+    <row r="4" spans="1:15" ht="24.95" customHeight="1">
       <c r="A4" s="91">
         <v>3</v>
       </c>
@@ -21842,46 +21848,46 @@
       <c r="I4" s="91">
         <v>90</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="92">
         <f t="shared" si="1"/>
         <v>-4950</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1">
+    <row r="5" spans="1:15" ht="24.95" customHeight="1">
       <c r="A5" s="65">
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="62">
+      <c r="D5" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="91">
         <v>96</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="91">
         <v>100</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="91">
         <f t="shared" si="0"/>
         <v>9600</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="95">
         <v>96</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="91">
         <v>80</v>
       </c>
-      <c r="J5" s="85">
+      <c r="J5" s="92">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1">
+    <row r="6" spans="1:15" ht="24.95" customHeight="1">
       <c r="A6" s="91">
         <v>5</v>
       </c>
@@ -21915,7 +21921,7 @@
         <v>-1170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1">
+    <row r="7" spans="1:15" ht="24.95" customHeight="1">
       <c r="A7" s="65">
         <v>6</v>
       </c>
@@ -21935,7 +21941,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="91">
-        <f>E7*F7</f>
+        <f t="shared" ref="G7:G20" si="2">E7*F7</f>
         <v>5995</v>
       </c>
       <c r="H7" s="95">
@@ -21945,11 +21951,11 @@
         <v>118</v>
       </c>
       <c r="J7" s="92">
-        <f>(H7-I7)*F7</f>
+        <f t="shared" ref="J7:J20" si="3">(H7-I7)*F7</f>
         <v>-495</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1">
+    <row r="8" spans="1:15" ht="24.95" customHeight="1">
       <c r="A8" s="91">
         <v>7</v>
       </c>
@@ -21969,7 +21975,7 @@
         <v>330</v>
       </c>
       <c r="G8" s="91">
-        <f>E8*F8</f>
+        <f t="shared" si="2"/>
         <v>4620</v>
       </c>
       <c r="H8" s="95">
@@ -21979,11 +21985,11 @@
         <v>15</v>
       </c>
       <c r="J8" s="93">
-        <f>(H8-I8)*F8</f>
+        <f t="shared" si="3"/>
         <v>-330</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1">
+    <row r="9" spans="1:15" ht="24.95" customHeight="1">
       <c r="A9" s="65">
         <v>8</v>
       </c>
@@ -22003,7 +22009,7 @@
         <v>150</v>
       </c>
       <c r="G9" s="91">
-        <f>E9*F9</f>
+        <f t="shared" si="2"/>
         <v>1425</v>
       </c>
       <c r="H9" s="95">
@@ -22013,598 +22019,553 @@
         <v>11.5</v>
       </c>
       <c r="J9" s="93">
-        <f>(H9-I9)*F9</f>
+        <f t="shared" si="3"/>
         <v>-300</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A10" s="91">
-        <v>9</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="D10" s="62" t="s">
+    <row r="10" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A10" s="65">
+        <v>10</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="E10" s="62">
-        <v>0</v>
-      </c>
-      <c r="F10" s="62">
-        <v>70</v>
-      </c>
-      <c r="G10" s="62">
-        <f>E10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="103">
-        <v>0</v>
-      </c>
-      <c r="I10" s="62">
-        <v>0</v>
-      </c>
-      <c r="J10" s="104">
-        <f>(H10-I10)*F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A11" s="65">
-        <v>10</v>
+      <c r="E10" s="65">
+        <v>2.86</v>
+      </c>
+      <c r="F10" s="91">
+        <v>80</v>
+      </c>
+      <c r="G10" s="91">
+        <f t="shared" si="2"/>
+        <v>228.79999999999998</v>
+      </c>
+      <c r="H10" s="95">
+        <v>2.86</v>
+      </c>
+      <c r="I10" s="91">
+        <v>5</v>
+      </c>
+      <c r="J10" s="93">
+        <f t="shared" si="3"/>
+        <v>-171.20000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A11" s="91">
+        <v>11</v>
       </c>
       <c r="B11" s="91" t="s">
         <v>333</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D11" s="91" t="s">
         <v>346</v>
       </c>
       <c r="E11" s="65">
-        <v>2.86</v>
+        <v>6.7</v>
       </c>
       <c r="F11" s="91">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G11" s="91">
-        <f>E11*F11</f>
-        <v>228.79999999999998</v>
+        <f t="shared" si="2"/>
+        <v>469</v>
       </c>
       <c r="H11" s="95">
-        <v>2.86</v>
+        <v>6.7</v>
       </c>
       <c r="I11" s="91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="93">
-        <f>(H11-I11)*F11</f>
-        <v>-171.20000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A12" s="91">
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>49.000000000000014</v>
+      </c>
+      <c r="O11" s="65"/>
+    </row>
+    <row r="12" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A12" s="65">
+        <v>12</v>
       </c>
       <c r="B12" s="91" t="s">
         <v>333</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D12" s="91" t="s">
         <v>346</v>
       </c>
       <c r="E12" s="65">
-        <v>6.7</v>
+        <v>9.15</v>
       </c>
       <c r="F12" s="91">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G12" s="91">
-        <f>E12*F12</f>
-        <v>469</v>
+        <f t="shared" si="2"/>
+        <v>549</v>
       </c>
       <c r="H12" s="95">
-        <v>6.7</v>
+        <v>9.15</v>
       </c>
       <c r="I12" s="91">
+        <v>10</v>
+      </c>
+      <c r="J12" s="93">
+        <f t="shared" si="3"/>
+        <v>-50.999999999999979</v>
+      </c>
+      <c r="O12" s="65"/>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A13" s="91">
+        <v>13</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="65">
+        <v>8.5</v>
+      </c>
+      <c r="F13" s="91">
+        <v>115</v>
+      </c>
+      <c r="G13" s="91">
+        <f t="shared" si="2"/>
+        <v>977.5</v>
+      </c>
+      <c r="H13" s="95">
+        <v>8.5</v>
+      </c>
+      <c r="I13" s="91">
+        <v>3</v>
+      </c>
+      <c r="J13" s="93">
+        <f t="shared" si="3"/>
+        <v>632.5</v>
+      </c>
+      <c r="O13" s="65"/>
+    </row>
+    <row r="14" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A14" s="65">
+        <v>14</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="91">
+        <v>13.6</v>
+      </c>
+      <c r="F14" s="91">
+        <v>35</v>
+      </c>
+      <c r="G14" s="91">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="H14" s="95">
+        <v>13.6</v>
+      </c>
+      <c r="I14" s="91">
         <v>6</v>
       </c>
-      <c r="J12" s="93">
-        <f>(H12-I12)*F12</f>
-        <v>49.000000000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A13" s="65">
-        <v>12</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>346</v>
-      </c>
-      <c r="E13" s="65">
-        <v>9.15</v>
-      </c>
-      <c r="F13" s="91">
-        <v>60</v>
-      </c>
-      <c r="G13" s="91">
-        <f>E13*F13</f>
-        <v>549</v>
-      </c>
-      <c r="H13" s="95">
-        <v>9.15</v>
-      </c>
-      <c r="I13" s="91">
+      <c r="J14" s="93">
+        <f t="shared" si="3"/>
+        <v>266</v>
+      </c>
+      <c r="O14" s="65"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A15" s="91">
+        <v>15</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="91">
+        <v>0</v>
+      </c>
+      <c r="F15" s="91">
+        <v>135</v>
+      </c>
+      <c r="G15" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="95">
+        <v>0</v>
+      </c>
+      <c r="I15" s="91">
+        <v>1</v>
+      </c>
+      <c r="J15" s="93">
+        <f t="shared" si="3"/>
+        <v>-135</v>
+      </c>
+      <c r="O15" s="65"/>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A16" s="68">
+        <v>16</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="68">
+        <v>75</v>
+      </c>
+      <c r="F16" s="68">
         <v>10</v>
       </c>
-      <c r="J13" s="93">
-        <f>(H13-I13)*F13</f>
-        <v>-50.999999999999979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A14" s="91">
-        <v>13</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="E14" s="105">
-        <v>8.5</v>
-      </c>
-      <c r="F14" s="62">
-        <v>115</v>
-      </c>
-      <c r="G14" s="62">
-        <f>E14*F14</f>
-        <v>977.5</v>
-      </c>
-      <c r="H14" s="103">
-        <v>8.5</v>
-      </c>
-      <c r="I14" s="62">
-        <v>3</v>
-      </c>
-      <c r="J14" s="104">
-        <f>(H14-I14)*F14</f>
-        <v>632.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A15" s="65">
-        <v>14</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" s="91" t="s">
+      <c r="G16" s="68">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="H16" s="107">
+        <v>75</v>
+      </c>
+      <c r="I16" s="68">
+        <v>0</v>
+      </c>
+      <c r="J16" s="108">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A17" s="91">
+        <v>17</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="91" t="s">
         <v>345</v>
       </c>
-      <c r="E15" s="91">
-        <v>13.6</v>
-      </c>
-      <c r="F15" s="91">
-        <v>35</v>
-      </c>
-      <c r="G15" s="91">
-        <f>E15*F15</f>
-        <v>476</v>
-      </c>
-      <c r="H15" s="95">
-        <v>13.6</v>
-      </c>
-      <c r="I15" s="91">
-        <v>6</v>
-      </c>
-      <c r="J15" s="93">
-        <f>(H15-I15)*F15</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A16" s="91">
-        <v>15</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="D16" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="91">
-        <v>0</v>
-      </c>
-      <c r="F16" s="91">
-        <v>135</v>
-      </c>
-      <c r="G16" s="91">
-        <f>E16*F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="95">
-        <v>0</v>
-      </c>
-      <c r="I16" s="91">
-        <v>1</v>
-      </c>
-      <c r="J16" s="93">
-        <f>(H16-I16)*F16</f>
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A17" s="68">
-        <v>16</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="68">
-        <v>75</v>
-      </c>
-      <c r="F17" s="68">
-        <v>10</v>
-      </c>
-      <c r="G17" s="68">
-        <f>E17*F17</f>
-        <v>750</v>
-      </c>
-      <c r="H17" s="131">
-        <v>75</v>
-      </c>
-      <c r="I17" s="68">
-        <v>0</v>
-      </c>
-      <c r="J17" s="132">
-        <f>(H17-I17)*F17</f>
-        <v>750</v>
+      <c r="E17" s="65">
+        <v>49.9</v>
+      </c>
+      <c r="F17" s="91">
+        <v>20</v>
+      </c>
+      <c r="G17" s="91">
+        <f t="shared" si="2"/>
+        <v>998</v>
+      </c>
+      <c r="H17" s="95">
+        <v>49.9</v>
+      </c>
+      <c r="I17" s="91">
+        <v>0</v>
+      </c>
+      <c r="J17" s="93">
+        <f t="shared" si="3"/>
+        <v>998</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="24.95" customHeight="1">
       <c r="A18" s="91">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="65">
-        <v>49.9</v>
+        <v>346</v>
+      </c>
+      <c r="E18" s="91">
+        <v>7.5</v>
       </c>
       <c r="F18" s="91">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G18" s="91">
-        <f>E18*F18</f>
-        <v>998</v>
+        <f t="shared" si="2"/>
+        <v>360</v>
       </c>
       <c r="H18" s="95">
-        <v>49.9</v>
+        <v>7.5</v>
       </c>
       <c r="I18" s="91">
         <v>0</v>
       </c>
       <c r="J18" s="93">
-        <f>(H18-I18)*F18</f>
-        <v>998</v>
+        <f t="shared" si="3"/>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="24.95" customHeight="1">
       <c r="A19" s="91">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E19" s="91">
-        <v>7.5</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F19" s="91">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G19" s="91">
-        <f>E19*F19</f>
-        <v>360</v>
+        <f t="shared" si="2"/>
+        <v>79.099999999999994</v>
       </c>
       <c r="H19" s="95">
-        <v>7.5</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="I19" s="91">
         <v>0</v>
       </c>
       <c r="J19" s="93">
-        <f>(H19-I19)*F19</f>
-        <v>360</v>
+        <f t="shared" si="3"/>
+        <v>79.099999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A20" s="62">
-        <v>19</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="E20" s="62">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F20" s="62">
-        <v>35</v>
-      </c>
-      <c r="G20" s="62">
-        <f>E20*F20</f>
-        <v>79.099999999999994</v>
-      </c>
-      <c r="H20" s="103">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="I20" s="62">
-        <v>0</v>
-      </c>
-      <c r="J20" s="104">
-        <f>(H20-I20)*F20</f>
-        <v>79.099999999999994</v>
+      <c r="A20" s="68">
+        <v>20</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="68">
+        <v>3</v>
+      </c>
+      <c r="F20" s="68">
+        <v>100</v>
+      </c>
+      <c r="G20" s="68">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H20" s="107">
+        <v>3</v>
+      </c>
+      <c r="I20" s="68">
+        <v>0</v>
+      </c>
+      <c r="J20" s="108">
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A21" s="68">
-        <v>20</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>354</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="68">
-        <v>3</v>
-      </c>
-      <c r="F21" s="68">
-        <v>100</v>
-      </c>
-      <c r="G21" s="68">
-        <f>E21*F21</f>
-        <v>300</v>
-      </c>
-      <c r="H21" s="131">
-        <v>3</v>
-      </c>
-      <c r="I21" s="68">
-        <v>0</v>
-      </c>
-      <c r="J21" s="132">
-        <f>(H21-I21)*F21</f>
-        <v>300</v>
+      <c r="A21" s="65">
+        <v>21</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="91">
+        <v>25.6</v>
+      </c>
+      <c r="F21" s="91">
+        <v>45</v>
+      </c>
+      <c r="G21" s="91">
+        <f t="shared" si="0"/>
+        <v>1152</v>
+      </c>
+      <c r="H21" s="95">
+        <v>25.6</v>
+      </c>
+      <c r="I21" s="91">
+        <v>27.88</v>
+      </c>
+      <c r="J21" s="92">
+        <f t="shared" si="1"/>
+        <v>-102.59999999999989</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="24.95" customHeight="1">
       <c r="A22" s="65">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>155</v>
+        <v>374</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D22" s="91" t="s">
         <v>345</v>
       </c>
       <c r="E22" s="91">
-        <v>25.6</v>
+        <v>19.32</v>
       </c>
       <c r="F22" s="91">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="G22" s="91">
-        <f t="shared" si="0"/>
-        <v>1152</v>
+        <f t="shared" ref="G22" si="4">E22*F22</f>
+        <v>3477.6</v>
       </c>
       <c r="H22" s="95">
-        <v>25.6</v>
+        <v>19.32</v>
       </c>
       <c r="I22" s="91">
-        <v>27.88</v>
+        <v>21.88</v>
       </c>
       <c r="J22" s="92">
-        <f t="shared" si="1"/>
-        <v>-102.59999999999989</v>
+        <f t="shared" ref="J22" si="5">(H22-I22)*F22</f>
+        <v>-460.79999999999978</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="24.95" customHeight="1">
       <c r="A23" s="65">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D23" s="91" t="s">
         <v>345</v>
       </c>
       <c r="E23" s="91">
-        <v>19.32</v>
+        <v>49.9</v>
       </c>
       <c r="F23" s="91">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="G23" s="91">
-        <f t="shared" ref="G23" si="2">E23*F23</f>
-        <v>3477.6</v>
+        <f>E23*F23</f>
+        <v>2245.5</v>
       </c>
       <c r="H23" s="95">
-        <v>19.32</v>
+        <v>49.9</v>
       </c>
       <c r="I23" s="91">
-        <v>21.88</v>
-      </c>
-      <c r="J23" s="92">
-        <f t="shared" ref="J23" si="3">(H23-I23)*F23</f>
-        <v>-460.79999999999978</v>
+        <v>54</v>
+      </c>
+      <c r="J23" s="93">
+        <f>(H23-I23)*F23</f>
+        <v>-184.50000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A24" s="105">
-        <v>23</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="E24" s="62">
-        <v>49.9</v>
-      </c>
-      <c r="F24" s="62">
-        <v>45</v>
-      </c>
-      <c r="G24" s="62">
-        <f>E24*F24</f>
-        <v>2245.5</v>
-      </c>
-      <c r="H24" s="103">
-        <v>49.9</v>
-      </c>
-      <c r="I24" s="62">
-        <v>54</v>
-      </c>
-      <c r="J24" s="104">
-        <f>(H24-I24)*F24</f>
-        <v>-184.50000000000006</v>
+      <c r="A24" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="134">
+        <f>SUM(J2:J23)</f>
+        <v>-5665.4999999999991</v>
+      </c>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="M24" s="91" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A25" s="130" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="129">
-        <f>SUM(J2:J24)</f>
-        <v>-5665.4999999999991</v>
-      </c>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="M25" s="91" t="s">
-        <v>373</v>
-      </c>
+      <c r="A25" s="133" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="134">
+        <f>H24*0.05</f>
+        <v>-283.27499999999998</v>
+      </c>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
     </row>
     <row r="26" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A26" s="130" t="s">
-        <v>363</v>
-      </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="129">
-        <f>H25*0.05</f>
+      <c r="A26" s="133" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="134">
+        <f>H24*0.05</f>
         <v>-283.27499999999998</v>
       </c>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
     </row>
     <row r="27" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A27" s="130" t="s">
-        <v>361</v>
-      </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="129">
-        <f>H25*0.05</f>
-        <v>-283.27499999999998</v>
-      </c>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-    </row>
-    <row r="28" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A28" s="130" t="s">
+      <c r="A27" s="133" t="s">
         <v>362</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="129">
-        <f>(H25+H26+H27)*0.95</f>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="134">
+        <f>(H24+H25+H26)*0.95</f>
         <v>-5920.4474999999984</v>
       </c>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-    </row>
-    <row r="29" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62">
-        <v>2314.884</v>
-      </c>
-      <c r="J29" s="62"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="H24:J24"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="H25:J25"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="H27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/众臣装修价目表.xlsx
+++ b/众臣装修价目表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="众臣副本" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LFY副本1!$A$1:$K$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">众臣副本!$A$2:$L$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">众臣副本!$A$2:$L$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">众臣原件!$A$2:$L$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="380">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1650,6 +1650,14 @@
   </si>
   <si>
     <t>全屋灯具安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给水安装（保利抗菌管）优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1829,12 +1837,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="23">
@@ -2071,7 +2085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2399,6 +2413,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2471,34 +2530,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2513,17 +2554,11 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2819,11 +2854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -2842,42 +2877,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="112" t="s">
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112" t="s">
+      <c r="H1" s="127"/>
+      <c r="I1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113" t="s">
+      <c r="J1" s="127"/>
+      <c r="K1" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="113" t="s">
+      <c r="L1" s="128" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
@@ -2896,8 +2931,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -2906,16 +2941,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="54">
@@ -3424,7 +3459,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>37</v>
@@ -3434,14 +3469,14 @@
       </c>
       <c r="F17" s="15">
         <f>C17*E17</f>
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="G17" s="15">
         <v>15</v>
       </c>
       <c r="H17" s="15">
         <f>C17*G17</f>
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="7"/>
@@ -3449,7 +3484,7 @@
       </c>
       <c r="J17" s="17">
         <f t="shared" si="8"/>
-        <v>1375</v>
+        <v>1320</v>
       </c>
       <c r="K17" s="40" t="s">
         <v>165</v>
@@ -3679,7 +3714,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="38">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>37</v>
@@ -3689,14 +3724,14 @@
       </c>
       <c r="F24" s="15">
         <f>C24*E24</f>
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="G24" s="15">
         <v>15</v>
       </c>
       <c r="H24" s="15">
         <f>C24*G24</f>
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="14"/>
@@ -3704,7 +3739,7 @@
       </c>
       <c r="J24" s="17">
         <f t="shared" si="15"/>
-        <v>1430</v>
+        <v>1320</v>
       </c>
       <c r="K24" s="40" t="s">
         <v>165</v>
@@ -3932,7 +3967,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="38">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>37</v>
@@ -3942,14 +3977,14 @@
       </c>
       <c r="F31" s="15">
         <f>C31*E31</f>
-        <v>1280</v>
+        <v>1240</v>
       </c>
       <c r="G31" s="15">
         <v>15</v>
       </c>
       <c r="H31" s="15">
         <f>C31*G31</f>
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="21"/>
@@ -3957,7 +3992,7 @@
       </c>
       <c r="J31" s="17">
         <f t="shared" si="22"/>
-        <v>1760</v>
+        <v>1705</v>
       </c>
       <c r="K31" s="40" t="s">
         <v>165</v>
@@ -4108,7 +4143,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="38">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>37</v>
@@ -4118,14 +4153,14 @@
       </c>
       <c r="F36" s="15">
         <f>C36*E36</f>
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="G36" s="15">
         <v>15</v>
       </c>
       <c r="H36" s="15">
         <f>C36*G36</f>
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="25"/>
@@ -4133,7 +4168,7 @@
       </c>
       <c r="J36" s="17">
         <f t="shared" si="26"/>
-        <v>1430</v>
+        <v>1320</v>
       </c>
       <c r="K36" s="40" t="s">
         <v>165</v>
@@ -4249,7 +4284,7 @@
       <c r="B41" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="123">
         <v>250</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -4291,7 +4326,7 @@
       <c r="B42" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="123">
         <v>250</v>
       </c>
       <c r="D42" s="11" t="s">
@@ -5122,22 +5157,22 @@
         <v>0</v>
       </c>
       <c r="F63" s="54">
-        <f t="shared" ref="F63:F81" si="38">C63*E63</f>
+        <f t="shared" ref="F63:F82" si="38">C63*E63</f>
         <v>0</v>
       </c>
       <c r="G63" s="54">
         <v>250</v>
       </c>
       <c r="H63" s="54">
-        <f t="shared" ref="H63:H81" si="39">C63*G63</f>
+        <f t="shared" ref="H63:H82" si="39">C63*G63</f>
         <v>250</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" ref="I63:I81" si="40">E63+G63</f>
+        <f t="shared" ref="I63:I82" si="40">E63+G63</f>
         <v>250</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" ref="J63:J81" si="41">C63*I63</f>
+        <f t="shared" ref="J63:J82" si="41">C63*I63</f>
         <v>250</v>
       </c>
       <c r="L63" s="30" t="s">
@@ -5441,7 +5476,7 @@
         <v>224</v>
       </c>
       <c r="C71" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="54" t="s">
         <v>34</v>
@@ -5451,14 +5486,14 @@
       </c>
       <c r="F71" s="11">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G71" s="54">
         <v>350</v>
       </c>
       <c r="H71" s="11">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I71" s="53">
         <f t="shared" si="40"/>
@@ -5466,7 +5501,7 @@
       </c>
       <c r="J71" s="14">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K71" s="52" t="s">
         <v>225</v>
@@ -5510,228 +5545,211 @@
         <f t="shared" si="41"/>
         <v>11638.5</v>
       </c>
-      <c r="K72" s="116" t="s">
+      <c r="K72" s="131" t="s">
         <v>240</v>
       </c>
       <c r="L72" s="30" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A73" s="54">
+    <row r="73" spans="1:12" s="110" customFormat="1" ht="16.5">
+      <c r="A73" s="110">
         <v>10</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="110" t="s">
+        <v>378</v>
+      </c>
+      <c r="C73" s="28">
+        <v>1</v>
+      </c>
+      <c r="D73" s="110" t="s">
+        <v>379</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="14">
+        <v>-1551.8</v>
+      </c>
+      <c r="K73" s="131"/>
+      <c r="L73" s="30"/>
+    </row>
+    <row r="74" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A74" s="110">
+        <v>11</v>
+      </c>
+      <c r="B74" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C73" s="28">
+      <c r="C74" s="28">
         <v>2.86</v>
       </c>
-      <c r="D73" s="54" t="s">
+      <c r="D74" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="54">
+      <c r="E74" s="54">
         <v>40</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <f t="shared" si="38"/>
         <v>114.39999999999999</v>
       </c>
-      <c r="G73" s="54">
+      <c r="G74" s="54">
         <v>40</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <f t="shared" si="39"/>
         <v>114.39999999999999</v>
       </c>
-      <c r="I73" s="53">
+      <c r="I74" s="53">
         <f t="shared" si="40"/>
         <v>80</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J74" s="14">
         <f t="shared" si="41"/>
         <v>228.79999999999998</v>
       </c>
-      <c r="K73" s="116"/>
-    </row>
-    <row r="74" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A74" s="54">
-        <v>11</v>
-      </c>
-      <c r="B74" s="54" t="s">
+      <c r="K74" s="131"/>
+    </row>
+    <row r="75" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A75" s="110">
+        <v>12</v>
+      </c>
+      <c r="B75" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="28">
+      <c r="C75" s="28">
         <v>6.7</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D75" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E74" s="54">
+      <c r="E75" s="54">
         <v>40</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <f t="shared" si="38"/>
         <v>268</v>
       </c>
-      <c r="G74" s="54">
+      <c r="G75" s="54">
         <v>30</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H75" s="11">
         <f t="shared" si="39"/>
         <v>201</v>
       </c>
-      <c r="I74" s="53">
+      <c r="I75" s="53">
         <f t="shared" si="40"/>
         <v>70</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J75" s="14">
         <f t="shared" si="41"/>
         <v>469</v>
       </c>
-      <c r="K74" s="116"/>
-    </row>
-    <row r="75" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A75" s="54">
-        <v>12</v>
-      </c>
-      <c r="B75" s="54" t="s">
+      <c r="K75" s="131"/>
+    </row>
+    <row r="76" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A76" s="110">
+        <v>13</v>
+      </c>
+      <c r="B76" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C76" s="28">
         <v>9.15</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D76" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="54">
+      <c r="E76" s="54">
         <v>40</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <f t="shared" si="38"/>
         <v>366</v>
       </c>
-      <c r="G75" s="54">
+      <c r="G76" s="54">
         <v>20</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H76" s="11">
         <f t="shared" si="39"/>
         <v>183</v>
       </c>
-      <c r="I75" s="53">
+      <c r="I76" s="53">
         <f t="shared" si="40"/>
         <v>60</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J76" s="14">
         <f t="shared" si="41"/>
         <v>549</v>
       </c>
-      <c r="K75" s="116"/>
-    </row>
-    <row r="76" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A76" s="54">
-        <v>13</v>
-      </c>
-      <c r="B76" s="54" t="s">
+      <c r="K76" s="131"/>
+    </row>
+    <row r="77" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A77" s="110">
+        <v>14</v>
+      </c>
+      <c r="B77" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C76" s="54">
+      <c r="C77" s="54">
         <v>1</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D77" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="54">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
+      <c r="E77" s="54">
+        <v>0</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G76" s="54">
+      <c r="G77" s="54">
         <v>450</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H77" s="11">
         <f t="shared" si="39"/>
         <v>450</v>
       </c>
-      <c r="I76" s="53">
+      <c r="I77" s="53">
         <f t="shared" si="40"/>
         <v>450</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J77" s="14">
         <f t="shared" si="41"/>
         <v>450</v>
       </c>
-      <c r="K76" s="52" t="s">
+      <c r="K77" s="52" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A77" s="54">
-        <v>14</v>
-      </c>
-      <c r="B77" s="54" t="s">
+    <row r="78" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A78" s="110">
+        <v>15</v>
+      </c>
+      <c r="B78" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="C77" s="54">
+      <c r="C78" s="54">
         <v>1</v>
       </c>
-      <c r="D77" s="54" t="s">
+      <c r="D78" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="54">
-        <v>0</v>
-      </c>
-      <c r="F77" s="11">
+      <c r="E78" s="54">
+        <v>0</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G77" s="54">
+      <c r="G78" s="54">
         <v>150</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H78" s="11">
         <f t="shared" si="39"/>
         <v>150</v>
-      </c>
-      <c r="I77" s="53">
-        <f t="shared" si="40"/>
-        <v>150</v>
-      </c>
-      <c r="J77" s="14">
-        <f t="shared" si="41"/>
-        <v>150</v>
-      </c>
-      <c r="K77" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="33">
-      <c r="A78" s="54">
-        <v>15</v>
-      </c>
-      <c r="B78" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="54">
-        <v>0</v>
-      </c>
-      <c r="D78" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="54">
-        <v>0</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="54">
-        <v>150</v>
-      </c>
-      <c r="H78" s="11">
-        <f t="shared" si="39"/>
-        <v>0</v>
       </c>
       <c r="I78" s="53">
         <f t="shared" si="40"/>
@@ -5739,24 +5757,21 @@
       </c>
       <c r="J78" s="14">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K78" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="L78" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A79" s="54">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="33">
+      <c r="A79" s="110">
         <v>16</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="28">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="C79" s="54">
+        <v>3</v>
       </c>
       <c r="D79" s="54" t="s">
         <v>34</v>
@@ -5769,228 +5784,275 @@
         <v>0</v>
       </c>
       <c r="G79" s="54">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H79" s="11">
         <f t="shared" si="39"/>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="I79" s="53">
         <f t="shared" si="40"/>
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="J79" s="14">
         <f t="shared" si="41"/>
-        <v>350</v>
-      </c>
-      <c r="K79" s="52"/>
-    </row>
-    <row r="80" spans="1:12" s="56" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A80" s="56">
+        <v>450</v>
+      </c>
+      <c r="K79" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="L79" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A80" s="110">
         <v>17</v>
       </c>
-      <c r="B80" s="56" t="s">
-        <v>367</v>
+      <c r="B80" s="54" t="s">
+        <v>248</v>
       </c>
       <c r="C80" s="28">
-        <v>75</v>
-      </c>
-      <c r="D80" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="E80" s="56">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="54">
+        <v>0</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="38"/>
-        <v>750</v>
-      </c>
-      <c r="G80" s="56">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G80" s="54">
+        <v>350</v>
       </c>
       <c r="H80" s="11">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="58">
+        <v>350</v>
+      </c>
+      <c r="I80" s="53">
+        <f t="shared" si="40"/>
+        <v>350</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="41"/>
+        <v>350</v>
+      </c>
+      <c r="K80" s="52"/>
+    </row>
+    <row r="81" spans="1:12" s="56" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A81" s="110">
+        <v>18</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="C81" s="28">
+        <v>75</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="E81" s="56">
+        <v>10</v>
+      </c>
+      <c r="F81" s="11">
+        <f t="shared" si="38"/>
+        <v>750</v>
+      </c>
+      <c r="G81" s="56">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="58">
         <f t="shared" si="40"/>
         <v>10</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J81" s="14">
         <f t="shared" si="41"/>
         <v>750</v>
       </c>
-      <c r="K80" s="60"/>
-      <c r="L80" s="30"/>
-    </row>
-    <row r="81" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A81" s="15">
-        <v>18</v>
-      </c>
-      <c r="B81" s="15" t="s">
+      <c r="K81" s="60"/>
+      <c r="L81" s="30"/>
+    </row>
+    <row r="82" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A82" s="15">
+        <v>19</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="38">
-        <v>0</v>
-      </c>
-      <c r="D81" s="15" t="s">
+      <c r="C82" s="38">
+        <v>0</v>
+      </c>
+      <c r="D82" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E81" s="15">
-        <v>0</v>
-      </c>
-      <c r="F81" s="15">
+      <c r="E82" s="15">
+        <v>0</v>
+      </c>
+      <c r="F82" s="15">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G82" s="15">
         <v>12</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H82" s="15">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I82" s="16">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J82" s="17">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="K81" s="40"/>
-      <c r="L81" s="31"/>
-    </row>
-    <row r="82" spans="1:12" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A82" s="117" t="s">
+      <c r="K82" s="40"/>
+      <c r="L82" s="31"/>
+    </row>
+    <row r="83" spans="1:12" s="51" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
+      <c r="A83" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="117"/>
-      <c r="C82" s="117"/>
-      <c r="D82" s="117"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="19">
-        <f>SUM(F4:F81)</f>
-        <v>47965.9</v>
-      </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19">
-        <f>SUM(H4:H81)</f>
-        <v>43489.8</v>
-      </c>
-      <c r="I82" s="49"/>
-      <c r="J82" s="21">
-        <f>SUM(J4:J81)</f>
-        <v>91455.7</v>
-      </c>
-      <c r="K82" s="41"/>
-      <c r="L82" s="48"/>
-    </row>
-    <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A83" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109"/>
-      <c r="E83" s="109"/>
-      <c r="F83" s="19"/>
+      <c r="B83" s="132"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="19">
+        <f>SUM(F4:F82)</f>
+        <v>47775.9</v>
+      </c>
       <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
+      <c r="H83" s="19">
+        <f>SUM(H4:H82)</f>
+        <v>44199.8</v>
+      </c>
       <c r="I83" s="49"/>
       <c r="J83" s="21">
-        <f>J82*0.05</f>
-        <v>4572.7849999999999</v>
+        <f>SUM(J4:J82)</f>
+        <v>90423.9</v>
       </c>
       <c r="K83" s="41"/>
+      <c r="L83" s="48"/>
     </row>
     <row r="84" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A84" s="109" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="109"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="109"/>
+      <c r="A84" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="49"/>
       <c r="J84" s="21">
-        <f>J82*0.05</f>
-        <v>4572.7849999999999</v>
+        <f>J83*0.05</f>
+        <v>4521.1949999999997</v>
       </c>
       <c r="K84" s="41"/>
     </row>
     <row r="85" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A85" s="110" t="s">
+      <c r="A85" s="124" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="124"/>
+      <c r="C85" s="124"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="21">
+        <f>J83*0.05</f>
+        <v>4521.1949999999997</v>
+      </c>
+      <c r="K85" s="41"/>
+    </row>
+    <row r="86" spans="1:12" ht="39.950000000000003" customHeight="1">
+      <c r="A86" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="110"/>
-      <c r="C85" s="110"/>
-      <c r="D85" s="110"/>
-      <c r="E85" s="110"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="26">
-        <f>SUM(J82:J84)</f>
-        <v>100601.27</v>
-      </c>
-      <c r="K85" s="42"/>
-    </row>
-    <row r="86" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A86" s="111" t="s">
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="26">
+        <f>SUM(J83:J85)</f>
+        <v>99466.290000000008</v>
+      </c>
+      <c r="K86" s="42"/>
+    </row>
+    <row r="87" spans="1:12" ht="39.950000000000003" customHeight="1">
+      <c r="A87" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B86" s="111"/>
-      <c r="C86" s="111"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="111"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="23">
-        <f>J85*0.95</f>
-        <v>95571.2065</v>
-      </c>
-      <c r="K86" s="43"/>
-    </row>
-    <row r="87" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="126"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="29"/>
       <c r="J87" s="23">
-        <v>-61500</v>
+        <f>J86*0.95</f>
+        <v>94492.9755</v>
       </c>
       <c r="K87" s="43"/>
     </row>
+    <row r="88" spans="1:12" ht="39.950000000000003" customHeight="1">
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="6">
+        <v>-210.08</v>
+      </c>
+      <c r="K88" s="43"/>
+    </row>
+    <row r="89" spans="1:12" ht="24.95" customHeight="1">
+      <c r="J89" s="23">
+        <v>-84500</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:L86"/>
+  <autoFilter ref="A2:L89"/>
   <mergeCells count="16">
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="C3:L3"/>
-    <mergeCell ref="K72:K75"/>
-    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="K72:K76"/>
+    <mergeCell ref="A83:E83"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6001,11 +6063,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -6024,42 +6086,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="112" t="s">
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112" t="s">
+      <c r="H1" s="127"/>
+      <c r="I1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113" t="s">
+      <c r="J1" s="127"/>
+      <c r="K1" s="128" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="113" t="s">
+      <c r="L1" s="128" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="59" t="s">
         <v>5</v>
       </c>
@@ -6078,8 +6140,8 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="1:12" ht="24.95" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -6088,16 +6150,16 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" s="56">
@@ -8652,7 +8714,7 @@
         <f t="shared" si="45"/>
         <v>6450</v>
       </c>
-      <c r="K70" s="116" t="s">
+      <c r="K70" s="131" t="s">
         <v>240</v>
       </c>
       <c r="L70" s="30" t="s">
@@ -8694,7 +8756,7 @@
         <f t="shared" si="45"/>
         <v>400</v>
       </c>
-      <c r="K71" s="116"/>
+      <c r="K71" s="131"/>
     </row>
     <row r="72" spans="1:12" ht="24.95" customHeight="1">
       <c r="A72" s="56">
@@ -8731,7 +8793,7 @@
         <f t="shared" si="45"/>
         <v>420</v>
       </c>
-      <c r="K72" s="116"/>
+      <c r="K72" s="131"/>
     </row>
     <row r="73" spans="1:12" ht="24.95" customHeight="1">
       <c r="A73" s="56">
@@ -8768,7 +8830,7 @@
         <f t="shared" si="45"/>
         <v>600</v>
       </c>
-      <c r="K73" s="116"/>
+      <c r="K73" s="131"/>
     </row>
     <row r="74" spans="1:12" ht="24.95" customHeight="1">
       <c r="A74" s="56">
@@ -8929,13 +8991,13 @@
       <c r="L77" s="31"/>
     </row>
     <row r="78" spans="1:12" s="35" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="117"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="117"/>
-      <c r="E78" s="117"/>
+      <c r="B78" s="132"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="132"/>
+      <c r="E78" s="132"/>
       <c r="F78" s="19">
         <f>SUM(F4:F77)</f>
         <v>46797.8</v>
@@ -8954,13 +9016,13 @@
       <c r="L78" s="99"/>
     </row>
     <row r="79" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A79" s="109" t="s">
+      <c r="A79" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="109"/>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="109"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="124"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="124"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
@@ -8972,13 +9034,13 @@
       <c r="K79" s="41"/>
     </row>
     <row r="80" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="109"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="109"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="124"/>
+      <c r="D80" s="124"/>
+      <c r="E80" s="124"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
@@ -8990,13 +9052,13 @@
       <c r="K80" s="41"/>
     </row>
     <row r="81" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A81" s="110" t="s">
+      <c r="A81" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="110"/>
-      <c r="C81" s="110"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="110"/>
+      <c r="B81" s="125"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="125"/>
+      <c r="E81" s="125"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
@@ -9008,13 +9070,13 @@
       <c r="K81" s="42"/>
     </row>
     <row r="82" spans="1:12" ht="39.950000000000003" customHeight="1">
-      <c r="A82" s="111" t="s">
+      <c r="A82" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="111"/>
-      <c r="C82" s="111"/>
-      <c r="D82" s="111"/>
-      <c r="E82" s="111"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
@@ -9022,9 +9084,6 @@
       <c r="J82" s="23">
         <f>J81*0.95</f>
         <v>94906.9</v>
-      </c>
-      <c r="K82" s="46">
-        <v>-61500</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="39.950000000000003" customHeight="1">
@@ -9037,197 +9096,286 @@
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="29"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="43"/>
-    </row>
-    <row r="84" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A84" s="37">
+      <c r="J83" s="156">
+        <v>-84500</v>
+      </c>
+      <c r="K83" s="36"/>
+    </row>
+    <row r="84" spans="1:12" s="121" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A84" s="122"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="122"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29">
+        <v>-623.96950000000004</v>
+      </c>
+      <c r="K84" s="46"/>
+      <c r="L84" s="30"/>
+    </row>
+    <row r="85" spans="1:12" s="121" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A85" s="122"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="157">
+        <v>9782.93</v>
+      </c>
+      <c r="K85" s="46"/>
+      <c r="L85" s="30"/>
+    </row>
+    <row r="86" spans="1:12" s="121" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A86" s="122"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87" spans="1:12" s="121" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A87" s="122"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="30"/>
+    </row>
+    <row r="88" spans="1:12" s="121" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A88" s="122"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="30"/>
+    </row>
+    <row r="89" spans="1:12" s="121" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A89" s="122"/>
+      <c r="B89" s="122"/>
+      <c r="C89" s="122"/>
+      <c r="D89" s="122"/>
+      <c r="E89" s="122"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="30"/>
+    </row>
+    <row r="90" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A90" s="37">
         <v>1</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B90" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="37">
+      <c r="C90" s="37">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D90" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="E84" s="37">
+      <c r="E90" s="37">
         <v>430</v>
       </c>
-      <c r="F84" s="37">
-        <f>C84*E84</f>
+      <c r="F90" s="37">
+        <f>C90*E90</f>
         <v>3569.0000000000005</v>
       </c>
-      <c r="G84" s="37">
-        <v>0</v>
-      </c>
-      <c r="H84" s="37">
-        <f>C84*G84</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="44">
-        <f>E84+G84</f>
+      <c r="G90" s="37">
+        <v>0</v>
+      </c>
+      <c r="H90" s="37">
+        <f>C90*G90</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="44">
+        <f>E90+G90</f>
         <v>430</v>
       </c>
-      <c r="J84" s="45">
-        <f>C84*I84</f>
+      <c r="J90" s="45">
+        <f>C90*I90</f>
         <v>3569.0000000000005</v>
       </c>
-      <c r="L84" s="47"/>
-    </row>
-    <row r="85" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A85" s="37">
+      <c r="L90" s="47"/>
+    </row>
+    <row r="91" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A91" s="37">
         <v>2</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B91" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C85" s="37">
+      <c r="C91" s="37">
         <v>1.9</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D91" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="E85" s="37">
+      <c r="E91" s="37">
         <v>450</v>
       </c>
-      <c r="F85" s="37">
-        <f t="shared" ref="F85" si="46">C85*E85</f>
+      <c r="F91" s="37">
+        <f t="shared" ref="F91" si="46">C91*E91</f>
         <v>855</v>
       </c>
-      <c r="G85" s="37">
-        <v>0</v>
-      </c>
-      <c r="H85" s="37">
-        <f t="shared" ref="H85" si="47">C85*G85</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="44">
-        <f t="shared" ref="I85" si="48">E85+G85</f>
+      <c r="G91" s="37">
+        <v>0</v>
+      </c>
+      <c r="H91" s="37">
+        <f t="shared" ref="H91" si="47">C91*G91</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="44">
+        <f t="shared" ref="I91" si="48">E91+G91</f>
         <v>450</v>
       </c>
-      <c r="J85" s="45">
-        <f>C85*I85</f>
+      <c r="J91" s="45">
+        <f>C91*I91</f>
         <v>855</v>
       </c>
-      <c r="K85" s="46"/>
-      <c r="L85" s="47"/>
-    </row>
-    <row r="86" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A86" s="37">
+      <c r="K91" s="46"/>
+      <c r="L91" s="47"/>
+    </row>
+    <row r="92" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A92" s="37">
         <v>3</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B92" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="37">
+      <c r="C92" s="37">
         <v>4.8</v>
       </c>
-      <c r="D86" s="37" t="s">
+      <c r="D92" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E86" s="37">
+      <c r="E92" s="37">
         <v>1750</v>
       </c>
-      <c r="F86" s="37">
-        <f>C86*E86</f>
+      <c r="F92" s="37">
+        <f>C92*E92</f>
         <v>8400</v>
       </c>
-      <c r="G86" s="37">
+      <c r="G92" s="37">
         <v>250</v>
       </c>
-      <c r="H86" s="37">
-        <f>C86*G86</f>
+      <c r="H92" s="37">
+        <f>C92*G92</f>
         <v>1200</v>
       </c>
-      <c r="I86" s="44">
-        <f>E86+G86</f>
+      <c r="I92" s="44">
+        <f>E92+G92</f>
         <v>2000</v>
       </c>
-      <c r="J86" s="45">
-        <f>C86*I86</f>
+      <c r="J92" s="45">
+        <f>C92*I92</f>
         <v>9600</v>
       </c>
-      <c r="K86" s="46"/>
-      <c r="L86" s="47"/>
-    </row>
-    <row r="87" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A87" s="37">
+      <c r="K92" s="46"/>
+      <c r="L92" s="47"/>
+    </row>
+    <row r="93" spans="1:12" s="28" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A93" s="37">
         <v>4</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B93" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="37">
+      <c r="C93" s="37">
         <v>3.4</v>
       </c>
-      <c r="D87" s="37" t="s">
+      <c r="D93" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="37">
+      <c r="E93" s="37">
         <v>550</v>
       </c>
-      <c r="F87" s="37">
-        <f>C87*E87</f>
+      <c r="F93" s="37">
+        <f>C93*E93</f>
         <v>1870</v>
       </c>
-      <c r="G87" s="37">
+      <c r="G93" s="37">
         <v>150</v>
       </c>
-      <c r="H87" s="37">
-        <f>C87*G87</f>
+      <c r="H93" s="37">
+        <f>C93*G93</f>
         <v>510</v>
       </c>
-      <c r="I87" s="44">
-        <f>E87+G87</f>
+      <c r="I93" s="44">
+        <f>E93+G93</f>
         <v>700</v>
       </c>
-      <c r="J87" s="45">
-        <f>C87*I87</f>
+      <c r="J93" s="45">
+        <f>C93*I93</f>
         <v>2380</v>
       </c>
-      <c r="K87" s="46"/>
-      <c r="L87" s="47"/>
-    </row>
-    <row r="88" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A88" s="37">
+      <c r="L93" s="47"/>
+    </row>
+    <row r="94" spans="1:12" ht="24.95" customHeight="1">
+      <c r="A94" s="37">
         <v>5</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B94" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="37">
+      <c r="C94" s="37">
         <v>8</v>
       </c>
-      <c r="D88" s="37" t="s">
+      <c r="D94" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E88" s="37">
+      <c r="E94" s="37">
         <v>65</v>
       </c>
-      <c r="F88" s="37">
-        <f>C88*E88</f>
+      <c r="F94" s="37">
+        <f>C94*E94</f>
         <v>520</v>
       </c>
-      <c r="G88" s="37">
+      <c r="G94" s="37">
         <v>25</v>
       </c>
-      <c r="H88" s="37">
-        <f>C88*G88</f>
+      <c r="H94" s="37">
+        <f>C94*G94</f>
         <v>200</v>
       </c>
-      <c r="I88" s="44">
-        <f>E88+G88</f>
+      <c r="I94" s="44">
+        <f>E94+G94</f>
         <v>90</v>
       </c>
-      <c r="J88" s="45">
-        <f>C88*I88</f>
+      <c r="J94" s="45">
+        <f>C94*I94</f>
         <v>720</v>
       </c>
-      <c r="K88" s="46"/>
-      <c r="L88" s="47"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L82"/>
@@ -9281,39 +9429,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="112" t="s">
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112" t="s">
+      <c r="H1" s="127"/>
+      <c r="I1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113" t="s">
+      <c r="J1" s="127"/>
+      <c r="K1" s="128" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -9332,7 +9480,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -9341,15 +9489,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -10022,7 +10170,7 @@
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="J22" s="133">
+      <c r="J22" s="111">
         <f t="shared" si="7"/>
         <v>1200</v>
       </c>
@@ -11054,7 +11202,7 @@
         <f t="shared" si="20"/>
         <v>150</v>
       </c>
-      <c r="J53" s="133">
+      <c r="J53" s="111">
         <f t="shared" si="21"/>
         <v>1320</v>
       </c>
@@ -11516,7 +11664,7 @@
         <f t="shared" si="28"/>
         <v>150</v>
       </c>
-      <c r="J67" s="133">
+      <c r="J67" s="111">
         <f t="shared" si="29"/>
         <v>1200</v>
       </c>
@@ -11767,10 +11915,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="119" t="s">
+      <c r="A75" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="119"/>
+      <c r="B75" s="134"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -12725,13 +12873,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="117" t="s">
+      <c r="A102" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
+      <c r="B102" s="132"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="132"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>55870.04</v>
@@ -12749,13 +12897,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="109" t="s">
+      <c r="A103" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
+      <c r="B103" s="124"/>
+      <c r="C103" s="124"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="124"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -12766,13 +12914,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="109" t="s">
+      <c r="A104" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
+      <c r="B104" s="124"/>
+      <c r="C104" s="124"/>
+      <c r="D104" s="124"/>
+      <c r="E104" s="124"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -12783,13 +12931,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="110"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -12800,13 +12948,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="111" t="s">
+      <c r="A106" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="111"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="126"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -12871,39 +13019,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="112" t="s">
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112" t="s">
+      <c r="F1" s="127"/>
+      <c r="G1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112" t="s">
+      <c r="H1" s="127"/>
+      <c r="I1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113" t="s">
+      <c r="J1" s="127"/>
+      <c r="K1" s="128" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -12922,7 +13070,7 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="114"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -12931,15 +13079,15 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="33">
       <c r="A4" s="1">
@@ -15357,10 +15505,10 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="30" customHeight="1" thickTop="1">
-      <c r="A75" s="119" t="s">
+      <c r="A75" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="119"/>
+      <c r="B75" s="134"/>
     </row>
     <row r="76" spans="1:11" ht="30" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -16315,13 +16463,13 @@
       </c>
     </row>
     <row r="102" spans="1:11" s="22" customFormat="1" ht="35.1" customHeight="1" thickTop="1">
-      <c r="A102" s="117" t="s">
+      <c r="A102" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
+      <c r="B102" s="132"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="132"/>
       <c r="F102" s="19">
         <f>SUM(F4:F101)</f>
         <v>75378.500000000015</v>
@@ -16339,13 +16487,13 @@
       <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A103" s="109" t="s">
+      <c r="A103" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="109"/>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
+      <c r="B103" s="124"/>
+      <c r="C103" s="124"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="124"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
@@ -16356,13 +16504,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A104" s="109" t="s">
+      <c r="A104" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
+      <c r="B104" s="124"/>
+      <c r="C104" s="124"/>
+      <c r="D104" s="124"/>
+      <c r="E104" s="124"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
@@ -16373,13 +16521,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="110"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="110"/>
-      <c r="E105" s="110"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
@@ -16390,13 +16538,13 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A106" s="111" t="s">
+      <c r="A106" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="111"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="126"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
@@ -16484,7 +16632,7 @@
       <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="135" t="s">
         <v>271</v>
       </c>
       <c r="C2" s="64" t="s">
@@ -16519,8 +16667,8 @@
       <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="122" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="137" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="64">
@@ -16552,8 +16700,8 @@
       <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="122"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="137"/>
       <c r="D4" s="64">
         <v>1</v>
       </c>
@@ -16583,8 +16731,8 @@
       <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="122" t="s">
+      <c r="B5" s="135"/>
+      <c r="C5" s="137" t="s">
         <v>257</v>
       </c>
       <c r="D5" s="64">
@@ -16616,8 +16764,8 @@
       <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="122"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="64">
         <v>1</v>
       </c>
@@ -16647,8 +16795,8 @@
       <c r="A7" s="63">
         <v>6</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="64">
         <v>1</v>
       </c>
@@ -16678,7 +16826,7 @@
       <c r="A8" s="63">
         <v>7</v>
       </c>
-      <c r="B8" s="120"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="64" t="s">
         <v>261</v>
       </c>
@@ -16711,7 +16859,7 @@
       <c r="A9" s="63">
         <v>8</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="64" t="s">
         <v>260</v>
       </c>
@@ -16744,8 +16892,8 @@
       <c r="A10" s="63">
         <v>9</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122" t="s">
+      <c r="B10" s="135"/>
+      <c r="C10" s="137" t="s">
         <v>266</v>
       </c>
       <c r="D10" s="64">
@@ -16777,8 +16925,8 @@
       <c r="A11" s="63">
         <v>10</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="122"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="64">
         <v>1</v>
       </c>
@@ -16808,7 +16956,7 @@
       <c r="A12" s="63">
         <v>11</v>
       </c>
-      <c r="B12" s="120"/>
+      <c r="B12" s="135"/>
       <c r="C12" s="64" t="s">
         <v>268</v>
       </c>
@@ -16827,10 +16975,10 @@
       <c r="A13" s="63">
         <v>12</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="137" t="s">
         <v>255</v>
       </c>
       <c r="D13" s="64">
@@ -16862,8 +17010,8 @@
       <c r="A14" s="63">
         <v>13</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="122"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="64">
         <v>1</v>
       </c>
@@ -16893,8 +17041,8 @@
       <c r="A15" s="63">
         <v>14</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="137"/>
       <c r="D15" s="64">
         <v>1</v>
       </c>
@@ -16924,7 +17072,7 @@
       <c r="A16" s="63">
         <v>15</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="64" t="s">
         <v>268</v>
       </c>
@@ -16943,7 +17091,7 @@
       <c r="A17" s="63">
         <v>16</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="135" t="s">
         <v>273</v>
       </c>
       <c r="C17" s="64" t="s">
@@ -16978,7 +17126,7 @@
       <c r="A18" s="63">
         <v>17</v>
       </c>
-      <c r="B18" s="120"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="64" t="s">
         <v>274</v>
       </c>
@@ -17011,7 +17159,7 @@
       <c r="A19" s="63">
         <v>18</v>
       </c>
-      <c r="B19" s="120"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="64" t="s">
         <v>280</v>
       </c>
@@ -17044,7 +17192,7 @@
       <c r="A20" s="63">
         <v>19</v>
       </c>
-      <c r="B20" s="120"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="64" t="s">
         <v>275</v>
       </c>
@@ -17077,7 +17225,7 @@
       <c r="A21" s="63">
         <v>20</v>
       </c>
-      <c r="B21" s="120"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="64" t="s">
         <v>276</v>
       </c>
@@ -17110,7 +17258,7 @@
       <c r="A22" s="63">
         <v>21</v>
       </c>
-      <c r="B22" s="120"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="64" t="s">
         <v>278</v>
       </c>
@@ -17143,7 +17291,7 @@
       <c r="A23" s="63">
         <v>22</v>
       </c>
-      <c r="B23" s="120"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="64" t="s">
         <v>279</v>
       </c>
@@ -17176,7 +17324,7 @@
       <c r="A24" s="63">
         <v>23</v>
       </c>
-      <c r="B24" s="120"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="64" t="s">
         <v>277</v>
       </c>
@@ -17209,7 +17357,7 @@
       <c r="A25" s="63">
         <v>24</v>
       </c>
-      <c r="B25" s="120"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="64" t="s">
         <v>267</v>
       </c>
@@ -17228,7 +17376,7 @@
       <c r="A26" s="63">
         <v>25</v>
       </c>
-      <c r="B26" s="120"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="64" t="s">
         <v>268</v>
       </c>
@@ -17244,21 +17392,21 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="120">
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="135">
         <f>SUM(J2:J26)-2.149-20</f>
         <v>2076</v>
       </c>
-      <c r="J27" s="120"/>
+      <c r="J27" s="135"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1">
       <c r="A28" s="63">
@@ -17272,21 +17420,21 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="136" t="s">
         <v>284</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="120">
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="135">
         <f>I27+J28</f>
         <v>2776</v>
       </c>
-      <c r="J29" s="120"/>
+      <c r="J29" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17316,9 +17464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55:T55"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -17406,7 +17554,7 @@
       <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="138" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="65" t="s">
@@ -17463,7 +17611,7 @@
       <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="124"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="65" t="s">
         <v>287</v>
       </c>
@@ -17520,7 +17668,7 @@
       <c r="A4" s="69">
         <v>3</v>
       </c>
-      <c r="B4" s="125"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="75" t="s">
         <v>305</v>
       </c>
@@ -17589,10 +17737,10 @@
       <c r="A5" s="63">
         <v>1</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="139" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="137" t="s">
         <v>285</v>
       </c>
       <c r="D5" s="64">
@@ -17649,8 +17797,8 @@
       <c r="A6" s="63">
         <v>2</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="122"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="64">
         <v>1460</v>
       </c>
@@ -17705,8 +17853,8 @@
       <c r="A7" s="63">
         <v>3</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="64">
         <v>2380</v>
       </c>
@@ -17761,8 +17909,8 @@
       <c r="A8" s="63">
         <v>4</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="122" t="s">
+      <c r="B8" s="139"/>
+      <c r="C8" s="137" t="s">
         <v>286</v>
       </c>
       <c r="D8" s="64">
@@ -17819,8 +17967,8 @@
       <c r="A9" s="63">
         <v>5</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="122"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="137"/>
       <c r="D9" s="64">
         <v>4360</v>
       </c>
@@ -17875,8 +18023,8 @@
       <c r="A10" s="63">
         <v>6</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="64">
         <v>3915</v>
       </c>
@@ -17931,8 +18079,8 @@
       <c r="A11" s="63">
         <v>7</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="139"/>
+      <c r="C11" s="137" t="s">
         <v>287</v>
       </c>
       <c r="D11" s="64">
@@ -17989,8 +18137,8 @@
       <c r="A12" s="63">
         <v>8</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="122"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="64">
         <v>1045</v>
       </c>
@@ -18045,8 +18193,8 @@
       <c r="A13" s="63">
         <v>9</v>
       </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="122"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="137"/>
       <c r="D13" s="64">
         <v>7840</v>
       </c>
@@ -18101,8 +18249,8 @@
       <c r="A14" s="63">
         <v>10</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="122" t="s">
+      <c r="B14" s="139"/>
+      <c r="C14" s="137" t="s">
         <v>288</v>
       </c>
       <c r="D14" s="64">
@@ -18159,8 +18307,8 @@
       <c r="A15" s="63">
         <v>11</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="137"/>
       <c r="D15" s="64">
         <v>3090</v>
       </c>
@@ -18215,8 +18363,8 @@
       <c r="A16" s="66">
         <v>12</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="130"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="67">
         <v>3010</v>
       </c>
@@ -18271,7 +18419,7 @@
       <c r="A17" s="70">
         <v>13</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="144" t="s">
         <v>289</v>
       </c>
       <c r="C17" s="71" t="s">
@@ -18329,7 +18477,7 @@
       <c r="A18" s="63">
         <v>14</v>
       </c>
-      <c r="B18" s="124"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="64" t="s">
         <v>261</v>
       </c>
@@ -18385,7 +18533,7 @@
       <c r="A19" s="63">
         <v>15</v>
       </c>
-      <c r="B19" s="124"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="64" t="s">
         <v>286</v>
       </c>
@@ -18441,7 +18589,7 @@
       <c r="A20" s="63">
         <v>16</v>
       </c>
-      <c r="B20" s="124"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="64" t="s">
         <v>275</v>
       </c>
@@ -18497,7 +18645,7 @@
       <c r="A21" s="63">
         <v>17</v>
       </c>
-      <c r="B21" s="124"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="64" t="s">
         <v>278</v>
       </c>
@@ -18555,7 +18703,7 @@
       <c r="A22" s="63">
         <v>18</v>
       </c>
-      <c r="B22" s="124"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="64" t="s">
         <v>270</v>
       </c>
@@ -18611,7 +18759,7 @@
       <c r="A23" s="63">
         <v>19</v>
       </c>
-      <c r="B23" s="124"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="64" t="s">
         <v>276</v>
       </c>
@@ -18667,7 +18815,7 @@
       <c r="A24" s="63">
         <v>20</v>
       </c>
-      <c r="B24" s="124"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="64" t="s">
         <v>290</v>
       </c>
@@ -18688,27 +18836,27 @@
         <f t="shared" si="12"/>
         <v>-88.935000000000002</v>
       </c>
-      <c r="N24" s="132" t="s">
+      <c r="N24" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="131">
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="146">
         <f>SUM(W3:W23)</f>
         <v>-5944.6999999999989</v>
       </c>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
+      <c r="V24" s="146"/>
+      <c r="W24" s="146"/>
     </row>
     <row r="25" spans="1:23" ht="24.95" customHeight="1">
       <c r="A25" s="66">
         <v>21</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="67" t="s">
         <v>258</v>
       </c>
@@ -18729,21 +18877,21 @@
         <f t="shared" ref="H25:H26" si="13">F25*G25</f>
         <v>-184.78899999999999</v>
       </c>
-      <c r="N25" s="132" t="s">
+      <c r="N25" s="147" t="s">
         <v>363</v>
       </c>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="131">
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="146">
         <f>U24*0.05</f>
         <v>-297.23499999999996</v>
       </c>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="146"/>
     </row>
     <row r="26" spans="1:23" ht="24.95" customHeight="1" thickBot="1">
       <c r="A26" s="73">
@@ -18783,27 +18931,27 @@
         <v>-1760</v>
       </c>
       <c r="L26" s="107"/>
-      <c r="N26" s="132" t="s">
+      <c r="N26" s="147" t="s">
         <v>361</v>
       </c>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="131">
+      <c r="O26" s="147"/>
+      <c r="P26" s="147"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="147"/>
+      <c r="S26" s="147"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="146">
         <f>U24*0.05</f>
         <v>-297.23499999999996</v>
       </c>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="146"/>
     </row>
     <row r="27" spans="1:23" ht="24.95" customHeight="1">
       <c r="A27" s="76">
         <v>1</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="138" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="77" t="s">
@@ -18821,27 +18969,27 @@
         <f>D27*G27</f>
         <v>195</v>
       </c>
-      <c r="N27" s="132" t="s">
+      <c r="N27" s="147" t="s">
         <v>362</v>
       </c>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="131">
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="147"/>
+      <c r="S27" s="147"/>
+      <c r="T27" s="147"/>
+      <c r="U27" s="146">
         <f>(U24+U25+U26)*0.95</f>
         <v>-6212.2114999999976</v>
       </c>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
     </row>
     <row r="28" spans="1:23" ht="24.95" customHeight="1" thickBot="1">
       <c r="A28" s="69">
         <v>2</v>
       </c>
-      <c r="B28" s="125"/>
+      <c r="B28" s="140"/>
       <c r="C28" s="78" t="s">
         <v>294</v>
       </c>
@@ -18873,7 +19021,7 @@
       <c r="A29" s="76">
         <v>1</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="138" t="s">
         <v>298</v>
       </c>
       <c r="C29" s="77" t="s">
@@ -18901,7 +19049,7 @@
       <c r="A30" s="63">
         <v>2</v>
       </c>
-      <c r="B30" s="124"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="64" t="s">
         <v>296</v>
       </c>
@@ -18922,33 +19070,33 @@
         <f t="shared" si="14"/>
         <v>2062.8675000000003</v>
       </c>
-      <c r="N30" s="134">
+      <c r="N30" s="112">
         <v>1</v>
       </c>
-      <c r="O30" s="135" t="s">
+      <c r="O30" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="136" t="s">
+      <c r="P30" s="114"/>
+      <c r="Q30" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="136">
-        <v>0</v>
-      </c>
-      <c r="S30" s="136">
+      <c r="R30" s="114">
+        <v>0</v>
+      </c>
+      <c r="S30" s="114">
         <v>100</v>
       </c>
-      <c r="T30" s="136">
+      <c r="T30" s="114">
         <f t="shared" ref="T30:T48" si="15">R30*S30</f>
         <v>0</v>
       </c>
-      <c r="U30" s="137">
-        <v>0</v>
-      </c>
-      <c r="V30" s="136">
+      <c r="U30" s="115">
+        <v>0</v>
+      </c>
+      <c r="V30" s="114">
         <v>1</v>
       </c>
-      <c r="W30" s="138">
+      <c r="W30" s="116">
         <f t="shared" ref="W30:W48" si="16">(U30-V30)*S30</f>
         <v>-100</v>
       </c>
@@ -18957,7 +19105,7 @@
       <c r="A31" s="63">
         <v>3</v>
       </c>
-      <c r="B31" s="124"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="64" t="s">
         <v>297</v>
       </c>
@@ -18978,7 +19126,7 @@
         <f t="shared" si="14"/>
         <v>2225.4749999999999</v>
       </c>
-      <c r="N31" s="139">
+      <c r="N31" s="117">
         <v>2</v>
       </c>
       <c r="O31" s="65" t="s">
@@ -19004,7 +19152,7 @@
       <c r="V31" s="65">
         <v>54</v>
       </c>
-      <c r="W31" s="140">
+      <c r="W31" s="118">
         <f>(U31-V31)*S31</f>
         <v>-225.50000000000009</v>
       </c>
@@ -19013,7 +19161,7 @@
       <c r="A32" s="69">
         <v>4</v>
       </c>
-      <c r="B32" s="125"/>
+      <c r="B32" s="140"/>
       <c r="C32" s="78" t="s">
         <v>258</v>
       </c>
@@ -19045,7 +19193,7 @@
         <v>958.49999999999955</v>
       </c>
       <c r="L32" s="85"/>
-      <c r="N32" s="139">
+      <c r="N32" s="117">
         <v>3</v>
       </c>
       <c r="O32" s="65" t="s">
@@ -19073,7 +19221,7 @@
       <c r="V32" s="65">
         <v>21.88</v>
       </c>
-      <c r="W32" s="140">
+      <c r="W32" s="118">
         <f t="shared" ref="W32" si="19">(U32-V32)*S32</f>
         <v>-426.59999999999957</v>
       </c>
@@ -19082,7 +19230,7 @@
       <c r="A33" s="76">
         <v>1</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="138" t="s">
         <v>299</v>
       </c>
       <c r="C33" s="77" t="s">
@@ -19105,7 +19253,7 @@
         <f t="shared" ref="H33:H43" si="20">F33*G33</f>
         <v>5333.625</v>
       </c>
-      <c r="N33" s="139">
+      <c r="N33" s="117">
         <v>4</v>
       </c>
       <c r="O33" s="65" t="s">
@@ -19133,7 +19281,7 @@
       <c r="V33" s="65">
         <v>90</v>
       </c>
-      <c r="W33" s="140">
+      <c r="W33" s="118">
         <f t="shared" si="16"/>
         <v>-4950</v>
       </c>
@@ -19142,7 +19290,7 @@
       <c r="A34" s="63">
         <v>2</v>
       </c>
-      <c r="B34" s="124"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="64" t="s">
         <v>296</v>
       </c>
@@ -19163,7 +19311,7 @@
         <f t="shared" si="20"/>
         <v>5463.5625</v>
       </c>
-      <c r="N34" s="139">
+      <c r="N34" s="117">
         <v>5</v>
       </c>
       <c r="O34" s="65" t="s">
@@ -19191,7 +19339,7 @@
       <c r="V34" s="65">
         <v>80</v>
       </c>
-      <c r="W34" s="140">
+      <c r="W34" s="118">
         <f t="shared" si="16"/>
         <v>1600</v>
       </c>
@@ -19200,7 +19348,7 @@
       <c r="A35" s="63">
         <v>3</v>
       </c>
-      <c r="B35" s="124"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="64" t="s">
         <v>297</v>
       </c>
@@ -19221,7 +19369,7 @@
         <f t="shared" si="20"/>
         <v>5841</v>
       </c>
-      <c r="N35" s="139">
+      <c r="N35" s="117">
         <v>6</v>
       </c>
       <c r="O35" s="65" t="s">
@@ -19249,7 +19397,7 @@
       <c r="V35" s="65">
         <v>9</v>
       </c>
-      <c r="W35" s="140">
+      <c r="W35" s="118">
         <f t="shared" si="16"/>
         <v>-1170</v>
       </c>
@@ -19258,7 +19406,7 @@
       <c r="A36" s="66">
         <v>4</v>
       </c>
-      <c r="B36" s="128"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="67" t="s">
         <v>258</v>
       </c>
@@ -19279,7 +19427,7 @@
         <f t="shared" si="20"/>
         <v>5556.375</v>
       </c>
-      <c r="N36" s="139">
+      <c r="N36" s="117">
         <v>7</v>
       </c>
       <c r="O36" s="65" t="s">
@@ -19307,7 +19455,7 @@
       <c r="V36" s="65">
         <v>118</v>
       </c>
-      <c r="W36" s="140">
+      <c r="W36" s="118">
         <f t="shared" si="16"/>
         <v>-495</v>
       </c>
@@ -19316,7 +19464,7 @@
       <c r="A37" s="63">
         <v>5</v>
       </c>
-      <c r="B37" s="124" t="s">
+      <c r="B37" s="139" t="s">
         <v>289</v>
       </c>
       <c r="C37" s="64" t="s">
@@ -19339,7 +19487,7 @@
         <f t="shared" si="20"/>
         <v>-44.467500000000001</v>
       </c>
-      <c r="N37" s="139">
+      <c r="N37" s="117">
         <v>8</v>
       </c>
       <c r="O37" s="65" t="s">
@@ -19367,7 +19515,7 @@
       <c r="V37" s="65">
         <v>15</v>
       </c>
-      <c r="W37" s="140">
+      <c r="W37" s="118">
         <f t="shared" si="16"/>
         <v>-330</v>
       </c>
@@ -19376,7 +19524,7 @@
       <c r="A38" s="63">
         <v>6</v>
       </c>
-      <c r="B38" s="124"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="64" t="s">
         <v>296</v>
       </c>
@@ -19401,7 +19549,7 @@
       <c r="J38" s="64"/>
       <c r="K38" s="64"/>
       <c r="L38" s="106"/>
-      <c r="N38" s="139">
+      <c r="N38" s="117">
         <v>9</v>
       </c>
       <c r="O38" s="65" t="s">
@@ -19429,7 +19577,7 @@
       <c r="V38" s="65">
         <v>11.5</v>
       </c>
-      <c r="W38" s="140">
+      <c r="W38" s="118">
         <f t="shared" si="16"/>
         <v>-300</v>
       </c>
@@ -19438,7 +19586,7 @@
       <c r="A39" s="63">
         <v>7</v>
       </c>
-      <c r="B39" s="124"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="64" t="s">
         <v>297</v>
       </c>
@@ -19463,7 +19611,7 @@
       <c r="J39" s="64"/>
       <c r="K39" s="64"/>
       <c r="L39" s="106"/>
-      <c r="N39" s="139">
+      <c r="N39" s="117">
         <v>10</v>
       </c>
       <c r="O39" s="65" t="s">
@@ -19491,7 +19639,7 @@
       <c r="V39" s="65">
         <v>5</v>
       </c>
-      <c r="W39" s="140">
+      <c r="W39" s="118">
         <f t="shared" si="16"/>
         <v>-171.20000000000002</v>
       </c>
@@ -19500,7 +19648,7 @@
       <c r="A40" s="66">
         <v>8</v>
       </c>
-      <c r="B40" s="128"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="67" t="s">
         <v>258</v>
       </c>
@@ -19525,7 +19673,7 @@
       <c r="J40" s="64"/>
       <c r="K40" s="64"/>
       <c r="L40" s="106"/>
-      <c r="N40" s="139">
+      <c r="N40" s="117">
         <v>11</v>
       </c>
       <c r="O40" s="65" t="s">
@@ -19553,7 +19701,7 @@
       <c r="V40" s="65">
         <v>6</v>
       </c>
-      <c r="W40" s="140">
+      <c r="W40" s="118">
         <f t="shared" si="16"/>
         <v>49.000000000000014</v>
       </c>
@@ -19562,7 +19710,7 @@
       <c r="A41" s="63">
         <v>9</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="144" t="s">
         <v>291</v>
       </c>
       <c r="C41" s="64" t="s">
@@ -19590,7 +19738,7 @@
       <c r="K41" s="64"/>
       <c r="L41" s="106"/>
       <c r="M41" s="64"/>
-      <c r="N41" s="139">
+      <c r="N41" s="117">
         <v>12</v>
       </c>
       <c r="O41" s="65" t="s">
@@ -19618,7 +19766,7 @@
       <c r="V41" s="65">
         <v>10</v>
       </c>
-      <c r="W41" s="140">
+      <c r="W41" s="118">
         <f t="shared" si="16"/>
         <v>-50.999999999999979</v>
       </c>
@@ -19627,7 +19775,7 @@
       <c r="A42" s="63">
         <v>10</v>
       </c>
-      <c r="B42" s="124"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="64" t="s">
         <v>296</v>
       </c>
@@ -19653,7 +19801,7 @@
       <c r="K42" s="64"/>
       <c r="L42" s="106"/>
       <c r="M42" s="64"/>
-      <c r="N42" s="139">
+      <c r="N42" s="117">
         <v>13</v>
       </c>
       <c r="O42" s="65" t="s">
@@ -19681,7 +19829,7 @@
       <c r="V42" s="65">
         <v>3</v>
       </c>
-      <c r="W42" s="140">
+      <c r="W42" s="118">
         <f t="shared" si="16"/>
         <v>632.5</v>
       </c>
@@ -19690,7 +19838,7 @@
       <c r="A43" s="63">
         <v>11</v>
       </c>
-      <c r="B43" s="124"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="64" t="s">
         <v>297</v>
       </c>
@@ -19716,7 +19864,7 @@
       <c r="K43" s="64"/>
       <c r="L43" s="106"/>
       <c r="M43" s="64"/>
-      <c r="N43" s="139">
+      <c r="N43" s="117">
         <v>14</v>
       </c>
       <c r="O43" s="65" t="s">
@@ -19744,7 +19892,7 @@
       <c r="V43" s="65">
         <v>6</v>
       </c>
-      <c r="W43" s="140">
+      <c r="W43" s="118">
         <f t="shared" si="16"/>
         <v>266</v>
       </c>
@@ -19753,7 +19901,7 @@
       <c r="A44" s="69">
         <v>12</v>
       </c>
-      <c r="B44" s="125"/>
+      <c r="B44" s="140"/>
       <c r="C44" s="78" t="s">
         <v>258</v>
       </c>
@@ -19786,7 +19934,7 @@
       </c>
       <c r="L44" s="69"/>
       <c r="M44" s="78"/>
-      <c r="N44" s="139">
+      <c r="N44" s="117">
         <v>15</v>
       </c>
       <c r="O44" s="65" t="s">
@@ -19812,7 +19960,7 @@
       <c r="V44" s="65">
         <v>1</v>
       </c>
-      <c r="W44" s="140">
+      <c r="W44" s="118">
         <f t="shared" si="16"/>
         <v>-135</v>
       </c>
@@ -19821,7 +19969,7 @@
       <c r="A45" s="76">
         <v>1</v>
       </c>
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="138" t="s">
         <v>308</v>
       </c>
       <c r="C45" s="77" t="s">
@@ -19849,7 +19997,7 @@
       <c r="K45" s="77"/>
       <c r="L45" s="77"/>
       <c r="M45" s="77"/>
-      <c r="N45" s="141">
+      <c r="N45" s="119">
         <v>16</v>
       </c>
       <c r="O45" s="68" t="s">
@@ -19875,7 +20023,7 @@
       <c r="V45" s="68">
         <v>0</v>
       </c>
-      <c r="W45" s="142">
+      <c r="W45" s="120">
         <f t="shared" si="16"/>
         <v>750</v>
       </c>
@@ -19884,7 +20032,7 @@
       <c r="A46" s="63">
         <v>2</v>
       </c>
-      <c r="B46" s="124"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="64" t="s">
         <v>310</v>
       </c>
@@ -19910,7 +20058,7 @@
       <c r="K46" s="64"/>
       <c r="L46" s="106"/>
       <c r="M46" s="64"/>
-      <c r="N46" s="139">
+      <c r="N46" s="117">
         <v>17</v>
       </c>
       <c r="O46" s="65" t="s">
@@ -19936,7 +20084,7 @@
       <c r="V46" s="65">
         <v>0</v>
       </c>
-      <c r="W46" s="140">
+      <c r="W46" s="118">
         <f t="shared" si="16"/>
         <v>998</v>
       </c>
@@ -19945,7 +20093,7 @@
       <c r="A47" s="63">
         <v>3</v>
       </c>
-      <c r="B47" s="124"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="64" t="s">
         <v>311</v>
       </c>
@@ -19971,7 +20119,7 @@
       <c r="K47" s="64"/>
       <c r="L47" s="106"/>
       <c r="M47" s="64"/>
-      <c r="N47" s="139">
+      <c r="N47" s="117">
         <v>18</v>
       </c>
       <c r="O47" s="65" t="s">
@@ -19997,7 +20145,7 @@
       <c r="V47" s="65">
         <v>0</v>
       </c>
-      <c r="W47" s="140">
+      <c r="W47" s="118">
         <f t="shared" si="16"/>
         <v>360</v>
       </c>
@@ -20006,7 +20154,7 @@
       <c r="A48" s="63">
         <v>4</v>
       </c>
-      <c r="B48" s="124"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="64" t="s">
         <v>312</v>
       </c>
@@ -20032,7 +20180,7 @@
       <c r="K48" s="85"/>
       <c r="L48" s="85"/>
       <c r="M48" s="64"/>
-      <c r="N48" s="139">
+      <c r="N48" s="117">
         <v>19</v>
       </c>
       <c r="O48" s="65" t="s">
@@ -20058,7 +20206,7 @@
       <c r="V48" s="65">
         <v>0</v>
       </c>
-      <c r="W48" s="140">
+      <c r="W48" s="118">
         <f t="shared" si="16"/>
         <v>91</v>
       </c>
@@ -20067,7 +20215,7 @@
       <c r="A49" s="63">
         <v>5</v>
       </c>
-      <c r="B49" s="124"/>
+      <c r="B49" s="139"/>
       <c r="C49" s="64" t="s">
         <v>317</v>
       </c>
@@ -20093,7 +20241,7 @@
       <c r="K49" s="85"/>
       <c r="L49" s="85"/>
       <c r="M49" s="64"/>
-      <c r="N49" s="139">
+      <c r="N49" s="117">
         <v>20</v>
       </c>
       <c r="O49" s="65" t="s">
@@ -20119,7 +20267,7 @@
       <c r="V49" s="65">
         <v>0</v>
       </c>
-      <c r="W49" s="140">
+      <c r="W49" s="118">
         <f>(U49-V49)*S49</f>
         <v>300</v>
       </c>
@@ -20128,7 +20276,7 @@
       <c r="A50" s="63">
         <v>6</v>
       </c>
-      <c r="B50" s="124"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="64" t="s">
         <v>313</v>
       </c>
@@ -20154,7 +20302,7 @@
       <c r="K50" s="85"/>
       <c r="L50" s="85"/>
       <c r="M50" s="64"/>
-      <c r="N50" s="139">
+      <c r="N50" s="117">
         <v>21</v>
       </c>
       <c r="O50" s="65" t="s">
@@ -20182,7 +20330,7 @@
       <c r="V50" s="65">
         <v>3</v>
       </c>
-      <c r="W50" s="140">
+      <c r="W50" s="118">
         <f>(U50-V50)*S50</f>
         <v>-2250</v>
       </c>
@@ -20191,7 +20339,7 @@
       <c r="A51" s="63">
         <v>7</v>
       </c>
-      <c r="B51" s="124"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="64" t="s">
         <v>314</v>
       </c>
@@ -20217,7 +20365,7 @@
       <c r="K51" s="85"/>
       <c r="L51" s="85"/>
       <c r="M51" s="64"/>
-      <c r="N51" s="139">
+      <c r="N51" s="117">
         <v>22</v>
       </c>
       <c r="O51" s="65" t="s">
@@ -20243,7 +20391,7 @@
       <c r="V51" s="65">
         <v>3</v>
       </c>
-      <c r="W51" s="140">
+      <c r="W51" s="118">
         <f>(U51-V51)*S51</f>
         <v>-450</v>
       </c>
@@ -20252,7 +20400,7 @@
       <c r="A52" s="63">
         <v>8</v>
       </c>
-      <c r="B52" s="124"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="64" t="s">
         <v>315</v>
       </c>
@@ -20278,7 +20426,7 @@
       <c r="K52" s="85"/>
       <c r="L52" s="85"/>
       <c r="M52" s="64"/>
-      <c r="N52" s="141">
+      <c r="N52" s="119">
         <v>23</v>
       </c>
       <c r="O52" s="68" t="s">
@@ -20304,7 +20452,7 @@
       <c r="V52" s="68">
         <v>1</v>
       </c>
-      <c r="W52" s="142">
+      <c r="W52" s="120">
         <f>(U52-V52)*S52</f>
         <v>-400</v>
       </c>
@@ -20313,7 +20461,7 @@
       <c r="A53" s="63">
         <v>9</v>
       </c>
-      <c r="B53" s="124"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="64" t="s">
         <v>316</v>
       </c>
@@ -20339,27 +20487,27 @@
       <c r="K53" s="85"/>
       <c r="L53" s="85"/>
       <c r="M53" s="64"/>
-      <c r="N53" s="143" t="s">
+      <c r="N53" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="O53" s="144"/>
-      <c r="P53" s="144"/>
-      <c r="Q53" s="144"/>
-      <c r="R53" s="144"/>
-      <c r="S53" s="144"/>
-      <c r="T53" s="144"/>
-      <c r="U53" s="145">
+      <c r="O53" s="153"/>
+      <c r="P53" s="153"/>
+      <c r="Q53" s="153"/>
+      <c r="R53" s="153"/>
+      <c r="S53" s="153"/>
+      <c r="T53" s="153"/>
+      <c r="U53" s="154">
         <f>SUM(W30:W52)</f>
         <v>-6407.7999999999993</v>
       </c>
-      <c r="V53" s="145"/>
-      <c r="W53" s="146"/>
+      <c r="V53" s="154"/>
+      <c r="W53" s="155"/>
     </row>
     <row r="54" spans="1:23" ht="24.95" customHeight="1">
       <c r="A54" s="63">
         <v>10</v>
       </c>
-      <c r="B54" s="124" t="s">
+      <c r="B54" s="139" t="s">
         <v>289</v>
       </c>
       <c r="C54" s="64" t="s">
@@ -20382,27 +20530,27 @@
         <f t="shared" si="27"/>
         <v>-88.935000000000002</v>
       </c>
-      <c r="N54" s="143" t="s">
+      <c r="N54" s="152" t="s">
         <v>363</v>
       </c>
-      <c r="O54" s="144"/>
-      <c r="P54" s="144"/>
-      <c r="Q54" s="144"/>
-      <c r="R54" s="144"/>
-      <c r="S54" s="144"/>
-      <c r="T54" s="144"/>
-      <c r="U54" s="145">
+      <c r="O54" s="153"/>
+      <c r="P54" s="153"/>
+      <c r="Q54" s="153"/>
+      <c r="R54" s="153"/>
+      <c r="S54" s="153"/>
+      <c r="T54" s="153"/>
+      <c r="U54" s="154">
         <f>U53*0.05</f>
         <v>-320.39</v>
       </c>
-      <c r="V54" s="145"/>
-      <c r="W54" s="146"/>
+      <c r="V54" s="154"/>
+      <c r="W54" s="155"/>
     </row>
     <row r="55" spans="1:23" ht="24.95" customHeight="1">
       <c r="A55" s="63">
         <v>11</v>
       </c>
-      <c r="B55" s="124"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="64" t="s">
         <v>296</v>
       </c>
@@ -20427,27 +20575,27 @@
       <c r="J55" s="64"/>
       <c r="K55" s="64"/>
       <c r="L55" s="106"/>
-      <c r="N55" s="143" t="s">
+      <c r="N55" s="152" t="s">
         <v>361</v>
       </c>
-      <c r="O55" s="144"/>
-      <c r="P55" s="144"/>
-      <c r="Q55" s="144"/>
-      <c r="R55" s="144"/>
-      <c r="S55" s="144"/>
-      <c r="T55" s="144"/>
-      <c r="U55" s="145">
+      <c r="O55" s="153"/>
+      <c r="P55" s="153"/>
+      <c r="Q55" s="153"/>
+      <c r="R55" s="153"/>
+      <c r="S55" s="153"/>
+      <c r="T55" s="153"/>
+      <c r="U55" s="154">
         <f>U53*0.05</f>
         <v>-320.39</v>
       </c>
-      <c r="V55" s="145"/>
-      <c r="W55" s="146"/>
+      <c r="V55" s="154"/>
+      <c r="W55" s="155"/>
     </row>
     <row r="56" spans="1:23" ht="24.95" customHeight="1" thickBot="1">
       <c r="A56" s="63">
         <v>12</v>
       </c>
-      <c r="B56" s="124"/>
+      <c r="B56" s="139"/>
       <c r="C56" s="64" t="s">
         <v>297</v>
       </c>
@@ -20472,27 +20620,27 @@
       <c r="J56" s="64"/>
       <c r="K56" s="64"/>
       <c r="L56" s="106"/>
-      <c r="N56" s="147" t="s">
+      <c r="N56" s="148" t="s">
         <v>362</v>
       </c>
-      <c r="O56" s="148"/>
-      <c r="P56" s="148"/>
-      <c r="Q56" s="148"/>
-      <c r="R56" s="148"/>
-      <c r="S56" s="148"/>
-      <c r="T56" s="148"/>
-      <c r="U56" s="149">
+      <c r="O56" s="149"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="149"/>
+      <c r="R56" s="149"/>
+      <c r="S56" s="149"/>
+      <c r="T56" s="149"/>
+      <c r="U56" s="150">
         <f>(U53+U54+U55)*0.95</f>
         <v>-6696.1509999999998</v>
       </c>
-      <c r="V56" s="149"/>
-      <c r="W56" s="150"/>
+      <c r="V56" s="150"/>
+      <c r="W56" s="151"/>
     </row>
     <row r="57" spans="1:23" ht="24.95" customHeight="1" thickTop="1">
       <c r="A57" s="63">
         <v>13</v>
       </c>
-      <c r="B57" s="124"/>
+      <c r="B57" s="139"/>
       <c r="C57" s="64" t="s">
         <v>258</v>
       </c>
@@ -20522,7 +20670,7 @@
       <c r="A58" s="63">
         <v>14</v>
       </c>
-      <c r="B58" s="124" t="s">
+      <c r="B58" s="139" t="s">
         <v>291</v>
       </c>
       <c r="C58" s="64" t="s">
@@ -20555,7 +20703,7 @@
       <c r="A59" s="63">
         <v>15</v>
       </c>
-      <c r="B59" s="124"/>
+      <c r="B59" s="139"/>
       <c r="C59" s="64" t="s">
         <v>296</v>
       </c>
@@ -20586,7 +20734,7 @@
       <c r="A60" s="63">
         <v>16</v>
       </c>
-      <c r="B60" s="124"/>
+      <c r="B60" s="139"/>
       <c r="C60" s="64" t="s">
         <v>297</v>
       </c>
@@ -20617,7 +20765,7 @@
       <c r="A61" s="69">
         <v>17</v>
       </c>
-      <c r="B61" s="125"/>
+      <c r="B61" s="140"/>
       <c r="C61" s="78" t="s">
         <v>258</v>
       </c>
@@ -20655,7 +20803,7 @@
       <c r="A62" s="62">
         <v>1</v>
       </c>
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="138" t="s">
         <v>318</v>
       </c>
       <c r="C62" s="61" t="s">
@@ -20683,7 +20831,7 @@
       <c r="A63" s="62">
         <v>2</v>
       </c>
-      <c r="B63" s="124"/>
+      <c r="B63" s="139"/>
       <c r="C63" s="61" t="s">
         <v>320</v>
       </c>
@@ -20709,7 +20857,7 @@
       <c r="A64" s="62">
         <v>3</v>
       </c>
-      <c r="B64" s="124"/>
+      <c r="B64" s="139"/>
       <c r="C64" s="61" t="s">
         <v>321</v>
       </c>
@@ -20735,8 +20883,8 @@
       <c r="A65" s="62">
         <v>4</v>
       </c>
-      <c r="B65" s="124"/>
-      <c r="C65" s="127" t="s">
+      <c r="B65" s="139"/>
+      <c r="C65" s="142" t="s">
         <v>261</v>
       </c>
       <c r="D65" s="61">
@@ -20761,8 +20909,8 @@
       <c r="A66" s="62">
         <v>5</v>
       </c>
-      <c r="B66" s="124"/>
-      <c r="C66" s="127"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="142"/>
       <c r="D66" s="61">
         <v>11204</v>
       </c>
@@ -20785,7 +20933,7 @@
       <c r="A67" s="62">
         <v>6</v>
       </c>
-      <c r="B67" s="124"/>
+      <c r="B67" s="139"/>
       <c r="C67" s="61" t="s">
         <v>286</v>
       </c>
@@ -20811,7 +20959,7 @@
       <c r="A68" s="62">
         <v>7</v>
       </c>
-      <c r="B68" s="124"/>
+      <c r="B68" s="139"/>
       <c r="C68" s="61" t="s">
         <v>288</v>
       </c>
@@ -20837,7 +20985,7 @@
       <c r="A69" s="62">
         <v>8</v>
       </c>
-      <c r="B69" s="124"/>
+      <c r="B69" s="139"/>
       <c r="C69" s="61" t="s">
         <v>257</v>
       </c>
@@ -20863,8 +21011,8 @@
       <c r="A70" s="62">
         <v>9</v>
       </c>
-      <c r="B70" s="124"/>
-      <c r="C70" s="127" t="s">
+      <c r="B70" s="139"/>
+      <c r="C70" s="142" t="s">
         <v>275</v>
       </c>
       <c r="D70" s="61">
@@ -20889,8 +21037,8 @@
       <c r="A71" s="62">
         <v>10</v>
       </c>
-      <c r="B71" s="124"/>
-      <c r="C71" s="127"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="142"/>
       <c r="D71" s="61">
         <v>13370</v>
       </c>
@@ -20913,8 +21061,8 @@
       <c r="A72" s="62">
         <v>11</v>
       </c>
-      <c r="B72" s="124"/>
-      <c r="C72" s="127" t="s">
+      <c r="B72" s="139"/>
+      <c r="C72" s="142" t="s">
         <v>276</v>
       </c>
       <c r="D72" s="61">
@@ -20939,8 +21087,8 @@
       <c r="A73" s="62">
         <v>12</v>
       </c>
-      <c r="B73" s="124"/>
-      <c r="C73" s="127"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="142"/>
       <c r="D73" s="61">
         <v>12680</v>
       </c>
@@ -20963,8 +21111,8 @@
       <c r="A74" s="62">
         <v>13</v>
       </c>
-      <c r="B74" s="124"/>
-      <c r="C74" s="127" t="s">
+      <c r="B74" s="139"/>
+      <c r="C74" s="142" t="s">
         <v>278</v>
       </c>
       <c r="D74" s="61">
@@ -20989,8 +21137,8 @@
       <c r="A75" s="62">
         <v>14</v>
       </c>
-      <c r="B75" s="124"/>
-      <c r="C75" s="127"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="142"/>
       <c r="D75" s="61">
         <v>10320</v>
       </c>
@@ -21013,8 +21161,8 @@
       <c r="A76" s="62">
         <v>15</v>
       </c>
-      <c r="B76" s="124"/>
-      <c r="C76" s="127" t="s">
+      <c r="B76" s="139"/>
+      <c r="C76" s="142" t="s">
         <v>270</v>
       </c>
       <c r="D76" s="61">
@@ -21039,8 +21187,8 @@
       <c r="A77" s="62">
         <v>16</v>
       </c>
-      <c r="B77" s="124"/>
-      <c r="C77" s="127"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="142"/>
       <c r="D77" s="61">
         <v>14814</v>
       </c>
@@ -21063,8 +21211,8 @@
       <c r="A78" s="62">
         <v>17</v>
       </c>
-      <c r="B78" s="124"/>
-      <c r="C78" s="127" t="s">
+      <c r="B78" s="139"/>
+      <c r="C78" s="142" t="s">
         <v>322</v>
       </c>
       <c r="D78" s="61">
@@ -21089,8 +21237,8 @@
       <c r="A79" s="62">
         <v>18</v>
       </c>
-      <c r="B79" s="124"/>
-      <c r="C79" s="127"/>
+      <c r="B79" s="139"/>
+      <c r="C79" s="142"/>
       <c r="D79" s="61">
         <v>6144</v>
       </c>
@@ -21113,7 +21261,7 @@
       <c r="A80" s="62">
         <v>19</v>
       </c>
-      <c r="B80" s="126" t="s">
+      <c r="B80" s="141" t="s">
         <v>289</v>
       </c>
       <c r="C80" s="61" t="s">
@@ -21141,7 +21289,7 @@
       <c r="A81" s="62">
         <v>20</v>
       </c>
-      <c r="B81" s="126"/>
+      <c r="B81" s="141"/>
       <c r="C81" s="61" t="s">
         <v>275</v>
       </c>
@@ -21167,7 +21315,7 @@
       <c r="A82" s="62">
         <v>21</v>
       </c>
-      <c r="B82" s="126"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="61" t="s">
         <v>276</v>
       </c>
@@ -21193,7 +21341,7 @@
       <c r="A83" s="62">
         <v>22</v>
       </c>
-      <c r="B83" s="126"/>
+      <c r="B83" s="141"/>
       <c r="C83" s="61" t="s">
         <v>278</v>
       </c>
@@ -21219,7 +21367,7 @@
       <c r="A84" s="62">
         <v>23</v>
       </c>
-      <c r="B84" s="126"/>
+      <c r="B84" s="141"/>
       <c r="C84" s="61" t="s">
         <v>270</v>
       </c>
@@ -21245,7 +21393,7 @@
       <c r="A85" s="62">
         <v>24</v>
       </c>
-      <c r="B85" s="126"/>
+      <c r="B85" s="141"/>
       <c r="C85" s="61" t="s">
         <v>322</v>
       </c>
@@ -21271,7 +21419,7 @@
       <c r="A86" s="63">
         <v>25</v>
       </c>
-      <c r="B86" s="124" t="s">
+      <c r="B86" s="139" t="s">
         <v>291</v>
       </c>
       <c r="C86" s="64" t="s">
@@ -21303,7 +21451,7 @@
       <c r="A87" s="63">
         <v>26</v>
       </c>
-      <c r="B87" s="124"/>
+      <c r="B87" s="139"/>
       <c r="C87" s="64" t="s">
         <v>275</v>
       </c>
@@ -21333,7 +21481,7 @@
       <c r="A88" s="63">
         <v>27</v>
       </c>
-      <c r="B88" s="124"/>
+      <c r="B88" s="139"/>
       <c r="C88" s="64" t="s">
         <v>276</v>
       </c>
@@ -21363,7 +21511,7 @@
       <c r="A89" s="63">
         <v>28</v>
       </c>
-      <c r="B89" s="124"/>
+      <c r="B89" s="139"/>
       <c r="C89" s="64" t="s">
         <v>278</v>
       </c>
@@ -21393,7 +21541,7 @@
       <c r="A90" s="69">
         <v>29</v>
       </c>
-      <c r="B90" s="125"/>
+      <c r="B90" s="140"/>
       <c r="C90" s="78" t="s">
         <v>270</v>
       </c>
@@ -21430,7 +21578,7 @@
       <c r="A91" s="63">
         <v>1</v>
       </c>
-      <c r="B91" s="124" t="s">
+      <c r="B91" s="139" t="s">
         <v>324</v>
       </c>
       <c r="C91" s="64" t="s">
@@ -21462,7 +21610,7 @@
       <c r="A92" s="63">
         <v>2</v>
       </c>
-      <c r="B92" s="124"/>
+      <c r="B92" s="139"/>
       <c r="C92" s="64" t="s">
         <v>296</v>
       </c>
@@ -21492,7 +21640,7 @@
       <c r="A93" s="69">
         <v>3</v>
       </c>
-      <c r="B93" s="125"/>
+      <c r="B93" s="140"/>
       <c r="C93" s="78" t="s">
         <v>297</v>
       </c>
@@ -21593,7 +21741,7 @@
       <c r="A96" s="76">
         <v>1</v>
       </c>
-      <c r="B96" s="123" t="s">
+      <c r="B96" s="138" t="s">
         <v>327</v>
       </c>
       <c r="C96" s="77" t="s">
@@ -21625,7 +21773,7 @@
       <c r="A97" s="63">
         <v>2</v>
       </c>
-      <c r="B97" s="124"/>
+      <c r="B97" s="139"/>
       <c r="C97" s="64" t="s">
         <v>329</v>
       </c>
@@ -21655,7 +21803,7 @@
       <c r="A98" s="63">
         <v>3</v>
       </c>
-      <c r="B98" s="124"/>
+      <c r="B98" s="139"/>
       <c r="C98" s="64" t="s">
         <v>294</v>
       </c>
@@ -21685,7 +21833,7 @@
       <c r="A99" s="69">
         <v>4</v>
       </c>
-      <c r="B99" s="125"/>
+      <c r="B99" s="140"/>
       <c r="C99" s="78" t="s">
         <v>307</v>
       </c>
@@ -21740,7 +21888,7 @@
       <c r="A101" s="76">
         <v>1</v>
       </c>
-      <c r="B101" s="123" t="s">
+      <c r="B101" s="138" t="s">
         <v>333</v>
       </c>
       <c r="C101" s="77" t="s">
@@ -21774,7 +21922,7 @@
       <c r="A102" s="63">
         <v>2</v>
       </c>
-      <c r="B102" s="124"/>
+      <c r="B102" s="139"/>
       <c r="C102" s="64" t="s">
         <v>331</v>
       </c>
@@ -21806,7 +21954,7 @@
       <c r="A103" s="69">
         <v>3</v>
       </c>
-      <c r="B103" s="125"/>
+      <c r="B103" s="140"/>
       <c r="C103" s="78" t="s">
         <v>332</v>
       </c>
@@ -21888,14 +22036,796 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25" thickTop="1">
+      <c r="A1" s="112">
+        <v>1</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="114">
+        <v>0</v>
+      </c>
+      <c r="F1" s="114">
+        <v>100</v>
+      </c>
+      <c r="G1" s="114">
+        <f t="shared" ref="G1:G19" si="0">E1*F1</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="115">
+        <v>0</v>
+      </c>
+      <c r="I1" s="114">
+        <v>1</v>
+      </c>
+      <c r="J1" s="116">
+        <f t="shared" ref="J1:J19" si="1">(H1-I1)*F1</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="117">
+        <v>2</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="65">
+        <v>49.9</v>
+      </c>
+      <c r="F2" s="65">
+        <v>55</v>
+      </c>
+      <c r="G2" s="65">
+        <f>E2*F2</f>
+        <v>2744.5</v>
+      </c>
+      <c r="H2" s="95">
+        <v>49.9</v>
+      </c>
+      <c r="I2" s="65">
+        <v>54</v>
+      </c>
+      <c r="J2" s="118">
+        <f>(H2-I2)*F2</f>
+        <v>-225.50000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="117">
+        <v>3</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="65">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="F3" s="65">
+        <v>180</v>
+      </c>
+      <c r="G3" s="65">
+        <f t="shared" ref="G3" si="2">E3*F3</f>
+        <v>3511.8</v>
+      </c>
+      <c r="H3" s="95">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="I3" s="65">
+        <v>21.88</v>
+      </c>
+      <c r="J3" s="118">
+        <f t="shared" ref="J3" si="3">(H3-I3)*F3</f>
+        <v>-426.59999999999957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="117">
+        <v>4</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="65">
+        <v>90</v>
+      </c>
+      <c r="F4" s="65">
+        <v>55</v>
+      </c>
+      <c r="G4" s="65">
+        <f t="shared" si="0"/>
+        <v>4950</v>
+      </c>
+      <c r="H4" s="95">
+        <v>0</v>
+      </c>
+      <c r="I4" s="65">
+        <v>90</v>
+      </c>
+      <c r="J4" s="118">
+        <f t="shared" si="1"/>
+        <v>-4950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="117">
+        <v>5</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="65">
+        <v>96</v>
+      </c>
+      <c r="F5" s="65">
+        <v>100</v>
+      </c>
+      <c r="G5" s="65">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+      <c r="H5" s="95">
+        <v>96</v>
+      </c>
+      <c r="I5" s="65">
+        <v>80</v>
+      </c>
+      <c r="J5" s="118">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="117">
+        <v>6</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="65">
+        <v>0</v>
+      </c>
+      <c r="F6" s="65">
+        <v>130</v>
+      </c>
+      <c r="G6" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="95">
+        <v>0</v>
+      </c>
+      <c r="I6" s="65">
+        <v>9</v>
+      </c>
+      <c r="J6" s="118">
+        <f t="shared" si="1"/>
+        <v>-1170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="117">
+        <v>7</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="65">
+        <v>109</v>
+      </c>
+      <c r="F7" s="65">
+        <v>55</v>
+      </c>
+      <c r="G7" s="65">
+        <f t="shared" si="0"/>
+        <v>5995</v>
+      </c>
+      <c r="H7" s="95">
+        <v>109</v>
+      </c>
+      <c r="I7" s="65">
+        <v>118</v>
+      </c>
+      <c r="J7" s="118">
+        <f t="shared" si="1"/>
+        <v>-495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="117">
+        <v>8</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="65">
+        <v>14</v>
+      </c>
+      <c r="F8" s="65">
+        <v>330</v>
+      </c>
+      <c r="G8" s="65">
+        <f t="shared" si="0"/>
+        <v>4620</v>
+      </c>
+      <c r="H8" s="95">
+        <v>14</v>
+      </c>
+      <c r="I8" s="65">
+        <v>15</v>
+      </c>
+      <c r="J8" s="118">
+        <f t="shared" si="1"/>
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="117">
+        <v>9</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="E9" s="65">
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="65">
+        <v>150</v>
+      </c>
+      <c r="G9" s="65">
+        <f t="shared" si="0"/>
+        <v>1425</v>
+      </c>
+      <c r="H9" s="95">
+        <v>9.5</v>
+      </c>
+      <c r="I9" s="65">
+        <v>11.5</v>
+      </c>
+      <c r="J9" s="118">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="117">
+        <v>10</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="65">
+        <v>2.86</v>
+      </c>
+      <c r="F10" s="65">
+        <v>80</v>
+      </c>
+      <c r="G10" s="65">
+        <f t="shared" si="0"/>
+        <v>228.79999999999998</v>
+      </c>
+      <c r="H10" s="95">
+        <v>2.86</v>
+      </c>
+      <c r="I10" s="65">
+        <v>5</v>
+      </c>
+      <c r="J10" s="118">
+        <f t="shared" si="1"/>
+        <v>-171.20000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="117">
+        <v>11</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="65">
+        <v>6.7</v>
+      </c>
+      <c r="F11" s="65">
+        <v>70</v>
+      </c>
+      <c r="G11" s="65">
+        <f t="shared" si="0"/>
+        <v>469</v>
+      </c>
+      <c r="H11" s="95">
+        <v>6.7</v>
+      </c>
+      <c r="I11" s="65">
+        <v>6</v>
+      </c>
+      <c r="J11" s="118">
+        <f t="shared" si="1"/>
+        <v>49.000000000000014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="117">
+        <v>12</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" s="65">
+        <v>9.15</v>
+      </c>
+      <c r="F12" s="65">
+        <v>60</v>
+      </c>
+      <c r="G12" s="65">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+      <c r="H12" s="95">
+        <v>9.15</v>
+      </c>
+      <c r="I12" s="65">
+        <v>10</v>
+      </c>
+      <c r="J12" s="118">
+        <f t="shared" si="1"/>
+        <v>-50.999999999999979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="117">
+        <v>13</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="65">
+        <v>8.5</v>
+      </c>
+      <c r="F13" s="65">
+        <v>115</v>
+      </c>
+      <c r="G13" s="65">
+        <f t="shared" si="0"/>
+        <v>977.5</v>
+      </c>
+      <c r="H13" s="95">
+        <v>8.5</v>
+      </c>
+      <c r="I13" s="65">
+        <v>3</v>
+      </c>
+      <c r="J13" s="118">
+        <f t="shared" si="1"/>
+        <v>632.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="117">
+        <v>14</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="65">
+        <v>13.6</v>
+      </c>
+      <c r="F14" s="65">
+        <v>35</v>
+      </c>
+      <c r="G14" s="65">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="H14" s="95">
+        <v>13.6</v>
+      </c>
+      <c r="I14" s="65">
+        <v>6</v>
+      </c>
+      <c r="J14" s="118">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="117">
+        <v>15</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="65">
+        <v>0</v>
+      </c>
+      <c r="F15" s="65">
+        <v>135</v>
+      </c>
+      <c r="G15" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="95">
+        <v>0</v>
+      </c>
+      <c r="I15" s="65">
+        <v>1</v>
+      </c>
+      <c r="J15" s="118">
+        <f t="shared" si="1"/>
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="119">
+        <v>16</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="68">
+        <v>75</v>
+      </c>
+      <c r="F16" s="68">
+        <v>10</v>
+      </c>
+      <c r="G16" s="68">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="H16" s="105">
+        <v>75</v>
+      </c>
+      <c r="I16" s="68">
+        <v>0</v>
+      </c>
+      <c r="J16" s="120">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" s="117">
+        <v>17</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="65">
+        <v>49.9</v>
+      </c>
+      <c r="F17" s="65">
+        <v>20</v>
+      </c>
+      <c r="G17" s="65">
+        <f t="shared" si="0"/>
+        <v>998</v>
+      </c>
+      <c r="H17" s="95">
+        <v>49.9</v>
+      </c>
+      <c r="I17" s="65">
+        <v>0</v>
+      </c>
+      <c r="J17" s="118">
+        <f t="shared" si="1"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="117">
+        <v>18</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="65">
+        <v>48</v>
+      </c>
+      <c r="G18" s="65">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H18" s="95">
+        <v>7.5</v>
+      </c>
+      <c r="I18" s="65">
+        <v>0</v>
+      </c>
+      <c r="J18" s="118">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" s="117">
+        <v>19</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="65">
+        <v>2.6</v>
+      </c>
+      <c r="F19" s="65">
+        <v>35</v>
+      </c>
+      <c r="G19" s="65">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="H19" s="95">
+        <v>2.6</v>
+      </c>
+      <c r="I19" s="65">
+        <v>0</v>
+      </c>
+      <c r="J19" s="118">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="117">
+        <v>20</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="65">
+        <v>3</v>
+      </c>
+      <c r="F20" s="65">
+        <v>100</v>
+      </c>
+      <c r="G20" s="65">
+        <f>E20*F20</f>
+        <v>300</v>
+      </c>
+      <c r="H20" s="95">
+        <v>3</v>
+      </c>
+      <c r="I20" s="65">
+        <v>0</v>
+      </c>
+      <c r="J20" s="118">
+        <f>(H20-I20)*F20</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
+      <c r="A21" s="117">
+        <v>21</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="65">
+        <v>0</v>
+      </c>
+      <c r="F21" s="65">
+        <v>750</v>
+      </c>
+      <c r="G21" s="65">
+        <f>E21*F21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="95">
+        <v>0</v>
+      </c>
+      <c r="I21" s="65">
+        <v>3</v>
+      </c>
+      <c r="J21" s="118">
+        <f>(H21-I21)*F21</f>
+        <v>-2250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="152" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="154">
+        <f>SUM(J1:J21)</f>
+        <v>-5557.7999999999993</v>
+      </c>
+      <c r="I22" s="154"/>
+      <c r="J22" s="155"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="152" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="153"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="154">
+        <f>H22*0.05</f>
+        <v>-277.89</v>
+      </c>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="152" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="154">
+        <f>H22*0.05</f>
+        <v>-277.89</v>
+      </c>
+      <c r="I24" s="154"/>
+      <c r="J24" s="155"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A25" s="148" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="150">
+        <f>(H22+H23+H24)*0.95</f>
+        <v>-5807.9009999999998</v>
+      </c>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="H24:J24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
